--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>609546223</v>
+        <v>612263893</v>
       </c>
       <c r="E2" t="n">
-        <v>1182738780</v>
+        <v>1187924089</v>
       </c>
       <c r="F2" t="n">
-        <v>16253.31645263183</v>
+        <v>19053.2661067364</v>
       </c>
       <c r="G2" t="n">
-        <v>37757.15354431773</v>
+        <v>38906.10929470921</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>21368676</v>
+        <v>22226133</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1360574</v>
+        <v>1360786</v>
       </c>
       <c r="E3" t="n">
-        <v>4397932</v>
+        <v>4398619</v>
       </c>
       <c r="F3" t="n">
-        <v>2030.631110310514</v>
+        <v>3469.052229773832</v>
       </c>
       <c r="G3" t="n">
-        <v>4626.025660783037</v>
+        <v>3873.802863644513</v>
       </c>
       <c r="H3" t="n">
         <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>62603</v>
+        <v>75669</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243923277</v>
+        <v>243754382</v>
       </c>
       <c r="E4" t="n">
-        <v>1529608583</v>
+        <v>1528549467</v>
       </c>
       <c r="F4" t="n">
-        <v>138583.4969136336</v>
+        <v>139422.435272433</v>
       </c>
       <c r="G4" t="n">
-        <v>147822.3397775031</v>
+        <v>132793.0377515441</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>15348592</v>
+        <v>15624569</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140309150</v>
+        <v>140753605</v>
       </c>
       <c r="E5" t="n">
-        <v>155484949</v>
+        <v>155977476</v>
       </c>
       <c r="F5" t="n">
-        <v>8890.257582030999</v>
+        <v>10422.17362238666</v>
       </c>
       <c r="G5" t="n">
-        <v>27478.2402553255</v>
+        <v>27429.69191652803</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>31038973</v>
+        <v>31793395</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>705849</v>
+        <v>676503</v>
       </c>
       <c r="E6" t="n">
-        <v>13712911</v>
+        <v>13142795</v>
       </c>
       <c r="F6" t="n">
-        <v>6885.438124189076</v>
+        <v>341.5268061115457</v>
       </c>
       <c r="G6" t="n">
-        <v>214.8665795965719</v>
+        <v>304.5226420780343</v>
       </c>
       <c r="H6" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="I6" t="n">
-        <v>24951</v>
+        <v>26342</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>470473492</v>
+        <v>469794426</v>
       </c>
       <c r="E7" t="n">
-        <v>470473494</v>
+        <v>469794426</v>
       </c>
       <c r="F7" t="n">
-        <v>37985.0414841913</v>
+        <v>37269.91259809482</v>
       </c>
       <c r="G7" t="n">
-        <v>51796.49203821606</v>
+        <v>56042.71366165781</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>47375401</v>
+        <v>54529148</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4694830</v>
+        <v>4698484</v>
       </c>
       <c r="E8" t="n">
-        <v>4694830</v>
+        <v>4698484</v>
       </c>
       <c r="F8" t="n">
-        <v>936.8676590831025</v>
+        <v>865.5314549536372</v>
       </c>
       <c r="G8" t="n">
-        <v>1364.913359034153</v>
+        <v>1508.651395730968</v>
       </c>
       <c r="H8" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1978738</v>
+        <v>1936202</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1729750</v>
+        <v>1715557</v>
       </c>
       <c r="F9" t="n">
-        <v>4081.219887719919</v>
+        <v>4013.365599618094</v>
       </c>
       <c r="G9" t="n">
-        <v>2305.146630200769</v>
+        <v>2256.214565380547</v>
       </c>
       <c r="H9" t="n">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>94451</v>
+        <v>102508</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1547677</v>
+        <v>1541157</v>
       </c>
       <c r="F10" t="n">
-        <v>138.6055310831083</v>
+        <v>231.6856461551115</v>
       </c>
       <c r="G10" t="n">
-        <v>96.18083891814797</v>
+        <v>1941.95211377892</v>
       </c>
       <c r="H10" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="I10" t="n">
-        <v>172133</v>
+        <v>111649</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103186562</v>
+        <v>103778265</v>
       </c>
       <c r="E11" t="n">
-        <v>194391250</v>
+        <v>195505948</v>
       </c>
       <c r="F11" t="n">
-        <v>1553.48700101396</v>
+        <v>1513.723525557569</v>
       </c>
       <c r="G11" t="n">
-        <v>2351.701729459258</v>
+        <v>2312.560907982048</v>
       </c>
       <c r="H11" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4250815</v>
+        <v>4277655</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12207796</v>
+        <v>12513935</v>
       </c>
       <c r="E12" t="n">
-        <v>32953523</v>
+        <v>32895545</v>
       </c>
       <c r="F12" t="n">
-        <v>917.5698585771007</v>
+        <v>920.3163830505814</v>
       </c>
       <c r="G12" t="n">
-        <v>1137.74804602141</v>
+        <v>1438.927203871675</v>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="I12" t="n">
-        <v>1801583</v>
+        <v>1652540</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107860345</v>
+        <v>107647707</v>
       </c>
       <c r="E13" t="n">
-        <v>420079987</v>
+        <v>419203260</v>
       </c>
       <c r="F13" t="n">
-        <v>13082.09865922339</v>
+        <v>24482.55070419833</v>
       </c>
       <c r="G13" t="n">
-        <v>32185.53979661868</v>
+        <v>32069.38580514486</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>6584720</v>
+        <v>6565327</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5290488</v>
+        <v>5238828</v>
       </c>
       <c r="E14" t="n">
-        <v>7787885</v>
+        <v>7711839</v>
       </c>
       <c r="F14" t="n">
-        <v>2352.086043221785</v>
+        <v>1427.650084336839</v>
       </c>
       <c r="G14" t="n">
-        <v>8754.261262417029</v>
+        <v>8561.323890191166</v>
       </c>
       <c r="H14" t="n">
         <v>1.28</v>
       </c>
       <c r="I14" t="n">
-        <v>557729</v>
+        <v>541852</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>135393359</v>
+        <v>134958656</v>
       </c>
       <c r="E15" t="n">
-        <v>135393359</v>
+        <v>134958656</v>
       </c>
       <c r="F15" t="n">
-        <v>52288.80550774112</v>
+        <v>45498.07478437662</v>
       </c>
       <c r="G15" t="n">
-        <v>78342.50705814878</v>
+        <v>86928.71483588684</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>65616962</v>
+        <v>66611215</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65783718</v>
+        <v>64679862</v>
       </c>
       <c r="E16" t="n">
-        <v>337352402</v>
+        <v>331691602</v>
       </c>
       <c r="F16" t="n">
-        <v>18476.21129298994</v>
+        <v>16492.18707040805</v>
       </c>
       <c r="G16" t="n">
-        <v>31033.65385404616</v>
+        <v>18717.26760296599</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>15952697</v>
+        <v>16830720</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253099368</v>
+        <v>252275289</v>
       </c>
       <c r="E17" t="n">
-        <v>253099368</v>
+        <v>252275289</v>
       </c>
       <c r="F17" t="n">
-        <v>53390.616151296</v>
+        <v>52184.69757699023</v>
       </c>
       <c r="G17" t="n">
-        <v>57600.32208285843</v>
+        <v>57374.99918127378</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>14128376</v>
+        <v>14350670</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2531677</v>
+        <v>2539030</v>
       </c>
       <c r="E18" t="n">
-        <v>6472451</v>
+        <v>6491250</v>
       </c>
       <c r="F18" t="n">
-        <v>704.1721688563662</v>
+        <v>1048.768825231993</v>
       </c>
       <c r="G18" t="n">
-        <v>954.4852635393087</v>
+        <v>1735.652001735503</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>85472</v>
+        <v>84453</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75747858</v>
+        <v>75696274</v>
       </c>
       <c r="E19" t="n">
-        <v>212010972</v>
+        <v>211828480</v>
       </c>
       <c r="F19" t="n">
-        <v>20256.23140539198</v>
+        <v>17679.76798461014</v>
       </c>
       <c r="G19" t="n">
-        <v>15473.89912689285</v>
+        <v>21248.19760348825</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>23642517</v>
+        <v>29672003</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1507945</v>
+        <v>1574334</v>
       </c>
       <c r="E20" t="n">
-        <v>8658056</v>
+        <v>9039237</v>
       </c>
       <c r="F20" t="n">
-        <v>737.7526874637788</v>
+        <v>521.5277391295841</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2634854369447</v>
+        <v>264.7592202384168</v>
       </c>
       <c r="H20" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="I20" t="n">
-        <v>261406</v>
+        <v>324392</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>153778</v>
+        <v>153344</v>
       </c>
       <c r="E21" t="n">
-        <v>1038479</v>
+        <v>1035546</v>
       </c>
       <c r="F21" t="n">
-        <v>4.94350544947704</v>
+        <v>36.78950947945569</v>
       </c>
       <c r="G21" t="n">
-        <v>2.488215695483428</v>
+        <v>5.769811385442574</v>
       </c>
       <c r="H21" t="n">
-        <v>1.33</v>
+        <v>0.66</v>
       </c>
       <c r="I21" t="n">
-        <v>2633366</v>
+        <v>2624985</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>270728</v>
+        <v>270106</v>
       </c>
       <c r="F22" t="n">
-        <v>33.24408198016137</v>
+        <v>173.682587051356</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9723820483055</v>
+        <v>145.2205438696558</v>
       </c>
       <c r="H22" t="n">
-        <v>1.67</v>
+        <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>3444.63</v>
+        <v>2641.93</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72170862</v>
+        <v>72321520</v>
       </c>
       <c r="E23" t="n">
-        <v>150512897</v>
+        <v>150827095</v>
       </c>
       <c r="F23" t="n">
-        <v>33432.98550677286</v>
+        <v>39193.58133192304</v>
       </c>
       <c r="G23" t="n">
-        <v>44697.78804071344</v>
+        <v>49343.26646082303</v>
       </c>
       <c r="H23" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>13823854</v>
+        <v>14095480</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>198647550</v>
+        <v>197035628</v>
       </c>
       <c r="E24" t="n">
-        <v>690119542</v>
+        <v>684519578</v>
       </c>
       <c r="F24" t="n">
-        <v>62243.51455761182</v>
+        <v>59997.61731029931</v>
       </c>
       <c r="G24" t="n">
-        <v>59488.4826791391</v>
+        <v>64260.17979941796</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>25590490</v>
+        <v>26049761</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>113876042</v>
+        <v>115464744</v>
       </c>
       <c r="E25" t="n">
-        <v>484761048</v>
+        <v>491420759</v>
       </c>
       <c r="F25" t="n">
-        <v>17527.02441333665</v>
+        <v>17493.73828232971</v>
       </c>
       <c r="G25" t="n">
-        <v>17934.87071425735</v>
+        <v>17327.78585139167</v>
       </c>
       <c r="H25" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>11054417</v>
+        <v>11443723</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5973913</v>
+        <v>5897094</v>
       </c>
       <c r="E26" t="n">
-        <v>8118930</v>
+        <v>8014294</v>
       </c>
       <c r="F26" t="n">
-        <v>1211.390329071427</v>
+        <v>233.8266336360146</v>
       </c>
       <c r="G26" t="n">
-        <v>1904.535569885152</v>
+        <v>2814.961731704634</v>
       </c>
       <c r="H26" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="I26" t="n">
-        <v>6429718</v>
+        <v>6456529</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>523686</v>
+        <v>531143</v>
       </c>
       <c r="E27" t="n">
-        <v>6351802</v>
+        <v>6442242</v>
       </c>
       <c r="F27" t="n">
-        <v>572.3705231257943</v>
+        <v>665.3762580019154</v>
       </c>
       <c r="G27" t="n">
-        <v>910.853426192249</v>
+        <v>811.3870475058706</v>
       </c>
       <c r="H27" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>2870963</v>
+        <v>2919876</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25429632</v>
+        <v>25228140</v>
       </c>
       <c r="E28" t="n">
-        <v>35943791</v>
+        <v>35658991</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1362.729640349551</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>127.9814197404856</v>
       </c>
       <c r="H28" t="n">
-        <v>4.62</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>80198</v>
+        <v>84840</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1274980419</v>
+        <v>1280657944</v>
       </c>
       <c r="E29" t="n">
-        <v>6113792219</v>
+        <v>6141017113</v>
       </c>
       <c r="F29" t="n">
-        <v>199819.1962529189</v>
+        <v>174804.6343425504</v>
       </c>
       <c r="G29" t="n">
-        <v>242199.3166004734</v>
+        <v>253541.619443814</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>193125736</v>
+        <v>197545141</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>272479641</v>
+        <v>269121544</v>
       </c>
       <c r="E30" t="n">
-        <v>1176173397</v>
+        <v>1161677985</v>
       </c>
       <c r="F30" t="n">
-        <v>177818.6551389275</v>
+        <v>196686.1580969875</v>
       </c>
       <c r="G30" t="n">
-        <v>227775.2131421341</v>
+        <v>227476.9482917431</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>109906640</v>
+        <v>110916025</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5337393</v>
+        <v>5338465</v>
       </c>
       <c r="E31" t="n">
-        <v>5343434</v>
+        <v>5344507</v>
       </c>
       <c r="F31" t="n">
-        <v>156.9930802600228</v>
+        <v>127.467954969849</v>
       </c>
       <c r="G31" t="n">
-        <v>138.5251973774691</v>
+        <v>139.6999413301</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>163005</v>
+        <v>161907</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21538901</v>
+        <v>21550370</v>
       </c>
       <c r="E32" t="n">
-        <v>53847253</v>
+        <v>53875924</v>
       </c>
       <c r="F32" t="n">
-        <v>2038.197218746765</v>
+        <v>2372.13186315713</v>
       </c>
       <c r="G32" t="n">
-        <v>6522.324701548519</v>
+        <v>8283.379347122422</v>
       </c>
       <c r="H32" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I32" t="n">
-        <v>2164116</v>
+        <v>2189056</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20371372</v>
+        <v>20257290</v>
       </c>
       <c r="F33" t="n">
-        <v>834.6521932845274</v>
+        <v>718.6716766870817</v>
       </c>
       <c r="G33" t="n">
-        <v>2069.925255676178</v>
+        <v>1845.786049398989</v>
       </c>
       <c r="H33" t="n">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>116754</v>
+        <v>126496</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3513524</v>
+        <v>3491942</v>
       </c>
       <c r="E34" t="n">
-        <v>10120385</v>
+        <v>10058220</v>
       </c>
       <c r="F34" t="n">
-        <v>1647.301130621414</v>
+        <v>1603.502337300493</v>
       </c>
       <c r="G34" t="n">
-        <v>693.1459438131168</v>
+        <v>448.5031167997855</v>
       </c>
       <c r="H34" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="I34" t="n">
-        <v>410356</v>
+        <v>357049</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1753060</v>
+        <v>1666316</v>
       </c>
       <c r="F35" t="n">
-        <v>57.33030631048166</v>
+        <v>57.40553848933442</v>
       </c>
       <c r="G35" t="n">
-        <v>97.57647642818402</v>
+        <v>5.866884639349191</v>
       </c>
       <c r="H35" t="n">
-        <v>1.14</v>
+        <v>2.27</v>
       </c>
       <c r="I35" t="n">
-        <v>17914.96</v>
+        <v>16935.82</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14198951</v>
+        <v>14115051</v>
       </c>
       <c r="E36" t="n">
-        <v>68767785</v>
+        <v>68361446</v>
       </c>
       <c r="F36" t="n">
-        <v>4684.262081962808</v>
+        <v>3084.686476773206</v>
       </c>
       <c r="G36" t="n">
-        <v>7844.570688168928</v>
+        <v>11157.04746306652</v>
       </c>
       <c r="H36" t="n">
         <v>0.18</v>
       </c>
       <c r="I36" t="n">
-        <v>3546288</v>
+        <v>3545556</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1473010</v>
+        <v>1475945</v>
       </c>
       <c r="E37" t="n">
-        <v>9640808</v>
+        <v>9660019</v>
       </c>
       <c r="F37" t="n">
-        <v>572.5158367871242</v>
+        <v>853.1920731655678</v>
       </c>
       <c r="G37" t="n">
-        <v>24.19109403301259</v>
+        <v>38.49614403131916</v>
       </c>
       <c r="H37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I37" t="n">
-        <v>662459</v>
+        <v>601969</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1855487834</v>
+        <v>1868072039</v>
       </c>
       <c r="F38" t="n">
-        <v>73035.23397319132</v>
+        <v>74801.42272410303</v>
       </c>
       <c r="G38" t="n">
-        <v>73048.97755523132</v>
+        <v>79101.07767030613</v>
       </c>
       <c r="H38" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I38" t="n">
-        <v>25044545</v>
+        <v>25581089</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32453864</v>
+        <v>31592745</v>
       </c>
       <c r="E39" t="n">
-        <v>101050920</v>
+        <v>98369670</v>
       </c>
       <c r="F39" t="n">
-        <v>5820.964002146746</v>
+        <v>4893.978825366088</v>
       </c>
       <c r="G39" t="n">
-        <v>8550.199365013692</v>
+        <v>7909.126407528</v>
       </c>
       <c r="H39" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>12234839</v>
+        <v>12141598</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>199568498</v>
+        <v>196769797</v>
       </c>
       <c r="E40" t="n">
-        <v>1130079461</v>
+        <v>1114231497</v>
       </c>
       <c r="F40" t="n">
-        <v>42888.657150397</v>
+        <v>42119.85083451572</v>
       </c>
       <c r="G40" t="n">
-        <v>74822.38788468514</v>
+        <v>79160.6341351818</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>57761520</v>
+        <v>59637853</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>137313941</v>
+        <v>137954750</v>
       </c>
       <c r="E41" t="n">
-        <v>1017140303</v>
+        <v>1021887038</v>
       </c>
       <c r="F41" t="n">
-        <v>109217.3270490069</v>
+        <v>133638.7424243003</v>
       </c>
       <c r="G41" t="n">
-        <v>231156.2610415247</v>
+        <v>208882.9409861178</v>
       </c>
       <c r="H41" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>12805661</v>
+        <v>12486716</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30670064</v>
+        <v>32617916</v>
       </c>
       <c r="E42" t="n">
-        <v>145899261</v>
+        <v>155165305</v>
       </c>
       <c r="F42" t="n">
-        <v>7695.350660259466</v>
+        <v>20607.2835592912</v>
       </c>
       <c r="G42" t="n">
-        <v>7869.569561259867</v>
+        <v>10654.13673428044</v>
       </c>
       <c r="H42" t="n">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="I42" t="n">
-        <v>904736</v>
+        <v>1070173</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3316875</v>
+        <v>3502302</v>
       </c>
       <c r="E43" t="n">
-        <v>7745455</v>
+        <v>8178458</v>
       </c>
       <c r="F43" t="n">
-        <v>828.5026359173738</v>
+        <v>1619.346521272376</v>
       </c>
       <c r="G43" t="n">
-        <v>1286.429287021627</v>
+        <v>1236.428198432776</v>
       </c>
       <c r="H43" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="I43" t="n">
-        <v>778280</v>
+        <v>779504</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>334942843</v>
+        <v>335283447</v>
       </c>
       <c r="E44" t="n">
-        <v>3013353507</v>
+        <v>3016417793</v>
       </c>
       <c r="F44" t="n">
-        <v>46594.61099636004</v>
+        <v>45699.13940240847</v>
       </c>
       <c r="G44" t="n">
-        <v>53651.11638432169</v>
+        <v>39894.09547710067</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37042269</v>
+        <v>37605575</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>647826</v>
+        <v>650501</v>
       </c>
       <c r="F45" t="n">
-        <v>221.3410588913923</v>
+        <v>394.2736084871476</v>
       </c>
       <c r="G45" t="n">
-        <v>410.4484930204995</v>
+        <v>230.3648905642246</v>
       </c>
       <c r="H45" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4965.93</v>
+        <v>6173.19</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1602965</v>
+        <v>1589135</v>
       </c>
       <c r="E46" t="n">
-        <v>13358044</v>
+        <v>13242792</v>
       </c>
       <c r="F46" t="n">
-        <v>513.4505239804132</v>
+        <v>314.8012073730099</v>
       </c>
       <c r="G46" t="n">
-        <v>540.2526397503921</v>
+        <v>708.5750448768356</v>
       </c>
       <c r="H46" t="n">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="I46" t="n">
-        <v>46722</v>
+        <v>48713</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4912214</v>
+        <v>4913412</v>
       </c>
       <c r="E47" t="n">
-        <v>17358411</v>
+        <v>17362648</v>
       </c>
       <c r="F47" t="n">
-        <v>1103.845308271435</v>
+        <v>1099.567560582909</v>
       </c>
       <c r="G47" t="n">
-        <v>1403.810469284609</v>
+        <v>1580.392517522421</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="I47" t="n">
-        <v>107419</v>
+        <v>108096</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42570125</v>
+        <v>42545149</v>
       </c>
       <c r="E48" t="n">
-        <v>246463433</v>
+        <v>246318834</v>
       </c>
       <c r="F48" t="n">
-        <v>24667.36723121546</v>
+        <v>21632.63646647922</v>
       </c>
       <c r="G48" t="n">
-        <v>13265.91925211728</v>
+        <v>14274.09979742138</v>
       </c>
       <c r="H48" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="I48" t="n">
-        <v>10335292</v>
+        <v>10841319</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2392500</v>
+        <v>2398394</v>
       </c>
       <c r="E49" t="n">
-        <v>13144801</v>
+        <v>13177183</v>
       </c>
       <c r="F49" t="n">
-        <v>307.7194412923578</v>
+        <v>261.8184530960355</v>
       </c>
       <c r="G49" t="n">
-        <v>556.0758040360853</v>
+        <v>378.8322484814585</v>
       </c>
       <c r="H49" t="n">
-        <v>1.53</v>
+        <v>2.24</v>
       </c>
       <c r="I49" t="n">
-        <v>55200</v>
+        <v>64629</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13624184</v>
+        <v>13622200</v>
       </c>
       <c r="E50" t="n">
-        <v>13670548</v>
+        <v>13668558</v>
       </c>
       <c r="F50" t="n">
-        <v>4070.202941650033</v>
+        <v>4566.165390850088</v>
       </c>
       <c r="G50" t="n">
-        <v>9445.851500964942</v>
+        <v>4455.046787640391</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5580815</v>
+        <v>5778353</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25180630</v>
+        <v>25841433</v>
       </c>
       <c r="E51" t="n">
-        <v>75481114</v>
+        <v>77461493</v>
       </c>
       <c r="F51" t="n">
-        <v>9210.017594462184</v>
+        <v>8643.325271096874</v>
       </c>
       <c r="G51" t="n">
-        <v>24808.13197021137</v>
+        <v>26985.93461018562</v>
       </c>
       <c r="H51" t="n">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="I51" t="n">
-        <v>2178897</v>
+        <v>2278244</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15270901</v>
+        <v>15238563</v>
       </c>
       <c r="E52" t="n">
-        <v>93600371</v>
+        <v>93402161</v>
       </c>
       <c r="F52" t="n">
-        <v>5809.076703137255</v>
+        <v>6827.273563560604</v>
       </c>
       <c r="G52" t="n">
-        <v>10614.74329795354</v>
+        <v>11518.55575495454</v>
       </c>
       <c r="H52" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>11650587</v>
+        <v>11714436</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46261305</v>
+        <v>46126753</v>
       </c>
       <c r="E53" t="n">
-        <v>199288641</v>
+        <v>198709010</v>
       </c>
       <c r="F53" t="n">
-        <v>24588.31880672858</v>
+        <v>21096.0531916181</v>
       </c>
       <c r="G53" t="n">
-        <v>26027.66783521109</v>
+        <v>24746.10864601063</v>
       </c>
       <c r="H53" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8540621</v>
+        <v>8712325</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1016752</v>
+        <v>1011728</v>
       </c>
       <c r="E54" t="n">
-        <v>2971789</v>
+        <v>2957104</v>
       </c>
       <c r="F54" t="n">
-        <v>561.4583657838349</v>
+        <v>543.8194282701619</v>
       </c>
       <c r="G54" t="n">
-        <v>390.2548880929033</v>
+        <v>365.541741395046</v>
       </c>
       <c r="H54" t="n">
         <v>0.66</v>
       </c>
       <c r="I54" t="n">
-        <v>13115.71</v>
+        <v>8804.200000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35386515</v>
+        <v>35541858</v>
       </c>
       <c r="E55" t="n">
-        <v>89227802</v>
+        <v>89619504</v>
       </c>
       <c r="F55" t="n">
-        <v>16680.57342228656</v>
+        <v>17061.05676920321</v>
       </c>
       <c r="G55" t="n">
-        <v>9376.031950164715</v>
+        <v>10384.59435336052</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2732282</v>
+        <v>2754025</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29262472</v>
+        <v>28082779</v>
       </c>
       <c r="E56" t="n">
-        <v>69520357</v>
+        <v>66717701</v>
       </c>
       <c r="F56" t="n">
-        <v>14074.3414227881</v>
+        <v>13889.79627123978</v>
       </c>
       <c r="G56" t="n">
-        <v>9923.786726773111</v>
+        <v>13701.27424001595</v>
       </c>
       <c r="H56" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>599287</v>
+        <v>602820</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12027910</v>
+        <v>12030349</v>
       </c>
       <c r="E57" t="n">
-        <v>18331327</v>
+        <v>18335045</v>
       </c>
       <c r="F57" t="n">
-        <v>3828.348778812025</v>
+        <v>6489.202008422993</v>
       </c>
       <c r="G57" t="n">
-        <v>1961.888524560906</v>
+        <v>7020.251816843065</v>
       </c>
       <c r="H57" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="I57" t="n">
-        <v>809877</v>
+        <v>662999</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>299511641</v>
+        <v>299981943</v>
       </c>
       <c r="E58" t="n">
-        <v>299511641</v>
+        <v>299981943</v>
       </c>
       <c r="F58" t="n">
-        <v>50992.61732290503</v>
+        <v>42242.82787562491</v>
       </c>
       <c r="G58" t="n">
-        <v>81918.26616582136</v>
+        <v>82031.32419990408</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>52971772</v>
+        <v>52531781</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>12005784</v>
+        <v>11957931</v>
       </c>
       <c r="F59" t="n">
-        <v>135.6684074130159</v>
+        <v>177.4747919965986</v>
       </c>
       <c r="G59" t="n">
-        <v>142.0867068501255</v>
+        <v>83.57141537709836</v>
       </c>
       <c r="H59" t="n">
         <v>1.06</v>
       </c>
       <c r="I59" t="n">
-        <v>160674</v>
+        <v>159537</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>87760960</v>
+        <v>87628516</v>
       </c>
       <c r="E60" t="n">
-        <v>505716504</v>
+        <v>504953306</v>
       </c>
       <c r="F60" t="n">
-        <v>93055.13841693352</v>
+        <v>95467.38861867825</v>
       </c>
       <c r="G60" t="n">
-        <v>94452.9398354263</v>
+        <v>91779.78034500685</v>
       </c>
       <c r="H60" t="n">
         <v>0.2</v>
       </c>
       <c r="I60" t="n">
-        <v>15527816</v>
+        <v>15839156</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9270440</v>
+        <v>9284234</v>
       </c>
       <c r="E61" t="n">
-        <v>9270440</v>
+        <v>9284234</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>9.289999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="I61" t="n">
-        <v>2062894</v>
+        <v>2039897</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30273577</v>
+        <v>30259407</v>
       </c>
       <c r="E62" t="n">
-        <v>135547224</v>
+        <v>135483779</v>
       </c>
       <c r="F62" t="n">
-        <v>15871.14440410767</v>
+        <v>17341.13080793572</v>
       </c>
       <c r="G62" t="n">
-        <v>31458.8177939063</v>
+        <v>20762.37191049032</v>
       </c>
       <c r="H62" t="n">
         <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>10092924</v>
+        <v>9871566</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13089738</v>
+        <v>13103042</v>
       </c>
       <c r="E63" t="n">
-        <v>26168046</v>
+        <v>26194643</v>
       </c>
       <c r="F63" t="n">
-        <v>1654.224435244963</v>
+        <v>2094.127955510832</v>
       </c>
       <c r="G63" t="n">
-        <v>2139.372298755955</v>
+        <v>1996.755936900624</v>
       </c>
       <c r="H63" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>43005</v>
+        <v>41284</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1449204</v>
+        <v>1561589</v>
       </c>
       <c r="F64" t="n">
-        <v>10.52663088511469</v>
+        <v>85.64104339160903</v>
       </c>
       <c r="G64" t="n">
-        <v>1.385908799957945</v>
+        <v>104.5923016369417</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>2.58</v>
       </c>
       <c r="I64" t="n">
-        <v>60967</v>
+        <v>71018</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47581850</v>
+        <v>47505742</v>
       </c>
       <c r="E65" t="n">
-        <v>308555633</v>
+        <v>308062096</v>
       </c>
       <c r="F65" t="n">
-        <v>20429.78095522805</v>
+        <v>17682.21091128575</v>
       </c>
       <c r="G65" t="n">
-        <v>15748.40741926408</v>
+        <v>17374.67936518732</v>
       </c>
       <c r="H65" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I65" t="n">
-        <v>16486127</v>
+        <v>17225690</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4775057</v>
+        <v>4762793</v>
       </c>
       <c r="F66" t="n">
-        <v>1355.951740764889</v>
+        <v>1399.629772032889</v>
       </c>
       <c r="G66" t="n">
-        <v>1274.066220736986</v>
+        <v>1366.934792935077</v>
       </c>
       <c r="H66" t="n">
         <v>0.92</v>
       </c>
       <c r="I66" t="n">
-        <v>150099</v>
+        <v>154046</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125042664</v>
+        <v>125005363</v>
       </c>
       <c r="E67" t="n">
-        <v>2070808936</v>
+        <v>2070191190</v>
       </c>
       <c r="F67" t="n">
-        <v>20759.26372746025</v>
+        <v>22550.52319789408</v>
       </c>
       <c r="G67" t="n">
-        <v>22092.05863229571</v>
+        <v>24559.23160048748</v>
       </c>
       <c r="H67" t="n">
         <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>5464012</v>
+        <v>5174646</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23419471</v>
+        <v>23472252</v>
       </c>
       <c r="E68" t="n">
-        <v>140123401</v>
+        <v>140439201</v>
       </c>
       <c r="F68" t="n">
-        <v>45719.76513679556</v>
+        <v>44298.82888492054</v>
       </c>
       <c r="G68" t="n">
-        <v>42734.18944397027</v>
+        <v>44847.62830078298</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>13707164</v>
+        <v>13444729</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23089745</v>
+        <v>23338607</v>
       </c>
       <c r="E70" t="n">
-        <v>23089745</v>
+        <v>23338607</v>
       </c>
       <c r="F70" t="n">
-        <v>5929.850245412735</v>
+        <v>2920.804440143193</v>
       </c>
       <c r="G70" t="n">
-        <v>2519.15834869055</v>
+        <v>2408.742110835698</v>
       </c>
       <c r="H70" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1792473</v>
+        <v>1873043</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34191677</v>
+        <v>33909263</v>
       </c>
       <c r="E71" t="n">
-        <v>170632228</v>
+        <v>169222854</v>
       </c>
       <c r="F71" t="n">
-        <v>17979.76154551984</v>
+        <v>18744.54781055673</v>
       </c>
       <c r="G71" t="n">
-        <v>34784.49633646286</v>
+        <v>33004.5949730893</v>
       </c>
       <c r="H71" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>9355634</v>
+        <v>9607410</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>176847</v>
+        <v>176155</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>19644.84</v>
+        <v>16387.9</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>314165480</v>
+        <v>313408319</v>
       </c>
       <c r="E73" t="n">
-        <v>581277782</v>
+        <v>579876862</v>
       </c>
       <c r="F73" t="n">
-        <v>67489.60988454419</v>
+        <v>63138.41428582238</v>
       </c>
       <c r="G73" t="n">
-        <v>77245.80373977123</v>
+        <v>73531.0827196044</v>
       </c>
       <c r="H73" t="n">
         <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>12968351</v>
+        <v>12106561</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9297879</v>
+        <v>9549590</v>
       </c>
       <c r="E74" t="n">
-        <v>27727978</v>
+        <v>28478625</v>
       </c>
       <c r="F74" t="n">
-        <v>792.2843734303218</v>
+        <v>1248.059379769982</v>
       </c>
       <c r="G74" t="n">
-        <v>4842.723940342556</v>
+        <v>1762.339434339364</v>
       </c>
       <c r="H74" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="I74" t="n">
-        <v>3802565</v>
+        <v>4839593</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7863079</v>
+        <v>7858185</v>
       </c>
       <c r="E75" t="n">
-        <v>11203086</v>
+        <v>11196113</v>
       </c>
       <c r="F75" t="n">
-        <v>2785.989690634444</v>
+        <v>2919.859541893928</v>
       </c>
       <c r="G75" t="n">
-        <v>1190.948302931936</v>
+        <v>593.6221293535028</v>
       </c>
       <c r="H75" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I75" t="n">
-        <v>346207</v>
+        <v>326560</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16224251</v>
+        <v>16251764</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2988613409698807</v>
+        <v>0.2988916960852642</v>
       </c>
       <c r="G76" t="n">
-        <v>13.25115601491293</v>
+        <v>13.15242664777884</v>
       </c>
       <c r="H76" t="n">
         <v>1.77</v>
       </c>
       <c r="I76" t="n">
-        <v>1000819</v>
+        <v>997242</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61239841</v>
+        <v>61307911</v>
       </c>
       <c r="E77" t="n">
-        <v>101315162</v>
+        <v>101427776</v>
       </c>
       <c r="F77" t="n">
-        <v>9286.045479567034</v>
+        <v>8737.147398560461</v>
       </c>
       <c r="G77" t="n">
-        <v>23503.29597904328</v>
+        <v>20770.27561343217</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I77" t="n">
-        <v>5576612</v>
+        <v>5635357</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5428486</v>
+        <v>5176048</v>
       </c>
       <c r="E78" t="n">
-        <v>5428486</v>
+        <v>5176048</v>
       </c>
       <c r="F78" t="n">
-        <v>68.28640081457812</v>
+        <v>19.98203890744448</v>
       </c>
       <c r="G78" t="n">
-        <v>56.77483079192529</v>
+        <v>373.4632270699261</v>
       </c>
       <c r="H78" t="n">
         <v>2.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1124031</v>
+        <v>1101333</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>82800</v>
+        <v>58518</v>
       </c>
       <c r="E79" t="n">
-        <v>432018</v>
+        <v>305322</v>
       </c>
       <c r="F79" t="n">
-        <v>55.77185866122471</v>
+        <v>25.45008285028272</v>
       </c>
       <c r="G79" t="n">
-        <v>60.69374939530682</v>
+        <v>103.9903778669175</v>
       </c>
       <c r="H79" t="n">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="I79" t="n">
-        <v>239366</v>
+        <v>299844</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>28226189</v>
+        <v>28831444</v>
       </c>
       <c r="F80" t="n">
-        <v>1689.182167960279</v>
+        <v>3707.114401548822</v>
       </c>
       <c r="G80" t="n">
-        <v>1561.153832007434</v>
+        <v>1335.903645572071</v>
       </c>
       <c r="H80" t="n">
-        <v>0.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>35487</v>
+        <v>35774</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>596696120</v>
+        <v>595981616</v>
       </c>
       <c r="E81" t="n">
-        <v>2310916037</v>
+        <v>2308148870</v>
       </c>
       <c r="F81" t="n">
-        <v>174778.5826795904</v>
+        <v>167301.9696007588</v>
       </c>
       <c r="G81" t="n">
-        <v>308952.8013719197</v>
+        <v>195610.7088984596</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>28618547</v>
+        <v>30339374</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7121935</v>
+        <v>7048636</v>
       </c>
       <c r="E82" t="n">
-        <v>10220169</v>
+        <v>10100472</v>
       </c>
       <c r="F82" t="n">
-        <v>1275.2252764775</v>
+        <v>942.1089862984104</v>
       </c>
       <c r="G82" t="n">
-        <v>848.1410641146736</v>
+        <v>731.7901008610741</v>
       </c>
       <c r="H82" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I82" t="n">
-        <v>143960</v>
+        <v>136774</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>117107957</v>
+        <v>117360431</v>
       </c>
       <c r="E83" t="n">
-        <v>1018181708</v>
+        <v>1020376814</v>
       </c>
       <c r="F83" t="n">
-        <v>39944.00399959681</v>
+        <v>39451.49651262702</v>
       </c>
       <c r="G83" t="n">
-        <v>39645.71580813017</v>
+        <v>39125.39337803917</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9696460</v>
+        <v>9841197</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1135412</v>
+        <v>1132442</v>
       </c>
       <c r="E84" t="n">
-        <v>4396564</v>
+        <v>4385063</v>
       </c>
       <c r="F84" t="n">
-        <v>927.0290315222406</v>
+        <v>501.1173305125765</v>
       </c>
       <c r="G84" t="n">
-        <v>746.9085486368789</v>
+        <v>756.9951415185769</v>
       </c>
       <c r="H84" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="I84" t="n">
-        <v>411327</v>
+        <v>318832</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>111383591</v>
+        <v>107662446</v>
       </c>
       <c r="E85" t="n">
-        <v>427285385</v>
+        <v>413010474</v>
       </c>
       <c r="F85" t="n">
-        <v>74752.41511876696</v>
+        <v>82396.97807328745</v>
       </c>
       <c r="G85" t="n">
-        <v>82242.22137843222</v>
+        <v>83941.10352079377</v>
       </c>
       <c r="H85" t="n">
         <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>18077989</v>
+        <v>18613779</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5099370</v>
+        <v>5087868</v>
       </c>
       <c r="E86" t="n">
-        <v>18989009</v>
+        <v>18946179</v>
       </c>
       <c r="F86" t="n">
-        <v>5606.32668754796</v>
+        <v>5529.250645834099</v>
       </c>
       <c r="G86" t="n">
-        <v>5629.663382340992</v>
+        <v>5942.183932026671</v>
       </c>
       <c r="H86" t="n">
-        <v>0.84</v>
+        <v>0.47</v>
       </c>
       <c r="I86" t="n">
-        <v>65817</v>
+        <v>57009</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31441216</v>
+        <v>30425955</v>
       </c>
       <c r="F87" t="n">
-        <v>4554.514714932113</v>
+        <v>3837.93650055369</v>
       </c>
       <c r="G87" t="n">
-        <v>3410.544246328426</v>
+        <v>3451.976745375436</v>
       </c>
       <c r="H87" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I87" t="n">
-        <v>7363400</v>
+        <v>6374795</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24410942</v>
+        <v>24328342</v>
       </c>
       <c r="F88" t="n">
-        <v>862.4156635241588</v>
+        <v>887.0529302260776</v>
       </c>
       <c r="G88" t="n">
-        <v>744.9448233388857</v>
+        <v>793.4342546566205</v>
       </c>
       <c r="H88" t="n">
         <v>0.04</v>
       </c>
       <c r="I88" t="n">
-        <v>13915.05</v>
+        <v>11420.28</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>86895588</v>
+        <v>87579488</v>
       </c>
       <c r="E89" t="n">
-        <v>321236499</v>
+        <v>323761935</v>
       </c>
       <c r="F89" t="n">
-        <v>1087.530259320398</v>
+        <v>1707.806546928794</v>
       </c>
       <c r="G89" t="n">
-        <v>1680.361253995044</v>
+        <v>1626.435078450402</v>
       </c>
       <c r="H89" t="n">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="I89" t="n">
-        <v>436779</v>
+        <v>397396</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20490550</v>
+        <v>19791839</v>
       </c>
       <c r="E90" t="n">
-        <v>20490550</v>
+        <v>19791839</v>
       </c>
       <c r="F90" t="n">
-        <v>4246.179919012538</v>
+        <v>5041.884453702663</v>
       </c>
       <c r="G90" t="n">
-        <v>2237.455207989711</v>
+        <v>3098.182532888208</v>
       </c>
       <c r="H90" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="I90" t="n">
-        <v>7212249</v>
+        <v>7084849</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3846864</v>
+        <v>3845732</v>
       </c>
       <c r="E91" t="n">
-        <v>8393806</v>
+        <v>8391337</v>
       </c>
       <c r="F91" t="n">
-        <v>1663.363049324313</v>
+        <v>1638.444339956635</v>
       </c>
       <c r="G91" t="n">
-        <v>2088.540524813043</v>
+        <v>1369.763128529976</v>
       </c>
       <c r="H91" t="n">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
       <c r="I91" t="n">
-        <v>1036802</v>
+        <v>987996</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>484906653</v>
+        <v>483771555</v>
       </c>
       <c r="E92" t="n">
-        <v>1688776050</v>
+        <v>1684822865</v>
       </c>
       <c r="F92" t="n">
-        <v>152924.1219884896</v>
+        <v>156598.4377808447</v>
       </c>
       <c r="G92" t="n">
-        <v>171747.5916333596</v>
+        <v>175683.9117708861</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30437883</v>
+        <v>30848224</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2672544</v>
+        <v>2647699</v>
       </c>
       <c r="E93" t="n">
-        <v>10690174</v>
+        <v>10590797</v>
       </c>
       <c r="F93" t="n">
-        <v>2136.419705215037</v>
+        <v>2701.23623616082</v>
       </c>
       <c r="G93" t="n">
-        <v>3517.64610187379</v>
+        <v>3035.22921520477</v>
       </c>
       <c r="H93" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I93" t="n">
-        <v>5062908</v>
+        <v>4930649</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>212408608</v>
+        <v>212146489</v>
       </c>
       <c r="E94" t="n">
-        <v>653076535</v>
+        <v>652270617</v>
       </c>
       <c r="F94" t="n">
-        <v>105048.2430991475</v>
+        <v>111716.195670223</v>
       </c>
       <c r="G94" t="n">
-        <v>104128.1192789418</v>
+        <v>105097.9580405535</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>10976932</v>
+        <v>11169938</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>149197339</v>
+        <v>148008090</v>
       </c>
       <c r="E95" t="n">
-        <v>389773911</v>
+        <v>386667031</v>
       </c>
       <c r="F95" t="n">
-        <v>30864.69705384465</v>
+        <v>29485.98698114988</v>
       </c>
       <c r="G95" t="n">
-        <v>32371.13659117825</v>
+        <v>31209.64471517079</v>
       </c>
       <c r="H95" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>7482809</v>
+        <v>7093048</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>402158956</v>
+        <v>402479727</v>
       </c>
       <c r="E96" t="n">
-        <v>2298051178</v>
+        <v>2299884157</v>
       </c>
       <c r="F96" t="n">
-        <v>22377.3189660539</v>
+        <v>19400.92325412596</v>
       </c>
       <c r="G96" t="n">
-        <v>38794.09433225043</v>
+        <v>39224.43933708584</v>
       </c>
       <c r="H96" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I96" t="n">
-        <v>39133809</v>
+        <v>37918809</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>612263893</v>
+        <v>612614806</v>
       </c>
       <c r="E2" t="n">
-        <v>1187924089</v>
+        <v>1188622459</v>
       </c>
       <c r="F2" t="n">
-        <v>19053.2661067364</v>
+        <v>19382.20423979484</v>
       </c>
       <c r="G2" t="n">
-        <v>38906.10929470921</v>
+        <v>39084.37898654316</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>22226133</v>
+        <v>22794438</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1360786</v>
+        <v>1360235</v>
       </c>
       <c r="E3" t="n">
-        <v>4398619</v>
+        <v>4396837</v>
       </c>
       <c r="F3" t="n">
-        <v>3469.052229773832</v>
+        <v>3489.312444684256</v>
       </c>
       <c r="G3" t="n">
-        <v>3873.802863644513</v>
+        <v>4271.77452234189</v>
       </c>
       <c r="H3" t="n">
         <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>75669</v>
+        <v>76572</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243754382</v>
+        <v>245655727</v>
       </c>
       <c r="E4" t="n">
-        <v>1528549467</v>
+        <v>1540472533</v>
       </c>
       <c r="F4" t="n">
-        <v>139422.435272433</v>
+        <v>132024.9349114069</v>
       </c>
       <c r="G4" t="n">
-        <v>132793.0377515441</v>
+        <v>131569.5366638097</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15624569</v>
+        <v>15756395</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140753605</v>
+        <v>141298134</v>
       </c>
       <c r="E5" t="n">
-        <v>155977476</v>
+        <v>156580902</v>
       </c>
       <c r="F5" t="n">
-        <v>10422.17362238666</v>
+        <v>8550.584684580459</v>
       </c>
       <c r="G5" t="n">
-        <v>27429.69191652803</v>
+        <v>29580.72699183231</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>31793395</v>
+        <v>31897876</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>676503</v>
+        <v>684727</v>
       </c>
       <c r="E6" t="n">
-        <v>13142795</v>
+        <v>13302555</v>
       </c>
       <c r="F6" t="n">
-        <v>341.5268061115457</v>
+        <v>348.5297562809944</v>
       </c>
       <c r="G6" t="n">
-        <v>304.5226420780343</v>
+        <v>375.2721418573316</v>
       </c>
       <c r="H6" t="n">
-        <v>0.61</v>
+        <v>1.2</v>
       </c>
       <c r="I6" t="n">
-        <v>26342</v>
+        <v>26897</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>469794426</v>
+        <v>471367118</v>
       </c>
       <c r="E7" t="n">
-        <v>469794426</v>
+        <v>471367118</v>
       </c>
       <c r="F7" t="n">
-        <v>37269.91259809482</v>
+        <v>46595.28150245296</v>
       </c>
       <c r="G7" t="n">
-        <v>56042.71366165781</v>
+        <v>62798.97150812716</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>54529148</v>
+        <v>55658391</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4698484</v>
+        <v>4702438</v>
       </c>
       <c r="E8" t="n">
-        <v>4698484</v>
+        <v>4702438</v>
       </c>
       <c r="F8" t="n">
-        <v>865.5314549536372</v>
+        <v>769.0820941953908</v>
       </c>
       <c r="G8" t="n">
-        <v>1508.651395730968</v>
+        <v>1131.443479559936</v>
       </c>
       <c r="H8" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="I8" t="n">
-        <v>1936202</v>
+        <v>1944188</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1715557</v>
+        <v>1731933</v>
       </c>
       <c r="F9" t="n">
-        <v>4013.365599618094</v>
+        <v>1297.934149907661</v>
       </c>
       <c r="G9" t="n">
-        <v>2256.214565380547</v>
+        <v>642.5318434247783</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>1.69</v>
       </c>
       <c r="I9" t="n">
-        <v>102508</v>
+        <v>106022</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1541157</v>
+        <v>1547097</v>
       </c>
       <c r="F10" t="n">
-        <v>231.6856461551115</v>
+        <v>268.1532496225227</v>
       </c>
       <c r="G10" t="n">
-        <v>1941.95211377892</v>
+        <v>349.3801548959562</v>
       </c>
       <c r="H10" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="I10" t="n">
-        <v>111649</v>
+        <v>168431</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103778265</v>
+        <v>103771747</v>
       </c>
       <c r="E11" t="n">
-        <v>195505948</v>
+        <v>195493671</v>
       </c>
       <c r="F11" t="n">
-        <v>1513.723525557569</v>
+        <v>1513.761954530858</v>
       </c>
       <c r="G11" t="n">
-        <v>2312.560907982048</v>
+        <v>2312.612511893299</v>
       </c>
       <c r="H11" t="n">
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4277655</v>
+        <v>4287456</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12513935</v>
+        <v>12512195</v>
       </c>
       <c r="E12" t="n">
-        <v>32895545</v>
+        <v>32890972</v>
       </c>
       <c r="F12" t="n">
-        <v>920.3163830505814</v>
+        <v>1254.450530962499</v>
       </c>
       <c r="G12" t="n">
-        <v>1438.927203871675</v>
+        <v>940.2048547474566</v>
       </c>
       <c r="H12" t="n">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="I12" t="n">
-        <v>1652540</v>
+        <v>1614715</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107647707</v>
+        <v>107917594</v>
       </c>
       <c r="E13" t="n">
-        <v>419203260</v>
+        <v>420245557</v>
       </c>
       <c r="F13" t="n">
-        <v>24482.55070419833</v>
+        <v>14449.64982330293</v>
       </c>
       <c r="G13" t="n">
-        <v>32069.38580514486</v>
+        <v>34329.45565704291</v>
       </c>
       <c r="H13" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>6565327</v>
+        <v>6566472</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5238828</v>
+        <v>5305465</v>
       </c>
       <c r="E14" t="n">
-        <v>7711839</v>
+        <v>7809931</v>
       </c>
       <c r="F14" t="n">
-        <v>1427.650084336839</v>
+        <v>1342.016049182689</v>
       </c>
       <c r="G14" t="n">
-        <v>8561.323890191166</v>
+        <v>8630.961805216337</v>
       </c>
       <c r="H14" t="n">
         <v>1.28</v>
       </c>
       <c r="I14" t="n">
-        <v>541852</v>
+        <v>545418</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>134958656</v>
+        <v>135316020</v>
       </c>
       <c r="E15" t="n">
-        <v>134958656</v>
+        <v>135316020</v>
       </c>
       <c r="F15" t="n">
-        <v>45498.07478437662</v>
+        <v>44211.27237888705</v>
       </c>
       <c r="G15" t="n">
-        <v>86928.71483588684</v>
+        <v>75971.45295937255</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>66611215</v>
+        <v>67159059</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64679862</v>
+        <v>65088181</v>
       </c>
       <c r="E16" t="n">
-        <v>331691602</v>
+        <v>333785545</v>
       </c>
       <c r="F16" t="n">
-        <v>16492.18707040805</v>
+        <v>18499.28323871337</v>
       </c>
       <c r="G16" t="n">
-        <v>18717.26760296599</v>
+        <v>15446.60862751426</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>16830720</v>
+        <v>16981235</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>252275289</v>
+        <v>254187643</v>
       </c>
       <c r="E17" t="n">
-        <v>252275289</v>
+        <v>254187643</v>
       </c>
       <c r="F17" t="n">
-        <v>52184.69757699023</v>
+        <v>52640.71105884872</v>
       </c>
       <c r="G17" t="n">
-        <v>57374.99918127378</v>
+        <v>62855.15339615398</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14350670</v>
+        <v>14393823</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2539030</v>
+        <v>2531673</v>
       </c>
       <c r="E18" t="n">
-        <v>6491250</v>
+        <v>6472441</v>
       </c>
       <c r="F18" t="n">
-        <v>1048.768825231993</v>
+        <v>1018.68873858679</v>
       </c>
       <c r="G18" t="n">
-        <v>1735.652001735503</v>
+        <v>1100.592468747646</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="I18" t="n">
-        <v>84453</v>
+        <v>87751</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75696274</v>
+        <v>75004866</v>
       </c>
       <c r="E19" t="n">
-        <v>211828480</v>
+        <v>209962043</v>
       </c>
       <c r="F19" t="n">
-        <v>17679.76798461014</v>
+        <v>13715.12071418572</v>
       </c>
       <c r="G19" t="n">
-        <v>21248.19760348825</v>
+        <v>22340.78883657406</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>29672003</v>
+        <v>30779201</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1574334</v>
+        <v>1574435</v>
       </c>
       <c r="E20" t="n">
-        <v>9039237</v>
+        <v>9039819</v>
       </c>
       <c r="F20" t="n">
-        <v>521.5277391295841</v>
+        <v>299.2441560943809</v>
       </c>
       <c r="G20" t="n">
-        <v>264.7592202384168</v>
+        <v>77.31388454381073</v>
       </c>
       <c r="H20" t="n">
-        <v>1.27</v>
+        <v>0.77</v>
       </c>
       <c r="I20" t="n">
-        <v>324392</v>
+        <v>324676</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>153344</v>
+        <v>152358</v>
       </c>
       <c r="E21" t="n">
-        <v>1035546</v>
+        <v>1028894</v>
       </c>
       <c r="F21" t="n">
-        <v>36.78950947945569</v>
+        <v>5.233102989344751</v>
       </c>
       <c r="G21" t="n">
-        <v>5.769811385442574</v>
+        <v>5.279270169923963</v>
       </c>
       <c r="H21" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2624985</v>
+        <v>2617539</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>270106</v>
+        <v>271927</v>
       </c>
       <c r="F22" t="n">
-        <v>173.682587051356</v>
+        <v>173.6867627539497</v>
       </c>
       <c r="G22" t="n">
-        <v>145.2205438696558</v>
+        <v>145.2240352835735</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2641.93</v>
+        <v>2671.91</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72321520</v>
+        <v>73026766</v>
       </c>
       <c r="E23" t="n">
-        <v>150827095</v>
+        <v>152297892</v>
       </c>
       <c r="F23" t="n">
-        <v>39193.58133192304</v>
+        <v>25565.07160515417</v>
       </c>
       <c r="G23" t="n">
-        <v>49343.26646082303</v>
+        <v>45879.81334706611</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>14095480</v>
+        <v>13986781</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197035628</v>
+        <v>197610332</v>
       </c>
       <c r="E24" t="n">
-        <v>684519578</v>
+        <v>686516153</v>
       </c>
       <c r="F24" t="n">
-        <v>59997.61731029931</v>
+        <v>62641.26261161843</v>
       </c>
       <c r="G24" t="n">
-        <v>64260.17979941796</v>
+        <v>62826.18148034137</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26049761</v>
+        <v>25538568</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115464744</v>
+        <v>115003050</v>
       </c>
       <c r="E25" t="n">
-        <v>491420759</v>
+        <v>489434352</v>
       </c>
       <c r="F25" t="n">
-        <v>17493.73828232971</v>
+        <v>18493.47406777164</v>
       </c>
       <c r="G25" t="n">
-        <v>17327.78585139167</v>
+        <v>19148.99600782746</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I25" t="n">
-        <v>11443723</v>
+        <v>11682622</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5897094</v>
+        <v>5879127</v>
       </c>
       <c r="E26" t="n">
-        <v>8014294</v>
+        <v>7988686</v>
       </c>
       <c r="F26" t="n">
-        <v>233.8266336360146</v>
+        <v>289.2701433586495</v>
       </c>
       <c r="G26" t="n">
-        <v>2814.961731704634</v>
+        <v>2480.198658135161</v>
       </c>
       <c r="H26" t="n">
         <v>0.55</v>
       </c>
       <c r="I26" t="n">
-        <v>6456529</v>
+        <v>6446150</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>531143</v>
+        <v>529854</v>
       </c>
       <c r="E27" t="n">
-        <v>6442242</v>
+        <v>6426612</v>
       </c>
       <c r="F27" t="n">
-        <v>665.3762580019154</v>
+        <v>617.6308573860356</v>
       </c>
       <c r="G27" t="n">
-        <v>811.3870475058706</v>
+        <v>598.7708768101572</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="I27" t="n">
-        <v>2919876</v>
+        <v>2906816</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25228140</v>
+        <v>25323572</v>
       </c>
       <c r="E28" t="n">
-        <v>35658991</v>
+        <v>35793880</v>
       </c>
       <c r="F28" t="n">
-        <v>1362.729640349551</v>
+        <v>1799.236905816399</v>
       </c>
       <c r="G28" t="n">
-        <v>127.9814197404856</v>
+        <v>84.46420091912289</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.32</v>
       </c>
       <c r="I28" t="n">
-        <v>84840</v>
+        <v>88038</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1280657944</v>
+        <v>1294522002</v>
       </c>
       <c r="E29" t="n">
-        <v>6141017113</v>
+        <v>6207498112</v>
       </c>
       <c r="F29" t="n">
-        <v>174804.6343425504</v>
+        <v>151918.7594404506</v>
       </c>
       <c r="G29" t="n">
-        <v>253541.619443814</v>
+        <v>270408.1404414185</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>197545141</v>
+        <v>200490157</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>269121544</v>
+        <v>271069507</v>
       </c>
       <c r="E30" t="n">
-        <v>1161677985</v>
+        <v>1170086475</v>
       </c>
       <c r="F30" t="n">
-        <v>196686.1580969875</v>
+        <v>180097.9391302216</v>
       </c>
       <c r="G30" t="n">
-        <v>227476.9482917431</v>
+        <v>224675.3515776296</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>110916025</v>
+        <v>111854433</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5338465</v>
+        <v>5341665</v>
       </c>
       <c r="E31" t="n">
-        <v>5344507</v>
+        <v>5347711</v>
       </c>
       <c r="F31" t="n">
-        <v>127.467954969849</v>
+        <v>127.4711910050655</v>
       </c>
       <c r="G31" t="n">
-        <v>139.6999413301</v>
+        <v>139.7034878993533</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>161907</v>
+        <v>155955</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21550370</v>
+        <v>21629378</v>
       </c>
       <c r="E32" t="n">
-        <v>53875924</v>
+        <v>54073444</v>
       </c>
       <c r="F32" t="n">
-        <v>2372.13186315713</v>
+        <v>2585.162229235434</v>
       </c>
       <c r="G32" t="n">
-        <v>8283.379347122422</v>
+        <v>8341.260403886356</v>
       </c>
       <c r="H32" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2189056</v>
+        <v>2209493</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20257290</v>
+        <v>20192654</v>
       </c>
       <c r="F33" t="n">
-        <v>718.6716766870817</v>
+        <v>861.956106085467</v>
       </c>
       <c r="G33" t="n">
-        <v>1845.786049398989</v>
+        <v>1938.559377053648</v>
       </c>
       <c r="H33" t="n">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
       <c r="I33" t="n">
-        <v>126496</v>
+        <v>127775</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3491942</v>
+        <v>3573474</v>
       </c>
       <c r="E34" t="n">
-        <v>10058220</v>
+        <v>10293067</v>
       </c>
       <c r="F34" t="n">
-        <v>1603.502337300493</v>
+        <v>1306.754916595742</v>
       </c>
       <c r="G34" t="n">
-        <v>448.5031167997855</v>
+        <v>872.1073019088969</v>
       </c>
       <c r="H34" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="I34" t="n">
-        <v>357049</v>
+        <v>394631</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1666316</v>
+        <v>1676329</v>
       </c>
       <c r="F35" t="n">
-        <v>57.40553848933442</v>
+        <v>1.800931054408088</v>
       </c>
       <c r="G35" t="n">
-        <v>5.866884639349191</v>
+        <v>237.6074946321092</v>
       </c>
       <c r="H35" t="n">
-        <v>2.27</v>
+        <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>16935.82</v>
+        <v>15852.13</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14115051</v>
+        <v>14153989</v>
       </c>
       <c r="E36" t="n">
-        <v>68361446</v>
+        <v>68550026</v>
       </c>
       <c r="F36" t="n">
-        <v>3084.686476773206</v>
+        <v>3581.724196856278</v>
       </c>
       <c r="G36" t="n">
-        <v>11157.04746306652</v>
+        <v>9688.751599404271</v>
       </c>
       <c r="H36" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>3545556</v>
+        <v>3550763</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1475945</v>
+        <v>1494519</v>
       </c>
       <c r="E37" t="n">
-        <v>9660019</v>
+        <v>9781588</v>
       </c>
       <c r="F37" t="n">
-        <v>853.1920731655678</v>
+        <v>619.8941787107295</v>
       </c>
       <c r="G37" t="n">
-        <v>38.49614403131916</v>
+        <v>15.05222355251814</v>
       </c>
       <c r="H37" t="n">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="I37" t="n">
-        <v>601969</v>
+        <v>532218</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1868072039</v>
+        <v>1871282692</v>
       </c>
       <c r="F38" t="n">
-        <v>74801.42272410303</v>
+        <v>75367.84142504683</v>
       </c>
       <c r="G38" t="n">
-        <v>79101.07767030613</v>
+        <v>77665.04678471327</v>
       </c>
       <c r="H38" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="I38" t="n">
-        <v>25581089</v>
+        <v>25532377</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31592745</v>
+        <v>31873105</v>
       </c>
       <c r="E39" t="n">
-        <v>98369670</v>
+        <v>99242623</v>
       </c>
       <c r="F39" t="n">
-        <v>4893.978825366088</v>
+        <v>5060.621069899337</v>
       </c>
       <c r="G39" t="n">
-        <v>7909.126407528</v>
+        <v>9026.18230508353</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>12141598</v>
+        <v>12191005</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>196769797</v>
+        <v>199196507</v>
       </c>
       <c r="E40" t="n">
-        <v>1114231497</v>
+        <v>1127973021</v>
       </c>
       <c r="F40" t="n">
-        <v>42119.85083451572</v>
+        <v>47889.58535834883</v>
       </c>
       <c r="G40" t="n">
-        <v>79160.6341351818</v>
+        <v>75873.26712695451</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>59637853</v>
+        <v>59501866</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>137954750</v>
+        <v>138386721</v>
       </c>
       <c r="E41" t="n">
-        <v>1021887038</v>
+        <v>1025086822</v>
       </c>
       <c r="F41" t="n">
-        <v>133638.7424243003</v>
+        <v>154362.5560868613</v>
       </c>
       <c r="G41" t="n">
-        <v>208882.9409861178</v>
+        <v>225042.1031062409</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>12486716</v>
+        <v>12514549</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32617916</v>
+        <v>33732690</v>
       </c>
       <c r="E42" t="n">
-        <v>155165305</v>
+        <v>160468350</v>
       </c>
       <c r="F42" t="n">
-        <v>20607.2835592912</v>
+        <v>5699.773932408735</v>
       </c>
       <c r="G42" t="n">
-        <v>10654.13673428044</v>
+        <v>1395.71806572482</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="I42" t="n">
-        <v>1070173</v>
+        <v>1335710</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3502302</v>
+        <v>3365589</v>
       </c>
       <c r="E43" t="n">
-        <v>8178458</v>
+        <v>7859210</v>
       </c>
       <c r="F43" t="n">
-        <v>1619.346521272376</v>
+        <v>2603.159549263316</v>
       </c>
       <c r="G43" t="n">
-        <v>1236.428198432776</v>
+        <v>610.8037557302066</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17</v>
+        <v>1.56</v>
       </c>
       <c r="I43" t="n">
-        <v>779504</v>
+        <v>777377</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>335283447</v>
+        <v>337957943</v>
       </c>
       <c r="E44" t="n">
-        <v>3016417793</v>
+        <v>3040479219</v>
       </c>
       <c r="F44" t="n">
-        <v>45699.13940240847</v>
+        <v>56036.65654660683</v>
       </c>
       <c r="G44" t="n">
-        <v>39894.09547710067</v>
+        <v>32237.54251185223</v>
       </c>
       <c r="H44" t="n">
         <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37605575</v>
+        <v>38388027</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>650501</v>
+        <v>650791</v>
       </c>
       <c r="F45" t="n">
-        <v>394.2736084871476</v>
+        <v>376.7066467289484</v>
       </c>
       <c r="G45" t="n">
-        <v>230.3648905642246</v>
+        <v>262.3047961901224</v>
       </c>
       <c r="H45" t="n">
         <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>6173.19</v>
+        <v>6250.31</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1589135</v>
+        <v>1577205</v>
       </c>
       <c r="E46" t="n">
-        <v>13242792</v>
+        <v>13143377</v>
       </c>
       <c r="F46" t="n">
-        <v>314.8012073730099</v>
+        <v>442.7950147757397</v>
       </c>
       <c r="G46" t="n">
-        <v>708.5750448768356</v>
+        <v>1117.693693606691</v>
       </c>
       <c r="H46" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="I46" t="n">
-        <v>48713</v>
+        <v>48131</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4913412</v>
+        <v>4920466</v>
       </c>
       <c r="E47" t="n">
-        <v>17362648</v>
+        <v>17387572</v>
       </c>
       <c r="F47" t="n">
-        <v>1099.567560582909</v>
+        <v>1010.570785848357</v>
       </c>
       <c r="G47" t="n">
-        <v>1580.392517522421</v>
+        <v>1464.647250049254</v>
       </c>
       <c r="H47" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="I47" t="n">
-        <v>108096</v>
+        <v>100782</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42545149</v>
+        <v>42887369</v>
       </c>
       <c r="E48" t="n">
-        <v>246318834</v>
+        <v>248300145</v>
       </c>
       <c r="F48" t="n">
-        <v>21632.63646647922</v>
+        <v>21080.7961320997</v>
       </c>
       <c r="G48" t="n">
-        <v>14274.09979742138</v>
+        <v>13256.30670098138</v>
       </c>
       <c r="H48" t="n">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>10841319</v>
+        <v>11106259</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2398394</v>
+        <v>2380399</v>
       </c>
       <c r="E49" t="n">
-        <v>13177183</v>
+        <v>13078319</v>
       </c>
       <c r="F49" t="n">
-        <v>261.8184530960355</v>
+        <v>195.1288153086454</v>
       </c>
       <c r="G49" t="n">
-        <v>378.8322484814585</v>
+        <v>704.1659313200163</v>
       </c>
       <c r="H49" t="n">
-        <v>2.24</v>
+        <v>1.52</v>
       </c>
       <c r="I49" t="n">
-        <v>64629</v>
+        <v>41216</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13622200</v>
+        <v>13677149</v>
       </c>
       <c r="E50" t="n">
-        <v>13668558</v>
+        <v>13723693</v>
       </c>
       <c r="F50" t="n">
-        <v>4566.165390850088</v>
+        <v>3819.473004330636</v>
       </c>
       <c r="G50" t="n">
-        <v>4455.046787640391</v>
+        <v>8608.052387667813</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5778353</v>
+        <v>5796648</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25841433</v>
+        <v>26374433</v>
       </c>
       <c r="E51" t="n">
-        <v>77461493</v>
+        <v>79059741</v>
       </c>
       <c r="F51" t="n">
-        <v>8643.325271096874</v>
+        <v>22129.83723696267</v>
       </c>
       <c r="G51" t="n">
-        <v>26985.93461018562</v>
+        <v>26518.63209555507</v>
       </c>
       <c r="H51" t="n">
-        <v>0.18</v>
+        <v>0.55</v>
       </c>
       <c r="I51" t="n">
-        <v>2278244</v>
+        <v>2351986</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15238563</v>
+        <v>15281016</v>
       </c>
       <c r="E52" t="n">
-        <v>93402161</v>
+        <v>93662370</v>
       </c>
       <c r="F52" t="n">
-        <v>6827.273563560604</v>
+        <v>5451.803380404057</v>
       </c>
       <c r="G52" t="n">
-        <v>11518.55575495454</v>
+        <v>10212.00580341112</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I52" t="n">
-        <v>11714436</v>
+        <v>11894972</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46126753</v>
+        <v>46169358</v>
       </c>
       <c r="E53" t="n">
-        <v>198709010</v>
+        <v>198892547</v>
       </c>
       <c r="F53" t="n">
-        <v>21096.0531916181</v>
+        <v>24567.32730141898</v>
       </c>
       <c r="G53" t="n">
-        <v>24746.10864601063</v>
+        <v>26288.37559051759</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="I53" t="n">
-        <v>8712325</v>
+        <v>8563560</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1011728</v>
+        <v>1022183</v>
       </c>
       <c r="E54" t="n">
-        <v>2957104</v>
+        <v>2987665</v>
       </c>
       <c r="F54" t="n">
-        <v>543.8194282701619</v>
+        <v>523.1523347324082</v>
       </c>
       <c r="G54" t="n">
-        <v>365.541741395046</v>
+        <v>411.1206910561748</v>
       </c>
       <c r="H54" t="n">
         <v>0.66</v>
       </c>
       <c r="I54" t="n">
-        <v>8804.200000000001</v>
+        <v>11879.25</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35541858</v>
+        <v>36223613</v>
       </c>
       <c r="E55" t="n">
-        <v>89619504</v>
+        <v>91338562</v>
       </c>
       <c r="F55" t="n">
-        <v>17061.05676920321</v>
+        <v>12418.41292523219</v>
       </c>
       <c r="G55" t="n">
-        <v>10384.59435336052</v>
+        <v>11173.6995334694</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2754025</v>
+        <v>2819303</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28082779</v>
+        <v>28163288</v>
       </c>
       <c r="E56" t="n">
-        <v>66717701</v>
+        <v>66908971</v>
       </c>
       <c r="F56" t="n">
-        <v>13889.79627123978</v>
+        <v>10440.88265267922</v>
       </c>
       <c r="G56" t="n">
-        <v>13701.27424001595</v>
+        <v>10023.95656405927</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>602820</v>
+        <v>647116</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12030349</v>
+        <v>12033148</v>
       </c>
       <c r="E57" t="n">
-        <v>18335045</v>
+        <v>18339311</v>
       </c>
       <c r="F57" t="n">
-        <v>6489.202008422993</v>
+        <v>3853.541771306794</v>
       </c>
       <c r="G57" t="n">
-        <v>7020.251816843065</v>
+        <v>2152.118702575257</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="I57" t="n">
-        <v>662999</v>
+        <v>664844</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>299981943</v>
+        <v>300642893</v>
       </c>
       <c r="E58" t="n">
-        <v>299981943</v>
+        <v>300642893</v>
       </c>
       <c r="F58" t="n">
-        <v>42242.82787562491</v>
+        <v>48200.75662262928</v>
       </c>
       <c r="G58" t="n">
-        <v>82031.32419990408</v>
+        <v>71632.74564221634</v>
       </c>
       <c r="H58" t="n">
         <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>52531781</v>
+        <v>51979216</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11957931</v>
+        <v>11940757</v>
       </c>
       <c r="F59" t="n">
-        <v>177.4747919965986</v>
+        <v>214.9521468560824</v>
       </c>
       <c r="G59" t="n">
-        <v>83.57141537709836</v>
+        <v>107.3950257107933</v>
       </c>
       <c r="H59" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="I59" t="n">
-        <v>159537</v>
+        <v>160775</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>87628516</v>
+        <v>89197912</v>
       </c>
       <c r="E60" t="n">
-        <v>504953306</v>
+        <v>513996843</v>
       </c>
       <c r="F60" t="n">
-        <v>95467.38861867825</v>
+        <v>98500.98918610513</v>
       </c>
       <c r="G60" t="n">
-        <v>91779.78034500685</v>
+        <v>95608.40441072271</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>15839156</v>
+        <v>15887885</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9284234</v>
+        <v>9316643</v>
       </c>
       <c r="E61" t="n">
-        <v>9284234</v>
+        <v>9316643</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.72</v>
+        <v>4.76</v>
       </c>
       <c r="I61" t="n">
-        <v>2039897</v>
+        <v>2038137</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30259407</v>
+        <v>30357644</v>
       </c>
       <c r="E62" t="n">
-        <v>135483779</v>
+        <v>135923628</v>
       </c>
       <c r="F62" t="n">
-        <v>17341.13080793572</v>
+        <v>15520.53329028862</v>
       </c>
       <c r="G62" t="n">
-        <v>20762.37191049032</v>
+        <v>32491.80279778988</v>
       </c>
       <c r="H62" t="n">
         <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>9871566</v>
+        <v>9441480</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13103042</v>
+        <v>13078944</v>
       </c>
       <c r="E63" t="n">
-        <v>26194643</v>
+        <v>26146468</v>
       </c>
       <c r="F63" t="n">
-        <v>2094.127955510832</v>
+        <v>2088.323890330837</v>
       </c>
       <c r="G63" t="n">
-        <v>1996.755936900624</v>
+        <v>1971.670711266287</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>41284</v>
+        <v>40364</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1561589</v>
+        <v>1495306</v>
       </c>
       <c r="F64" t="n">
-        <v>85.64104339160903</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>104.5923016369417</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.58</v>
+        <v>7.96</v>
       </c>
       <c r="I64" t="n">
-        <v>71018</v>
+        <v>69648</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47505742</v>
+        <v>47662382</v>
       </c>
       <c r="E65" t="n">
-        <v>308062096</v>
+        <v>309077860</v>
       </c>
       <c r="F65" t="n">
-        <v>17682.21091128575</v>
+        <v>19421.86159917629</v>
       </c>
       <c r="G65" t="n">
-        <v>17374.67936518732</v>
+        <v>17157.56940617643</v>
       </c>
       <c r="H65" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>17225690</v>
+        <v>16854735</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4762793</v>
+        <v>4769318</v>
       </c>
       <c r="F66" t="n">
-        <v>1399.629772032889</v>
+        <v>1279.212926740433</v>
       </c>
       <c r="G66" t="n">
-        <v>1366.934792935077</v>
+        <v>1415.014622900675</v>
       </c>
       <c r="H66" t="n">
         <v>0.92</v>
       </c>
       <c r="I66" t="n">
-        <v>154046</v>
+        <v>155236</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125005363</v>
+        <v>125338599</v>
       </c>
       <c r="E67" t="n">
-        <v>2070191190</v>
+        <v>2075709857</v>
       </c>
       <c r="F67" t="n">
-        <v>22550.52319789408</v>
+        <v>20206.35915684093</v>
       </c>
       <c r="G67" t="n">
-        <v>24559.23160048748</v>
+        <v>24466.80413103487</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I67" t="n">
-        <v>5174646</v>
+        <v>5133554</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23472252</v>
+        <v>23528163</v>
       </c>
       <c r="E68" t="n">
-        <v>140439201</v>
+        <v>140773731</v>
       </c>
       <c r="F68" t="n">
-        <v>44298.82888492054</v>
+        <v>44630.1760824286</v>
       </c>
       <c r="G68" t="n">
-        <v>44847.62830078298</v>
+        <v>44290.79397405508</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>13444729</v>
+        <v>13192081</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23338607</v>
+        <v>23388321</v>
       </c>
       <c r="E70" t="n">
-        <v>23338607</v>
+        <v>23388646</v>
       </c>
       <c r="F70" t="n">
-        <v>2920.804440143193</v>
+        <v>2905.20635615991</v>
       </c>
       <c r="G70" t="n">
-        <v>2408.742110835698</v>
+        <v>2729.612162282112</v>
       </c>
       <c r="H70" t="n">
         <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1873043</v>
+        <v>1852402</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33909263</v>
+        <v>34251169</v>
       </c>
       <c r="E71" t="n">
-        <v>169222854</v>
+        <v>170929123</v>
       </c>
       <c r="F71" t="n">
-        <v>18744.54781055673</v>
+        <v>18570.9499710744</v>
       </c>
       <c r="G71" t="n">
-        <v>33004.5949730893</v>
+        <v>33767.78494901445</v>
       </c>
       <c r="H71" t="n">
-        <v>0.59</v>
+        <v>1.16</v>
       </c>
       <c r="I71" t="n">
-        <v>9607410</v>
+        <v>9820664</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>176155</v>
+        <v>169940</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>16387.9</v>
+        <v>14128.49</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>313408319</v>
+        <v>313233258</v>
       </c>
       <c r="E73" t="n">
-        <v>579876862</v>
+        <v>579552959</v>
       </c>
       <c r="F73" t="n">
-        <v>63138.41428582238</v>
+        <v>64286.74606232761</v>
       </c>
       <c r="G73" t="n">
-        <v>73531.0827196044</v>
+        <v>72622.84811594988</v>
       </c>
       <c r="H73" t="n">
         <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>12106561</v>
+        <v>12228794</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9549590</v>
+        <v>10061121</v>
       </c>
       <c r="E74" t="n">
-        <v>28478625</v>
+        <v>30000181</v>
       </c>
       <c r="F74" t="n">
-        <v>1248.059379769982</v>
+        <v>1250.878390006623</v>
       </c>
       <c r="G74" t="n">
-        <v>1762.339434339364</v>
+        <v>1233.018627631366</v>
       </c>
       <c r="H74" t="n">
-        <v>0.35</v>
+        <v>0.67</v>
       </c>
       <c r="I74" t="n">
-        <v>4839593</v>
+        <v>5289492</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7858185</v>
+        <v>7848462</v>
       </c>
       <c r="E75" t="n">
-        <v>11196113</v>
+        <v>11182259</v>
       </c>
       <c r="F75" t="n">
-        <v>2919.859541893928</v>
+        <v>2968.4609090873</v>
       </c>
       <c r="G75" t="n">
-        <v>593.6221293535028</v>
+        <v>108.636819698938</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9</v>
+        <v>0.36</v>
       </c>
       <c r="I75" t="n">
-        <v>326560</v>
+        <v>311651</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16251764</v>
+        <v>16360445</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2988916960852642</v>
+        <v>0.2988993196422225</v>
       </c>
       <c r="G76" t="n">
-        <v>13.15242664777884</v>
+        <v>108.0127329822259</v>
       </c>
       <c r="H76" t="n">
         <v>1.77</v>
       </c>
       <c r="I76" t="n">
-        <v>997242</v>
+        <v>366738</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61307911</v>
+        <v>61206309</v>
       </c>
       <c r="E77" t="n">
-        <v>101427776</v>
+        <v>101259686</v>
       </c>
       <c r="F77" t="n">
-        <v>8737.147398560461</v>
+        <v>8723.016454104078</v>
       </c>
       <c r="G77" t="n">
-        <v>20770.27561343217</v>
+        <v>19415.82259179789</v>
       </c>
       <c r="H77" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="I77" t="n">
-        <v>5635357</v>
+        <v>5644958</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5176048</v>
+        <v>5322303</v>
       </c>
       <c r="E78" t="n">
-        <v>5176048</v>
+        <v>5322303</v>
       </c>
       <c r="F78" t="n">
-        <v>19.98203890744448</v>
+        <v>1138.605839348256</v>
       </c>
       <c r="G78" t="n">
-        <v>373.4632270699261</v>
+        <v>349.2719707725652</v>
       </c>
       <c r="H78" t="n">
-        <v>2.7</v>
+        <v>1.32</v>
       </c>
       <c r="I78" t="n">
-        <v>1101333</v>
+        <v>1095961</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58518</v>
+        <v>59351</v>
       </c>
       <c r="E79" t="n">
-        <v>305322</v>
+        <v>309668</v>
       </c>
       <c r="F79" t="n">
-        <v>25.45008285028272</v>
+        <v>42.6490479569292</v>
       </c>
       <c r="G79" t="n">
-        <v>103.9903778669175</v>
+        <v>329.9664024570056</v>
       </c>
       <c r="H79" t="n">
-        <v>1.14</v>
+        <v>0.22</v>
       </c>
       <c r="I79" t="n">
-        <v>299844</v>
+        <v>303926</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>28831444</v>
+        <v>28099657</v>
       </c>
       <c r="F80" t="n">
-        <v>3707.114401548822</v>
+        <v>1217.83764872657</v>
       </c>
       <c r="G80" t="n">
-        <v>1335.903645572071</v>
+        <v>1274.485687205856</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="I80" t="n">
-        <v>35774</v>
+        <v>37779</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>595981616</v>
+        <v>598746822</v>
       </c>
       <c r="E81" t="n">
-        <v>2308148870</v>
+        <v>2318858104</v>
       </c>
       <c r="F81" t="n">
-        <v>167301.9696007588</v>
+        <v>163764.7067544984</v>
       </c>
       <c r="G81" t="n">
-        <v>195610.7088984596</v>
+        <v>189506.7668317369</v>
       </c>
       <c r="H81" t="n">
         <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>30339374</v>
+        <v>30668884</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7048636</v>
+        <v>7072495</v>
       </c>
       <c r="E82" t="n">
-        <v>10100472</v>
+        <v>10134621</v>
       </c>
       <c r="F82" t="n">
-        <v>942.1089862984104</v>
+        <v>1042.69529673151</v>
       </c>
       <c r="G82" t="n">
-        <v>731.7901008610741</v>
+        <v>947.4380326775029</v>
       </c>
       <c r="H82" t="n">
         <v>0.98</v>
       </c>
       <c r="I82" t="n">
-        <v>136774</v>
+        <v>142195</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>117360431</v>
+        <v>118273350</v>
       </c>
       <c r="E83" t="n">
-        <v>1020376814</v>
+        <v>1028314087</v>
       </c>
       <c r="F83" t="n">
-        <v>39451.49651262702</v>
+        <v>38775.79437260154</v>
       </c>
       <c r="G83" t="n">
-        <v>39125.39337803917</v>
+        <v>43827.39775099221</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9841197</v>
+        <v>9622034</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1132442</v>
+        <v>1132430</v>
       </c>
       <c r="E84" t="n">
-        <v>4385063</v>
+        <v>4385016</v>
       </c>
       <c r="F84" t="n">
-        <v>501.1173305125765</v>
+        <v>338.4532199320109</v>
       </c>
       <c r="G84" t="n">
-        <v>756.9951415185769</v>
+        <v>818.9666909535933</v>
       </c>
       <c r="H84" t="n">
-        <v>0.68</v>
+        <v>1.13</v>
       </c>
       <c r="I84" t="n">
-        <v>318832</v>
+        <v>428428</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>107662446</v>
+        <v>108382510</v>
       </c>
       <c r="E85" t="n">
-        <v>413010474</v>
+        <v>415772755</v>
       </c>
       <c r="F85" t="n">
-        <v>82396.97807328745</v>
+        <v>76668.76012710624</v>
       </c>
       <c r="G85" t="n">
-        <v>83941.10352079377</v>
+        <v>86659.92466953896</v>
       </c>
       <c r="H85" t="n">
         <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>18613779</v>
+        <v>18903787</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5087868</v>
+        <v>5093623</v>
       </c>
       <c r="E86" t="n">
-        <v>18946179</v>
+        <v>18967608</v>
       </c>
       <c r="F86" t="n">
-        <v>5529.250645834099</v>
+        <v>5535.363929039577</v>
       </c>
       <c r="G86" t="n">
-        <v>5942.183932026671</v>
+        <v>5942.335493874177</v>
       </c>
       <c r="H86" t="n">
         <v>0.47</v>
       </c>
       <c r="I86" t="n">
-        <v>57009</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>30425955</v>
+        <v>31212178</v>
       </c>
       <c r="F87" t="n">
-        <v>3837.93650055369</v>
+        <v>3733.366377955548</v>
       </c>
       <c r="G87" t="n">
-        <v>3451.976745375436</v>
+        <v>2274.380522597363</v>
       </c>
       <c r="H87" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="I87" t="n">
-        <v>6374795</v>
+        <v>5662111</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24328342</v>
+        <v>24517361</v>
       </c>
       <c r="F88" t="n">
-        <v>887.0529302260776</v>
+        <v>688.6983620463889</v>
       </c>
       <c r="G88" t="n">
-        <v>793.4342546566205</v>
+        <v>916.1017066141918</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I88" t="n">
-        <v>11420.28</v>
+        <v>11974.76</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87579488</v>
+        <v>87494632</v>
       </c>
       <c r="E89" t="n">
-        <v>323761935</v>
+        <v>323447490</v>
       </c>
       <c r="F89" t="n">
-        <v>1707.806546928794</v>
+        <v>1318.443019104617</v>
       </c>
       <c r="G89" t="n">
-        <v>1626.435078450402</v>
+        <v>1653.652499912801</v>
       </c>
       <c r="H89" t="n">
         <v>0.45</v>
       </c>
       <c r="I89" t="n">
-        <v>397396</v>
+        <v>368242</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19791839</v>
+        <v>20594307</v>
       </c>
       <c r="E90" t="n">
-        <v>19791839</v>
+        <v>20594307</v>
       </c>
       <c r="F90" t="n">
-        <v>5041.884453702663</v>
+        <v>4489.015268948147</v>
       </c>
       <c r="G90" t="n">
-        <v>3098.182532888208</v>
+        <v>3629.697286760219</v>
       </c>
       <c r="H90" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="I90" t="n">
-        <v>7084849</v>
+        <v>7174762</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3845732</v>
+        <v>3842638</v>
       </c>
       <c r="E91" t="n">
-        <v>8391337</v>
+        <v>8384586</v>
       </c>
       <c r="F91" t="n">
-        <v>1638.444339956635</v>
+        <v>1606.779203399253</v>
       </c>
       <c r="G91" t="n">
-        <v>1369.763128529976</v>
+        <v>1463.802734010649</v>
       </c>
       <c r="H91" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="I91" t="n">
-        <v>987996</v>
+        <v>1005545</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>483771555</v>
+        <v>487923003</v>
       </c>
       <c r="E92" t="n">
-        <v>1684822865</v>
+        <v>1699281039</v>
       </c>
       <c r="F92" t="n">
-        <v>156598.4377808447</v>
+        <v>152699.4451789574</v>
       </c>
       <c r="G92" t="n">
-        <v>175683.9117708861</v>
+        <v>178103.5295241604</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30848224</v>
+        <v>30997629</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2647699</v>
+        <v>2655841</v>
       </c>
       <c r="E93" t="n">
-        <v>10590797</v>
+        <v>10623365</v>
       </c>
       <c r="F93" t="n">
-        <v>2701.23623616082</v>
+        <v>2038.634263349493</v>
       </c>
       <c r="G93" t="n">
-        <v>3035.22921520477</v>
+        <v>3629.617577138052</v>
       </c>
       <c r="H93" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="I93" t="n">
-        <v>4930649</v>
+        <v>4951460</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>212146489</v>
+        <v>213060929</v>
       </c>
       <c r="E94" t="n">
-        <v>652270617</v>
+        <v>655082177</v>
       </c>
       <c r="F94" t="n">
-        <v>111716.195670223</v>
+        <v>105431.5669696432</v>
       </c>
       <c r="G94" t="n">
-        <v>105097.9580405535</v>
+        <v>81499.52698470801</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11169938</v>
+        <v>11150790</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148008090</v>
+        <v>151153086</v>
       </c>
       <c r="E95" t="n">
-        <v>386667031</v>
+        <v>394883246</v>
       </c>
       <c r="F95" t="n">
-        <v>29485.98698114988</v>
+        <v>26480.72965645136</v>
       </c>
       <c r="G95" t="n">
-        <v>31209.64471517079</v>
+        <v>31414.18877402751</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>7093048</v>
+        <v>7057467</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>402479727</v>
+        <v>405223467</v>
       </c>
       <c r="E96" t="n">
-        <v>2299884157</v>
+        <v>2315562668</v>
       </c>
       <c r="F96" t="n">
-        <v>19400.92325412596</v>
+        <v>27130.55164983039</v>
       </c>
       <c r="G96" t="n">
-        <v>39224.43933708584</v>
+        <v>34079.67766777818</v>
       </c>
       <c r="H96" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>37918809</v>
+        <v>36985834</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>612614806</v>
+        <v>603667169</v>
       </c>
       <c r="E2" t="n">
-        <v>1188622459</v>
+        <v>1171282121</v>
       </c>
       <c r="F2" t="n">
-        <v>19382.20423979484</v>
+        <v>20095.89901811494</v>
       </c>
       <c r="G2" t="n">
-        <v>39084.37898654316</v>
+        <v>34476.9730823003</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>22794438</v>
+        <v>22063758</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1360235</v>
+        <v>1331710</v>
       </c>
       <c r="E3" t="n">
-        <v>4396837</v>
+        <v>4304633</v>
       </c>
       <c r="F3" t="n">
-        <v>3489.312444684256</v>
+        <v>3673.196234993249</v>
       </c>
       <c r="G3" t="n">
-        <v>4271.77452234189</v>
+        <v>4545.199597443184</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>76572</v>
+        <v>81440</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245655727</v>
+        <v>242712283</v>
       </c>
       <c r="E4" t="n">
-        <v>1540472533</v>
+        <v>1522014609</v>
       </c>
       <c r="F4" t="n">
-        <v>132024.9349114069</v>
+        <v>136257.3454864706</v>
       </c>
       <c r="G4" t="n">
-        <v>131569.5366638097</v>
+        <v>140270.9788738755</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15756395</v>
+        <v>15511311</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141298134</v>
+        <v>138525000</v>
       </c>
       <c r="E5" t="n">
-        <v>156580902</v>
+        <v>153507826</v>
       </c>
       <c r="F5" t="n">
-        <v>8550.584684580459</v>
+        <v>8527.721261896055</v>
       </c>
       <c r="G5" t="n">
-        <v>29580.72699183231</v>
+        <v>25019.50183512099</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>31897876</v>
+        <v>32023209</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>684727</v>
+        <v>674047</v>
       </c>
       <c r="E6" t="n">
-        <v>13302555</v>
+        <v>13095063</v>
       </c>
       <c r="F6" t="n">
-        <v>348.5297562809944</v>
+        <v>329.9409568352263</v>
       </c>
       <c r="G6" t="n">
-        <v>375.2721418573316</v>
+        <v>251.2555279468717</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2</v>
+        <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>26897</v>
+        <v>22415</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>471367118</v>
+        <v>459133012</v>
       </c>
       <c r="E7" t="n">
-        <v>471367118</v>
+        <v>459133010</v>
       </c>
       <c r="F7" t="n">
-        <v>46595.28150245296</v>
+        <v>44041.83944334013</v>
       </c>
       <c r="G7" t="n">
-        <v>62798.97150812716</v>
+        <v>61593.72721584542</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I7" t="n">
-        <v>55658391</v>
+        <v>56019237</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4702438</v>
+        <v>4672260</v>
       </c>
       <c r="E8" t="n">
-        <v>4702438</v>
+        <v>4672260</v>
       </c>
       <c r="F8" t="n">
-        <v>769.0820941953908</v>
+        <v>1129.570826000386</v>
       </c>
       <c r="G8" t="n">
-        <v>1131.443479559936</v>
+        <v>970.252509513027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1944188</v>
+        <v>1292058</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1731933</v>
+        <v>1736037</v>
       </c>
       <c r="F9" t="n">
-        <v>1297.934149907661</v>
+        <v>52.67739819031341</v>
       </c>
       <c r="G9" t="n">
-        <v>642.5318434247783</v>
+        <v>101.4969989310036</v>
       </c>
       <c r="H9" t="n">
-        <v>1.69</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>106022</v>
+        <v>109124</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1547097</v>
+        <v>1554259</v>
       </c>
       <c r="F10" t="n">
-        <v>268.1532496225227</v>
+        <v>306.6165389897108</v>
       </c>
       <c r="G10" t="n">
-        <v>349.3801548959562</v>
+        <v>1778.521027413162</v>
       </c>
       <c r="H10" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="I10" t="n">
-        <v>168431</v>
+        <v>173835</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103771747</v>
+        <v>103768441</v>
       </c>
       <c r="E11" t="n">
-        <v>195493671</v>
+        <v>195487443</v>
       </c>
       <c r="F11" t="n">
-        <v>1513.761954530858</v>
+        <v>1584.771081512006</v>
       </c>
       <c r="G11" t="n">
-        <v>2312.612511893299</v>
+        <v>2300.561537803543</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>4287456</v>
+        <v>4296570</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12512195</v>
+        <v>12673443</v>
       </c>
       <c r="E12" t="n">
-        <v>32890972</v>
+        <v>32586728</v>
       </c>
       <c r="F12" t="n">
-        <v>1254.450530962499</v>
+        <v>717.3167625488232</v>
       </c>
       <c r="G12" t="n">
-        <v>940.2048547474566</v>
+        <v>1430.97344338472</v>
       </c>
       <c r="H12" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="I12" t="n">
-        <v>1614715</v>
+        <v>1567812</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107917594</v>
+        <v>106880382</v>
       </c>
       <c r="E13" t="n">
-        <v>420245557</v>
+        <v>416182459</v>
       </c>
       <c r="F13" t="n">
-        <v>14449.64982330293</v>
+        <v>14861.93347492604</v>
       </c>
       <c r="G13" t="n">
-        <v>34329.45565704291</v>
+        <v>28231.47301472953</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I13" t="n">
-        <v>6566472</v>
+        <v>6577442</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5305465</v>
+        <v>5262558</v>
       </c>
       <c r="E14" t="n">
-        <v>7809931</v>
+        <v>7746771</v>
       </c>
       <c r="F14" t="n">
-        <v>1342.016049182689</v>
+        <v>1319.504450359511</v>
       </c>
       <c r="G14" t="n">
-        <v>8630.961805216337</v>
+        <v>8929.808350953654</v>
       </c>
       <c r="H14" t="n">
         <v>1.28</v>
       </c>
       <c r="I14" t="n">
-        <v>545418</v>
+        <v>569869</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>135316020</v>
+        <v>132722139</v>
       </c>
       <c r="E15" t="n">
-        <v>135316020</v>
+        <v>132722139</v>
       </c>
       <c r="F15" t="n">
-        <v>44211.27237888705</v>
+        <v>56846.11717964402</v>
       </c>
       <c r="G15" t="n">
-        <v>75971.45295937255</v>
+        <v>72582.3240391093</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>67159059</v>
+        <v>63168712</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65088181</v>
+        <v>63493172</v>
       </c>
       <c r="E16" t="n">
-        <v>333785545</v>
+        <v>325606008</v>
       </c>
       <c r="F16" t="n">
-        <v>18499.28323871337</v>
+        <v>29829.09751001269</v>
       </c>
       <c r="G16" t="n">
-        <v>15446.60862751426</v>
+        <v>30034.72606198355</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>16981235</v>
+        <v>16983340</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>254187643</v>
+        <v>249535346</v>
       </c>
       <c r="E17" t="n">
-        <v>254187643</v>
+        <v>249535346</v>
       </c>
       <c r="F17" t="n">
-        <v>52640.71105884872</v>
+        <v>51772.25287822455</v>
       </c>
       <c r="G17" t="n">
-        <v>62855.15339615398</v>
+        <v>53708.94315862282</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14393823</v>
+        <v>14557084</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2531673</v>
+        <v>2536926</v>
       </c>
       <c r="E18" t="n">
-        <v>6472441</v>
+        <v>6485872</v>
       </c>
       <c r="F18" t="n">
-        <v>1018.68873858679</v>
+        <v>1052.662274856392</v>
       </c>
       <c r="G18" t="n">
-        <v>1100.592468747646</v>
+        <v>1680.735238245136</v>
       </c>
       <c r="H18" t="n">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>87751</v>
+        <v>121380</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75004866</v>
+        <v>72506356</v>
       </c>
       <c r="E19" t="n">
-        <v>209962043</v>
+        <v>202955755</v>
       </c>
       <c r="F19" t="n">
-        <v>13715.12071418572</v>
+        <v>20092.47936965729</v>
       </c>
       <c r="G19" t="n">
-        <v>22340.78883657406</v>
+        <v>18676.68582080964</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>30779201</v>
+        <v>31850857</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1574435</v>
+        <v>1578898</v>
       </c>
       <c r="E20" t="n">
-        <v>9039819</v>
+        <v>9065442</v>
       </c>
       <c r="F20" t="n">
-        <v>299.2441560943809</v>
+        <v>192.2589242221045</v>
       </c>
       <c r="G20" t="n">
-        <v>77.31388454381073</v>
+        <v>63.83092125389452</v>
       </c>
       <c r="H20" t="n">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="I20" t="n">
-        <v>324676</v>
+        <v>327506</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>152358</v>
+        <v>151926</v>
       </c>
       <c r="E21" t="n">
-        <v>1028894</v>
+        <v>1025970</v>
       </c>
       <c r="F21" t="n">
-        <v>5.233102989344751</v>
+        <v>70.55994738852117</v>
       </c>
       <c r="G21" t="n">
-        <v>5.279270169923963</v>
+        <v>129.1495341454486</v>
       </c>
       <c r="H21" t="n">
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="I21" t="n">
-        <v>2617539</v>
+        <v>2615919</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>271927</v>
+        <v>269910</v>
       </c>
       <c r="F22" t="n">
-        <v>173.6867627539497</v>
+        <v>173.6844651134743</v>
       </c>
       <c r="G22" t="n">
-        <v>145.2240352835735</v>
+        <v>260.7241674544738</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2671.91</v>
+        <v>2478.43</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73026766</v>
+        <v>71142571</v>
       </c>
       <c r="E23" t="n">
-        <v>152297892</v>
+        <v>148368389</v>
       </c>
       <c r="F23" t="n">
-        <v>25565.07160515417</v>
+        <v>37168.79406810633</v>
       </c>
       <c r="G23" t="n">
-        <v>45879.81334706611</v>
+        <v>46556.6165903928</v>
       </c>
       <c r="H23" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I23" t="n">
-        <v>13986781</v>
+        <v>13501489</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197610332</v>
+        <v>194315798</v>
       </c>
       <c r="E24" t="n">
-        <v>686516153</v>
+        <v>675070642</v>
       </c>
       <c r="F24" t="n">
-        <v>62641.26261161843</v>
+        <v>21399.49706426152</v>
       </c>
       <c r="G24" t="n">
-        <v>62826.18148034137</v>
+        <v>21236.72469056635</v>
       </c>
       <c r="H24" t="n">
         <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>25538568</v>
+        <v>26275018</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115003050</v>
+        <v>112624723</v>
       </c>
       <c r="E25" t="n">
-        <v>489434352</v>
+        <v>479262504</v>
       </c>
       <c r="F25" t="n">
-        <v>18493.47406777164</v>
+        <v>17122.57709693835</v>
       </c>
       <c r="G25" t="n">
-        <v>19148.99600782746</v>
+        <v>17362.43056009566</v>
       </c>
       <c r="H25" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I25" t="n">
-        <v>11682622</v>
+        <v>11518756</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5879127</v>
+        <v>5878274</v>
       </c>
       <c r="E26" t="n">
-        <v>7988686</v>
+        <v>7987693</v>
       </c>
       <c r="F26" t="n">
-        <v>289.2701433586495</v>
+        <v>447.8856065001593</v>
       </c>
       <c r="G26" t="n">
-        <v>2480.198658135161</v>
+        <v>2762.934405162006</v>
       </c>
       <c r="H26" t="n">
-        <v>0.55</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>6446150</v>
+        <v>6374217</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>529854</v>
+        <v>532083</v>
       </c>
       <c r="E27" t="n">
-        <v>6426612</v>
+        <v>6453652</v>
       </c>
       <c r="F27" t="n">
-        <v>617.6308573860356</v>
+        <v>135.0416673134376</v>
       </c>
       <c r="G27" t="n">
-        <v>598.7708768101572</v>
+        <v>862.0242225480182</v>
       </c>
       <c r="H27" t="n">
-        <v>0.35</v>
+        <v>1.09</v>
       </c>
       <c r="I27" t="n">
-        <v>2906816</v>
+        <v>2856769</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25323572</v>
+        <v>25086989</v>
       </c>
       <c r="E28" t="n">
-        <v>35793880</v>
+        <v>35459479</v>
       </c>
       <c r="F28" t="n">
-        <v>1799.236905816399</v>
+        <v>1661.31780698742</v>
       </c>
       <c r="G28" t="n">
-        <v>84.46420091912289</v>
+        <v>187.9825922910618</v>
       </c>
       <c r="H28" t="n">
-        <v>3.32</v>
+        <v>3.08</v>
       </c>
       <c r="I28" t="n">
-        <v>88038</v>
+        <v>88203</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1294522002</v>
+        <v>1262766366</v>
       </c>
       <c r="E29" t="n">
-        <v>6207498112</v>
+        <v>6055223333</v>
       </c>
       <c r="F29" t="n">
-        <v>151918.7594404506</v>
+        <v>139242.842803799</v>
       </c>
       <c r="G29" t="n">
-        <v>270408.1404414185</v>
+        <v>182354.0305777761</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>200490157</v>
+        <v>189367702</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>271069507</v>
+        <v>265951665</v>
       </c>
       <c r="E30" t="n">
-        <v>1170086475</v>
+        <v>1147995025</v>
       </c>
       <c r="F30" t="n">
-        <v>180097.9391302216</v>
+        <v>193926.1367390016</v>
       </c>
       <c r="G30" t="n">
-        <v>224675.3515776296</v>
+        <v>185884.5360589387</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>111854433</v>
+        <v>110626270</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5341665</v>
+        <v>5339029</v>
       </c>
       <c r="E31" t="n">
-        <v>5347711</v>
+        <v>5345072</v>
       </c>
       <c r="F31" t="n">
-        <v>127.4711910050655</v>
+        <v>128.0868559111394</v>
       </c>
       <c r="G31" t="n">
-        <v>139.7034878993533</v>
+        <v>129.6453409286046</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>155955</v>
+        <v>153388</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21629378</v>
+        <v>21259314</v>
       </c>
       <c r="E32" t="n">
-        <v>54073444</v>
+        <v>53148284</v>
       </c>
       <c r="F32" t="n">
-        <v>2585.162229235434</v>
+        <v>2248.974962722273</v>
       </c>
       <c r="G32" t="n">
-        <v>8341.260403886356</v>
+        <v>7208.235997092524</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="I32" t="n">
-        <v>2209493</v>
+        <v>2161916</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20192654</v>
+        <v>20146593</v>
       </c>
       <c r="F33" t="n">
-        <v>861.956106085467</v>
+        <v>685.7026272647973</v>
       </c>
       <c r="G33" t="n">
-        <v>1938.559377053648</v>
+        <v>1857.267548346122</v>
       </c>
       <c r="H33" t="n">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>127775</v>
+        <v>127723</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3573474</v>
+        <v>4058045</v>
       </c>
       <c r="E34" t="n">
-        <v>10293067</v>
+        <v>11688830</v>
       </c>
       <c r="F34" t="n">
-        <v>1306.754916595742</v>
+        <v>755.6383367225568</v>
       </c>
       <c r="G34" t="n">
-        <v>872.1073019088969</v>
+        <v>336.6696970232075</v>
       </c>
       <c r="H34" t="n">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="I34" t="n">
-        <v>394631</v>
+        <v>451968</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1676329</v>
+        <v>1704049</v>
       </c>
       <c r="F35" t="n">
-        <v>1.800931054408088</v>
+        <v>38.63627006338835</v>
       </c>
       <c r="G35" t="n">
-        <v>237.6074946321092</v>
+        <v>4.51602962930467</v>
       </c>
       <c r="H35" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="I35" t="n">
-        <v>15852.13</v>
+        <v>13398.45</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14153989</v>
+        <v>13948075</v>
       </c>
       <c r="E36" t="n">
-        <v>68550026</v>
+        <v>67552753</v>
       </c>
       <c r="F36" t="n">
-        <v>3581.724196856278</v>
+        <v>2830.619729466426</v>
       </c>
       <c r="G36" t="n">
-        <v>9688.751599404271</v>
+        <v>8785.652954273644</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I36" t="n">
-        <v>3550763</v>
+        <v>3503008</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1494519</v>
+        <v>1495841</v>
       </c>
       <c r="E37" t="n">
-        <v>9781588</v>
+        <v>9790239</v>
       </c>
       <c r="F37" t="n">
-        <v>619.8941787107295</v>
+        <v>799.3451262763897</v>
       </c>
       <c r="G37" t="n">
-        <v>15.05222355251814</v>
+        <v>19.76120903213999</v>
       </c>
       <c r="H37" t="n">
-        <v>2.02</v>
+        <v>1.02</v>
       </c>
       <c r="I37" t="n">
-        <v>532218</v>
+        <v>369993</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1871282692</v>
+        <v>1859840620</v>
       </c>
       <c r="F38" t="n">
-        <v>75367.84142504683</v>
+        <v>77682.75442316278</v>
       </c>
       <c r="G38" t="n">
-        <v>77665.04678471327</v>
+        <v>76910.9752642409</v>
       </c>
       <c r="H38" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="I38" t="n">
-        <v>25532377</v>
+        <v>25788296</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31873105</v>
+        <v>31605109</v>
       </c>
       <c r="E39" t="n">
-        <v>99242623</v>
+        <v>98408169</v>
       </c>
       <c r="F39" t="n">
-        <v>5060.621069899337</v>
+        <v>5371.375038607045</v>
       </c>
       <c r="G39" t="n">
-        <v>9026.18230508353</v>
+        <v>10329.16145987043</v>
       </c>
       <c r="H39" t="n">
         <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>12191005</v>
+        <v>12098858</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>199196507</v>
+        <v>194857125</v>
       </c>
       <c r="E40" t="n">
-        <v>1127973021</v>
+        <v>1103400772</v>
       </c>
       <c r="F40" t="n">
-        <v>47889.58535834883</v>
+        <v>47787.24778882451</v>
       </c>
       <c r="G40" t="n">
-        <v>75873.26712695451</v>
+        <v>71741.85957215738</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>59501866</v>
+        <v>59218814</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>138386721</v>
+        <v>137257274</v>
       </c>
       <c r="E41" t="n">
-        <v>1025086822</v>
+        <v>1016720546</v>
       </c>
       <c r="F41" t="n">
-        <v>154362.5560868613</v>
+        <v>99851.65044718244</v>
       </c>
       <c r="G41" t="n">
-        <v>225042.1031062409</v>
+        <v>214274.9863991056</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>12514549</v>
+        <v>12242967</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>33732690</v>
+        <v>31195171</v>
       </c>
       <c r="E42" t="n">
-        <v>160468350</v>
+        <v>148397226</v>
       </c>
       <c r="F42" t="n">
-        <v>5699.773932408735</v>
+        <v>5488.972370537547</v>
       </c>
       <c r="G42" t="n">
-        <v>1395.71806572482</v>
+        <v>8511.028384239175</v>
       </c>
       <c r="H42" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="I42" t="n">
-        <v>1335710</v>
+        <v>1347336</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3365589</v>
+        <v>3355411</v>
       </c>
       <c r="E43" t="n">
-        <v>7859210</v>
+        <v>7835443</v>
       </c>
       <c r="F43" t="n">
-        <v>2603.159549263316</v>
+        <v>1496.063441222542</v>
       </c>
       <c r="G43" t="n">
-        <v>610.8037557302066</v>
+        <v>287.217257172434</v>
       </c>
       <c r="H43" t="n">
-        <v>1.56</v>
+        <v>1.02</v>
       </c>
       <c r="I43" t="n">
-        <v>777377</v>
+        <v>757616</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>337957943</v>
+        <v>330589161</v>
       </c>
       <c r="E44" t="n">
-        <v>3040479219</v>
+        <v>2974185084</v>
       </c>
       <c r="F44" t="n">
-        <v>56036.65654660683</v>
+        <v>51360.52910595058</v>
       </c>
       <c r="G44" t="n">
-        <v>32237.54251185223</v>
+        <v>28597.81312083419</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>38388027</v>
+        <v>37172964</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>650791</v>
+        <v>645274</v>
       </c>
       <c r="F45" t="n">
-        <v>376.7066467289484</v>
+        <v>364.3963715950952</v>
       </c>
       <c r="G45" t="n">
-        <v>262.3047961901224</v>
+        <v>374.1139315190124</v>
       </c>
       <c r="H45" t="n">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>6250.31</v>
+        <v>6546.23</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1577205</v>
+        <v>1583966</v>
       </c>
       <c r="E46" t="n">
-        <v>13143377</v>
+        <v>13199713</v>
       </c>
       <c r="F46" t="n">
-        <v>442.7950147757397</v>
+        <v>250.6612948696394</v>
       </c>
       <c r="G46" t="n">
-        <v>1117.693693606691</v>
+        <v>324.1541454623348</v>
       </c>
       <c r="H46" t="n">
-        <v>0.38</v>
+        <v>0.83</v>
       </c>
       <c r="I46" t="n">
-        <v>48131</v>
+        <v>48622</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4920466</v>
+        <v>4915450</v>
       </c>
       <c r="E47" t="n">
-        <v>17387572</v>
+        <v>17369849</v>
       </c>
       <c r="F47" t="n">
-        <v>1010.570785848357</v>
+        <v>1069.825785740965</v>
       </c>
       <c r="G47" t="n">
-        <v>1464.647250049254</v>
+        <v>1396.161385378163</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>100782</v>
+        <v>106046</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42887369</v>
+        <v>42531743</v>
       </c>
       <c r="E48" t="n">
-        <v>248300145</v>
+        <v>246241217</v>
       </c>
       <c r="F48" t="n">
-        <v>21080.7961320997</v>
+        <v>21149.43091055295</v>
       </c>
       <c r="G48" t="n">
-        <v>13256.30670098138</v>
+        <v>14079.01143097762</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.57</v>
       </c>
       <c r="I48" t="n">
-        <v>11106259</v>
+        <v>11327000</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2380399</v>
+        <v>2353687</v>
       </c>
       <c r="E49" t="n">
-        <v>13078319</v>
+        <v>12931557</v>
       </c>
       <c r="F49" t="n">
-        <v>195.1288153086454</v>
+        <v>173.7356746171079</v>
       </c>
       <c r="G49" t="n">
-        <v>704.1659313200163</v>
+        <v>436.3263130612239</v>
       </c>
       <c r="H49" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="I49" t="n">
-        <v>41216</v>
+        <v>66775</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13677149</v>
+        <v>13475624</v>
       </c>
       <c r="E50" t="n">
-        <v>13723693</v>
+        <v>13521483</v>
       </c>
       <c r="F50" t="n">
-        <v>3819.473004330636</v>
+        <v>4962.785939295331</v>
       </c>
       <c r="G50" t="n">
-        <v>8608.052387667813</v>
+        <v>5523.394681416006</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5796648</v>
+        <v>5738897</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>26374433</v>
+        <v>26091399</v>
       </c>
       <c r="E51" t="n">
-        <v>79059741</v>
+        <v>78209705</v>
       </c>
       <c r="F51" t="n">
-        <v>22129.83723696267</v>
+        <v>9607.639850226777</v>
       </c>
       <c r="G51" t="n">
-        <v>26518.63209555507</v>
+        <v>26919.43812587006</v>
       </c>
       <c r="H51" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="I51" t="n">
-        <v>2351986</v>
+        <v>2415867</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15281016</v>
+        <v>15044755</v>
       </c>
       <c r="E52" t="n">
-        <v>93662370</v>
+        <v>92214251</v>
       </c>
       <c r="F52" t="n">
-        <v>5451.803380404057</v>
+        <v>6632.01914854831</v>
       </c>
       <c r="G52" t="n">
-        <v>10212.00580341112</v>
+        <v>6545.345926564241</v>
       </c>
       <c r="H52" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I52" t="n">
-        <v>11894972</v>
+        <v>11805339</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46169358</v>
+        <v>45830059</v>
       </c>
       <c r="E53" t="n">
-        <v>198892547</v>
+        <v>197430883</v>
       </c>
       <c r="F53" t="n">
-        <v>24567.32730141898</v>
+        <v>25064.79337102547</v>
       </c>
       <c r="G53" t="n">
-        <v>26288.37559051759</v>
+        <v>24594.62372049981</v>
       </c>
       <c r="H53" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8563560</v>
+        <v>8319909</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1022183</v>
+        <v>1020868</v>
       </c>
       <c r="E54" t="n">
-        <v>2987665</v>
+        <v>2983820</v>
       </c>
       <c r="F54" t="n">
-        <v>523.1523347324082</v>
+        <v>961.541956802909</v>
       </c>
       <c r="G54" t="n">
-        <v>411.1206910561748</v>
+        <v>936.9984945650082</v>
       </c>
       <c r="H54" t="n">
-        <v>0.66</v>
+        <v>1.32</v>
       </c>
       <c r="I54" t="n">
-        <v>11879.25</v>
+        <v>13799.71</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>36223613</v>
+        <v>35697731</v>
       </c>
       <c r="E55" t="n">
-        <v>91338562</v>
+        <v>90012539</v>
       </c>
       <c r="F55" t="n">
-        <v>12418.41292523219</v>
+        <v>11451.46714202643</v>
       </c>
       <c r="G55" t="n">
-        <v>11173.6995334694</v>
+        <v>7343.360472732752</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2819303</v>
+        <v>2819983</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28163288</v>
+        <v>28081338</v>
       </c>
       <c r="E56" t="n">
-        <v>66908971</v>
+        <v>66714277</v>
       </c>
       <c r="F56" t="n">
-        <v>10440.88265267922</v>
+        <v>10364.71467340396</v>
       </c>
       <c r="G56" t="n">
-        <v>10023.95656405927</v>
+        <v>13209.05992984435</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>647116</v>
+        <v>588347</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12033148</v>
+        <v>12074369</v>
       </c>
       <c r="E57" t="n">
-        <v>18339311</v>
+        <v>18402135</v>
       </c>
       <c r="F57" t="n">
-        <v>3853.541771306794</v>
+        <v>3887.217487707176</v>
       </c>
       <c r="G57" t="n">
-        <v>2152.118702575257</v>
+        <v>2546.556890562551</v>
       </c>
       <c r="H57" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I57" t="n">
-        <v>664844</v>
+        <v>668015</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>300642893</v>
+        <v>296907905</v>
       </c>
       <c r="E58" t="n">
-        <v>300642893</v>
+        <v>296907905</v>
       </c>
       <c r="F58" t="n">
-        <v>48200.75662262928</v>
+        <v>50445.24350851111</v>
       </c>
       <c r="G58" t="n">
-        <v>71632.74564221634</v>
+        <v>68843.77841277556</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>51979216</v>
+        <v>50222000</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11940757</v>
+        <v>11890632</v>
       </c>
       <c r="F59" t="n">
-        <v>214.9521468560824</v>
+        <v>1289.782935679389</v>
       </c>
       <c r="G59" t="n">
-        <v>107.3950257107933</v>
+        <v>138.4555305643987</v>
       </c>
       <c r="H59" t="n">
-        <v>0.98</v>
+        <v>1.18</v>
       </c>
       <c r="I59" t="n">
-        <v>160775</v>
+        <v>110454</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89197912</v>
+        <v>88692076</v>
       </c>
       <c r="E60" t="n">
-        <v>513996843</v>
+        <v>511081998</v>
       </c>
       <c r="F60" t="n">
-        <v>98500.98918610513</v>
+        <v>101986.6403685758</v>
       </c>
       <c r="G60" t="n">
-        <v>95608.40441072271</v>
+        <v>92172.08806555436</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I60" t="n">
-        <v>15887885</v>
+        <v>15878963</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9316643</v>
+        <v>9266978</v>
       </c>
       <c r="E61" t="n">
-        <v>9316643</v>
+        <v>9266978</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.76</v>
+        <v>6.52</v>
       </c>
       <c r="I61" t="n">
-        <v>2038137</v>
+        <v>2057391</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30357644</v>
+        <v>29817122</v>
       </c>
       <c r="E62" t="n">
-        <v>135923628</v>
+        <v>133503485</v>
       </c>
       <c r="F62" t="n">
-        <v>15520.53329028862</v>
+        <v>27128.76822722644</v>
       </c>
       <c r="G62" t="n">
-        <v>32491.80279778988</v>
+        <v>22071.26133889582</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I62" t="n">
-        <v>9441480</v>
+        <v>8978891</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13078944</v>
+        <v>13100744</v>
       </c>
       <c r="E63" t="n">
-        <v>26146468</v>
+        <v>26190049</v>
       </c>
       <c r="F63" t="n">
-        <v>2088.323890330837</v>
+        <v>2055.354377261253</v>
       </c>
       <c r="G63" t="n">
-        <v>1971.670711266287</v>
+        <v>2098.839135852741</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>40364</v>
+        <v>47731</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1495306</v>
+        <v>1415210</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>7.96</v>
+        <v>7.33</v>
       </c>
       <c r="I64" t="n">
-        <v>69648</v>
+        <v>50201</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47662382</v>
+        <v>46677730</v>
       </c>
       <c r="E65" t="n">
-        <v>309077860</v>
+        <v>302692655</v>
       </c>
       <c r="F65" t="n">
-        <v>19421.86159917629</v>
+        <v>24086.55371095792</v>
       </c>
       <c r="G65" t="n">
-        <v>17157.56940617643</v>
+        <v>12445.06542519119</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I65" t="n">
-        <v>16854735</v>
+        <v>17301615</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4769318</v>
+        <v>4779855</v>
       </c>
       <c r="F66" t="n">
-        <v>1279.212926740433</v>
+        <v>1399.554804322004</v>
       </c>
       <c r="G66" t="n">
-        <v>1415.014622900675</v>
+        <v>1097.695769840041</v>
       </c>
       <c r="H66" t="n">
         <v>0.92</v>
       </c>
       <c r="I66" t="n">
-        <v>155236</v>
+        <v>91216</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125338599</v>
+        <v>125105020</v>
       </c>
       <c r="E67" t="n">
-        <v>2075709857</v>
+        <v>2071841597</v>
       </c>
       <c r="F67" t="n">
-        <v>20206.35915684093</v>
+        <v>21263.07659635185</v>
       </c>
       <c r="G67" t="n">
-        <v>24466.80413103487</v>
+        <v>24176.02111914898</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5133554</v>
+        <v>5041479</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23528163</v>
+        <v>23056015</v>
       </c>
       <c r="E68" t="n">
-        <v>140773731</v>
+        <v>137948774</v>
       </c>
       <c r="F68" t="n">
-        <v>44630.1760824286</v>
+        <v>44001.48052266866</v>
       </c>
       <c r="G68" t="n">
-        <v>44290.79397405508</v>
+        <v>9403.911815998159</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>13192081</v>
+        <v>12839171</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23388321</v>
+        <v>23319263</v>
       </c>
       <c r="E70" t="n">
-        <v>23388646</v>
+        <v>23319263</v>
       </c>
       <c r="F70" t="n">
-        <v>2905.20635615991</v>
+        <v>7331.127840246024</v>
       </c>
       <c r="G70" t="n">
-        <v>2729.612162282112</v>
+        <v>3220.36932537031</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="I70" t="n">
-        <v>1852402</v>
+        <v>1813167</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34251169</v>
+        <v>33568013</v>
       </c>
       <c r="E71" t="n">
-        <v>170929123</v>
+        <v>167519858</v>
       </c>
       <c r="F71" t="n">
-        <v>18570.9499710744</v>
+        <v>18096.60665247137</v>
       </c>
       <c r="G71" t="n">
-        <v>33767.78494901445</v>
+        <v>46127.47851156654</v>
       </c>
       <c r="H71" t="n">
-        <v>1.16</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>9820664</v>
+        <v>9789600</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>169940</v>
+        <v>168669</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>14128.49</v>
+        <v>13118.97</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>313233258</v>
+        <v>308623474</v>
       </c>
       <c r="E73" t="n">
-        <v>579552959</v>
+        <v>571023808</v>
       </c>
       <c r="F73" t="n">
-        <v>64286.74606232761</v>
+        <v>66029.3659901247</v>
       </c>
       <c r="G73" t="n">
-        <v>72622.84811594988</v>
+        <v>70282.3485918425</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>12228794</v>
+        <v>12428592</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10061121</v>
+        <v>10022002</v>
       </c>
       <c r="E74" t="n">
-        <v>30000181</v>
+        <v>29883536</v>
       </c>
       <c r="F74" t="n">
-        <v>1250.878390006623</v>
+        <v>1002.437196763539</v>
       </c>
       <c r="G74" t="n">
-        <v>1233.018627631366</v>
+        <v>1152.772846143613</v>
       </c>
       <c r="H74" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I74" t="n">
-        <v>5289492</v>
+        <v>5391781</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7848462</v>
+        <v>7865486</v>
       </c>
       <c r="E75" t="n">
-        <v>11182259</v>
+        <v>11206516</v>
       </c>
       <c r="F75" t="n">
-        <v>2968.4609090873</v>
+        <v>188.8446130821347</v>
       </c>
       <c r="G75" t="n">
-        <v>108.636819698938</v>
+        <v>2862.106001248294</v>
       </c>
       <c r="H75" t="n">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="I75" t="n">
-        <v>311651</v>
+        <v>303717</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16360445</v>
+        <v>16512570</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2988993196422225</v>
+        <v>0.2958820438807319</v>
       </c>
       <c r="G76" t="n">
-        <v>108.0127329822259</v>
+        <v>4.946725140486222</v>
       </c>
       <c r="H76" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="I76" t="n">
-        <v>366738</v>
+        <v>982411</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61206309</v>
+        <v>61011539</v>
       </c>
       <c r="E77" t="n">
-        <v>101259686</v>
+        <v>100937458</v>
       </c>
       <c r="F77" t="n">
-        <v>8723.016454104078</v>
+        <v>12877.65976287753</v>
       </c>
       <c r="G77" t="n">
-        <v>19415.82259179789</v>
+        <v>17466.4721808495</v>
       </c>
       <c r="H77" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="I77" t="n">
-        <v>5644958</v>
+        <v>5715104</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5322303</v>
+        <v>5346002</v>
       </c>
       <c r="E78" t="n">
-        <v>5322303</v>
+        <v>5346002</v>
       </c>
       <c r="F78" t="n">
-        <v>1138.605839348256</v>
+        <v>1704.974064571788</v>
       </c>
       <c r="G78" t="n">
-        <v>349.2719707725652</v>
+        <v>189.0413831258969</v>
       </c>
       <c r="H78" t="n">
         <v>1.32</v>
       </c>
       <c r="I78" t="n">
-        <v>1095961</v>
+        <v>1103470</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59351</v>
+        <v>58595</v>
       </c>
       <c r="E79" t="n">
-        <v>309668</v>
+        <v>305725</v>
       </c>
       <c r="F79" t="n">
-        <v>42.6490479569292</v>
+        <v>22.81469861530282</v>
       </c>
       <c r="G79" t="n">
-        <v>329.9664024570056</v>
+        <v>83.45446175028168</v>
       </c>
       <c r="H79" t="n">
-        <v>0.22</v>
+        <v>0.55</v>
       </c>
       <c r="I79" t="n">
-        <v>303926</v>
+        <v>301881</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>28099657</v>
+        <v>28007422</v>
       </c>
       <c r="F80" t="n">
-        <v>1217.83764872657</v>
+        <v>1252.819148237626</v>
       </c>
       <c r="G80" t="n">
-        <v>1274.485687205856</v>
+        <v>220.6337438450481</v>
       </c>
       <c r="H80" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="I80" t="n">
-        <v>37779</v>
+        <v>47172</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>598746822</v>
+        <v>590601980</v>
       </c>
       <c r="E81" t="n">
-        <v>2318858104</v>
+        <v>2287314332</v>
       </c>
       <c r="F81" t="n">
-        <v>163764.7067544984</v>
+        <v>153849.6364796352</v>
       </c>
       <c r="G81" t="n">
-        <v>189506.7668317369</v>
+        <v>187075.7921118398</v>
       </c>
       <c r="H81" t="n">
         <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>30668884</v>
+        <v>29773106</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7072495</v>
+        <v>7044867</v>
       </c>
       <c r="E82" t="n">
-        <v>10134621</v>
+        <v>10095030</v>
       </c>
       <c r="F82" t="n">
-        <v>1042.69529673151</v>
+        <v>1442.914436196464</v>
       </c>
       <c r="G82" t="n">
-        <v>947.4380326775029</v>
+        <v>822.7742734812864</v>
       </c>
       <c r="H82" t="n">
         <v>0.98</v>
       </c>
       <c r="I82" t="n">
-        <v>142195</v>
+        <v>142584</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>118273350</v>
+        <v>116384642</v>
       </c>
       <c r="E83" t="n">
-        <v>1028314087</v>
+        <v>1011892932</v>
       </c>
       <c r="F83" t="n">
-        <v>38775.79437260154</v>
+        <v>46321.67306322221</v>
       </c>
       <c r="G83" t="n">
-        <v>43827.39775099221</v>
+        <v>43883.72984383424</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I83" t="n">
-        <v>9622034</v>
+        <v>9524838</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1132430</v>
+        <v>1096716</v>
       </c>
       <c r="E84" t="n">
-        <v>4385016</v>
+        <v>4246723</v>
       </c>
       <c r="F84" t="n">
-        <v>338.4532199320109</v>
+        <v>444.9376957619138</v>
       </c>
       <c r="G84" t="n">
-        <v>818.9666909535933</v>
+        <v>1707.367212636089</v>
       </c>
       <c r="H84" t="n">
-        <v>1.13</v>
+        <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>428428</v>
+        <v>433653</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>108382510</v>
+        <v>106731753</v>
       </c>
       <c r="E85" t="n">
-        <v>415772755</v>
+        <v>409440183</v>
       </c>
       <c r="F85" t="n">
-        <v>76668.76012710624</v>
+        <v>81331.85280318043</v>
       </c>
       <c r="G85" t="n">
-        <v>86659.92466953896</v>
+        <v>88177.20012279219</v>
       </c>
       <c r="H85" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>18903787</v>
+        <v>18623287</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5093623</v>
+        <v>5091051</v>
       </c>
       <c r="E86" t="n">
-        <v>18967608</v>
+        <v>18958033</v>
       </c>
       <c r="F86" t="n">
-        <v>5535.363929039577</v>
+        <v>5763.96968284592</v>
       </c>
       <c r="G86" t="n">
-        <v>5942.335493874177</v>
+        <v>5830.471155020172</v>
       </c>
       <c r="H86" t="n">
         <v>0.47</v>
       </c>
       <c r="I86" t="n">
-        <v>59950</v>
+        <v>57926</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31212178</v>
+        <v>30872107</v>
       </c>
       <c r="F87" t="n">
-        <v>3733.366377955548</v>
+        <v>4481.274672243468</v>
       </c>
       <c r="G87" t="n">
-        <v>2274.380522597363</v>
+        <v>1493.10343118845</v>
       </c>
       <c r="H87" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I87" t="n">
-        <v>5662111</v>
+        <v>6007097</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24517361</v>
+        <v>24271428</v>
       </c>
       <c r="F88" t="n">
-        <v>688.6983620463889</v>
+        <v>1218.180938467555</v>
       </c>
       <c r="G88" t="n">
-        <v>916.1017066141918</v>
+        <v>837.9796271401259</v>
       </c>
       <c r="H88" t="n">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="I88" t="n">
-        <v>11974.76</v>
+        <v>11712.12</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87494632</v>
+        <v>87483142</v>
       </c>
       <c r="E89" t="n">
-        <v>323447490</v>
+        <v>323403917</v>
       </c>
       <c r="F89" t="n">
-        <v>1318.443019104617</v>
+        <v>1259.658218449916</v>
       </c>
       <c r="G89" t="n">
-        <v>1653.652499912801</v>
+        <v>1497.153984057079</v>
       </c>
       <c r="H89" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="I89" t="n">
-        <v>368242</v>
+        <v>363042</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20594307</v>
+        <v>19904398</v>
       </c>
       <c r="E90" t="n">
-        <v>20594307</v>
+        <v>19904398</v>
       </c>
       <c r="F90" t="n">
-        <v>4489.015268948147</v>
+        <v>3284.270918675481</v>
       </c>
       <c r="G90" t="n">
-        <v>3629.697286760219</v>
+        <v>3910.093687136535</v>
       </c>
       <c r="H90" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="I90" t="n">
-        <v>7174762</v>
+        <v>7068301</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3842638</v>
+        <v>3830443</v>
       </c>
       <c r="E91" t="n">
-        <v>8384586</v>
+        <v>8357977</v>
       </c>
       <c r="F91" t="n">
-        <v>1606.779203399253</v>
+        <v>1980.013553495585</v>
       </c>
       <c r="G91" t="n">
-        <v>1463.802734010649</v>
+        <v>1140.908992407818</v>
       </c>
       <c r="H91" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>1005545</v>
+        <v>994575</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>487923003</v>
+        <v>480964723</v>
       </c>
       <c r="E92" t="n">
-        <v>1699281039</v>
+        <v>1675047557</v>
       </c>
       <c r="F92" t="n">
-        <v>152699.4451789574</v>
+        <v>154959.4121783561</v>
       </c>
       <c r="G92" t="n">
-        <v>178103.5295241604</v>
+        <v>144327.0571736613</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30997629</v>
+        <v>30701055</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2655841</v>
+        <v>2657950</v>
       </c>
       <c r="E93" t="n">
-        <v>10623365</v>
+        <v>10631802</v>
       </c>
       <c r="F93" t="n">
-        <v>2038.634263349493</v>
+        <v>2171.985341214629</v>
       </c>
       <c r="G93" t="n">
-        <v>3629.617577138052</v>
+        <v>3208.319712783908</v>
       </c>
       <c r="H93" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I93" t="n">
-        <v>4951460</v>
+        <v>4951666</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>213060929</v>
+        <v>210542923</v>
       </c>
       <c r="E94" t="n">
-        <v>655082177</v>
+        <v>647340256</v>
       </c>
       <c r="F94" t="n">
-        <v>105431.5669696432</v>
+        <v>105057.9326925636</v>
       </c>
       <c r="G94" t="n">
-        <v>81499.52698470801</v>
+        <v>87143.82363507505</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11150790</v>
+        <v>11211313</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>151153086</v>
+        <v>146439046</v>
       </c>
       <c r="E95" t="n">
-        <v>394883246</v>
+        <v>382567948</v>
       </c>
       <c r="F95" t="n">
-        <v>26480.72965645136</v>
+        <v>5741.832685346698</v>
       </c>
       <c r="G95" t="n">
-        <v>31414.18877402751</v>
+        <v>4812.314786618621</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="I95" t="n">
-        <v>7057467</v>
+        <v>6929429</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>405223467</v>
+        <v>397688697</v>
       </c>
       <c r="E96" t="n">
-        <v>2315562668</v>
+        <v>2272506840</v>
       </c>
       <c r="F96" t="n">
-        <v>27130.55164983039</v>
+        <v>25851.51589212759</v>
       </c>
       <c r="G96" t="n">
-        <v>34079.67766777818</v>
+        <v>33722.56084666139</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36985834</v>
+        <v>36224041</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>603667169</v>
+        <v>603718968</v>
       </c>
       <c r="E2" t="n">
-        <v>1171282121</v>
+        <v>1171364242</v>
       </c>
       <c r="F2" t="n">
-        <v>20095.89901811494</v>
+        <v>16601.33554733224</v>
       </c>
       <c r="G2" t="n">
-        <v>34476.9730823003</v>
+        <v>26408.9177381644</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I2" t="n">
-        <v>22063758</v>
+        <v>22201579</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1331710</v>
+        <v>1330863</v>
       </c>
       <c r="E3" t="n">
-        <v>4304633</v>
+        <v>4301896</v>
       </c>
       <c r="F3" t="n">
-        <v>3673.196234993249</v>
+        <v>4316.42060963209</v>
       </c>
       <c r="G3" t="n">
-        <v>4545.199597443184</v>
+        <v>5610.451652540217</v>
       </c>
       <c r="H3" t="n">
         <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>81440</v>
+        <v>77267</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>242712283</v>
+        <v>243452124</v>
       </c>
       <c r="E4" t="n">
-        <v>1522014609</v>
+        <v>1526654052</v>
       </c>
       <c r="F4" t="n">
-        <v>136257.3454864706</v>
+        <v>137892.4491450182</v>
       </c>
       <c r="G4" t="n">
-        <v>140270.9788738755</v>
+        <v>134712.8315203115</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>15511311</v>
+        <v>15373787</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138525000</v>
+        <v>139124601</v>
       </c>
       <c r="E5" t="n">
-        <v>153507826</v>
+        <v>154172280</v>
       </c>
       <c r="F5" t="n">
-        <v>8527.721261896055</v>
+        <v>7317.35507691882</v>
       </c>
       <c r="G5" t="n">
-        <v>25019.50183512099</v>
+        <v>31051.68065511787</v>
       </c>
       <c r="H5" t="n">
         <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>32023209</v>
+        <v>32923047</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>674047</v>
+        <v>665612</v>
       </c>
       <c r="E6" t="n">
-        <v>13095063</v>
+        <v>12931194</v>
       </c>
       <c r="F6" t="n">
-        <v>329.9409568352263</v>
+        <v>378.0042192332745</v>
       </c>
       <c r="G6" t="n">
-        <v>251.2555279468717</v>
+        <v>204.0650107990079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.62</v>
+        <v>1.23</v>
       </c>
       <c r="I6" t="n">
-        <v>22415</v>
+        <v>24534</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>459133012</v>
+        <v>466337076</v>
       </c>
       <c r="E7" t="n">
-        <v>459133010</v>
+        <v>466337076</v>
       </c>
       <c r="F7" t="n">
-        <v>44041.83944334013</v>
+        <v>61137.32762610571</v>
       </c>
       <c r="G7" t="n">
-        <v>61593.72721584542</v>
+        <v>58111.61269301381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>56019237</v>
+        <v>70780928</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4672260</v>
+        <v>4670590</v>
       </c>
       <c r="E8" t="n">
-        <v>4672260</v>
+        <v>4670590</v>
       </c>
       <c r="F8" t="n">
-        <v>1129.570826000386</v>
+        <v>880.3809575880613</v>
       </c>
       <c r="G8" t="n">
-        <v>970.252509513027</v>
+        <v>1659.424557395729</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3</v>
+        <v>0.74</v>
       </c>
       <c r="I8" t="n">
-        <v>1292058</v>
+        <v>1900586</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1736037</v>
+        <v>1725066</v>
       </c>
       <c r="F9" t="n">
-        <v>52.67739819031341</v>
+        <v>1856.742080516817</v>
       </c>
       <c r="G9" t="n">
-        <v>101.4969989310036</v>
+        <v>2381.827062764531</v>
       </c>
       <c r="H9" t="n">
-        <v>2.63</v>
+        <v>1.35</v>
       </c>
       <c r="I9" t="n">
-        <v>109124</v>
+        <v>112691</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1554259</v>
+        <v>1552604</v>
       </c>
       <c r="F10" t="n">
-        <v>306.6165389897108</v>
+        <v>279.9464023802881</v>
       </c>
       <c r="G10" t="n">
-        <v>1778.521027413162</v>
+        <v>1837.186521044018</v>
       </c>
       <c r="H10" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="I10" t="n">
-        <v>173835</v>
+        <v>177895</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103768441</v>
+        <v>103889122</v>
       </c>
       <c r="E11" t="n">
-        <v>195487443</v>
+        <v>195714791</v>
       </c>
       <c r="F11" t="n">
-        <v>1584.771081512006</v>
+        <v>1562.963931675305</v>
       </c>
       <c r="G11" t="n">
-        <v>2300.561537803543</v>
+        <v>2300.511692798533</v>
       </c>
       <c r="H11" t="n">
         <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>4296570</v>
+        <v>4300796</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12673443</v>
+        <v>12812763</v>
       </c>
       <c r="E12" t="n">
-        <v>32586728</v>
+        <v>32266758</v>
       </c>
       <c r="F12" t="n">
-        <v>717.3167625488232</v>
+        <v>2769.101787119174</v>
       </c>
       <c r="G12" t="n">
-        <v>1430.97344338472</v>
+        <v>576.2076472567073</v>
       </c>
       <c r="H12" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="I12" t="n">
-        <v>1567812</v>
+        <v>1584186</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>106880382</v>
+        <v>107540555</v>
       </c>
       <c r="E13" t="n">
-        <v>416182459</v>
+        <v>418728867</v>
       </c>
       <c r="F13" t="n">
-        <v>14861.93347492604</v>
+        <v>24696.24794618022</v>
       </c>
       <c r="G13" t="n">
-        <v>28231.47301472953</v>
+        <v>27118.06431355088</v>
       </c>
       <c r="H13" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>6577442</v>
+        <v>6580604</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5262558</v>
+        <v>5356871</v>
       </c>
       <c r="E14" t="n">
-        <v>7746771</v>
+        <v>7885604</v>
       </c>
       <c r="F14" t="n">
-        <v>1319.504450359511</v>
+        <v>742.3493755522915</v>
       </c>
       <c r="G14" t="n">
-        <v>8929.808350953654</v>
+        <v>5747.555680543854</v>
       </c>
       <c r="H14" t="n">
         <v>1.28</v>
       </c>
       <c r="I14" t="n">
-        <v>569869</v>
+        <v>586204</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>132722139</v>
+        <v>133555219</v>
       </c>
       <c r="E15" t="n">
-        <v>132722139</v>
+        <v>133555219</v>
       </c>
       <c r="F15" t="n">
-        <v>56846.11717964402</v>
+        <v>52029.45137414717</v>
       </c>
       <c r="G15" t="n">
-        <v>72582.3240391093</v>
+        <v>71360.92741989084</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>63168712</v>
+        <v>63208332</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63493172</v>
+        <v>63702129</v>
       </c>
       <c r="E16" t="n">
-        <v>325606008</v>
+        <v>326677584</v>
       </c>
       <c r="F16" t="n">
-        <v>29829.09751001269</v>
+        <v>25552.78219139274</v>
       </c>
       <c r="G16" t="n">
-        <v>30034.72606198355</v>
+        <v>30767.57622825391</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>16983340</v>
+        <v>18017266</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249535346</v>
+        <v>249070807</v>
       </c>
       <c r="E17" t="n">
-        <v>249535346</v>
+        <v>249070807</v>
       </c>
       <c r="F17" t="n">
-        <v>51772.25287822455</v>
+        <v>62071.39872820398</v>
       </c>
       <c r="G17" t="n">
-        <v>53708.94315862282</v>
+        <v>50868.71306079833</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14557084</v>
+        <v>14796417</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2536926</v>
+        <v>2535808</v>
       </c>
       <c r="E18" t="n">
-        <v>6485872</v>
+        <v>6483012</v>
       </c>
       <c r="F18" t="n">
-        <v>1052.662274856392</v>
+        <v>1047.586215902826</v>
       </c>
       <c r="G18" t="n">
-        <v>1680.735238245136</v>
+        <v>1303.771670035162</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>121380</v>
+        <v>122076</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72506356</v>
+        <v>71847414</v>
       </c>
       <c r="E19" t="n">
-        <v>202955755</v>
+        <v>201120723</v>
       </c>
       <c r="F19" t="n">
-        <v>20092.47936965729</v>
+        <v>18379.99151841709</v>
       </c>
       <c r="G19" t="n">
-        <v>18676.68582080964</v>
+        <v>20243.9551066512</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>31850857</v>
+        <v>32209704</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1578898</v>
+        <v>1573486</v>
       </c>
       <c r="E20" t="n">
-        <v>9065442</v>
+        <v>9034369</v>
       </c>
       <c r="F20" t="n">
-        <v>192.2589242221045</v>
+        <v>174.4827223847685</v>
       </c>
       <c r="G20" t="n">
-        <v>63.83092125389452</v>
+        <v>50.75239715705244</v>
       </c>
       <c r="H20" t="n">
-        <v>0.99</v>
+        <v>1.22</v>
       </c>
       <c r="I20" t="n">
-        <v>327506</v>
+        <v>329165</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151926</v>
+        <v>150628</v>
       </c>
       <c r="E21" t="n">
-        <v>1025970</v>
+        <v>1017208</v>
       </c>
       <c r="F21" t="n">
-        <v>70.55994738852117</v>
+        <v>4.151922556567516</v>
       </c>
       <c r="G21" t="n">
-        <v>129.1495341454486</v>
+        <v>5.851963391621346</v>
       </c>
       <c r="H21" t="n">
-        <v>0.44</v>
+        <v>1.36</v>
       </c>
       <c r="I21" t="n">
-        <v>2615919</v>
+        <v>2619600</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269910</v>
+        <v>269620</v>
       </c>
       <c r="F22" t="n">
-        <v>173.6844651134743</v>
+        <v>51.56935472850323</v>
       </c>
       <c r="G22" t="n">
-        <v>260.7241674544738</v>
+        <v>196.2582104222129</v>
       </c>
       <c r="H22" t="n">
-        <v>3.28</v>
+        <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>2478.43</v>
+        <v>2486.63</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71142571</v>
+        <v>71314323</v>
       </c>
       <c r="E23" t="n">
-        <v>148368389</v>
+        <v>148726579</v>
       </c>
       <c r="F23" t="n">
-        <v>37168.79406810633</v>
+        <v>35168.54465021288</v>
       </c>
       <c r="G23" t="n">
-        <v>46556.6165903928</v>
+        <v>45093.11275866889</v>
       </c>
       <c r="H23" t="n">
         <v>0.25</v>
       </c>
       <c r="I23" t="n">
-        <v>13501489</v>
+        <v>13659620</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>194315798</v>
+        <v>196112339</v>
       </c>
       <c r="E24" t="n">
-        <v>675070642</v>
+        <v>681311989</v>
       </c>
       <c r="F24" t="n">
-        <v>21399.49706426152</v>
+        <v>60624.85611715083</v>
       </c>
       <c r="G24" t="n">
-        <v>21236.72469056635</v>
+        <v>60153.9124765082</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>26275018</v>
+        <v>26270887</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>112624723</v>
+        <v>111789145</v>
       </c>
       <c r="E25" t="n">
-        <v>479262504</v>
+        <v>475656807</v>
       </c>
       <c r="F25" t="n">
-        <v>17122.57709693835</v>
+        <v>16355.60342424262</v>
       </c>
       <c r="G25" t="n">
-        <v>17362.43056009566</v>
+        <v>17801.66095623309</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I25" t="n">
-        <v>11518756</v>
+        <v>11620567</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5878274</v>
+        <v>5894386</v>
       </c>
       <c r="E26" t="n">
-        <v>7987693</v>
+        <v>8009542</v>
       </c>
       <c r="F26" t="n">
-        <v>447.8856065001593</v>
+        <v>1475.971044176886</v>
       </c>
       <c r="G26" t="n">
-        <v>2762.934405162006</v>
+        <v>1263.259792587492</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I26" t="n">
-        <v>6374217</v>
+        <v>6402892</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>532083</v>
+        <v>531521</v>
       </c>
       <c r="E27" t="n">
-        <v>6453652</v>
+        <v>6446832</v>
       </c>
       <c r="F27" t="n">
-        <v>135.0416673134376</v>
+        <v>733.1576145380943</v>
       </c>
       <c r="G27" t="n">
-        <v>862.0242225480182</v>
+        <v>889.3581086445523</v>
       </c>
       <c r="H27" t="n">
-        <v>1.09</v>
+        <v>0.54</v>
       </c>
       <c r="I27" t="n">
-        <v>2856769</v>
+        <v>2806568</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25086989</v>
+        <v>24996279</v>
       </c>
       <c r="E28" t="n">
-        <v>35459479</v>
+        <v>35331264</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.31780698742</v>
+        <v>2019.74997756887</v>
       </c>
       <c r="G28" t="n">
-        <v>187.9825922910618</v>
+        <v>252.4423097873595</v>
       </c>
       <c r="H28" t="n">
-        <v>3.08</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>88203</v>
+        <v>90018</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1262766366</v>
+        <v>1260661608</v>
       </c>
       <c r="E29" t="n">
-        <v>6055223333</v>
+        <v>6045130588</v>
       </c>
       <c r="F29" t="n">
-        <v>139242.842803799</v>
+        <v>163278.3064158938</v>
       </c>
       <c r="G29" t="n">
-        <v>182354.0305777761</v>
+        <v>169145.6569287047</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>189367702</v>
+        <v>183941816</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>265951665</v>
+        <v>264334250</v>
       </c>
       <c r="E30" t="n">
-        <v>1147995025</v>
+        <v>1141013365</v>
       </c>
       <c r="F30" t="n">
-        <v>193926.1367390016</v>
+        <v>194171.1364839815</v>
       </c>
       <c r="G30" t="n">
-        <v>185884.5360589387</v>
+        <v>160266.1513511473</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>110626270</v>
+        <v>112000755</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5339029</v>
+        <v>5339775</v>
       </c>
       <c r="E31" t="n">
-        <v>5345072</v>
+        <v>5345818</v>
       </c>
       <c r="F31" t="n">
-        <v>128.0868559111394</v>
+        <v>128.6646561338602</v>
       </c>
       <c r="G31" t="n">
-        <v>129.6453409286046</v>
+        <v>130.2228363577333</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>153388</v>
+        <v>153082</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21259314</v>
+        <v>21283720</v>
       </c>
       <c r="E32" t="n">
-        <v>53148284</v>
+        <v>53209299</v>
       </c>
       <c r="F32" t="n">
-        <v>2248.974962722273</v>
+        <v>1945.891241711167</v>
       </c>
       <c r="G32" t="n">
-        <v>7208.235997092524</v>
+        <v>6000.204652083327</v>
       </c>
       <c r="H32" t="n">
-        <v>0.34</v>
+        <v>0.67</v>
       </c>
       <c r="I32" t="n">
-        <v>2161916</v>
+        <v>2045133</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20146593</v>
+        <v>20145487</v>
       </c>
       <c r="F33" t="n">
-        <v>685.7026272647973</v>
+        <v>715.7773911779009</v>
       </c>
       <c r="G33" t="n">
-        <v>1857.267548346122</v>
+        <v>1182.880810089687</v>
       </c>
       <c r="H33" t="n">
         <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>127723</v>
+        <v>128315</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4058045</v>
+        <v>3998979</v>
       </c>
       <c r="E34" t="n">
-        <v>11688830</v>
+        <v>11518680</v>
       </c>
       <c r="F34" t="n">
-        <v>755.6383367225568</v>
+        <v>455.0857527867196</v>
       </c>
       <c r="G34" t="n">
-        <v>336.6696970232075</v>
+        <v>307.0523331787064</v>
       </c>
       <c r="H34" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="I34" t="n">
-        <v>451968</v>
+        <v>506417</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1704049</v>
+        <v>1779095</v>
       </c>
       <c r="F35" t="n">
-        <v>38.63627006338835</v>
+        <v>178.9016591068876</v>
       </c>
       <c r="G35" t="n">
-        <v>4.51602962930467</v>
+        <v>122.7175967449375</v>
       </c>
       <c r="H35" t="n">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="I35" t="n">
-        <v>13398.45</v>
+        <v>13107.69</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13948075</v>
+        <v>13838900</v>
       </c>
       <c r="E36" t="n">
-        <v>67552753</v>
+        <v>67024000</v>
       </c>
       <c r="F36" t="n">
-        <v>2830.619729466426</v>
+        <v>4748.254848219427</v>
       </c>
       <c r="G36" t="n">
-        <v>8785.652954273644</v>
+        <v>7084.063310747672</v>
       </c>
       <c r="H36" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="I36" t="n">
-        <v>3503008</v>
+        <v>3593440</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1495841</v>
+        <v>1470663</v>
       </c>
       <c r="E37" t="n">
-        <v>9790239</v>
+        <v>9625451</v>
       </c>
       <c r="F37" t="n">
-        <v>799.3451262763897</v>
+        <v>585.4913896495547</v>
       </c>
       <c r="G37" t="n">
-        <v>19.76120903213999</v>
+        <v>20.75443683572244</v>
       </c>
       <c r="H37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I37" t="n">
-        <v>369993</v>
+        <v>342525</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1859840620</v>
+        <v>1870079703</v>
       </c>
       <c r="F38" t="n">
-        <v>77682.75442316278</v>
+        <v>68004.79929864078</v>
       </c>
       <c r="G38" t="n">
-        <v>76910.9752642409</v>
+        <v>76719.18052512348</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="I38" t="n">
-        <v>25788296</v>
+        <v>26029762</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31605109</v>
+        <v>32542464</v>
       </c>
       <c r="E39" t="n">
-        <v>98408169</v>
+        <v>101326792</v>
       </c>
       <c r="F39" t="n">
-        <v>5371.375038607045</v>
+        <v>5776.409333519794</v>
       </c>
       <c r="G39" t="n">
-        <v>10329.16145987043</v>
+        <v>6909.740158300372</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I39" t="n">
-        <v>12098858</v>
+        <v>11912552</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>194857125</v>
+        <v>196274156</v>
       </c>
       <c r="E40" t="n">
-        <v>1103400772</v>
+        <v>1111424870</v>
       </c>
       <c r="F40" t="n">
-        <v>47787.24778882451</v>
+        <v>48697.40637726852</v>
       </c>
       <c r="G40" t="n">
-        <v>71741.85957215738</v>
+        <v>69714.83332993218</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>59218814</v>
+        <v>60459028</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>137257274</v>
+        <v>137061061</v>
       </c>
       <c r="E41" t="n">
-        <v>1016720546</v>
+        <v>1015267120</v>
       </c>
       <c r="F41" t="n">
-        <v>99851.65044718244</v>
+        <v>149754.6984226727</v>
       </c>
       <c r="G41" t="n">
-        <v>214274.9863991056</v>
+        <v>226759.1442400286</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>12242967</v>
+        <v>12085504</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31195171</v>
+        <v>31194778</v>
       </c>
       <c r="E42" t="n">
-        <v>148397226</v>
+        <v>148284554</v>
       </c>
       <c r="F42" t="n">
-        <v>5488.972370537547</v>
+        <v>6910.486591296382</v>
       </c>
       <c r="G42" t="n">
-        <v>8511.028384239175</v>
+        <v>9015.266783051571</v>
       </c>
       <c r="H42" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="I42" t="n">
-        <v>1347336</v>
+        <v>1297151</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3355411</v>
+        <v>3274381</v>
       </c>
       <c r="E43" t="n">
-        <v>7835443</v>
+        <v>7646225</v>
       </c>
       <c r="F43" t="n">
-        <v>1496.063441222542</v>
+        <v>1389.426126145526</v>
       </c>
       <c r="G43" t="n">
-        <v>287.217257172434</v>
+        <v>1733.934944937223</v>
       </c>
       <c r="H43" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="I43" t="n">
-        <v>757616</v>
+        <v>755283</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>330589161</v>
+        <v>333164342</v>
       </c>
       <c r="E44" t="n">
-        <v>2974185084</v>
+        <v>2997353007</v>
       </c>
       <c r="F44" t="n">
-        <v>51360.52910595058</v>
+        <v>56015.69303266011</v>
       </c>
       <c r="G44" t="n">
-        <v>28597.81312083419</v>
+        <v>26232.48128501002</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37172964</v>
+        <v>37068648</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>645274</v>
+        <v>643341</v>
       </c>
       <c r="F45" t="n">
-        <v>364.3963715950952</v>
+        <v>494.0138492922433</v>
       </c>
       <c r="G45" t="n">
-        <v>374.1139315190124</v>
+        <v>305.8742845040324</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>6546.23</v>
+        <v>5957.75</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1583966</v>
+        <v>1601156</v>
       </c>
       <c r="E46" t="n">
-        <v>13199713</v>
+        <v>13342968</v>
       </c>
       <c r="F46" t="n">
-        <v>250.6612948696394</v>
+        <v>606.3888888434687</v>
       </c>
       <c r="G46" t="n">
-        <v>324.1541454623348</v>
+        <v>247.6779502264926</v>
       </c>
       <c r="H46" t="n">
-        <v>0.83</v>
+        <v>0.37</v>
       </c>
       <c r="I46" t="n">
-        <v>48622</v>
+        <v>53259</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4915450</v>
+        <v>4886688</v>
       </c>
       <c r="E47" t="n">
-        <v>17369849</v>
+        <v>17268211</v>
       </c>
       <c r="F47" t="n">
-        <v>1069.825785740965</v>
+        <v>1072.65576149167</v>
       </c>
       <c r="G47" t="n">
-        <v>1396.161385378163</v>
+        <v>1488.587123994873</v>
       </c>
       <c r="H47" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="I47" t="n">
-        <v>106046</v>
+        <v>105482</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42531743</v>
+        <v>42523161</v>
       </c>
       <c r="E48" t="n">
-        <v>246241217</v>
+        <v>246191529</v>
       </c>
       <c r="F48" t="n">
-        <v>21149.43091055295</v>
+        <v>20795.85359643687</v>
       </c>
       <c r="G48" t="n">
-        <v>14079.01143097762</v>
+        <v>11776.81151426269</v>
       </c>
       <c r="H48" t="n">
-        <v>0.57</v>
+        <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>11327000</v>
+        <v>11094382</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2353687</v>
+        <v>2272065</v>
       </c>
       <c r="E49" t="n">
-        <v>12931557</v>
+        <v>12483113</v>
       </c>
       <c r="F49" t="n">
-        <v>173.7356746171079</v>
+        <v>246.0605425095562</v>
       </c>
       <c r="G49" t="n">
-        <v>436.3263130612239</v>
+        <v>578.3975788631185</v>
       </c>
       <c r="H49" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="I49" t="n">
-        <v>66775</v>
+        <v>102860</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13475624</v>
+        <v>13488217</v>
       </c>
       <c r="E50" t="n">
-        <v>13521483</v>
+        <v>13534119</v>
       </c>
       <c r="F50" t="n">
-        <v>4962.785939295331</v>
+        <v>4792.65978653235</v>
       </c>
       <c r="G50" t="n">
-        <v>5523.394681416006</v>
+        <v>4185.204575576512</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5738897</v>
+        <v>5743725</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>26091399</v>
+        <v>25930630</v>
       </c>
       <c r="E51" t="n">
-        <v>78209705</v>
+        <v>77727325</v>
       </c>
       <c r="F51" t="n">
-        <v>9607.639850226777</v>
+        <v>22416.07599451464</v>
       </c>
       <c r="G51" t="n">
-        <v>26919.43812587006</v>
+        <v>23946.7986003094</v>
       </c>
       <c r="H51" t="n">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="I51" t="n">
-        <v>2415867</v>
+        <v>2429668</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15044755</v>
+        <v>15086612</v>
       </c>
       <c r="E52" t="n">
-        <v>92214251</v>
+        <v>92470803</v>
       </c>
       <c r="F52" t="n">
-        <v>6632.01914854831</v>
+        <v>7926.341806172188</v>
       </c>
       <c r="G52" t="n">
-        <v>6545.345926564241</v>
+        <v>7727.487313474672</v>
       </c>
       <c r="H52" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>11805339</v>
+        <v>11785531</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>45830059</v>
+        <v>45889514</v>
       </c>
       <c r="E53" t="n">
-        <v>197430883</v>
+        <v>197687010</v>
       </c>
       <c r="F53" t="n">
-        <v>25064.79337102547</v>
+        <v>23854.53453723971</v>
       </c>
       <c r="G53" t="n">
-        <v>24594.62372049981</v>
+        <v>25760.60559785418</v>
       </c>
       <c r="H53" t="n">
         <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8319909</v>
+        <v>8637292</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1020868</v>
+        <v>1017701</v>
       </c>
       <c r="E54" t="n">
-        <v>2983820</v>
+        <v>2974562</v>
       </c>
       <c r="F54" t="n">
-        <v>961.541956802909</v>
+        <v>968.3355461013399</v>
       </c>
       <c r="G54" t="n">
-        <v>936.9984945650082</v>
+        <v>909.7155861716392</v>
       </c>
       <c r="H54" t="n">
-        <v>1.32</v>
+        <v>0.99</v>
       </c>
       <c r="I54" t="n">
-        <v>13799.71</v>
+        <v>13877.42</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35697731</v>
+        <v>36306761</v>
       </c>
       <c r="E55" t="n">
-        <v>90012539</v>
+        <v>91548222</v>
       </c>
       <c r="F55" t="n">
-        <v>11451.46714202643</v>
+        <v>17577.79747141652</v>
       </c>
       <c r="G55" t="n">
-        <v>7343.360472732752</v>
+        <v>10044.00302925874</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2819983</v>
+        <v>2836422</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28081338</v>
+        <v>28110028</v>
       </c>
       <c r="E56" t="n">
-        <v>66714277</v>
+        <v>66782438</v>
       </c>
       <c r="F56" t="n">
-        <v>10364.71467340396</v>
+        <v>9744.060287603657</v>
       </c>
       <c r="G56" t="n">
-        <v>13209.05992984435</v>
+        <v>2458.060806283117</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>588347</v>
+        <v>603593</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12074369</v>
+        <v>12015472</v>
       </c>
       <c r="E57" t="n">
-        <v>18402135</v>
+        <v>18312373</v>
       </c>
       <c r="F57" t="n">
-        <v>3887.217487707176</v>
+        <v>3887.711276411238</v>
       </c>
       <c r="G57" t="n">
-        <v>2546.556890562551</v>
+        <v>2098.637182842109</v>
       </c>
       <c r="H57" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="I57" t="n">
-        <v>668015</v>
+        <v>667641</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>296907905</v>
+        <v>295947514</v>
       </c>
       <c r="E58" t="n">
-        <v>296907905</v>
+        <v>295947514</v>
       </c>
       <c r="F58" t="n">
-        <v>50445.24350851111</v>
+        <v>51289.12681700529</v>
       </c>
       <c r="G58" t="n">
-        <v>68843.77841277556</v>
+        <v>62086.88189139002</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I58" t="n">
-        <v>50222000</v>
+        <v>49967104</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11890632</v>
+        <v>11923117</v>
       </c>
       <c r="F59" t="n">
-        <v>1289.782935679389</v>
+        <v>368.6683127673247</v>
       </c>
       <c r="G59" t="n">
-        <v>138.4555305643987</v>
+        <v>211.624030771726</v>
       </c>
       <c r="H59" t="n">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="I59" t="n">
-        <v>110454</v>
+        <v>115803</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>88692076</v>
+        <v>88520491</v>
       </c>
       <c r="E60" t="n">
-        <v>511081998</v>
+        <v>510093252</v>
       </c>
       <c r="F60" t="n">
-        <v>101986.6403685758</v>
+        <v>100204.6502634353</v>
       </c>
       <c r="G60" t="n">
-        <v>92172.08806555436</v>
+        <v>97313.36082445452</v>
       </c>
       <c r="H60" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>15878963</v>
+        <v>15933672</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9266978</v>
+        <v>9275208</v>
       </c>
       <c r="E61" t="n">
-        <v>9266978</v>
+        <v>9275208</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6.52</v>
+        <v>6.34</v>
       </c>
       <c r="I61" t="n">
-        <v>2057391</v>
+        <v>2061056</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29817122</v>
+        <v>29996688</v>
       </c>
       <c r="E62" t="n">
-        <v>133503485</v>
+        <v>134307477</v>
       </c>
       <c r="F62" t="n">
-        <v>27128.76822722644</v>
+        <v>16254.54207018433</v>
       </c>
       <c r="G62" t="n">
-        <v>22071.26133889582</v>
+        <v>32264.14476170888</v>
       </c>
       <c r="H62" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>8978891</v>
+        <v>8853659</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13100744</v>
+        <v>13090491</v>
       </c>
       <c r="E63" t="n">
-        <v>26190049</v>
+        <v>26169552</v>
       </c>
       <c r="F63" t="n">
-        <v>2055.354377261253</v>
+        <v>2062.355359960303</v>
       </c>
       <c r="G63" t="n">
-        <v>2098.839135852741</v>
+        <v>2044.674717648944</v>
       </c>
       <c r="H63" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>47731</v>
+        <v>47863</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1415210</v>
+        <v>1444341</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>7.33</v>
+        <v>6.84</v>
       </c>
       <c r="I64" t="n">
-        <v>50201</v>
+        <v>67967</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>46677730</v>
+        <v>46745228</v>
       </c>
       <c r="E65" t="n">
-        <v>302692655</v>
+        <v>303130360</v>
       </c>
       <c r="F65" t="n">
-        <v>24086.55371095792</v>
+        <v>19665.89305608311</v>
       </c>
       <c r="G65" t="n">
-        <v>12445.06542519119</v>
+        <v>15610.40791067468</v>
       </c>
       <c r="H65" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I65" t="n">
-        <v>17301615</v>
+        <v>17309374</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4779855</v>
+        <v>4807092</v>
       </c>
       <c r="F66" t="n">
-        <v>1399.554804322004</v>
+        <v>1376.750759206125</v>
       </c>
       <c r="G66" t="n">
-        <v>1097.695769840041</v>
+        <v>730.7980437106957</v>
       </c>
       <c r="H66" t="n">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
       <c r="I66" t="n">
-        <v>91216</v>
+        <v>115248</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125105020</v>
+        <v>125050953</v>
       </c>
       <c r="E67" t="n">
-        <v>2071841597</v>
+        <v>2070946209</v>
       </c>
       <c r="F67" t="n">
-        <v>21263.07659635185</v>
+        <v>22027.16087776257</v>
       </c>
       <c r="G67" t="n">
-        <v>24176.02111914898</v>
+        <v>17665.80523968465</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5041479</v>
+        <v>5010537</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23056015</v>
+        <v>23103689</v>
       </c>
       <c r="E68" t="n">
-        <v>137948774</v>
+        <v>138234017</v>
       </c>
       <c r="F68" t="n">
-        <v>44001.48052266866</v>
+        <v>44601.40395326384</v>
       </c>
       <c r="G68" t="n">
-        <v>9403.911815998159</v>
+        <v>43384.46268692121</v>
       </c>
       <c r="H68" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>12839171</v>
+        <v>12615038</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23319263</v>
+        <v>23513343</v>
       </c>
       <c r="E70" t="n">
-        <v>23319263</v>
+        <v>23513343</v>
       </c>
       <c r="F70" t="n">
-        <v>7331.127840246024</v>
+        <v>3385.415993238814</v>
       </c>
       <c r="G70" t="n">
-        <v>3220.36932537031</v>
+        <v>2622.199354104459</v>
       </c>
       <c r="H70" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1813167</v>
+        <v>1751031</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33568013</v>
+        <v>33971483</v>
       </c>
       <c r="E71" t="n">
-        <v>167519858</v>
+        <v>169533359</v>
       </c>
       <c r="F71" t="n">
-        <v>18096.60665247137</v>
+        <v>16141.20122343354</v>
       </c>
       <c r="G71" t="n">
-        <v>46127.47851156654</v>
+        <v>35448.6977747505</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>9789600</v>
+        <v>9957157</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>168669</v>
+        <v>168507</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>13118.97</v>
+        <v>10651.05</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>308623474</v>
+        <v>309929773</v>
       </c>
       <c r="E73" t="n">
-        <v>571023808</v>
+        <v>573440759</v>
       </c>
       <c r="F73" t="n">
-        <v>66029.3659901247</v>
+        <v>68513.09702304339</v>
       </c>
       <c r="G73" t="n">
-        <v>70282.3485918425</v>
+        <v>71451.7867986193</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>12428592</v>
+        <v>12217140</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10022002</v>
+        <v>9759698</v>
       </c>
       <c r="E74" t="n">
-        <v>29883536</v>
+        <v>28964932</v>
       </c>
       <c r="F74" t="n">
-        <v>1002.437196763539</v>
+        <v>1176.555024597773</v>
       </c>
       <c r="G74" t="n">
-        <v>1152.772846143613</v>
+        <v>1150.804075427072</v>
       </c>
       <c r="H74" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="I74" t="n">
-        <v>5391781</v>
+        <v>5474518</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7865486</v>
+        <v>8268416</v>
       </c>
       <c r="E75" t="n">
-        <v>11206516</v>
+        <v>11780598</v>
       </c>
       <c r="F75" t="n">
-        <v>188.8446130821347</v>
+        <v>27.93496824822277</v>
       </c>
       <c r="G75" t="n">
-        <v>2862.106001248294</v>
+        <v>3262.219723556616</v>
       </c>
       <c r="H75" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="I75" t="n">
-        <v>303717</v>
+        <v>334555</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16512570</v>
+        <v>15980961</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2958820438807319</v>
+        <v>0.4005271499471885</v>
       </c>
       <c r="G76" t="n">
-        <v>4.946725140486222</v>
+        <v>9.39724748919329</v>
       </c>
       <c r="H76" t="n">
-        <v>1.53</v>
+        <v>1.03</v>
       </c>
       <c r="I76" t="n">
-        <v>982411</v>
+        <v>973965</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61011539</v>
+        <v>61014764</v>
       </c>
       <c r="E77" t="n">
-        <v>100937458</v>
+        <v>100942794</v>
       </c>
       <c r="F77" t="n">
-        <v>12877.65976287753</v>
+        <v>11345.32806222628</v>
       </c>
       <c r="G77" t="n">
-        <v>17466.4721808495</v>
+        <v>18325.46708989446</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I77" t="n">
-        <v>5715104</v>
+        <v>5904740</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5346002</v>
+        <v>5708307</v>
       </c>
       <c r="E78" t="n">
-        <v>5346002</v>
+        <v>5708307</v>
       </c>
       <c r="F78" t="n">
-        <v>1704.974064571788</v>
+        <v>257.3539842898386</v>
       </c>
       <c r="G78" t="n">
-        <v>189.0413831258969</v>
+        <v>15.54921328794859</v>
       </c>
       <c r="H78" t="n">
-        <v>1.32</v>
+        <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>1103470</v>
+        <v>1091856</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58595</v>
+        <v>61602</v>
       </c>
       <c r="E79" t="n">
-        <v>305725</v>
+        <v>321412</v>
       </c>
       <c r="F79" t="n">
-        <v>22.81469861530282</v>
+        <v>13.23009155116559</v>
       </c>
       <c r="G79" t="n">
-        <v>83.45446175028168</v>
+        <v>88.13789906587729</v>
       </c>
       <c r="H79" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="I79" t="n">
-        <v>301881</v>
+        <v>312397</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>28007422</v>
+        <v>27643270</v>
       </c>
       <c r="F80" t="n">
-        <v>1252.819148237626</v>
+        <v>1403.997930534975</v>
       </c>
       <c r="G80" t="n">
-        <v>220.6337438450481</v>
+        <v>243.081197754324</v>
       </c>
       <c r="H80" t="n">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="I80" t="n">
-        <v>47172</v>
+        <v>44899</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>590601980</v>
+        <v>592809577</v>
       </c>
       <c r="E81" t="n">
-        <v>2287314332</v>
+        <v>2295864029</v>
       </c>
       <c r="F81" t="n">
-        <v>153849.6364796352</v>
+        <v>157263.0161631758</v>
       </c>
       <c r="G81" t="n">
-        <v>187075.7921118398</v>
+        <v>288221.0808783197</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>29773106</v>
+        <v>29354703</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7044867</v>
+        <v>7146236</v>
       </c>
       <c r="E82" t="n">
-        <v>10095030</v>
+        <v>10240247</v>
       </c>
       <c r="F82" t="n">
-        <v>1442.914436196464</v>
+        <v>963.9676840174134</v>
       </c>
       <c r="G82" t="n">
-        <v>822.7742734812864</v>
+        <v>1255.292591442196</v>
       </c>
       <c r="H82" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I82" t="n">
-        <v>142584</v>
+        <v>158482</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116384642</v>
+        <v>116677731</v>
       </c>
       <c r="E83" t="n">
-        <v>1011892932</v>
+        <v>1014441158</v>
       </c>
       <c r="F83" t="n">
-        <v>46321.67306322221</v>
+        <v>42969.60813034149</v>
       </c>
       <c r="G83" t="n">
-        <v>43883.72984383424</v>
+        <v>39936.15052023497</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9524838</v>
+        <v>9100691</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1096716</v>
+        <v>1136322</v>
       </c>
       <c r="E84" t="n">
-        <v>4246723</v>
+        <v>4400087</v>
       </c>
       <c r="F84" t="n">
-        <v>444.9376957619138</v>
+        <v>599.249284869339</v>
       </c>
       <c r="G84" t="n">
-        <v>1707.367212636089</v>
+        <v>1447.235404553609</v>
       </c>
       <c r="H84" t="n">
-        <v>0.23</v>
+        <v>0.9</v>
       </c>
       <c r="I84" t="n">
-        <v>433653</v>
+        <v>464922</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>106731753</v>
+        <v>109464630</v>
       </c>
       <c r="E85" t="n">
-        <v>409440183</v>
+        <v>419923938</v>
       </c>
       <c r="F85" t="n">
-        <v>81331.85280318043</v>
+        <v>76043.70917039283</v>
       </c>
       <c r="G85" t="n">
-        <v>88177.20012279219</v>
+        <v>87297.254106768</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>18623287</v>
+        <v>18904966</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5091051</v>
+        <v>5085751</v>
       </c>
       <c r="E86" t="n">
-        <v>18958033</v>
+        <v>18938295</v>
       </c>
       <c r="F86" t="n">
-        <v>5763.96968284592</v>
+        <v>5567.244678429543</v>
       </c>
       <c r="G86" t="n">
-        <v>5830.471155020172</v>
+        <v>5998.520959856919</v>
       </c>
       <c r="H86" t="n">
         <v>0.47</v>
       </c>
       <c r="I86" t="n">
-        <v>57926</v>
+        <v>59149</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>30872107</v>
+        <v>30928507</v>
       </c>
       <c r="F87" t="n">
-        <v>4481.274672243468</v>
+        <v>7319.026025711021</v>
       </c>
       <c r="G87" t="n">
-        <v>1493.10343118845</v>
+        <v>1153.353404234277</v>
       </c>
       <c r="H87" t="n">
         <v>0.23</v>
       </c>
       <c r="I87" t="n">
-        <v>6007097</v>
+        <v>5729407</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24271428</v>
+        <v>24117293</v>
       </c>
       <c r="F88" t="n">
-        <v>1218.180938467555</v>
+        <v>1187.883242936471</v>
       </c>
       <c r="G88" t="n">
-        <v>837.9796271401259</v>
+        <v>931.4752472790542</v>
       </c>
       <c r="H88" t="n">
-        <v>0.76</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I88" t="n">
-        <v>11712.12</v>
+        <v>10727.44</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87483142</v>
+        <v>86613036</v>
       </c>
       <c r="E89" t="n">
-        <v>323403917</v>
+        <v>320186888</v>
       </c>
       <c r="F89" t="n">
-        <v>1259.658218449916</v>
+        <v>608.0647821376994</v>
       </c>
       <c r="G89" t="n">
-        <v>1497.153984057079</v>
+        <v>1598.023184695677</v>
       </c>
       <c r="H89" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="I89" t="n">
-        <v>363042</v>
+        <v>374532</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19904398</v>
+        <v>20225645</v>
       </c>
       <c r="E90" t="n">
-        <v>19904398</v>
+        <v>20225645</v>
       </c>
       <c r="F90" t="n">
-        <v>3284.270918675481</v>
+        <v>3183.744670234776</v>
       </c>
       <c r="G90" t="n">
-        <v>3910.093687136535</v>
+        <v>2680.852434638241</v>
       </c>
       <c r="H90" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I90" t="n">
-        <v>7068301</v>
+        <v>7080381</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3830443</v>
+        <v>3829546</v>
       </c>
       <c r="E91" t="n">
-        <v>8357977</v>
+        <v>8356021</v>
       </c>
       <c r="F91" t="n">
-        <v>1980.013553495585</v>
+        <v>1587.269223757885</v>
       </c>
       <c r="G91" t="n">
-        <v>1140.908992407818</v>
+        <v>4907.151379589922</v>
       </c>
       <c r="H91" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>994575</v>
+        <v>984389</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>480964723</v>
+        <v>482634162</v>
       </c>
       <c r="E92" t="n">
-        <v>1675047557</v>
+        <v>1680861684</v>
       </c>
       <c r="F92" t="n">
-        <v>154959.4121783561</v>
+        <v>165783.1448634745</v>
       </c>
       <c r="G92" t="n">
-        <v>144327.0571736613</v>
+        <v>157554.9848924828</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30701055</v>
+        <v>31067159</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2657950</v>
+        <v>2659744</v>
       </c>
       <c r="E93" t="n">
-        <v>10631802</v>
+        <v>10638977</v>
       </c>
       <c r="F93" t="n">
-        <v>2171.985341214629</v>
+        <v>1925.069721154787</v>
       </c>
       <c r="G93" t="n">
-        <v>3208.319712783908</v>
+        <v>3541.997922500778</v>
       </c>
       <c r="H93" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="I93" t="n">
-        <v>4951666</v>
+        <v>5064538</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>210542923</v>
+        <v>211875984</v>
       </c>
       <c r="E94" t="n">
-        <v>647340256</v>
+        <v>651438916</v>
       </c>
       <c r="F94" t="n">
-        <v>105057.9326925636</v>
+        <v>102189.8435016832</v>
       </c>
       <c r="G94" t="n">
-        <v>87143.82363507505</v>
+        <v>87267.98481664274</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11211313</v>
+        <v>11409590</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>146439046</v>
+        <v>148182484</v>
       </c>
       <c r="E95" t="n">
-        <v>382567948</v>
+        <v>387122629</v>
       </c>
       <c r="F95" t="n">
-        <v>5741.832685346698</v>
+        <v>17115.9991809109</v>
       </c>
       <c r="G95" t="n">
-        <v>4812.314786618621</v>
+        <v>32722.74145773114</v>
       </c>
       <c r="H95" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="I95" t="n">
-        <v>6929429</v>
+        <v>6987932</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>397688697</v>
+        <v>397797848</v>
       </c>
       <c r="E96" t="n">
-        <v>2272506840</v>
+        <v>2273130561</v>
       </c>
       <c r="F96" t="n">
-        <v>25851.51589212759</v>
+        <v>28416.01650654491</v>
       </c>
       <c r="G96" t="n">
-        <v>33722.56084666139</v>
+        <v>34826.86596352665</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36224041</v>
+        <v>36620313</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>603718968</v>
+        <v>601748946</v>
       </c>
       <c r="E2" t="n">
-        <v>1171364242</v>
+        <v>1167584672</v>
       </c>
       <c r="F2" t="n">
-        <v>16601.33554733224</v>
+        <v>18246.87772081677</v>
       </c>
       <c r="G2" t="n">
-        <v>26408.9177381644</v>
+        <v>36080.87188633582</v>
       </c>
       <c r="H2" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>22201579</v>
+        <v>22514098</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1330863</v>
+        <v>1328608</v>
       </c>
       <c r="E3" t="n">
-        <v>4301896</v>
+        <v>4294606</v>
       </c>
       <c r="F3" t="n">
-        <v>4316.42060963209</v>
+        <v>4548.881130432546</v>
       </c>
       <c r="G3" t="n">
-        <v>5610.451652540217</v>
+        <v>5683.957127738711</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>77267</v>
+        <v>74711</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243452124</v>
+        <v>245169259</v>
       </c>
       <c r="E4" t="n">
-        <v>1526654052</v>
+        <v>1537421961</v>
       </c>
       <c r="F4" t="n">
-        <v>137892.4491450182</v>
+        <v>146290.1608215141</v>
       </c>
       <c r="G4" t="n">
-        <v>134712.8315203115</v>
+        <v>138131.5621065987</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15373787</v>
+        <v>15528327</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139124601</v>
+        <v>139246269</v>
       </c>
       <c r="E5" t="n">
-        <v>154172280</v>
+        <v>154307107</v>
       </c>
       <c r="F5" t="n">
-        <v>7317.35507691882</v>
+        <v>8593.028688541877</v>
       </c>
       <c r="G5" t="n">
-        <v>31051.68065511787</v>
+        <v>29559.4323579367</v>
       </c>
       <c r="H5" t="n">
         <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>32923047</v>
+        <v>33123040</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>665612</v>
+        <v>674339</v>
       </c>
       <c r="E6" t="n">
-        <v>12931194</v>
+        <v>13100743</v>
       </c>
       <c r="F6" t="n">
-        <v>378.0042192332745</v>
+        <v>627.100517227069</v>
       </c>
       <c r="G6" t="n">
-        <v>204.0650107990079</v>
+        <v>318.4323269518452</v>
       </c>
       <c r="H6" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>24534</v>
+        <v>24702</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>466337076</v>
+        <v>467458882</v>
       </c>
       <c r="E7" t="n">
-        <v>466337076</v>
+        <v>467458885</v>
       </c>
       <c r="F7" t="n">
-        <v>61137.32762610571</v>
+        <v>47392.94977129884</v>
       </c>
       <c r="G7" t="n">
-        <v>58111.61269301381</v>
+        <v>62315.10992348486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>70780928</v>
+        <v>60079254</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4670590</v>
+        <v>4631194</v>
       </c>
       <c r="E8" t="n">
-        <v>4670590</v>
+        <v>4631194</v>
       </c>
       <c r="F8" t="n">
-        <v>880.3809575880613</v>
+        <v>859.5964660893301</v>
       </c>
       <c r="G8" t="n">
-        <v>1659.424557395729</v>
+        <v>1439.391123883776</v>
       </c>
       <c r="H8" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I8" t="n">
-        <v>1900586</v>
+        <v>1309621</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1725066</v>
+        <v>1673752</v>
       </c>
       <c r="F9" t="n">
-        <v>1856.742080516817</v>
+        <v>794.7967938490543</v>
       </c>
       <c r="G9" t="n">
-        <v>2381.827062764531</v>
+        <v>2362.007282913349</v>
       </c>
       <c r="H9" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>112691</v>
+        <v>161078</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1552604</v>
+        <v>1628161</v>
       </c>
       <c r="F10" t="n">
-        <v>279.9464023802881</v>
+        <v>314.0484569881223</v>
       </c>
       <c r="G10" t="n">
-        <v>1837.186521044018</v>
+        <v>212.8960458404404</v>
       </c>
       <c r="H10" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="I10" t="n">
-        <v>177895</v>
+        <v>166390</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103889122</v>
+        <v>103790203</v>
       </c>
       <c r="E11" t="n">
-        <v>195714791</v>
+        <v>195528439</v>
       </c>
       <c r="F11" t="n">
-        <v>1562.963931675305</v>
+        <v>1513.31759120935</v>
       </c>
       <c r="G11" t="n">
-        <v>2300.511692798533</v>
+        <v>1305.751196445753</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I11" t="n">
-        <v>4300796</v>
+        <v>4308945</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12812763</v>
+        <v>12778160</v>
       </c>
       <c r="E12" t="n">
-        <v>32266758</v>
+        <v>32179616</v>
       </c>
       <c r="F12" t="n">
-        <v>2769.101787119174</v>
+        <v>2946.339762629683</v>
       </c>
       <c r="G12" t="n">
-        <v>576.2076472567073</v>
+        <v>659.9337731275303</v>
       </c>
       <c r="H12" t="n">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="I12" t="n">
-        <v>1584186</v>
+        <v>1590880</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107540555</v>
+        <v>107844143</v>
       </c>
       <c r="E13" t="n">
-        <v>418728867</v>
+        <v>419886771</v>
       </c>
       <c r="F13" t="n">
-        <v>24696.24794618022</v>
+        <v>14716.50786372237</v>
       </c>
       <c r="G13" t="n">
-        <v>27118.06431355088</v>
+        <v>33100.59646598015</v>
       </c>
       <c r="H13" t="n">
         <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>6580604</v>
+        <v>6525265</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5356871</v>
+        <v>5374161</v>
       </c>
       <c r="E14" t="n">
-        <v>7885604</v>
+        <v>7911056</v>
       </c>
       <c r="F14" t="n">
-        <v>742.3493755522915</v>
+        <v>345.7251120691457</v>
       </c>
       <c r="G14" t="n">
-        <v>5747.555680543854</v>
+        <v>381.3640734835022</v>
       </c>
       <c r="H14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I14" t="n">
-        <v>586204</v>
+        <v>599400</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>133555219</v>
+        <v>133810673</v>
       </c>
       <c r="E15" t="n">
-        <v>133555219</v>
+        <v>133810673</v>
       </c>
       <c r="F15" t="n">
-        <v>52029.45137414717</v>
+        <v>49586.94037609595</v>
       </c>
       <c r="G15" t="n">
-        <v>71360.92741989084</v>
+        <v>80789.74907001313</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>63208332</v>
+        <v>65821660</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63702129</v>
+        <v>64090442</v>
       </c>
       <c r="E16" t="n">
-        <v>326677584</v>
+        <v>328668934</v>
       </c>
       <c r="F16" t="n">
-        <v>25552.78219139274</v>
+        <v>28532.73261095926</v>
       </c>
       <c r="G16" t="n">
-        <v>30767.57622825391</v>
+        <v>34612.32599171202</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>18017266</v>
+        <v>18323409</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249070807</v>
+        <v>250323004</v>
       </c>
       <c r="E17" t="n">
-        <v>249070807</v>
+        <v>250323004</v>
       </c>
       <c r="F17" t="n">
-        <v>62071.39872820398</v>
+        <v>56883.4110274284</v>
       </c>
       <c r="G17" t="n">
-        <v>50868.71306079833</v>
+        <v>55558.05448168165</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14796417</v>
+        <v>14728611</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2535808</v>
+        <v>2538323</v>
       </c>
       <c r="E18" t="n">
-        <v>6483012</v>
+        <v>6489444</v>
       </c>
       <c r="F18" t="n">
-        <v>1047.586215902826</v>
+        <v>1060.427014521405</v>
       </c>
       <c r="G18" t="n">
-        <v>1303.771670035162</v>
+        <v>1602.07897745517</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>122076</v>
+        <v>120163</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71847414</v>
+        <v>71858716</v>
       </c>
       <c r="E19" t="n">
-        <v>201120723</v>
+        <v>201161278</v>
       </c>
       <c r="F19" t="n">
-        <v>18379.99151841709</v>
+        <v>22732.11472898549</v>
       </c>
       <c r="G19" t="n">
-        <v>20243.9551066512</v>
+        <v>20509.19002913473</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>32209704</v>
+        <v>32616824</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1573486</v>
+        <v>1569436</v>
       </c>
       <c r="E20" t="n">
-        <v>9034369</v>
+        <v>9011116</v>
       </c>
       <c r="F20" t="n">
-        <v>174.4827223847685</v>
+        <v>253.4780363215389</v>
       </c>
       <c r="G20" t="n">
-        <v>50.75239715705244</v>
+        <v>39.42442857367973</v>
       </c>
       <c r="H20" t="n">
         <v>1.22</v>
       </c>
       <c r="I20" t="n">
-        <v>329165</v>
+        <v>324538</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>150628</v>
+        <v>150420</v>
       </c>
       <c r="E21" t="n">
-        <v>1017208</v>
+        <v>1015802</v>
       </c>
       <c r="F21" t="n">
-        <v>4.151922556567516</v>
+        <v>3.198861352038068</v>
       </c>
       <c r="G21" t="n">
-        <v>5.851963391621346</v>
+        <v>19.60489806537986</v>
       </c>
       <c r="H21" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="I21" t="n">
-        <v>2619600</v>
+        <v>2663473</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269620</v>
+        <v>269755</v>
       </c>
       <c r="F22" t="n">
-        <v>51.56935472850323</v>
+        <v>84.94987689632066</v>
       </c>
       <c r="G22" t="n">
-        <v>196.2582104222129</v>
+        <v>198.3139502636797</v>
       </c>
       <c r="H22" t="n">
         <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>2486.63</v>
+        <v>2177.7</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71314323</v>
+        <v>71734940</v>
       </c>
       <c r="E23" t="n">
-        <v>148726579</v>
+        <v>149603779</v>
       </c>
       <c r="F23" t="n">
-        <v>35168.54465021288</v>
+        <v>34239.88878847638</v>
       </c>
       <c r="G23" t="n">
-        <v>45093.11275866889</v>
+        <v>49240.28792806067</v>
       </c>
       <c r="H23" t="n">
         <v>0.25</v>
       </c>
       <c r="I23" t="n">
-        <v>13659620</v>
+        <v>13685533</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>196112339</v>
+        <v>196627756</v>
       </c>
       <c r="E24" t="n">
-        <v>681311989</v>
+        <v>683102593</v>
       </c>
       <c r="F24" t="n">
-        <v>60624.85611715083</v>
+        <v>60839.77225444488</v>
       </c>
       <c r="G24" t="n">
-        <v>60153.9124765082</v>
+        <v>60930.16362582493</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>26270887</v>
+        <v>25984201</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>111789145</v>
+        <v>111680813</v>
       </c>
       <c r="E25" t="n">
-        <v>475656807</v>
+        <v>475145916</v>
       </c>
       <c r="F25" t="n">
-        <v>16355.60342424262</v>
+        <v>18036.82794067171</v>
       </c>
       <c r="G25" t="n">
-        <v>17801.66095623309</v>
+        <v>26350.09938964151</v>
       </c>
       <c r="H25" t="n">
         <v>0.19</v>
       </c>
       <c r="I25" t="n">
-        <v>11620567</v>
+        <v>12068979</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5894386</v>
+        <v>5904243</v>
       </c>
       <c r="E26" t="n">
-        <v>8009542</v>
+        <v>8022490</v>
       </c>
       <c r="F26" t="n">
-        <v>1475.971044176886</v>
+        <v>920.906549627808</v>
       </c>
       <c r="G26" t="n">
-        <v>1263.259792587492</v>
+        <v>2317.57393365908</v>
       </c>
       <c r="H26" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="I26" t="n">
-        <v>6402892</v>
+        <v>6446685</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>531521</v>
+        <v>536542</v>
       </c>
       <c r="E27" t="n">
-        <v>6446832</v>
+        <v>6507734</v>
       </c>
       <c r="F27" t="n">
-        <v>733.1576145380943</v>
+        <v>645.8065892437612</v>
       </c>
       <c r="G27" t="n">
-        <v>889.3581086445523</v>
+        <v>637.4250561575532</v>
       </c>
       <c r="H27" t="n">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
       <c r="I27" t="n">
-        <v>2806568</v>
+        <v>2762509</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24996279</v>
+        <v>24995723</v>
       </c>
       <c r="E28" t="n">
-        <v>35331264</v>
+        <v>35330478</v>
       </c>
       <c r="F28" t="n">
-        <v>2019.74997756887</v>
+        <v>1841.704494873441</v>
       </c>
       <c r="G28" t="n">
-        <v>252.4423097873595</v>
+        <v>112.7964407189715</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="I28" t="n">
-        <v>90018</v>
+        <v>68044</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1260661608</v>
+        <v>1265497367</v>
       </c>
       <c r="E29" t="n">
-        <v>6045130588</v>
+        <v>6068319043</v>
       </c>
       <c r="F29" t="n">
-        <v>163278.3064158938</v>
+        <v>171731.5431997574</v>
       </c>
       <c r="G29" t="n">
-        <v>169145.6569287047</v>
+        <v>249270.582375982</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>183941816</v>
+        <v>182134395</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>264334250</v>
+        <v>266968518</v>
       </c>
       <c r="E30" t="n">
-        <v>1141013365</v>
+        <v>1152384329</v>
       </c>
       <c r="F30" t="n">
-        <v>194171.1364839815</v>
+        <v>202454.8502717332</v>
       </c>
       <c r="G30" t="n">
-        <v>160266.1513511473</v>
+        <v>190042.5224211279</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>112000755</v>
+        <v>110327606</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5339775</v>
+        <v>5330707</v>
       </c>
       <c r="E31" t="n">
-        <v>5345818</v>
+        <v>5336741</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6646561338602</v>
+        <v>128.6693962389248</v>
       </c>
       <c r="G31" t="n">
-        <v>130.2228363577333</v>
+        <v>130.2276338673579</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>153082</v>
+        <v>153251</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21283720</v>
+        <v>21479383</v>
       </c>
       <c r="E32" t="n">
-        <v>53209299</v>
+        <v>53698457</v>
       </c>
       <c r="F32" t="n">
-        <v>1945.891241711167</v>
+        <v>1705.210056161498</v>
       </c>
       <c r="G32" t="n">
-        <v>6000.204652083327</v>
+        <v>4876.980802947612</v>
       </c>
       <c r="H32" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="I32" t="n">
-        <v>2045133</v>
+        <v>2066373</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20145487</v>
+        <v>20152452</v>
       </c>
       <c r="F33" t="n">
-        <v>715.7773911779009</v>
+        <v>722.9372529536648</v>
       </c>
       <c r="G33" t="n">
-        <v>1182.880810089687</v>
+        <v>1174.848551229647</v>
       </c>
       <c r="H33" t="n">
         <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>128315</v>
+        <v>128853</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3998979</v>
+        <v>3894454</v>
       </c>
       <c r="E34" t="n">
-        <v>11518680</v>
+        <v>11217606</v>
       </c>
       <c r="F34" t="n">
-        <v>455.0857527867196</v>
+        <v>1196.797766800614</v>
       </c>
       <c r="G34" t="n">
-        <v>307.0523331787064</v>
+        <v>1352.946435358634</v>
       </c>
       <c r="H34" t="n">
-        <v>1.22</v>
+        <v>0.79</v>
       </c>
       <c r="I34" t="n">
-        <v>506417</v>
+        <v>528339</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1779095</v>
+        <v>1682544</v>
       </c>
       <c r="F35" t="n">
-        <v>178.9016591068876</v>
+        <v>5.677210668935975</v>
       </c>
       <c r="G35" t="n">
-        <v>122.7175967449375</v>
+        <v>347.5897399851885</v>
       </c>
       <c r="H35" t="n">
-        <v>1.14</v>
+        <v>0.61</v>
       </c>
       <c r="I35" t="n">
-        <v>13107.69</v>
+        <v>12114.29</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13838900</v>
+        <v>13783671</v>
       </c>
       <c r="E36" t="n">
-        <v>67024000</v>
+        <v>66756519</v>
       </c>
       <c r="F36" t="n">
-        <v>4748.254848219427</v>
+        <v>3092.435652498523</v>
       </c>
       <c r="G36" t="n">
-        <v>7084.063310747672</v>
+        <v>7980.073475038117</v>
       </c>
       <c r="H36" t="n">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>3593440</v>
+        <v>3618240</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1470663</v>
+        <v>1471672</v>
       </c>
       <c r="E37" t="n">
-        <v>9625451</v>
+        <v>9632055</v>
       </c>
       <c r="F37" t="n">
-        <v>585.4913896495547</v>
+        <v>717.4487008094911</v>
       </c>
       <c r="G37" t="n">
-        <v>20.75443683572244</v>
+        <v>20.75494962203124</v>
       </c>
       <c r="H37" t="n">
         <v>1.03</v>
       </c>
       <c r="I37" t="n">
-        <v>342525</v>
+        <v>341238</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1870079703</v>
+        <v>1878984849</v>
       </c>
       <c r="F38" t="n">
-        <v>68004.79929864078</v>
+        <v>71032.46555009537</v>
       </c>
       <c r="G38" t="n">
-        <v>76719.18052512348</v>
+        <v>70268.05509747271</v>
       </c>
       <c r="H38" t="n">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="I38" t="n">
-        <v>26029762</v>
+        <v>26252580</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32542464</v>
+        <v>32516014</v>
       </c>
       <c r="E39" t="n">
-        <v>101326792</v>
+        <v>101244433</v>
       </c>
       <c r="F39" t="n">
-        <v>5776.409333519794</v>
+        <v>5344.549198483657</v>
       </c>
       <c r="G39" t="n">
-        <v>6909.740158300372</v>
+        <v>8515.09201832866</v>
       </c>
       <c r="H39" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>11912552</v>
+        <v>11764514</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>196274156</v>
+        <v>198743429</v>
       </c>
       <c r="E40" t="n">
-        <v>1111424870</v>
+        <v>1125407413</v>
       </c>
       <c r="F40" t="n">
-        <v>48697.40637726852</v>
+        <v>42468.95963798738</v>
       </c>
       <c r="G40" t="n">
-        <v>69714.83332993218</v>
+        <v>79765.14618890818</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>60459028</v>
+        <v>60791218</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>137061061</v>
+        <v>137413754</v>
       </c>
       <c r="E41" t="n">
-        <v>1015267120</v>
+        <v>1017879662</v>
       </c>
       <c r="F41" t="n">
-        <v>149754.6984226727</v>
+        <v>138348.3234601441</v>
       </c>
       <c r="G41" t="n">
-        <v>226759.1442400286</v>
+        <v>219999.1205988986</v>
       </c>
       <c r="H41" t="n">
         <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>12085504</v>
+        <v>11940296</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31194778</v>
+        <v>31165124</v>
       </c>
       <c r="E42" t="n">
-        <v>148284554</v>
+        <v>148143593</v>
       </c>
       <c r="F42" t="n">
-        <v>6910.486591296382</v>
+        <v>5885.708662522788</v>
       </c>
       <c r="G42" t="n">
-        <v>9015.266783051571</v>
+        <v>8478.578138730893</v>
       </c>
       <c r="H42" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="I42" t="n">
-        <v>1297151</v>
+        <v>1234265</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3274381</v>
+        <v>3338511</v>
       </c>
       <c r="E43" t="n">
-        <v>7646225</v>
+        <v>7795979</v>
       </c>
       <c r="F43" t="n">
-        <v>1389.426126145526</v>
+        <v>817.9471299605287</v>
       </c>
       <c r="G43" t="n">
-        <v>1733.934944937223</v>
+        <v>1702.429378162051</v>
       </c>
       <c r="H43" t="n">
-        <v>0.39</v>
+        <v>0.71</v>
       </c>
       <c r="I43" t="n">
-        <v>755283</v>
+        <v>760553</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>333164342</v>
+        <v>334563564</v>
       </c>
       <c r="E44" t="n">
-        <v>2997353007</v>
+        <v>3009941275</v>
       </c>
       <c r="F44" t="n">
-        <v>56015.69303266011</v>
+        <v>48060.33060217799</v>
       </c>
       <c r="G44" t="n">
-        <v>26232.48128501002</v>
+        <v>40272.40347335962</v>
       </c>
       <c r="H44" t="n">
         <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37068648</v>
+        <v>36575405</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>643341</v>
+        <v>643646</v>
       </c>
       <c r="F45" t="n">
-        <v>494.0138492922433</v>
+        <v>550.4800046308981</v>
       </c>
       <c r="G45" t="n">
-        <v>305.8742845040324</v>
+        <v>198.0722684512726</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5957.75</v>
+        <v>5672.76</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1601156</v>
+        <v>1590587</v>
       </c>
       <c r="E46" t="n">
-        <v>13342968</v>
+        <v>13254888</v>
       </c>
       <c r="F46" t="n">
-        <v>606.3888888434687</v>
+        <v>216.7290969621135</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6779502264926</v>
+        <v>910.651750314366</v>
       </c>
       <c r="H46" t="n">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="I46" t="n">
-        <v>53259</v>
+        <v>47532</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4886688</v>
+        <v>4892251</v>
       </c>
       <c r="E47" t="n">
-        <v>17268211</v>
+        <v>17287868</v>
       </c>
       <c r="F47" t="n">
-        <v>1072.65576149167</v>
+        <v>1024.312789671028</v>
       </c>
       <c r="G47" t="n">
-        <v>1488.587123994873</v>
+        <v>1668.461298722282</v>
       </c>
       <c r="H47" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>105482</v>
+        <v>105846</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42523161</v>
+        <v>42806247</v>
       </c>
       <c r="E48" t="n">
-        <v>246191529</v>
+        <v>247830484</v>
       </c>
       <c r="F48" t="n">
-        <v>20795.85359643687</v>
+        <v>23276.14749639761</v>
       </c>
       <c r="G48" t="n">
-        <v>11776.81151426269</v>
+        <v>12619.13911860846</v>
       </c>
       <c r="H48" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I48" t="n">
-        <v>11094382</v>
+        <v>10829317</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2272065</v>
+        <v>2316787</v>
       </c>
       <c r="E49" t="n">
-        <v>12483113</v>
+        <v>12728824</v>
       </c>
       <c r="F49" t="n">
-        <v>246.0605425095562</v>
+        <v>234.3857948961825</v>
       </c>
       <c r="G49" t="n">
-        <v>578.3975788631185</v>
+        <v>199.1704156754044</v>
       </c>
       <c r="H49" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="I49" t="n">
-        <v>102860</v>
+        <v>76851</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13488217</v>
+        <v>13492407</v>
       </c>
       <c r="E50" t="n">
-        <v>13534119</v>
+        <v>13538323</v>
       </c>
       <c r="F50" t="n">
-        <v>4792.65978653235</v>
+        <v>4557.525417546436</v>
       </c>
       <c r="G50" t="n">
-        <v>4185.204575576512</v>
+        <v>5115.368435109105</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5743725</v>
+        <v>5760981</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25930630</v>
+        <v>25349462</v>
       </c>
       <c r="E51" t="n">
-        <v>77727325</v>
+        <v>75985269</v>
       </c>
       <c r="F51" t="n">
-        <v>22416.07599451464</v>
+        <v>22532.14990583467</v>
       </c>
       <c r="G51" t="n">
-        <v>23946.7986003094</v>
+        <v>26425.52978208538</v>
       </c>
       <c r="H51" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="I51" t="n">
-        <v>2429668</v>
+        <v>2509322</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15086612</v>
+        <v>15138993</v>
       </c>
       <c r="E52" t="n">
-        <v>92470803</v>
+        <v>92791864</v>
       </c>
       <c r="F52" t="n">
-        <v>7926.341806172188</v>
+        <v>7708.633281237991</v>
       </c>
       <c r="G52" t="n">
-        <v>7727.487313474672</v>
+        <v>5414.343880638479</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I52" t="n">
-        <v>11785531</v>
+        <v>11713571</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>45889514</v>
+        <v>46454550</v>
       </c>
       <c r="E53" t="n">
-        <v>197687010</v>
+        <v>200121120</v>
       </c>
       <c r="F53" t="n">
-        <v>23854.53453723971</v>
+        <v>24417.02778529758</v>
       </c>
       <c r="G53" t="n">
-        <v>25760.60559785418</v>
+        <v>25779.42022149828</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8637292</v>
+        <v>8639692</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1017701</v>
+        <v>1018026</v>
       </c>
       <c r="E54" t="n">
-        <v>2974562</v>
+        <v>2975513</v>
       </c>
       <c r="F54" t="n">
-        <v>968.3355461013399</v>
+        <v>979.8992094697826</v>
       </c>
       <c r="G54" t="n">
-        <v>909.7155861716392</v>
+        <v>917.2615021689492</v>
       </c>
       <c r="H54" t="n">
         <v>0.99</v>
       </c>
       <c r="I54" t="n">
-        <v>13877.42</v>
+        <v>11135.09</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>36306761</v>
+        <v>36820248</v>
       </c>
       <c r="E55" t="n">
-        <v>91548222</v>
+        <v>92842987</v>
       </c>
       <c r="F55" t="n">
-        <v>17577.79747141652</v>
+        <v>6744.291828956102</v>
       </c>
       <c r="G55" t="n">
-        <v>10044.00302925874</v>
+        <v>10900.44930714874</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I55" t="n">
-        <v>2836422</v>
+        <v>2847368</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28110028</v>
+        <v>28220522</v>
       </c>
       <c r="E56" t="n">
-        <v>66782438</v>
+        <v>67044943</v>
       </c>
       <c r="F56" t="n">
-        <v>9744.060287603657</v>
+        <v>14407.32968879406</v>
       </c>
       <c r="G56" t="n">
-        <v>2458.060806283117</v>
+        <v>9906.226991124367</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>603593</v>
+        <v>489398</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12015472</v>
+        <v>12085288</v>
       </c>
       <c r="E57" t="n">
-        <v>18312373</v>
+        <v>18418776</v>
       </c>
       <c r="F57" t="n">
-        <v>3887.711276411238</v>
+        <v>3343.353886408273</v>
       </c>
       <c r="G57" t="n">
-        <v>2098.637182842109</v>
+        <v>7807.244367108005</v>
       </c>
       <c r="H57" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>667641</v>
+        <v>673021</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>295947514</v>
+        <v>298572815</v>
       </c>
       <c r="E58" t="n">
-        <v>295947514</v>
+        <v>298572815</v>
       </c>
       <c r="F58" t="n">
-        <v>51289.12681700529</v>
+        <v>47344.82703704936</v>
       </c>
       <c r="G58" t="n">
-        <v>62086.88189139002</v>
+        <v>77705.80067751231</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>49967104</v>
+        <v>50183031</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11923117</v>
+        <v>11910260</v>
       </c>
       <c r="F59" t="n">
-        <v>368.6683127673247</v>
+        <v>549.9338469501755</v>
       </c>
       <c r="G59" t="n">
-        <v>211.624030771726</v>
+        <v>159.7437885886443</v>
       </c>
       <c r="H59" t="n">
-        <v>0.59</v>
+        <v>1.02</v>
       </c>
       <c r="I59" t="n">
-        <v>115803</v>
+        <v>116272</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>88520491</v>
+        <v>88888807</v>
       </c>
       <c r="E60" t="n">
-        <v>510093252</v>
+        <v>512215643</v>
       </c>
       <c r="F60" t="n">
-        <v>100204.6502634353</v>
+        <v>91030.94225859262</v>
       </c>
       <c r="G60" t="n">
-        <v>97313.36082445452</v>
+        <v>98001.37711898003</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>15933672</v>
+        <v>16085428</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9275208</v>
+        <v>9286076</v>
       </c>
       <c r="E61" t="n">
-        <v>9275208</v>
+        <v>9286076</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6.34</v>
+        <v>6.35</v>
       </c>
       <c r="I61" t="n">
-        <v>2061056</v>
+        <v>2068851</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29996688</v>
+        <v>30297940</v>
       </c>
       <c r="E62" t="n">
-        <v>134307477</v>
+        <v>135656306</v>
       </c>
       <c r="F62" t="n">
-        <v>16254.54207018433</v>
+        <v>27683.50678031618</v>
       </c>
       <c r="G62" t="n">
-        <v>32264.14476170888</v>
+        <v>21777.49078389601</v>
       </c>
       <c r="H62" t="n">
         <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>8853659</v>
+        <v>8797199</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13090491</v>
+        <v>13086403</v>
       </c>
       <c r="E63" t="n">
-        <v>26169552</v>
+        <v>26161379</v>
       </c>
       <c r="F63" t="n">
-        <v>2062.355359960303</v>
+        <v>2087.030612830561</v>
       </c>
       <c r="G63" t="n">
-        <v>2044.674717648944</v>
+        <v>2156.065591284831</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>47863</v>
+        <v>46222</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1444341</v>
+        <v>1448968</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>6.84</v>
+        <v>4.74</v>
       </c>
       <c r="I64" t="n">
-        <v>67967</v>
+        <v>68236</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>46745228</v>
+        <v>47123479</v>
       </c>
       <c r="E65" t="n">
-        <v>303130360</v>
+        <v>305583220</v>
       </c>
       <c r="F65" t="n">
-        <v>19665.89305608311</v>
+        <v>17636.32680190094</v>
       </c>
       <c r="G65" t="n">
-        <v>15610.40791067468</v>
+        <v>18045.21336672056</v>
       </c>
       <c r="H65" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I65" t="n">
-        <v>17309374</v>
+        <v>17332034</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4807092</v>
+        <v>4832314</v>
       </c>
       <c r="F66" t="n">
-        <v>1376.750759206125</v>
+        <v>1305.679085038365</v>
       </c>
       <c r="G66" t="n">
-        <v>730.7980437106957</v>
+        <v>1587.682917228276</v>
       </c>
       <c r="H66" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="I66" t="n">
-        <v>115248</v>
+        <v>158913</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125050953</v>
+        <v>125152039</v>
       </c>
       <c r="E67" t="n">
-        <v>2070946209</v>
+        <v>2072620264</v>
       </c>
       <c r="F67" t="n">
-        <v>22027.16087776257</v>
+        <v>22559.79192802182</v>
       </c>
       <c r="G67" t="n">
-        <v>17665.80523968465</v>
+        <v>25987.07386728833</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5010537</v>
+        <v>5060629</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23103689</v>
+        <v>23164759</v>
       </c>
       <c r="E68" t="n">
-        <v>138234017</v>
+        <v>138599407</v>
       </c>
       <c r="F68" t="n">
-        <v>44601.40395326384</v>
+        <v>44099.34185404987</v>
       </c>
       <c r="G68" t="n">
-        <v>43384.46268692121</v>
+        <v>42763.66836005412</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>12615038</v>
+        <v>12575504</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23513343</v>
+        <v>23478636</v>
       </c>
       <c r="E70" t="n">
-        <v>23513343</v>
+        <v>23478636</v>
       </c>
       <c r="F70" t="n">
-        <v>3385.415993238814</v>
+        <v>2111.148112833773</v>
       </c>
       <c r="G70" t="n">
-        <v>2622.199354104459</v>
+        <v>14425.31609686486</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="I70" t="n">
-        <v>1751031</v>
+        <v>1742767</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33971483</v>
+        <v>34005450</v>
       </c>
       <c r="E71" t="n">
-        <v>169533359</v>
+        <v>169702873</v>
       </c>
       <c r="F71" t="n">
-        <v>16141.20122343354</v>
+        <v>15662.79690390545</v>
       </c>
       <c r="G71" t="n">
-        <v>35448.6977747505</v>
+        <v>30124.80808814743</v>
       </c>
       <c r="H71" t="n">
         <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>9957157</v>
+        <v>9999371</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>168507</v>
+        <v>174914</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>10651.05</v>
+        <v>10938.59</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>309929773</v>
+        <v>311019955</v>
       </c>
       <c r="E73" t="n">
-        <v>573440759</v>
+        <v>575457844</v>
       </c>
       <c r="F73" t="n">
-        <v>68513.09702304339</v>
+        <v>67226.12835779859</v>
       </c>
       <c r="G73" t="n">
-        <v>71451.7867986193</v>
+        <v>74818.9957818603</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>12217140</v>
+        <v>12274496</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9759698</v>
+        <v>9607176</v>
       </c>
       <c r="E74" t="n">
-        <v>28964932</v>
+        <v>28512274</v>
       </c>
       <c r="F74" t="n">
-        <v>1176.555024597773</v>
+        <v>1062.987088878225</v>
       </c>
       <c r="G74" t="n">
-        <v>1150.804075427072</v>
+        <v>1921.395769240971</v>
       </c>
       <c r="H74" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="I74" t="n">
-        <v>5474518</v>
+        <v>5522686</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8268416</v>
+        <v>9181812</v>
       </c>
       <c r="E75" t="n">
-        <v>11780598</v>
+        <v>13081978</v>
       </c>
       <c r="F75" t="n">
-        <v>27.93496824822277</v>
+        <v>12.54047680105263</v>
       </c>
       <c r="G75" t="n">
-        <v>3262.219723556616</v>
+        <v>431.0460816348002</v>
       </c>
       <c r="H75" t="n">
-        <v>0.17</v>
+        <v>1.16</v>
       </c>
       <c r="I75" t="n">
-        <v>334555</v>
+        <v>429562</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>15980961</v>
+        <v>16061094</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4005271499471885</v>
+        <v>0.4005385541530736</v>
       </c>
       <c r="G76" t="n">
-        <v>9.39724748919329</v>
+        <v>383.0190934142004</v>
       </c>
       <c r="H76" t="n">
         <v>1.03</v>
       </c>
       <c r="I76" t="n">
-        <v>973965</v>
+        <v>974577</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61014764</v>
+        <v>61179756</v>
       </c>
       <c r="E77" t="n">
-        <v>100942794</v>
+        <v>101215757</v>
       </c>
       <c r="F77" t="n">
-        <v>11345.32806222628</v>
+        <v>12548.31541502258</v>
       </c>
       <c r="G77" t="n">
-        <v>18325.46708989446</v>
+        <v>18827.72446785193</v>
       </c>
       <c r="H77" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I77" t="n">
-        <v>5904740</v>
+        <v>6129787</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5708307</v>
+        <v>5662240</v>
       </c>
       <c r="E78" t="n">
-        <v>5708307</v>
+        <v>5662240</v>
       </c>
       <c r="F78" t="n">
-        <v>257.3539842898386</v>
+        <v>10.12892520018211</v>
       </c>
       <c r="G78" t="n">
-        <v>15.54921328794859</v>
+        <v>34.55681884154391</v>
       </c>
       <c r="H78" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="I78" t="n">
-        <v>1091856</v>
+        <v>1105516</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>61602</v>
+        <v>60215</v>
       </c>
       <c r="E79" t="n">
-        <v>321412</v>
+        <v>314179</v>
       </c>
       <c r="F79" t="n">
-        <v>13.23009155116559</v>
+        <v>428.1076365424914</v>
       </c>
       <c r="G79" t="n">
-        <v>88.13789906587729</v>
+        <v>43.62340602891599</v>
       </c>
       <c r="H79" t="n">
-        <v>0.66</v>
+        <v>0.03</v>
       </c>
       <c r="I79" t="n">
-        <v>312397</v>
+        <v>312133</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27643270</v>
+        <v>26998404</v>
       </c>
       <c r="F80" t="n">
-        <v>1403.997930534975</v>
+        <v>4098.95791197173</v>
       </c>
       <c r="G80" t="n">
-        <v>243.081197754324</v>
+        <v>2670.069751363065</v>
       </c>
       <c r="H80" t="n">
-        <v>1.08</v>
+        <v>0.15</v>
       </c>
       <c r="I80" t="n">
-        <v>44899</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>592809577</v>
+        <v>590282679</v>
       </c>
       <c r="E81" t="n">
-        <v>2295864029</v>
+        <v>2286077726</v>
       </c>
       <c r="F81" t="n">
-        <v>157263.0161631758</v>
+        <v>151725.3101279863</v>
       </c>
       <c r="G81" t="n">
-        <v>288221.0808783197</v>
+        <v>282036.4186956533</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>29354703</v>
+        <v>30324100</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7146236</v>
+        <v>7222930</v>
       </c>
       <c r="E82" t="n">
-        <v>10240247</v>
+        <v>10349995</v>
       </c>
       <c r="F82" t="n">
-        <v>963.9676840174134</v>
+        <v>895.3747198389729</v>
       </c>
       <c r="G82" t="n">
-        <v>1255.292591442196</v>
+        <v>1157.343633172715</v>
       </c>
       <c r="H82" t="n">
         <v>0.96</v>
       </c>
       <c r="I82" t="n">
-        <v>158482</v>
+        <v>161559</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116677731</v>
+        <v>117444829</v>
       </c>
       <c r="E83" t="n">
-        <v>1014441158</v>
+        <v>1021110604</v>
       </c>
       <c r="F83" t="n">
-        <v>42969.60813034149</v>
+        <v>44963.43039929711</v>
       </c>
       <c r="G83" t="n">
-        <v>39936.15052023497</v>
+        <v>44900.58458789314</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9100691</v>
+        <v>9245715</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1136322</v>
+        <v>1135761</v>
       </c>
       <c r="E84" t="n">
-        <v>4400087</v>
+        <v>4397913</v>
       </c>
       <c r="F84" t="n">
-        <v>599.249284869339</v>
+        <v>1056.502003500502</v>
       </c>
       <c r="G84" t="n">
-        <v>1447.235404553609</v>
+        <v>2285.570747063325</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="I84" t="n">
-        <v>464922</v>
+        <v>430711</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>109464630</v>
+        <v>110884195</v>
       </c>
       <c r="E85" t="n">
-        <v>419923938</v>
+        <v>425369620</v>
       </c>
       <c r="F85" t="n">
-        <v>76043.70917039283</v>
+        <v>80155.04229477317</v>
       </c>
       <c r="G85" t="n">
-        <v>87297.254106768</v>
+        <v>85233.41024063976</v>
       </c>
       <c r="H85" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I85" t="n">
-        <v>18904966</v>
+        <v>19300038</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5085751</v>
+        <v>5091633</v>
       </c>
       <c r="E86" t="n">
-        <v>18938295</v>
+        <v>18960197</v>
       </c>
       <c r="F86" t="n">
-        <v>5567.244678429543</v>
+        <v>5567.403194536463</v>
       </c>
       <c r="G86" t="n">
-        <v>5998.520959856919</v>
+        <v>6054.893080787617</v>
       </c>
       <c r="H86" t="n">
         <v>0.47</v>
       </c>
       <c r="I86" t="n">
-        <v>59149</v>
+        <v>58150</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>30928507</v>
+        <v>31456599</v>
       </c>
       <c r="F87" t="n">
-        <v>7319.026025711021</v>
+        <v>3630.622090879941</v>
       </c>
       <c r="G87" t="n">
-        <v>1153.353404234277</v>
+        <v>2802.221804701115</v>
       </c>
       <c r="H87" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5729407</v>
+        <v>5658586</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24117293</v>
+        <v>24171641</v>
       </c>
       <c r="F88" t="n">
-        <v>1187.883242936471</v>
+        <v>1295.943304511767</v>
       </c>
       <c r="G88" t="n">
-        <v>931.4752472790542</v>
+        <v>685.8324016238548</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I88" t="n">
-        <v>10727.44</v>
+        <v>10655.22</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>86613036</v>
+        <v>86701512</v>
       </c>
       <c r="E89" t="n">
-        <v>320186888</v>
+        <v>320513176</v>
       </c>
       <c r="F89" t="n">
-        <v>608.0647821376994</v>
+        <v>879.7364836736166</v>
       </c>
       <c r="G89" t="n">
-        <v>1598.023184695677</v>
+        <v>1483.283959480812</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="I89" t="n">
-        <v>374532</v>
+        <v>369402</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20225645</v>
+        <v>20156942</v>
       </c>
       <c r="E90" t="n">
-        <v>20225645</v>
+        <v>20156942</v>
       </c>
       <c r="F90" t="n">
-        <v>3183.744670234776</v>
+        <v>3405.533143071563</v>
       </c>
       <c r="G90" t="n">
-        <v>2680.852434638241</v>
+        <v>4845.706336139517</v>
       </c>
       <c r="H90" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="I90" t="n">
-        <v>7080381</v>
+        <v>7063576</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3829546</v>
+        <v>3829066</v>
       </c>
       <c r="E91" t="n">
-        <v>8356021</v>
+        <v>8354972</v>
       </c>
       <c r="F91" t="n">
-        <v>1587.269223757885</v>
+        <v>1573.627788874759</v>
       </c>
       <c r="G91" t="n">
-        <v>4907.151379589922</v>
+        <v>4913.681431140255</v>
       </c>
       <c r="H91" t="n">
         <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>984389</v>
+        <v>941486</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>482634162</v>
+        <v>486318893</v>
       </c>
       <c r="E92" t="n">
-        <v>1680861684</v>
+        <v>1693694434</v>
       </c>
       <c r="F92" t="n">
-        <v>165783.1448634745</v>
+        <v>158092.6853068359</v>
       </c>
       <c r="G92" t="n">
-        <v>157554.9848924828</v>
+        <v>169686.4579182589</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31067159</v>
+        <v>31384918</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2659744</v>
+        <v>2661320</v>
       </c>
       <c r="E93" t="n">
-        <v>10638977</v>
+        <v>10645279</v>
       </c>
       <c r="F93" t="n">
-        <v>1925.069721154787</v>
+        <v>1770.982210746525</v>
       </c>
       <c r="G93" t="n">
-        <v>3541.997922500778</v>
+        <v>3521.700772548538</v>
       </c>
       <c r="H93" t="n">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="I93" t="n">
-        <v>5064538</v>
+        <v>5045889</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>211875984</v>
+        <v>212948443</v>
       </c>
       <c r="E94" t="n">
-        <v>651438916</v>
+        <v>654736325</v>
       </c>
       <c r="F94" t="n">
-        <v>102189.8435016832</v>
+        <v>108202.8751505026</v>
       </c>
       <c r="G94" t="n">
-        <v>87267.98481664274</v>
+        <v>102223.3799381713</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11409590</v>
+        <v>11296898</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148182484</v>
+        <v>147623161</v>
       </c>
       <c r="E95" t="n">
-        <v>387122629</v>
+        <v>385661415</v>
       </c>
       <c r="F95" t="n">
-        <v>17115.9991809109</v>
+        <v>26549.21535655776</v>
       </c>
       <c r="G95" t="n">
-        <v>32722.74145773114</v>
+        <v>32410.23856480015</v>
       </c>
       <c r="H95" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>6987932</v>
+        <v>6667837</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>397797848</v>
+        <v>399251618</v>
       </c>
       <c r="E96" t="n">
-        <v>2273130561</v>
+        <v>2281437817</v>
       </c>
       <c r="F96" t="n">
-        <v>28416.01650654491</v>
+        <v>25225.03990534488</v>
       </c>
       <c r="G96" t="n">
-        <v>34826.86596352665</v>
+        <v>35999.11397716862</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36620313</v>
+        <v>36243827</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>601748946</v>
+        <v>601970569</v>
       </c>
       <c r="E2" t="n">
-        <v>1167584672</v>
+        <v>1168014690</v>
       </c>
       <c r="F2" t="n">
-        <v>18246.87772081677</v>
+        <v>17120.90581125309</v>
       </c>
       <c r="G2" t="n">
-        <v>36080.87188633582</v>
+        <v>37459.80763864736</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>22514098</v>
+        <v>22716150</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1328608</v>
+        <v>1346926</v>
       </c>
       <c r="E3" t="n">
-        <v>4294606</v>
+        <v>4353817</v>
       </c>
       <c r="F3" t="n">
-        <v>4548.881130432546</v>
+        <v>3327.558390944278</v>
       </c>
       <c r="G3" t="n">
-        <v>5683.957127738711</v>
+        <v>7103.504333700747</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>74711</v>
+        <v>91542</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245169259</v>
+        <v>244879042</v>
       </c>
       <c r="E4" t="n">
-        <v>1537421961</v>
+        <v>1535602049</v>
       </c>
       <c r="F4" t="n">
-        <v>146290.1608215141</v>
+        <v>137645.0958782336</v>
       </c>
       <c r="G4" t="n">
-        <v>138131.5621065987</v>
+        <v>146410.4324792718</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15528327</v>
+        <v>15531424</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139246269</v>
+        <v>138668254</v>
       </c>
       <c r="E5" t="n">
-        <v>154307107</v>
+        <v>153666575</v>
       </c>
       <c r="F5" t="n">
-        <v>8593.028688541877</v>
+        <v>11002.01930588949</v>
       </c>
       <c r="G5" t="n">
-        <v>29559.4323579367</v>
+        <v>21415.50176148494</v>
       </c>
       <c r="H5" t="n">
         <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>33123040</v>
+        <v>33465044</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>674339</v>
+        <v>674694</v>
       </c>
       <c r="E6" t="n">
-        <v>13100743</v>
+        <v>13107649</v>
       </c>
       <c r="F6" t="n">
-        <v>627.100517227069</v>
+        <v>627.1167165069672</v>
       </c>
       <c r="G6" t="n">
-        <v>318.4323269518452</v>
+        <v>318.4405527055342</v>
       </c>
       <c r="H6" t="n">
         <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>24702</v>
+        <v>24117</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>467458882</v>
+        <v>468402092</v>
       </c>
       <c r="E7" t="n">
-        <v>467458885</v>
+        <v>468402090</v>
       </c>
       <c r="F7" t="n">
-        <v>47392.94977129884</v>
+        <v>46367.38408685756</v>
       </c>
       <c r="G7" t="n">
-        <v>62315.10992348486</v>
+        <v>52157.48659144637</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>60079254</v>
+        <v>60476855</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4631194</v>
+        <v>4623032</v>
       </c>
       <c r="E8" t="n">
-        <v>4631194</v>
+        <v>4623032</v>
       </c>
       <c r="F8" t="n">
-        <v>859.5964660893301</v>
+        <v>833.4670566891217</v>
       </c>
       <c r="G8" t="n">
-        <v>1439.391123883776</v>
+        <v>1421.76403461967</v>
       </c>
       <c r="H8" t="n">
-        <v>0.78</v>
+        <v>0.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1309621</v>
+        <v>1909855</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1673752</v>
+        <v>1675260</v>
       </c>
       <c r="F9" t="n">
-        <v>794.7967938490543</v>
+        <v>3114.227764875078</v>
       </c>
       <c r="G9" t="n">
-        <v>2362.007282913349</v>
+        <v>3859.962868373929</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="I9" t="n">
-        <v>161078</v>
+        <v>161527</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1628161</v>
+        <v>1620972</v>
       </c>
       <c r="F10" t="n">
-        <v>314.0484569881223</v>
+        <v>490.2126521877892</v>
       </c>
       <c r="G10" t="n">
-        <v>212.8960458404404</v>
+        <v>250.5513017548408</v>
       </c>
       <c r="H10" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="I10" t="n">
-        <v>166390</v>
+        <v>210257</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>103790203</v>
+        <v>104079992</v>
       </c>
       <c r="E11" t="n">
-        <v>195528439</v>
+        <v>196074367</v>
       </c>
       <c r="F11" t="n">
-        <v>1513.31759120935</v>
+        <v>55.77169895910126</v>
       </c>
       <c r="G11" t="n">
-        <v>1305.751196445753</v>
+        <v>1399.544641996571</v>
       </c>
       <c r="H11" t="n">
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
       <c r="I11" t="n">
-        <v>4308945</v>
+        <v>4331961</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12778160</v>
+        <v>12717560</v>
       </c>
       <c r="E12" t="n">
-        <v>32179616</v>
+        <v>32027005</v>
       </c>
       <c r="F12" t="n">
-        <v>2946.339762629683</v>
+        <v>2924.348168223725</v>
       </c>
       <c r="G12" t="n">
-        <v>659.9337731275303</v>
+        <v>681.4238833468117</v>
       </c>
       <c r="H12" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="I12" t="n">
-        <v>1590880</v>
+        <v>1591895</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>107844143</v>
+        <v>108146446</v>
       </c>
       <c r="E13" t="n">
-        <v>419886771</v>
+        <v>421063775</v>
       </c>
       <c r="F13" t="n">
-        <v>14716.50786372237</v>
+        <v>14013.55789535812</v>
       </c>
       <c r="G13" t="n">
-        <v>33100.59646598015</v>
+        <v>33163.41656291382</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>6525265</v>
+        <v>6422964</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5374161</v>
+        <v>5305376</v>
       </c>
       <c r="E14" t="n">
-        <v>7911056</v>
+        <v>7809801</v>
       </c>
       <c r="F14" t="n">
-        <v>345.7251120691457</v>
+        <v>334.8566890178192</v>
       </c>
       <c r="G14" t="n">
-        <v>381.3640734835022</v>
+        <v>478.7887240292778</v>
       </c>
       <c r="H14" t="n">
         <v>1.27</v>
       </c>
       <c r="I14" t="n">
-        <v>599400</v>
+        <v>644008</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>133810673</v>
+        <v>134222001</v>
       </c>
       <c r="E15" t="n">
-        <v>133810673</v>
+        <v>134222001</v>
       </c>
       <c r="F15" t="n">
-        <v>49586.94037609595</v>
+        <v>56266.99476059021</v>
       </c>
       <c r="G15" t="n">
-        <v>80789.74907001313</v>
+        <v>79899.47471827139</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>65821660</v>
+        <v>65776405</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64090442</v>
+        <v>64069156</v>
       </c>
       <c r="E16" t="n">
-        <v>328668934</v>
+        <v>328559773</v>
       </c>
       <c r="F16" t="n">
-        <v>28532.73261095926</v>
+        <v>26067.93310759592</v>
       </c>
       <c r="G16" t="n">
-        <v>34612.32599171202</v>
+        <v>34823.38065385247</v>
       </c>
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>18323409</v>
+        <v>18030701</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>250323004</v>
+        <v>250286629</v>
       </c>
       <c r="E17" t="n">
-        <v>250323004</v>
+        <v>250286629</v>
       </c>
       <c r="F17" t="n">
-        <v>56883.4110274284</v>
+        <v>54561.56042971815</v>
       </c>
       <c r="G17" t="n">
-        <v>55558.05448168165</v>
+        <v>60869.85365824206</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14728611</v>
+        <v>14646963</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2538323</v>
+        <v>2538970</v>
       </c>
       <c r="E18" t="n">
-        <v>6489444</v>
+        <v>6491096</v>
       </c>
       <c r="F18" t="n">
-        <v>1060.427014521405</v>
+        <v>1068.976778467022</v>
       </c>
       <c r="G18" t="n">
-        <v>1602.07897745517</v>
+        <v>1614.733669440315</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>120163</v>
+        <v>118912</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71858716</v>
+        <v>71657918</v>
       </c>
       <c r="E19" t="n">
-        <v>201161278</v>
+        <v>200599167</v>
       </c>
       <c r="F19" t="n">
-        <v>22732.11472898549</v>
+        <v>19380.97521568044</v>
       </c>
       <c r="G19" t="n">
-        <v>20509.19002913473</v>
+        <v>21336.50915234665</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>32616824</v>
+        <v>32200408</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1569436</v>
+        <v>1570394</v>
       </c>
       <c r="E20" t="n">
-        <v>9011116</v>
+        <v>9016614</v>
       </c>
       <c r="F20" t="n">
-        <v>253.4780363215389</v>
+        <v>200.3208733769632</v>
       </c>
       <c r="G20" t="n">
-        <v>39.42442857367973</v>
+        <v>37.75999777651473</v>
       </c>
       <c r="H20" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>324538</v>
+        <v>317650</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>150420</v>
+        <v>151463</v>
       </c>
       <c r="E21" t="n">
-        <v>1015802</v>
+        <v>1022847</v>
       </c>
       <c r="F21" t="n">
-        <v>3.198861352038068</v>
+        <v>3.198915516603947</v>
       </c>
       <c r="G21" t="n">
-        <v>19.60489806537986</v>
+        <v>19.99857039085227</v>
       </c>
       <c r="H21" t="n">
         <v>1.14</v>
       </c>
       <c r="I21" t="n">
-        <v>2663473</v>
+        <v>2664520</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269755</v>
+        <v>272167</v>
       </c>
       <c r="F22" t="n">
-        <v>84.94987689632066</v>
+        <v>108.8663055728777</v>
       </c>
       <c r="G22" t="n">
-        <v>198.3139502636797</v>
+        <v>183.5625687096215</v>
       </c>
       <c r="H22" t="n">
         <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>2177.7</v>
+        <v>2227.19</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71734940</v>
+        <v>71890757</v>
       </c>
       <c r="E23" t="n">
-        <v>149603779</v>
+        <v>149928736</v>
       </c>
       <c r="F23" t="n">
-        <v>34239.88878847638</v>
+        <v>32413.55856298905</v>
       </c>
       <c r="G23" t="n">
-        <v>49240.28792806067</v>
+        <v>51339.6515696072</v>
       </c>
       <c r="H23" t="n">
         <v>0.25</v>
       </c>
       <c r="I23" t="n">
-        <v>13685533</v>
+        <v>13732744</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>196627756</v>
+        <v>196461786</v>
       </c>
       <c r="E24" t="n">
-        <v>683102593</v>
+        <v>682526001</v>
       </c>
       <c r="F24" t="n">
-        <v>60839.77225444488</v>
+        <v>23229.41729719653</v>
       </c>
       <c r="G24" t="n">
-        <v>60930.16362582493</v>
+        <v>21172.26491037544</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>25984201</v>
+        <v>25604776</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>111680813</v>
+        <v>111865472</v>
       </c>
       <c r="E25" t="n">
-        <v>475145916</v>
+        <v>475931544</v>
       </c>
       <c r="F25" t="n">
-        <v>18036.82794067171</v>
+        <v>18409.04089072132</v>
       </c>
       <c r="G25" t="n">
-        <v>26350.09938964151</v>
+        <v>21107.55636072862</v>
       </c>
       <c r="H25" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I25" t="n">
-        <v>12068979</v>
+        <v>12255976</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5904243</v>
+        <v>5936473</v>
       </c>
       <c r="E26" t="n">
-        <v>8022490</v>
+        <v>8066583</v>
       </c>
       <c r="F26" t="n">
-        <v>920.906549627808</v>
+        <v>1063.336987111479</v>
       </c>
       <c r="G26" t="n">
-        <v>2317.57393365908</v>
+        <v>580.6815955704492</v>
       </c>
       <c r="H26" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>6446685</v>
+        <v>6476777</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>536542</v>
+        <v>535973</v>
       </c>
       <c r="E27" t="n">
-        <v>6507734</v>
+        <v>6500831</v>
       </c>
       <c r="F27" t="n">
-        <v>645.8065892437612</v>
+        <v>689.7087611278267</v>
       </c>
       <c r="G27" t="n">
-        <v>637.4250561575532</v>
+        <v>802.3911964057351</v>
       </c>
       <c r="H27" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="I27" t="n">
-        <v>2762509</v>
+        <v>2761774</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24995723</v>
+        <v>24979204</v>
       </c>
       <c r="E28" t="n">
-        <v>35330478</v>
+        <v>35307129</v>
       </c>
       <c r="F28" t="n">
-        <v>1841.704494873441</v>
+        <v>1944.4930258431</v>
       </c>
       <c r="G28" t="n">
-        <v>112.7964407189715</v>
+        <v>101.2957595561892</v>
       </c>
       <c r="H28" t="n">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>68044</v>
+        <v>86566</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1265497367</v>
+        <v>1268186287</v>
       </c>
       <c r="E29" t="n">
-        <v>6068319043</v>
+        <v>6081212964</v>
       </c>
       <c r="F29" t="n">
-        <v>171731.5431997574</v>
+        <v>192086.2573165541</v>
       </c>
       <c r="G29" t="n">
-        <v>249270.582375982</v>
+        <v>224551.6542446673</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>182134395</v>
+        <v>181343353</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>266968518</v>
+        <v>266306460</v>
       </c>
       <c r="E30" t="n">
-        <v>1152384329</v>
+        <v>1149526518</v>
       </c>
       <c r="F30" t="n">
-        <v>202454.8502717332</v>
+        <v>152060.2612387925</v>
       </c>
       <c r="G30" t="n">
-        <v>190042.5224211279</v>
+        <v>178637.3443353097</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>110327606</v>
+        <v>109869770</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5330707</v>
+        <v>5354001</v>
       </c>
       <c r="E31" t="n">
-        <v>5336741</v>
+        <v>5360060</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6693962389248</v>
+        <v>128.6715749272837</v>
       </c>
       <c r="G31" t="n">
-        <v>130.2276338673579</v>
+        <v>130.2298389405004</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>153251</v>
+        <v>152426</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21479383</v>
+        <v>21399686</v>
       </c>
       <c r="E32" t="n">
-        <v>53698457</v>
+        <v>53499215</v>
       </c>
       <c r="F32" t="n">
-        <v>1705.210056161498</v>
+        <v>1337.71810000388</v>
       </c>
       <c r="G32" t="n">
-        <v>4876.980802947612</v>
+        <v>7289.505441584402</v>
       </c>
       <c r="H32" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="I32" t="n">
-        <v>2066373</v>
+        <v>2092266</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20152452</v>
+        <v>20200060</v>
       </c>
       <c r="F33" t="n">
-        <v>722.9372529536648</v>
+        <v>657.7558201891607</v>
       </c>
       <c r="G33" t="n">
-        <v>1174.848551229647</v>
+        <v>1807.748601172072</v>
       </c>
       <c r="H33" t="n">
         <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>128853</v>
+        <v>128439</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3894454</v>
+        <v>3998060</v>
       </c>
       <c r="E34" t="n">
-        <v>11217606</v>
+        <v>11516034</v>
       </c>
       <c r="F34" t="n">
-        <v>1196.797766800614</v>
+        <v>1055.498337628199</v>
       </c>
       <c r="G34" t="n">
-        <v>1352.946435358634</v>
+        <v>393.4611334049474</v>
       </c>
       <c r="H34" t="n">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="I34" t="n">
-        <v>528339</v>
+        <v>536845</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1682544</v>
+        <v>1625717</v>
       </c>
       <c r="F35" t="n">
-        <v>5.677210668935975</v>
+        <v>6.349529821706746</v>
       </c>
       <c r="G35" t="n">
-        <v>347.5897399851885</v>
+        <v>343.7793877374451</v>
       </c>
       <c r="H35" t="n">
         <v>0.61</v>
       </c>
       <c r="I35" t="n">
-        <v>12114.29</v>
+        <v>12121.91</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13783671</v>
+        <v>13766886</v>
       </c>
       <c r="E36" t="n">
-        <v>66756519</v>
+        <v>66675224</v>
       </c>
       <c r="F36" t="n">
-        <v>3092.435652498523</v>
+        <v>3732.767957278916</v>
       </c>
       <c r="G36" t="n">
-        <v>7980.073475038117</v>
+        <v>8962.650577779999</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I36" t="n">
-        <v>3618240</v>
+        <v>3615456</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1471672</v>
+        <v>1469425</v>
       </c>
       <c r="E37" t="n">
-        <v>9632055</v>
+        <v>9617347</v>
       </c>
       <c r="F37" t="n">
-        <v>717.4487008094911</v>
+        <v>99.90520263010099</v>
       </c>
       <c r="G37" t="n">
-        <v>20.75494962203124</v>
+        <v>126.2204120154691</v>
       </c>
       <c r="H37" t="n">
         <v>1.03</v>
       </c>
       <c r="I37" t="n">
-        <v>341238</v>
+        <v>341192</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1878984849</v>
+        <v>1880904673</v>
       </c>
       <c r="F38" t="n">
-        <v>71032.46555009537</v>
+        <v>75330.13960330114</v>
       </c>
       <c r="G38" t="n">
-        <v>70268.05509747271</v>
+        <v>67821.09835131008</v>
       </c>
       <c r="H38" t="n">
-        <v>0.74</v>
+        <v>0.58</v>
       </c>
       <c r="I38" t="n">
-        <v>26252580</v>
+        <v>26169040</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32516014</v>
+        <v>32279688</v>
       </c>
       <c r="E39" t="n">
-        <v>101244433</v>
+        <v>100508591</v>
       </c>
       <c r="F39" t="n">
-        <v>5344.549198483657</v>
+        <v>4525.253967398091</v>
       </c>
       <c r="G39" t="n">
-        <v>8515.09201832866</v>
+        <v>8466.872869580959</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>11764514</v>
+        <v>11900690</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>198743429</v>
+        <v>200274202</v>
       </c>
       <c r="E40" t="n">
-        <v>1125407413</v>
+        <v>1134075589</v>
       </c>
       <c r="F40" t="n">
-        <v>42468.95963798738</v>
+        <v>33417.21742024261</v>
       </c>
       <c r="G40" t="n">
-        <v>79765.14618890818</v>
+        <v>81463.9967632162</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I40" t="n">
-        <v>60791218</v>
+        <v>60281855</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>137413754</v>
+        <v>137348991</v>
       </c>
       <c r="E41" t="n">
-        <v>1017879662</v>
+        <v>1017399933</v>
       </c>
       <c r="F41" t="n">
-        <v>138348.3234601441</v>
+        <v>155423.038685838</v>
       </c>
       <c r="G41" t="n">
-        <v>219999.1205988986</v>
+        <v>224087.6994937697</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>11940296</v>
+        <v>11854109</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31165124</v>
+        <v>31257637</v>
       </c>
       <c r="E42" t="n">
-        <v>148143593</v>
+        <v>148583354</v>
       </c>
       <c r="F42" t="n">
-        <v>5885.708662522788</v>
+        <v>6911.160254072625</v>
       </c>
       <c r="G42" t="n">
-        <v>8478.578138730893</v>
+        <v>8795.407410483598</v>
       </c>
       <c r="H42" t="n">
         <v>0.34</v>
       </c>
       <c r="I42" t="n">
-        <v>1234265</v>
+        <v>1124236</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3338511</v>
+        <v>3432245</v>
       </c>
       <c r="E43" t="n">
-        <v>7795979</v>
+        <v>8014863</v>
       </c>
       <c r="F43" t="n">
-        <v>817.9471299605287</v>
+        <v>1685.775657212811</v>
       </c>
       <c r="G43" t="n">
-        <v>1702.429378162051</v>
+        <v>853.1893092432289</v>
       </c>
       <c r="H43" t="n">
-        <v>0.71</v>
+        <v>0.11</v>
       </c>
       <c r="I43" t="n">
-        <v>760553</v>
+        <v>797136</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>334563564</v>
+        <v>334352201</v>
       </c>
       <c r="E44" t="n">
-        <v>3009941275</v>
+        <v>3008039725</v>
       </c>
       <c r="F44" t="n">
-        <v>48060.33060217799</v>
+        <v>54429.27465522412</v>
       </c>
       <c r="G44" t="n">
-        <v>40272.40347335962</v>
+        <v>37595.29763753785</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>36575405</v>
+        <v>36572066</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>643646</v>
+        <v>643827</v>
       </c>
       <c r="F45" t="n">
-        <v>550.4800046308981</v>
+        <v>513.7341743887895</v>
       </c>
       <c r="G45" t="n">
-        <v>198.0722684512726</v>
+        <v>342.0458111071209</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5672.76</v>
+        <v>5675.3</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1590587</v>
+        <v>1589596</v>
       </c>
       <c r="E46" t="n">
-        <v>13254888</v>
+        <v>13246630</v>
       </c>
       <c r="F46" t="n">
-        <v>216.7290969621135</v>
+        <v>251.1924783016257</v>
       </c>
       <c r="G46" t="n">
-        <v>910.651750314366</v>
+        <v>719.0115990809123</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="I46" t="n">
-        <v>47532</v>
+        <v>46942</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4892251</v>
+        <v>4902034</v>
       </c>
       <c r="E47" t="n">
-        <v>17287868</v>
+        <v>17322441</v>
       </c>
       <c r="F47" t="n">
-        <v>1024.312789671028</v>
+        <v>1032.663697807505</v>
       </c>
       <c r="G47" t="n">
-        <v>1668.461298722282</v>
+        <v>1689.979602001056</v>
       </c>
       <c r="H47" t="n">
         <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>105846</v>
+        <v>105767</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42806247</v>
+        <v>42750182</v>
       </c>
       <c r="E48" t="n">
-        <v>247830484</v>
+        <v>247505891</v>
       </c>
       <c r="F48" t="n">
-        <v>23276.14749639761</v>
+        <v>21449.40794673055</v>
       </c>
       <c r="G48" t="n">
-        <v>12619.13911860846</v>
+        <v>13694.33525210915</v>
       </c>
       <c r="H48" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="I48" t="n">
-        <v>10829317</v>
+        <v>10771029</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2316787</v>
+        <v>2271780</v>
       </c>
       <c r="E49" t="n">
-        <v>12728824</v>
+        <v>12481545</v>
       </c>
       <c r="F49" t="n">
-        <v>234.3857948961825</v>
+        <v>291.3354995422388</v>
       </c>
       <c r="G49" t="n">
-        <v>199.1704156754044</v>
+        <v>620.9731641160755</v>
       </c>
       <c r="H49" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I49" t="n">
-        <v>76851</v>
+        <v>77296</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13492407</v>
+        <v>13513877</v>
       </c>
       <c r="E50" t="n">
-        <v>13538323</v>
+        <v>13559866</v>
       </c>
       <c r="F50" t="n">
-        <v>4557.525417546436</v>
+        <v>4811.607424759978</v>
       </c>
       <c r="G50" t="n">
-        <v>5115.368435109105</v>
+        <v>10485.19796866558</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5760981</v>
+        <v>5770286</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25349462</v>
+        <v>25164919</v>
       </c>
       <c r="E51" t="n">
-        <v>75985269</v>
+        <v>75432569</v>
       </c>
       <c r="F51" t="n">
-        <v>22532.14990583467</v>
+        <v>9431.974503081899</v>
       </c>
       <c r="G51" t="n">
-        <v>26425.52978208538</v>
+        <v>27326.15184017242</v>
       </c>
       <c r="H51" t="n">
-        <v>0.52</v>
+        <v>0.02</v>
       </c>
       <c r="I51" t="n">
-        <v>2509322</v>
+        <v>2515164</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15138993</v>
+        <v>15072908</v>
       </c>
       <c r="E52" t="n">
-        <v>92791864</v>
+        <v>92386812</v>
       </c>
       <c r="F52" t="n">
-        <v>7708.633281237991</v>
+        <v>7067.70772242815</v>
       </c>
       <c r="G52" t="n">
-        <v>5414.343880638479</v>
+        <v>5310.514451775964</v>
       </c>
       <c r="H52" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="n">
-        <v>11713571</v>
+        <v>11338470</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46454550</v>
+        <v>46584987</v>
       </c>
       <c r="E53" t="n">
-        <v>200121120</v>
+        <v>200683030</v>
       </c>
       <c r="F53" t="n">
-        <v>24417.02778529758</v>
+        <v>24586.62710898518</v>
       </c>
       <c r="G53" t="n">
-        <v>25779.42022149828</v>
+        <v>26237.05773611232</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8639692</v>
+        <v>8697707</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1018026</v>
+        <v>1017397</v>
       </c>
       <c r="E54" t="n">
-        <v>2975513</v>
+        <v>2973675</v>
       </c>
       <c r="F54" t="n">
-        <v>979.8992094697826</v>
+        <v>980.1300470703966</v>
       </c>
       <c r="G54" t="n">
-        <v>917.2615021689492</v>
+        <v>930.981621191107</v>
       </c>
       <c r="H54" t="n">
         <v>0.99</v>
       </c>
       <c r="I54" t="n">
-        <v>11135.09</v>
+        <v>10242.43</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>36820248</v>
+        <v>37282801</v>
       </c>
       <c r="E55" t="n">
-        <v>92842987</v>
+        <v>94009326</v>
       </c>
       <c r="F55" t="n">
-        <v>6744.291828956102</v>
+        <v>10569.44937554643</v>
       </c>
       <c r="G55" t="n">
-        <v>10900.44930714874</v>
+        <v>7015.044187984313</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2847368</v>
+        <v>2862164</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28220522</v>
+        <v>28521143</v>
       </c>
       <c r="E56" t="n">
-        <v>67044943</v>
+        <v>67759144</v>
       </c>
       <c r="F56" t="n">
-        <v>14407.32968879406</v>
+        <v>14073.96048985783</v>
       </c>
       <c r="G56" t="n">
-        <v>9906.226991124367</v>
+        <v>12819.14844228333</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>489398</v>
+        <v>504895</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12085288</v>
+        <v>12100076</v>
       </c>
       <c r="E57" t="n">
-        <v>18418776</v>
+        <v>18441314</v>
       </c>
       <c r="F57" t="n">
-        <v>3343.353886408273</v>
+        <v>5043.555434072787</v>
       </c>
       <c r="G57" t="n">
-        <v>7807.244367108005</v>
+        <v>6524.536493562484</v>
       </c>
       <c r="H57" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="I57" t="n">
-        <v>673021</v>
+        <v>672659</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>298572815</v>
+        <v>298639305</v>
       </c>
       <c r="E58" t="n">
-        <v>298572815</v>
+        <v>298639305</v>
       </c>
       <c r="F58" t="n">
-        <v>47344.82703704936</v>
+        <v>58184.22794604894</v>
       </c>
       <c r="G58" t="n">
-        <v>77705.80067751231</v>
+        <v>73554.1474017226</v>
       </c>
       <c r="H58" t="n">
         <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>50183031</v>
+        <v>50031019</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11910260</v>
+        <v>11906274</v>
       </c>
       <c r="F59" t="n">
-        <v>549.9338469501755</v>
+        <v>549.950172346639</v>
       </c>
       <c r="G59" t="n">
-        <v>159.7437885886443</v>
+        <v>159.6541644763452</v>
       </c>
       <c r="H59" t="n">
         <v>1.02</v>
       </c>
       <c r="I59" t="n">
-        <v>116272</v>
+        <v>115155</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>88888807</v>
+        <v>88786309</v>
       </c>
       <c r="E60" t="n">
-        <v>512215643</v>
+        <v>511625008</v>
       </c>
       <c r="F60" t="n">
-        <v>91030.94225859262</v>
+        <v>95522.39639187875</v>
       </c>
       <c r="G60" t="n">
-        <v>98001.37711898003</v>
+        <v>104903.8648005537</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I60" t="n">
-        <v>16085428</v>
+        <v>15898055</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9286076</v>
+        <v>9288986</v>
       </c>
       <c r="E61" t="n">
-        <v>9286076</v>
+        <v>9288986</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6.35</v>
+        <v>7.13</v>
       </c>
       <c r="I61" t="n">
-        <v>2068851</v>
+        <v>2065974</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30297940</v>
+        <v>30298306</v>
       </c>
       <c r="E62" t="n">
-        <v>135656306</v>
+        <v>135657945</v>
       </c>
       <c r="F62" t="n">
-        <v>27683.50678031618</v>
+        <v>16118.21495074249</v>
       </c>
       <c r="G62" t="n">
-        <v>21777.49078389601</v>
+        <v>33292.30958255831</v>
       </c>
       <c r="H62" t="n">
         <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>8797199</v>
+        <v>8771941</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13086403</v>
+        <v>13081465</v>
       </c>
       <c r="E63" t="n">
-        <v>26161379</v>
+        <v>26151508</v>
       </c>
       <c r="F63" t="n">
-        <v>2087.030612830561</v>
+        <v>2080.262129823361</v>
       </c>
       <c r="G63" t="n">
-        <v>2156.065591284831</v>
+        <v>2155.43434917687</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>46222</v>
+        <v>46216</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1448968</v>
+        <v>1457692</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.74</v>
+        <v>4.79</v>
       </c>
       <c r="I64" t="n">
-        <v>68236</v>
+        <v>66086</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47123479</v>
+        <v>47167970</v>
       </c>
       <c r="E65" t="n">
-        <v>305583220</v>
+        <v>305871730</v>
       </c>
       <c r="F65" t="n">
-        <v>17636.32680190094</v>
+        <v>17353.05233959092</v>
       </c>
       <c r="G65" t="n">
-        <v>18045.21336672056</v>
+        <v>16791.58052705711</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I65" t="n">
-        <v>17332034</v>
+        <v>17321906</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4832314</v>
+        <v>4834132</v>
       </c>
       <c r="F66" t="n">
-        <v>1305.679085038365</v>
+        <v>1211.297009973669</v>
       </c>
       <c r="G66" t="n">
-        <v>1587.682917228276</v>
+        <v>1058.69145172784</v>
       </c>
       <c r="H66" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="I66" t="n">
-        <v>158913</v>
+        <v>158681</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125152039</v>
+        <v>125136488</v>
       </c>
       <c r="E67" t="n">
-        <v>2072620264</v>
+        <v>2072362732</v>
       </c>
       <c r="F67" t="n">
-        <v>22559.79192802182</v>
+        <v>22681.94017097997</v>
       </c>
       <c r="G67" t="n">
-        <v>25987.07386728833</v>
+        <v>25283.30847493803</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5060629</v>
+        <v>5036188</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23164759</v>
+        <v>23114280</v>
       </c>
       <c r="E68" t="n">
-        <v>138599407</v>
+        <v>138297384</v>
       </c>
       <c r="F68" t="n">
-        <v>44099.34185404987</v>
+        <v>44312.47113335703</v>
       </c>
       <c r="G68" t="n">
-        <v>42763.66836005412</v>
+        <v>37582.09158962152</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>12575504</v>
+        <v>12624619</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23478636</v>
+        <v>23652113</v>
       </c>
       <c r="E70" t="n">
-        <v>23478636</v>
+        <v>23656719</v>
       </c>
       <c r="F70" t="n">
-        <v>2111.148112833773</v>
+        <v>2443.065689739116</v>
       </c>
       <c r="G70" t="n">
-        <v>14425.31609686486</v>
+        <v>4382.294834535257</v>
       </c>
       <c r="H70" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1742767</v>
+        <v>1773970</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34005450</v>
+        <v>33933690</v>
       </c>
       <c r="E71" t="n">
-        <v>169702873</v>
+        <v>169344755</v>
       </c>
       <c r="F71" t="n">
-        <v>15662.79690390545</v>
+        <v>5552.479114080264</v>
       </c>
       <c r="G71" t="n">
-        <v>30124.80808814743</v>
+        <v>22558.58364011231</v>
       </c>
       <c r="H71" t="n">
-        <v>0.59</v>
+        <v>1.18</v>
       </c>
       <c r="I71" t="n">
-        <v>9999371</v>
+        <v>9949192</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>174914</v>
+        <v>174896</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>10938.59</v>
+        <v>10938.34</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>311019955</v>
+        <v>311052034</v>
       </c>
       <c r="E73" t="n">
-        <v>575457844</v>
+        <v>575517197</v>
       </c>
       <c r="F73" t="n">
-        <v>67226.12835779859</v>
+        <v>67196.93497753782</v>
       </c>
       <c r="G73" t="n">
-        <v>74818.9957818603</v>
+        <v>74403.53762716969</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>12274496</v>
+        <v>12310524</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9607176</v>
+        <v>9573715</v>
       </c>
       <c r="E74" t="n">
-        <v>28512274</v>
+        <v>28412970</v>
       </c>
       <c r="F74" t="n">
-        <v>1062.987088878225</v>
+        <v>1158.155071964406</v>
       </c>
       <c r="G74" t="n">
-        <v>1921.395769240971</v>
+        <v>1567.000558659706</v>
       </c>
       <c r="H74" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="I74" t="n">
-        <v>5522686</v>
+        <v>5536143</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9181812</v>
+        <v>8965060</v>
       </c>
       <c r="E75" t="n">
-        <v>13081978</v>
+        <v>12773156</v>
       </c>
       <c r="F75" t="n">
-        <v>12.54047680105263</v>
+        <v>106.9679370293696</v>
       </c>
       <c r="G75" t="n">
-        <v>431.0460816348002</v>
+        <v>18.23736777908016</v>
       </c>
       <c r="H75" t="n">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>429562</v>
+        <v>427684</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16061094</v>
+        <v>16383193</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4005385541530736</v>
+        <v>0.5462325542524465</v>
       </c>
       <c r="G76" t="n">
-        <v>383.0190934142004</v>
+        <v>986.6452355962056</v>
       </c>
       <c r="H76" t="n">
-        <v>1.03</v>
+        <v>1.81</v>
       </c>
       <c r="I76" t="n">
-        <v>974577</v>
+        <v>973945</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61179756</v>
+        <v>61206966</v>
       </c>
       <c r="E77" t="n">
-        <v>101215757</v>
+        <v>101260772</v>
       </c>
       <c r="F77" t="n">
-        <v>12548.31541502258</v>
+        <v>11940.83500767914</v>
       </c>
       <c r="G77" t="n">
-        <v>18827.72446785193</v>
+        <v>18803.1293528161</v>
       </c>
       <c r="H77" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I77" t="n">
-        <v>6129787</v>
+        <v>6123743</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5662240</v>
+        <v>5695485</v>
       </c>
       <c r="E78" t="n">
-        <v>5662240</v>
+        <v>5695485</v>
       </c>
       <c r="F78" t="n">
-        <v>10.12892520018211</v>
+        <v>6.572145159211491</v>
       </c>
       <c r="G78" t="n">
-        <v>34.55681884154391</v>
+        <v>9.87278979012121</v>
       </c>
       <c r="H78" t="n">
         <v>2.53</v>
       </c>
       <c r="I78" t="n">
-        <v>1105516</v>
+        <v>1107648</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>60215</v>
+        <v>59508</v>
       </c>
       <c r="E79" t="n">
-        <v>314179</v>
+        <v>310491</v>
       </c>
       <c r="F79" t="n">
-        <v>428.1076365424914</v>
+        <v>367.2687453283709</v>
       </c>
       <c r="G79" t="n">
-        <v>43.62340602891599</v>
+        <v>11.51121643102498</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03</v>
+        <v>1.37</v>
       </c>
       <c r="I79" t="n">
-        <v>312133</v>
+        <v>311828</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26998404</v>
+        <v>27004040</v>
       </c>
       <c r="F80" t="n">
-        <v>4098.95791197173</v>
+        <v>4899.393206407929</v>
       </c>
       <c r="G80" t="n">
-        <v>2670.069751363065</v>
+        <v>2609.469649939756</v>
       </c>
       <c r="H80" t="n">
         <v>0.15</v>
       </c>
       <c r="I80" t="n">
-        <v>45490</v>
+        <v>43668</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>590282679</v>
+        <v>589301917</v>
       </c>
       <c r="E81" t="n">
-        <v>2286077726</v>
+        <v>2282279379</v>
       </c>
       <c r="F81" t="n">
-        <v>151725.3101279863</v>
+        <v>153809.0468341253</v>
       </c>
       <c r="G81" t="n">
-        <v>282036.4186956533</v>
+        <v>190966.4189658013</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>30324100</v>
+        <v>30356411</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7222930</v>
+        <v>7262137</v>
       </c>
       <c r="E82" t="n">
-        <v>10349995</v>
+        <v>10406148</v>
       </c>
       <c r="F82" t="n">
-        <v>895.3747198389729</v>
+        <v>838.4958013580988</v>
       </c>
       <c r="G82" t="n">
-        <v>1157.343633172715</v>
+        <v>2140.2059234697</v>
       </c>
       <c r="H82" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I82" t="n">
-        <v>161559</v>
+        <v>163541</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>117444829</v>
+        <v>117706909</v>
       </c>
       <c r="E83" t="n">
-        <v>1021110604</v>
+        <v>1023389234</v>
       </c>
       <c r="F83" t="n">
-        <v>44963.43039929711</v>
+        <v>35166.64882025823</v>
       </c>
       <c r="G83" t="n">
-        <v>44900.58458789314</v>
+        <v>44756.37778397851</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9245715</v>
+        <v>9262886</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1135761</v>
+        <v>1140246</v>
       </c>
       <c r="E84" t="n">
-        <v>4397913</v>
+        <v>4415281</v>
       </c>
       <c r="F84" t="n">
-        <v>1056.502003500502</v>
+        <v>1526.713834120213</v>
       </c>
       <c r="G84" t="n">
-        <v>2285.570747063325</v>
+        <v>2567.132666616065</v>
       </c>
       <c r="H84" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>430711</v>
+        <v>433465</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>110884195</v>
+        <v>111024073</v>
       </c>
       <c r="E85" t="n">
-        <v>425369620</v>
+        <v>425906215</v>
       </c>
       <c r="F85" t="n">
-        <v>80155.04229477317</v>
+        <v>82293.78458774746</v>
       </c>
       <c r="G85" t="n">
-        <v>85233.41024063976</v>
+        <v>80208.1785909835</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I85" t="n">
-        <v>19300038</v>
+        <v>19571807</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5091633</v>
+        <v>5093833</v>
       </c>
       <c r="E86" t="n">
-        <v>18960197</v>
+        <v>18968390</v>
       </c>
       <c r="F86" t="n">
-        <v>5567.403194536463</v>
+        <v>5545.500342436125</v>
       </c>
       <c r="G86" t="n">
-        <v>6054.893080787617</v>
+        <v>6078.224060431105</v>
       </c>
       <c r="H86" t="n">
         <v>0.47</v>
       </c>
       <c r="I86" t="n">
-        <v>58150</v>
+        <v>58711</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31456599</v>
+        <v>31523621</v>
       </c>
       <c r="F87" t="n">
-        <v>3630.622090879941</v>
+        <v>5279.361643403007</v>
       </c>
       <c r="G87" t="n">
-        <v>2802.221804701115</v>
+        <v>1084.90280649362</v>
       </c>
       <c r="H87" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5658586</v>
+        <v>5650328</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24171641</v>
+        <v>24204036</v>
       </c>
       <c r="F88" t="n">
-        <v>1295.943304511767</v>
+        <v>1146.67483012576</v>
       </c>
       <c r="G88" t="n">
-        <v>685.8324016238548</v>
+        <v>807.0372204253612</v>
       </c>
       <c r="H88" t="n">
         <v>0.8</v>
       </c>
       <c r="I88" t="n">
-        <v>10655.22</v>
+        <v>10669.24</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>86701512</v>
+        <v>86729102</v>
       </c>
       <c r="E89" t="n">
-        <v>320513176</v>
+        <v>320614843</v>
       </c>
       <c r="F89" t="n">
-        <v>879.7364836736166</v>
+        <v>879.0529738880066</v>
       </c>
       <c r="G89" t="n">
-        <v>1483.283959480812</v>
+        <v>1504.583881769868</v>
       </c>
       <c r="H89" t="n">
         <v>0.68</v>
       </c>
       <c r="I89" t="n">
-        <v>369402</v>
+        <v>358571</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20156942</v>
+        <v>20181209</v>
       </c>
       <c r="E90" t="n">
-        <v>20156942</v>
+        <v>20181209</v>
       </c>
       <c r="F90" t="n">
-        <v>3405.533143071563</v>
+        <v>3218.425088130733</v>
       </c>
       <c r="G90" t="n">
-        <v>4845.706336139517</v>
+        <v>3614.450222043955</v>
       </c>
       <c r="H90" t="n">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>7063576</v>
+        <v>7098974</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3829066</v>
+        <v>3828941</v>
       </c>
       <c r="E91" t="n">
-        <v>8354972</v>
+        <v>8354699</v>
       </c>
       <c r="F91" t="n">
-        <v>1573.627788874759</v>
+        <v>1571.521114629755</v>
       </c>
       <c r="G91" t="n">
-        <v>4913.681431140255</v>
+        <v>4912.837452885432</v>
       </c>
       <c r="H91" t="n">
         <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>941486</v>
+        <v>928773</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>486318893</v>
+        <v>486424048</v>
       </c>
       <c r="E92" t="n">
-        <v>1693694434</v>
+        <v>1694060654</v>
       </c>
       <c r="F92" t="n">
-        <v>158092.6853068359</v>
+        <v>135745.1626911804</v>
       </c>
       <c r="G92" t="n">
-        <v>169686.4579182589</v>
+        <v>143877.4640484521</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31384918</v>
+        <v>31298347</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2661320</v>
+        <v>2653473</v>
       </c>
       <c r="E93" t="n">
-        <v>10645279</v>
+        <v>10613892</v>
       </c>
       <c r="F93" t="n">
-        <v>1770.982210746525</v>
+        <v>2141.226330288844</v>
       </c>
       <c r="G93" t="n">
-        <v>3521.700772548538</v>
+        <v>3406.609513459431</v>
       </c>
       <c r="H93" t="n">
-        <v>0.66</v>
+        <v>0.19</v>
       </c>
       <c r="I93" t="n">
-        <v>5045889</v>
+        <v>5050056</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>212948443</v>
+        <v>213256182</v>
       </c>
       <c r="E94" t="n">
-        <v>654736325</v>
+        <v>655682506</v>
       </c>
       <c r="F94" t="n">
-        <v>108202.8751505026</v>
+        <v>105706.9020088156</v>
       </c>
       <c r="G94" t="n">
-        <v>102223.3799381713</v>
+        <v>101208.6015095273</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11296898</v>
+        <v>11286860</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>147623161</v>
+        <v>148588905</v>
       </c>
       <c r="E95" t="n">
-        <v>385661415</v>
+        <v>388184392</v>
       </c>
       <c r="F95" t="n">
-        <v>26549.21535655776</v>
+        <v>4134.592535326955</v>
       </c>
       <c r="G95" t="n">
-        <v>32410.23856480015</v>
+        <v>6206.57620092719</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>6667837</v>
+        <v>6664055</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>399251618</v>
+        <v>399594434</v>
       </c>
       <c r="E96" t="n">
-        <v>2281437817</v>
+        <v>2283396767</v>
       </c>
       <c r="F96" t="n">
-        <v>25225.03990534488</v>
+        <v>24927.52949430467</v>
       </c>
       <c r="G96" t="n">
-        <v>35999.11397716862</v>
+        <v>49361.27253765524</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36243827</v>
+        <v>36213466</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>601970569</v>
+        <v>612567732</v>
       </c>
       <c r="E2" t="n">
-        <v>1168014690</v>
+        <v>1188582949</v>
       </c>
       <c r="F2" t="n">
-        <v>17120.90581125309</v>
+        <v>12869.65955200178</v>
       </c>
       <c r="G2" t="n">
-        <v>37459.80763864736</v>
+        <v>37288.31036496597</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I2" t="n">
-        <v>22716150</v>
+        <v>23328224</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1346926</v>
+        <v>1348398</v>
       </c>
       <c r="E3" t="n">
-        <v>4353817</v>
+        <v>4358576</v>
       </c>
       <c r="F3" t="n">
-        <v>3327.558390944278</v>
+        <v>5139.629010921148</v>
       </c>
       <c r="G3" t="n">
-        <v>7103.504333700747</v>
+        <v>6774.847757463127</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>91542</v>
+        <v>98057</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244879042</v>
+        <v>245871609</v>
       </c>
       <c r="E4" t="n">
-        <v>1535602049</v>
+        <v>1541826300</v>
       </c>
       <c r="F4" t="n">
-        <v>137645.0958782336</v>
+        <v>146429.2425071408</v>
       </c>
       <c r="G4" t="n">
-        <v>146410.4324792718</v>
+        <v>141441.4613621364</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15531424</v>
+        <v>15666389</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138668254</v>
+        <v>139633397</v>
       </c>
       <c r="E5" t="n">
-        <v>153666575</v>
+        <v>154736106</v>
       </c>
       <c r="F5" t="n">
-        <v>11002.01930588949</v>
+        <v>8510.974505803879</v>
       </c>
       <c r="G5" t="n">
-        <v>21415.50176148494</v>
+        <v>21140.28146099857</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>33465044</v>
+        <v>33828132</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>674694</v>
+        <v>678391</v>
       </c>
       <c r="E6" t="n">
-        <v>13107649</v>
+        <v>13179475</v>
       </c>
       <c r="F6" t="n">
-        <v>627.1167165069672</v>
+        <v>479.5380141567487</v>
       </c>
       <c r="G6" t="n">
-        <v>318.4405527055342</v>
+        <v>336.3482962103366</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21</v>
+        <v>0.6</v>
       </c>
       <c r="I6" t="n">
-        <v>24117</v>
+        <v>24304</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>468402092</v>
+        <v>480697739</v>
       </c>
       <c r="E7" t="n">
-        <v>468402090</v>
+        <v>480697739</v>
       </c>
       <c r="F7" t="n">
-        <v>46367.38408685756</v>
+        <v>36556.08003368584</v>
       </c>
       <c r="G7" t="n">
-        <v>52157.48659144637</v>
+        <v>38229.95482377429</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>60476855</v>
+        <v>62855915</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4623032</v>
+        <v>4664471</v>
       </c>
       <c r="E8" t="n">
-        <v>4623032</v>
+        <v>4664471</v>
       </c>
       <c r="F8" t="n">
-        <v>833.4670566891217</v>
+        <v>859.0134398756426</v>
       </c>
       <c r="G8" t="n">
-        <v>1421.76403461967</v>
+        <v>1685.087938139123</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="I8" t="n">
-        <v>1909855</v>
+        <v>1967946</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1675260</v>
+        <v>1726592</v>
       </c>
       <c r="F9" t="n">
-        <v>3114.227764875078</v>
+        <v>4706.454337088197</v>
       </c>
       <c r="G9" t="n">
-        <v>3859.962868373929</v>
+        <v>2217.042338357617</v>
       </c>
       <c r="H9" t="n">
-        <v>1.22</v>
+        <v>0.73</v>
       </c>
       <c r="I9" t="n">
-        <v>161527</v>
+        <v>115254</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1620972</v>
+        <v>1601811</v>
       </c>
       <c r="F10" t="n">
-        <v>490.2126521877892</v>
+        <v>232.1746001435684</v>
       </c>
       <c r="G10" t="n">
-        <v>250.5513017548408</v>
+        <v>148.5221749735672</v>
       </c>
       <c r="H10" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>210257</v>
+        <v>182818</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>104079992</v>
+        <v>105536215</v>
       </c>
       <c r="E11" t="n">
-        <v>196074367</v>
+        <v>198817718</v>
       </c>
       <c r="F11" t="n">
-        <v>55.77169895910126</v>
+        <v>99.43552575625364</v>
       </c>
       <c r="G11" t="n">
-        <v>1399.544641996571</v>
+        <v>1458.826709801803</v>
       </c>
       <c r="H11" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="I11" t="n">
-        <v>4331961</v>
+        <v>4383465</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12717560</v>
+        <v>12847380</v>
       </c>
       <c r="E12" t="n">
-        <v>32027005</v>
+        <v>31974805</v>
       </c>
       <c r="F12" t="n">
-        <v>2924.348168223725</v>
+        <v>2848.39195126393</v>
       </c>
       <c r="G12" t="n">
-        <v>681.4238833468117</v>
+        <v>877.8188245652744</v>
       </c>
       <c r="H12" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="I12" t="n">
-        <v>1591895</v>
+        <v>1590883</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108146446</v>
+        <v>109735401</v>
       </c>
       <c r="E13" t="n">
-        <v>421063775</v>
+        <v>427225596</v>
       </c>
       <c r="F13" t="n">
-        <v>14013.55789535812</v>
+        <v>14757.53653717844</v>
       </c>
       <c r="G13" t="n">
-        <v>33163.41656291382</v>
+        <v>28578.01766030566</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="I13" t="n">
-        <v>6422964</v>
+        <v>6686610</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5305376</v>
+        <v>5501020</v>
       </c>
       <c r="E14" t="n">
-        <v>7809801</v>
+        <v>8097799</v>
       </c>
       <c r="F14" t="n">
-        <v>334.8566890178192</v>
+        <v>241.3037446840421</v>
       </c>
       <c r="G14" t="n">
-        <v>478.7887240292778</v>
+        <v>653.7408374385433</v>
       </c>
       <c r="H14" t="n">
         <v>1.27</v>
       </c>
       <c r="I14" t="n">
-        <v>644008</v>
+        <v>585478</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>134222001</v>
+        <v>135341363</v>
       </c>
       <c r="E15" t="n">
-        <v>134222001</v>
+        <v>135341363</v>
       </c>
       <c r="F15" t="n">
-        <v>56266.99476059021</v>
+        <v>54555.79564809381</v>
       </c>
       <c r="G15" t="n">
-        <v>79899.47471827139</v>
+        <v>79169.51740410706</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>65776405</v>
+        <v>65692431</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64069156</v>
+        <v>64703476</v>
       </c>
       <c r="E16" t="n">
-        <v>328559773</v>
+        <v>331812696</v>
       </c>
       <c r="F16" t="n">
-        <v>26067.93310759592</v>
+        <v>29788.58191183829</v>
       </c>
       <c r="G16" t="n">
-        <v>34823.38065385247</v>
+        <v>37306.55500149275</v>
       </c>
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>18030701</v>
+        <v>18645833</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>250286629</v>
+        <v>252772469</v>
       </c>
       <c r="E17" t="n">
-        <v>250286629</v>
+        <v>252772469</v>
       </c>
       <c r="F17" t="n">
-        <v>54561.56042971815</v>
+        <v>62316.9349841585</v>
       </c>
       <c r="G17" t="n">
-        <v>60869.85365824206</v>
+        <v>56952.75084563012</v>
       </c>
       <c r="H17" t="n">
         <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14646963</v>
+        <v>14940496</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2538970</v>
+        <v>2536566</v>
       </c>
       <c r="E18" t="n">
-        <v>6491096</v>
+        <v>6484951</v>
       </c>
       <c r="F18" t="n">
-        <v>1068.976778467022</v>
+        <v>971.9645503406638</v>
       </c>
       <c r="G18" t="n">
-        <v>1614.733669440315</v>
+        <v>1303.962089864206</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>118912</v>
+        <v>117920</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71657918</v>
+        <v>72143698</v>
       </c>
       <c r="E19" t="n">
-        <v>200599167</v>
+        <v>201954772</v>
       </c>
       <c r="F19" t="n">
-        <v>19380.97521568044</v>
+        <v>20055.99281829549</v>
       </c>
       <c r="G19" t="n">
-        <v>21336.50915234665</v>
+        <v>18411.34443710858</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>32200408</v>
+        <v>32928109</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1570394</v>
+        <v>1583118</v>
       </c>
       <c r="E20" t="n">
-        <v>9016614</v>
+        <v>9089671</v>
       </c>
       <c r="F20" t="n">
-        <v>200.3208733769632</v>
+        <v>371.1000847577146</v>
       </c>
       <c r="G20" t="n">
-        <v>37.75999777651473</v>
+        <v>37.96675710937622</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="I20" t="n">
-        <v>317650</v>
+        <v>194633</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151463</v>
+        <v>153030</v>
       </c>
       <c r="E21" t="n">
-        <v>1022847</v>
+        <v>1033426</v>
       </c>
       <c r="F21" t="n">
-        <v>3.198915516603947</v>
+        <v>3.874497870156485</v>
       </c>
       <c r="G21" t="n">
-        <v>19.99857039085227</v>
+        <v>19.22153982943545</v>
       </c>
       <c r="H21" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="I21" t="n">
-        <v>2664520</v>
+        <v>2667621</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>272167</v>
+        <v>269993</v>
       </c>
       <c r="F22" t="n">
-        <v>108.8663055728777</v>
+        <v>176.3998834991192</v>
       </c>
       <c r="G22" t="n">
-        <v>183.5625687096215</v>
+        <v>253.7945044698409</v>
       </c>
       <c r="H22" t="n">
-        <v>1.67</v>
+        <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2227.19</v>
+        <v>2288.14</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71890757</v>
+        <v>72471916</v>
       </c>
       <c r="E23" t="n">
-        <v>149928736</v>
+        <v>151140747</v>
       </c>
       <c r="F23" t="n">
-        <v>32413.55856298905</v>
+        <v>32033.886580612</v>
       </c>
       <c r="G23" t="n">
-        <v>51339.6515696072</v>
+        <v>49673.529779896</v>
       </c>
       <c r="H23" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>13732744</v>
+        <v>14015651</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>196461786</v>
+        <v>197794024</v>
       </c>
       <c r="E24" t="n">
-        <v>682526001</v>
+        <v>687154314</v>
       </c>
       <c r="F24" t="n">
-        <v>23229.41729719653</v>
+        <v>62232.33677899441</v>
       </c>
       <c r="G24" t="n">
-        <v>21172.26491037544</v>
+        <v>59483.41196592799</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>25604776</v>
+        <v>26097414</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>111865472</v>
+        <v>114343840</v>
       </c>
       <c r="E25" t="n">
-        <v>475931544</v>
+        <v>486424928</v>
       </c>
       <c r="F25" t="n">
-        <v>18409.04089072132</v>
+        <v>19051.52018509467</v>
       </c>
       <c r="G25" t="n">
-        <v>21107.55636072862</v>
+        <v>17775.23203450923</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I25" t="n">
-        <v>12255976</v>
+        <v>13255542</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5936473</v>
+        <v>5954028</v>
       </c>
       <c r="E26" t="n">
-        <v>8066583</v>
+        <v>8090290</v>
       </c>
       <c r="F26" t="n">
-        <v>1063.336987111479</v>
+        <v>1117.994026057055</v>
       </c>
       <c r="G26" t="n">
-        <v>580.6815955704492</v>
+        <v>494.7058310906071</v>
       </c>
       <c r="H26" t="n">
-        <v>0.41</v>
+        <v>0.67</v>
       </c>
       <c r="I26" t="n">
-        <v>6476777</v>
+        <v>6472754</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>535973</v>
+        <v>537238</v>
       </c>
       <c r="E27" t="n">
-        <v>6500831</v>
+        <v>6516169</v>
       </c>
       <c r="F27" t="n">
-        <v>689.7087611278267</v>
+        <v>666.5426469730262</v>
       </c>
       <c r="G27" t="n">
-        <v>802.3911964057351</v>
+        <v>846.0308454840712</v>
       </c>
       <c r="H27" t="n">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="I27" t="n">
-        <v>2761774</v>
+        <v>2776467</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24979204</v>
+        <v>24909223</v>
       </c>
       <c r="E28" t="n">
-        <v>35307129</v>
+        <v>35208214</v>
       </c>
       <c r="F28" t="n">
-        <v>1944.4930258431</v>
+        <v>1045.448130329314</v>
       </c>
       <c r="G28" t="n">
-        <v>101.2957595561892</v>
+        <v>133.2104408069995</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="I28" t="n">
-        <v>86566</v>
+        <v>82945</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1268186287</v>
+        <v>1276397890</v>
       </c>
       <c r="E29" t="n">
-        <v>6081212964</v>
+        <v>6120589285</v>
       </c>
       <c r="F29" t="n">
-        <v>192086.2573165541</v>
+        <v>189908.3454590004</v>
       </c>
       <c r="G29" t="n">
-        <v>224551.6542446673</v>
+        <v>223565.5964801477</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>181343353</v>
+        <v>178204850</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>266306460</v>
+        <v>264901472</v>
       </c>
       <c r="E30" t="n">
-        <v>1149526518</v>
+        <v>1143461812</v>
       </c>
       <c r="F30" t="n">
-        <v>152060.2612387925</v>
+        <v>196226.4874893504</v>
       </c>
       <c r="G30" t="n">
-        <v>178637.3443353097</v>
+        <v>221366.0408614208</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>109869770</v>
+        <v>110155621</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5354001</v>
+        <v>5316682</v>
       </c>
       <c r="E31" t="n">
-        <v>5360060</v>
+        <v>5322699</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6715749272837</v>
+        <v>128.6795004339921</v>
       </c>
       <c r="G31" t="n">
-        <v>130.2298389405004</v>
+        <v>130.1127640309063</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>152426</v>
+        <v>150685</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21399686</v>
+        <v>21254485</v>
       </c>
       <c r="E32" t="n">
-        <v>53499215</v>
+        <v>53136214</v>
       </c>
       <c r="F32" t="n">
-        <v>1337.71810000388</v>
+        <v>2265.700789823748</v>
       </c>
       <c r="G32" t="n">
-        <v>7289.505441584402</v>
+        <v>4912.808630349936</v>
       </c>
       <c r="H32" t="n">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2092266</v>
+        <v>2059867</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20200060</v>
+        <v>20169242</v>
       </c>
       <c r="F33" t="n">
-        <v>657.7558201891607</v>
+        <v>740.7896749735617</v>
       </c>
       <c r="G33" t="n">
-        <v>1807.748601172072</v>
+        <v>2000.914768513367</v>
       </c>
       <c r="H33" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>128439</v>
+        <v>125753</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3998060</v>
+        <v>4045623</v>
       </c>
       <c r="E34" t="n">
-        <v>11516034</v>
+        <v>11652699</v>
       </c>
       <c r="F34" t="n">
-        <v>1055.498337628199</v>
+        <v>995.4133937224473</v>
       </c>
       <c r="G34" t="n">
-        <v>393.4611334049474</v>
+        <v>1506.476143426758</v>
       </c>
       <c r="H34" t="n">
-        <v>1.11</v>
+        <v>0.86</v>
       </c>
       <c r="I34" t="n">
-        <v>536845</v>
+        <v>568315</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1625717</v>
+        <v>1706699</v>
       </c>
       <c r="F35" t="n">
-        <v>6.349529821706746</v>
+        <v>76.24695745027857</v>
       </c>
       <c r="G35" t="n">
-        <v>343.7793877374451</v>
+        <v>18.33470069561426</v>
       </c>
       <c r="H35" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="I35" t="n">
-        <v>12121.91</v>
+        <v>12619.29</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13766886</v>
+        <v>13932234</v>
       </c>
       <c r="E36" t="n">
-        <v>66675224</v>
+        <v>67476035</v>
       </c>
       <c r="F36" t="n">
-        <v>3732.767957278916</v>
+        <v>3793.870618810813</v>
       </c>
       <c r="G36" t="n">
-        <v>8962.650577779999</v>
+        <v>8774.658831186951</v>
       </c>
       <c r="H36" t="n">
         <v>0.15</v>
       </c>
       <c r="I36" t="n">
-        <v>3615456</v>
+        <v>3611997</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1469425</v>
+        <v>1436794</v>
       </c>
       <c r="E37" t="n">
-        <v>9617347</v>
+        <v>9403779</v>
       </c>
       <c r="F37" t="n">
-        <v>99.90520263010099</v>
+        <v>555.397641470149</v>
       </c>
       <c r="G37" t="n">
-        <v>126.2204120154691</v>
+        <v>30.01358069929091</v>
       </c>
       <c r="H37" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>341192</v>
+        <v>374950</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1880904673</v>
+        <v>1884120105</v>
       </c>
       <c r="F38" t="n">
-        <v>75330.13960330114</v>
+        <v>80541.29787768831</v>
       </c>
       <c r="G38" t="n">
-        <v>67821.09835131008</v>
+        <v>76721.1547050309</v>
       </c>
       <c r="H38" t="n">
-        <v>0.58</v>
+        <v>0.85</v>
       </c>
       <c r="I38" t="n">
-        <v>26169040</v>
+        <v>25845053</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32279688</v>
+        <v>32046874</v>
       </c>
       <c r="E39" t="n">
-        <v>100508591</v>
+        <v>99783683</v>
       </c>
       <c r="F39" t="n">
-        <v>4525.253967398091</v>
+        <v>6761.356354978188</v>
       </c>
       <c r="G39" t="n">
-        <v>8466.872869580959</v>
+        <v>10441.07180712072</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="I39" t="n">
-        <v>11900690</v>
+        <v>12032213</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>200274202</v>
+        <v>201504515</v>
       </c>
       <c r="E40" t="n">
-        <v>1134075589</v>
+        <v>1141042379</v>
       </c>
       <c r="F40" t="n">
-        <v>33417.21742024261</v>
+        <v>38929.63828831034</v>
       </c>
       <c r="G40" t="n">
-        <v>81463.9967632162</v>
+        <v>78747.82320089728</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>60281855</v>
+        <v>63186335</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>137348991</v>
+        <v>138853557</v>
       </c>
       <c r="E41" t="n">
-        <v>1017399933</v>
+        <v>1028544867</v>
       </c>
       <c r="F41" t="n">
-        <v>155423.038685838</v>
+        <v>152523.0151950174</v>
       </c>
       <c r="G41" t="n">
-        <v>224087.6994937697</v>
+        <v>200772.3118005242</v>
       </c>
       <c r="H41" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>11854109</v>
+        <v>11182159</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31257637</v>
+        <v>31483648</v>
       </c>
       <c r="E42" t="n">
-        <v>148583354</v>
+        <v>149657700</v>
       </c>
       <c r="F42" t="n">
-        <v>6911.160254072625</v>
+        <v>7826.341094344977</v>
       </c>
       <c r="G42" t="n">
-        <v>8795.407410483598</v>
+        <v>7385.601079985841</v>
       </c>
       <c r="H42" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="I42" t="n">
-        <v>1124236</v>
+        <v>1148352</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3432245</v>
+        <v>3450900</v>
       </c>
       <c r="E43" t="n">
-        <v>8014863</v>
+        <v>8058426</v>
       </c>
       <c r="F43" t="n">
-        <v>1685.775657212811</v>
+        <v>1764.998240603273</v>
       </c>
       <c r="G43" t="n">
-        <v>853.1893092432289</v>
+        <v>215.3650420179962</v>
       </c>
       <c r="H43" t="n">
-        <v>0.11</v>
+        <v>0.9</v>
       </c>
       <c r="I43" t="n">
-        <v>797136</v>
+        <v>777416</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>334352201</v>
+        <v>337322988</v>
       </c>
       <c r="E44" t="n">
-        <v>3008039725</v>
+        <v>3034766767</v>
       </c>
       <c r="F44" t="n">
-        <v>54429.27465522412</v>
+        <v>50583.17649273543</v>
       </c>
       <c r="G44" t="n">
-        <v>37595.29763753785</v>
+        <v>50937.74026859069</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>36572066</v>
+        <v>37050151</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>643827</v>
+        <v>644677</v>
       </c>
       <c r="F45" t="n">
-        <v>513.7341743887895</v>
+        <v>513.7658177696044</v>
       </c>
       <c r="G45" t="n">
-        <v>342.0458111071209</v>
+        <v>342.0668793684836</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5675.3</v>
+        <v>5663.65</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1589596</v>
+        <v>1590141</v>
       </c>
       <c r="E46" t="n">
-        <v>13246630</v>
+        <v>13251178</v>
       </c>
       <c r="F46" t="n">
-        <v>251.1924783016257</v>
+        <v>209.9522530853261</v>
       </c>
       <c r="G46" t="n">
-        <v>719.0115990809123</v>
+        <v>1280.115864317729</v>
       </c>
       <c r="H46" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="I46" t="n">
-        <v>46942</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4902034</v>
+        <v>4928095</v>
       </c>
       <c r="E47" t="n">
-        <v>17322441</v>
+        <v>17414248</v>
       </c>
       <c r="F47" t="n">
-        <v>1032.663697807505</v>
+        <v>1065.203079534483</v>
       </c>
       <c r="G47" t="n">
-        <v>1689.979602001056</v>
+        <v>1686.973150446749</v>
       </c>
       <c r="H47" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>105767</v>
+        <v>105372</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42750182</v>
+        <v>42854552</v>
       </c>
       <c r="E48" t="n">
-        <v>247505891</v>
+        <v>248110148</v>
       </c>
       <c r="F48" t="n">
-        <v>21449.40794673055</v>
+        <v>20255.9184526911</v>
       </c>
       <c r="G48" t="n">
-        <v>13694.33525210915</v>
+        <v>15144.18692392948</v>
       </c>
       <c r="H48" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="I48" t="n">
-        <v>10771029</v>
+        <v>11198460</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2271780</v>
+        <v>2238789</v>
       </c>
       <c r="E49" t="n">
-        <v>12481545</v>
+        <v>12300288</v>
       </c>
       <c r="F49" t="n">
-        <v>291.3354995422388</v>
+        <v>308.0831832329146</v>
       </c>
       <c r="G49" t="n">
-        <v>620.9731641160755</v>
+        <v>574.6410024716129</v>
       </c>
       <c r="H49" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>77296</v>
+        <v>108642</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13513877</v>
+        <v>13651422</v>
       </c>
       <c r="E50" t="n">
-        <v>13559866</v>
+        <v>13697879</v>
       </c>
       <c r="F50" t="n">
-        <v>4811.607424759978</v>
+        <v>4691.828331855089</v>
       </c>
       <c r="G50" t="n">
-        <v>10485.19796866558</v>
+        <v>9784.868320935258</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5770286</v>
+        <v>5840105</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25164919</v>
+        <v>24419065</v>
       </c>
       <c r="E51" t="n">
-        <v>75432569</v>
+        <v>73195482</v>
       </c>
       <c r="F51" t="n">
-        <v>9431.974503081899</v>
+        <v>23185.08908010393</v>
       </c>
       <c r="G51" t="n">
-        <v>27326.15184017242</v>
+        <v>26156.02673426208</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="I51" t="n">
-        <v>2515164</v>
+        <v>2685808</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15072908</v>
+        <v>15051193</v>
       </c>
       <c r="E52" t="n">
-        <v>92386812</v>
+        <v>92253714</v>
       </c>
       <c r="F52" t="n">
-        <v>7067.70772242815</v>
+        <v>7555.239616504995</v>
       </c>
       <c r="G52" t="n">
-        <v>5310.514451775964</v>
+        <v>10675.69321381154</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>11338470</v>
+        <v>11885358</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46584987</v>
+        <v>46831942</v>
       </c>
       <c r="E53" t="n">
-        <v>200683030</v>
+        <v>201746885</v>
       </c>
       <c r="F53" t="n">
-        <v>24586.62710898518</v>
+        <v>24255.63172880032</v>
       </c>
       <c r="G53" t="n">
-        <v>26237.05773611232</v>
+        <v>25812.6434458688</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8697707</v>
+        <v>8637490</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1017397</v>
+        <v>1037846</v>
       </c>
       <c r="E54" t="n">
-        <v>2973675</v>
+        <v>3033443</v>
       </c>
       <c r="F54" t="n">
-        <v>980.1300470703966</v>
+        <v>665.1100295292617</v>
       </c>
       <c r="G54" t="n">
-        <v>930.981621191107</v>
+        <v>566.6857130982752</v>
       </c>
       <c r="H54" t="n">
-        <v>0.99</v>
+        <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>10242.43</v>
+        <v>20653</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37282801</v>
+        <v>37118348</v>
       </c>
       <c r="E55" t="n">
-        <v>94009326</v>
+        <v>93594653</v>
       </c>
       <c r="F55" t="n">
-        <v>10569.44937554643</v>
+        <v>8054.205716212059</v>
       </c>
       <c r="G55" t="n">
-        <v>7015.044187984313</v>
+        <v>7117.13563376476</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I55" t="n">
-        <v>2862164</v>
+        <v>3050691</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28521143</v>
+        <v>28908305</v>
       </c>
       <c r="E56" t="n">
-        <v>67759144</v>
+        <v>68678944</v>
       </c>
       <c r="F56" t="n">
-        <v>14073.96048985783</v>
+        <v>13755.3170394471</v>
       </c>
       <c r="G56" t="n">
-        <v>12819.14844228333</v>
+        <v>1589.43694427401</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>504895</v>
+        <v>477581</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12100076</v>
+        <v>12208763</v>
       </c>
       <c r="E57" t="n">
-        <v>18441314</v>
+        <v>18606960</v>
       </c>
       <c r="F57" t="n">
-        <v>5043.555434072787</v>
+        <v>6938.119945225091</v>
       </c>
       <c r="G57" t="n">
-        <v>6524.536493562484</v>
+        <v>7878.478262672571</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="I57" t="n">
-        <v>672659</v>
+        <v>687562</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>298639305</v>
+        <v>301863140</v>
       </c>
       <c r="E58" t="n">
-        <v>298639305</v>
+        <v>301863140</v>
       </c>
       <c r="F58" t="n">
-        <v>58184.22794604894</v>
+        <v>46116.96461263562</v>
       </c>
       <c r="G58" t="n">
-        <v>73554.1474017226</v>
+        <v>77288.36085415722</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>50031019</v>
+        <v>49938421</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11906274</v>
+        <v>11913227</v>
       </c>
       <c r="F59" t="n">
-        <v>549.950172346639</v>
+        <v>92.07450337257706</v>
       </c>
       <c r="G59" t="n">
-        <v>159.6541644763452</v>
+        <v>308.6134332012946</v>
       </c>
       <c r="H59" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="I59" t="n">
-        <v>115155</v>
+        <v>109571</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>88786309</v>
+        <v>89156783</v>
       </c>
       <c r="E60" t="n">
-        <v>511625008</v>
+        <v>513759837</v>
       </c>
       <c r="F60" t="n">
-        <v>95522.39639187875</v>
+        <v>93887.3554428285</v>
       </c>
       <c r="G60" t="n">
-        <v>104903.8648005537</v>
+        <v>97824.08643739688</v>
       </c>
       <c r="H60" t="n">
         <v>0.18</v>
       </c>
       <c r="I60" t="n">
-        <v>15898055</v>
+        <v>16082829</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9288986</v>
+        <v>9316167</v>
       </c>
       <c r="E61" t="n">
-        <v>9288986</v>
+        <v>9316167</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>7.13</v>
+        <v>6.13</v>
       </c>
       <c r="I61" t="n">
-        <v>2065974</v>
+        <v>2070649</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30298306</v>
+        <v>30588610</v>
       </c>
       <c r="E62" t="n">
-        <v>135657945</v>
+        <v>136957755</v>
       </c>
       <c r="F62" t="n">
-        <v>16118.21495074249</v>
+        <v>16924.55726457705</v>
       </c>
       <c r="G62" t="n">
-        <v>33292.30958255831</v>
+        <v>31155.99975175709</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>8771941</v>
+        <v>8776040</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13081465</v>
+        <v>13099806</v>
       </c>
       <c r="E63" t="n">
-        <v>26151508</v>
+        <v>26188173</v>
       </c>
       <c r="F63" t="n">
-        <v>2080.262129823361</v>
+        <v>2076.883078751589</v>
       </c>
       <c r="G63" t="n">
-        <v>2155.43434917687</v>
+        <v>2170.901466267778</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>46216</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1457692</v>
+        <v>1477318</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.79</v>
+        <v>5.26</v>
       </c>
       <c r="I64" t="n">
-        <v>66086</v>
+        <v>47345</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47167970</v>
+        <v>47612451</v>
       </c>
       <c r="E65" t="n">
-        <v>305871730</v>
+        <v>308754071</v>
       </c>
       <c r="F65" t="n">
-        <v>17353.05233959092</v>
+        <v>16092.18873994311</v>
       </c>
       <c r="G65" t="n">
-        <v>16791.58052705711</v>
+        <v>17168.98833176907</v>
       </c>
       <c r="H65" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I65" t="n">
-        <v>17321906</v>
+        <v>16856855</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4834132</v>
+        <v>4862309</v>
       </c>
       <c r="F66" t="n">
-        <v>1211.297009973669</v>
+        <v>1083.285835404768</v>
       </c>
       <c r="G66" t="n">
-        <v>1058.69145172784</v>
+        <v>1169.630627911383</v>
       </c>
       <c r="H66" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="I66" t="n">
-        <v>158681</v>
+        <v>168808</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125136488</v>
+        <v>125376563</v>
       </c>
       <c r="E67" t="n">
-        <v>2072362732</v>
+        <v>2076338562</v>
       </c>
       <c r="F67" t="n">
-        <v>22681.94017097997</v>
+        <v>21861.29615272545</v>
       </c>
       <c r="G67" t="n">
-        <v>25283.30847493803</v>
+        <v>25169.86475684624</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5036188</v>
+        <v>5086114</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23114280</v>
+        <v>23418232</v>
       </c>
       <c r="E68" t="n">
-        <v>138297384</v>
+        <v>140115990</v>
       </c>
       <c r="F68" t="n">
-        <v>44312.47113335703</v>
+        <v>42199.95723325133</v>
       </c>
       <c r="G68" t="n">
-        <v>37582.09158962152</v>
+        <v>43517.89891924725</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>12624619</v>
+        <v>12797808</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23652113</v>
+        <v>24133921</v>
       </c>
       <c r="E70" t="n">
-        <v>23656719</v>
+        <v>24134254</v>
       </c>
       <c r="F70" t="n">
-        <v>2443.065689739116</v>
+        <v>2409.61664675562</v>
       </c>
       <c r="G70" t="n">
-        <v>4382.294834535257</v>
+        <v>3546.349612156156</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I70" t="n">
-        <v>1773970</v>
+        <v>1856975</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33933690</v>
+        <v>34078057</v>
       </c>
       <c r="E71" t="n">
-        <v>169344755</v>
+        <v>170065213</v>
       </c>
       <c r="F71" t="n">
-        <v>5552.479114080264</v>
+        <v>16135.18346063058</v>
       </c>
       <c r="G71" t="n">
-        <v>22558.58364011231</v>
+        <v>33856.32734120901</v>
       </c>
       <c r="H71" t="n">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>9949192</v>
+        <v>10096988</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>174896</v>
+        <v>174413</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>10938.34</v>
+        <v>11185.37</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>311052034</v>
+        <v>312656513</v>
       </c>
       <c r="E73" t="n">
-        <v>575517197</v>
+        <v>578485850</v>
       </c>
       <c r="F73" t="n">
-        <v>67196.93497753782</v>
+        <v>55782.94416620352</v>
       </c>
       <c r="G73" t="n">
-        <v>74403.53762716969</v>
+        <v>61590.19178480837</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>12310524</v>
+        <v>12813595</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9573715</v>
+        <v>9372626</v>
       </c>
       <c r="E74" t="n">
-        <v>28412970</v>
+        <v>27815071</v>
       </c>
       <c r="F74" t="n">
-        <v>1158.155071964406</v>
+        <v>742.7367874284274</v>
       </c>
       <c r="G74" t="n">
-        <v>1567.000558659706</v>
+        <v>934.3737792096864</v>
       </c>
       <c r="H74" t="n">
-        <v>0.61</v>
+        <v>0.9</v>
       </c>
       <c r="I74" t="n">
-        <v>5536143</v>
+        <v>5795513</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8965060</v>
+        <v>8662523</v>
       </c>
       <c r="E75" t="n">
-        <v>12773156</v>
+        <v>12342111</v>
       </c>
       <c r="F75" t="n">
-        <v>106.9679370293696</v>
+        <v>98.60216197012066</v>
       </c>
       <c r="G75" t="n">
-        <v>18.23736777908016</v>
+        <v>31.13917095685085</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="I75" t="n">
-        <v>427684</v>
+        <v>419630</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16383193</v>
+        <v>16463708</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5462325542524465</v>
+        <v>0.5462661993661831</v>
       </c>
       <c r="G76" t="n">
-        <v>986.6452355962056</v>
+        <v>913.7649093113985</v>
       </c>
       <c r="H76" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="I76" t="n">
-        <v>973945</v>
+        <v>968986</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61206966</v>
+        <v>61416110</v>
       </c>
       <c r="E77" t="n">
-        <v>101260772</v>
+        <v>101606781</v>
       </c>
       <c r="F77" t="n">
-        <v>11940.83500767914</v>
+        <v>9965.47614421043</v>
       </c>
       <c r="G77" t="n">
-        <v>18803.1293528161</v>
+        <v>21300.85882989037</v>
       </c>
       <c r="H77" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>6123743</v>
+        <v>6205533</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5695485</v>
+        <v>5726354</v>
       </c>
       <c r="E78" t="n">
-        <v>5695485</v>
+        <v>5726354</v>
       </c>
       <c r="F78" t="n">
-        <v>6.572145159211491</v>
+        <v>914.5051949506919</v>
       </c>
       <c r="G78" t="n">
-        <v>9.87278979012121</v>
+        <v>99.78368956203022</v>
       </c>
       <c r="H78" t="n">
-        <v>2.53</v>
+        <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1107648</v>
+        <v>1113014</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59508</v>
+        <v>63252</v>
       </c>
       <c r="E79" t="n">
-        <v>310491</v>
+        <v>330023</v>
       </c>
       <c r="F79" t="n">
-        <v>367.2687453283709</v>
+        <v>21.6580171148411</v>
       </c>
       <c r="G79" t="n">
-        <v>11.51121643102498</v>
+        <v>19.84468630801317</v>
       </c>
       <c r="H79" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="I79" t="n">
-        <v>311828</v>
+        <v>322215</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27004040</v>
+        <v>26941568</v>
       </c>
       <c r="F80" t="n">
-        <v>4899.393206407929</v>
+        <v>4091.536455173637</v>
       </c>
       <c r="G80" t="n">
-        <v>2609.469649939756</v>
+        <v>3525.00387479713</v>
       </c>
       <c r="H80" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>43668</v>
+        <v>47415</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>589301917</v>
+        <v>600020280</v>
       </c>
       <c r="E81" t="n">
-        <v>2282279379</v>
+        <v>2323790019</v>
       </c>
       <c r="F81" t="n">
-        <v>153809.0468341253</v>
+        <v>149797.0850438099</v>
       </c>
       <c r="G81" t="n">
-        <v>190966.4189658013</v>
+        <v>187427.73632909</v>
       </c>
       <c r="H81" t="n">
         <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>30356411</v>
+        <v>30974931</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7262137</v>
+        <v>7348649</v>
       </c>
       <c r="E82" t="n">
-        <v>10406148</v>
+        <v>10530058</v>
       </c>
       <c r="F82" t="n">
-        <v>838.4958013580988</v>
+        <v>755.9028469837911</v>
       </c>
       <c r="G82" t="n">
-        <v>2140.2059234697</v>
+        <v>1119.462760797834</v>
       </c>
       <c r="H82" t="n">
         <v>0.95</v>
       </c>
       <c r="I82" t="n">
-        <v>163541</v>
+        <v>170188</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>117706909</v>
+        <v>118262597</v>
       </c>
       <c r="E83" t="n">
-        <v>1023389234</v>
+        <v>1028220592</v>
       </c>
       <c r="F83" t="n">
-        <v>35166.64882025823</v>
+        <v>42119.48443731426</v>
       </c>
       <c r="G83" t="n">
-        <v>44756.37778397851</v>
+        <v>41770.91193909135</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9262886</v>
+        <v>9069314</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1140246</v>
+        <v>1118583</v>
       </c>
       <c r="E84" t="n">
-        <v>4415281</v>
+        <v>4331397</v>
       </c>
       <c r="F84" t="n">
-        <v>1526.713834120213</v>
+        <v>1281.059756731021</v>
       </c>
       <c r="G84" t="n">
-        <v>2567.132666616065</v>
+        <v>3400.231359430602</v>
       </c>
       <c r="H84" t="n">
-        <v>0.23</v>
+        <v>0.92</v>
       </c>
       <c r="I84" t="n">
-        <v>433465</v>
+        <v>436522</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>111024073</v>
+        <v>111836884</v>
       </c>
       <c r="E85" t="n">
-        <v>425906215</v>
+        <v>429024287</v>
       </c>
       <c r="F85" t="n">
-        <v>82293.78458774746</v>
+        <v>85378.91616746171</v>
       </c>
       <c r="G85" t="n">
-        <v>80208.1785909835</v>
+        <v>89026.11606934726</v>
       </c>
       <c r="H85" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I85" t="n">
-        <v>19571807</v>
+        <v>20584873</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5093833</v>
+        <v>5095018</v>
       </c>
       <c r="E86" t="n">
-        <v>18968390</v>
+        <v>18972803</v>
       </c>
       <c r="F86" t="n">
-        <v>5545.500342436125</v>
+        <v>5618.425229088917</v>
       </c>
       <c r="G86" t="n">
-        <v>6078.224060431105</v>
+        <v>6027.308169857273</v>
       </c>
       <c r="H86" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>58711</v>
+        <v>60601</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31523621</v>
+        <v>31574765</v>
       </c>
       <c r="F87" t="n">
-        <v>5279.361643403007</v>
+        <v>5639.781862405006</v>
       </c>
       <c r="G87" t="n">
-        <v>1084.90280649362</v>
+        <v>2268.726850777038</v>
       </c>
       <c r="H87" t="n">
         <v>0.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5650328</v>
+        <v>5610870</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24204036</v>
+        <v>24236196</v>
       </c>
       <c r="F88" t="n">
-        <v>1146.67483012576</v>
+        <v>1213.090206098473</v>
       </c>
       <c r="G88" t="n">
-        <v>807.0372204253612</v>
+        <v>850.2480212233155</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="I88" t="n">
-        <v>10669.24</v>
+        <v>8484.549999999999</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>86729102</v>
+        <v>86838047</v>
       </c>
       <c r="E89" t="n">
-        <v>320614843</v>
+        <v>321016418</v>
       </c>
       <c r="F89" t="n">
-        <v>879.0529738880066</v>
+        <v>1052.011289328425</v>
       </c>
       <c r="G89" t="n">
-        <v>1504.583881769868</v>
+        <v>2526.234878383283</v>
       </c>
       <c r="H89" t="n">
         <v>0.68</v>
       </c>
       <c r="I89" t="n">
-        <v>358571</v>
+        <v>347190</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20181209</v>
+        <v>21082797</v>
       </c>
       <c r="E90" t="n">
-        <v>20181209</v>
+        <v>21082797</v>
       </c>
       <c r="F90" t="n">
-        <v>3218.425088130733</v>
+        <v>4412.085703038479</v>
       </c>
       <c r="G90" t="n">
-        <v>3614.450222043955</v>
+        <v>3808.619058404247</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I90" t="n">
-        <v>7098974</v>
+        <v>7095949</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3828941</v>
+        <v>3831226</v>
       </c>
       <c r="E91" t="n">
-        <v>8354699</v>
+        <v>8359685</v>
       </c>
       <c r="F91" t="n">
-        <v>1571.521114629755</v>
+        <v>1556.29605869729</v>
       </c>
       <c r="G91" t="n">
-        <v>4912.837452885432</v>
+        <v>4129.580645511774</v>
       </c>
       <c r="H91" t="n">
         <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>928773</v>
+        <v>877503</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>486424048</v>
+        <v>490872752</v>
       </c>
       <c r="E92" t="n">
-        <v>1694060654</v>
+        <v>1709554081</v>
       </c>
       <c r="F92" t="n">
-        <v>135745.1626911804</v>
+        <v>172805.1026785991</v>
       </c>
       <c r="G92" t="n">
-        <v>143877.4640484521</v>
+        <v>176300.5146301798</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31298347</v>
+        <v>31229634</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2653473</v>
+        <v>2643615</v>
       </c>
       <c r="E93" t="n">
-        <v>10613892</v>
+        <v>10574461</v>
       </c>
       <c r="F93" t="n">
-        <v>2141.226330288844</v>
+        <v>3081.508858106901</v>
       </c>
       <c r="G93" t="n">
-        <v>3406.609513459431</v>
+        <v>2555.542469061803</v>
       </c>
       <c r="H93" t="n">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>5050056</v>
+        <v>5150167</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>213256182</v>
+        <v>213930437</v>
       </c>
       <c r="E94" t="n">
-        <v>655682506</v>
+        <v>657755588</v>
       </c>
       <c r="F94" t="n">
-        <v>105706.9020088156</v>
+        <v>107583.5568375491</v>
       </c>
       <c r="G94" t="n">
-        <v>101208.6015095273</v>
+        <v>97168.05425367049</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>11286860</v>
+        <v>11501284</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148588905</v>
+        <v>150421392</v>
       </c>
       <c r="E95" t="n">
-        <v>388184392</v>
+        <v>392971714</v>
       </c>
       <c r="F95" t="n">
-        <v>4134.592535326955</v>
+        <v>27954.56777752161</v>
       </c>
       <c r="G95" t="n">
-        <v>6206.57620092719</v>
+        <v>29553.20838446878</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>6664055</v>
+        <v>6596303</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>399594434</v>
+        <v>400158770</v>
       </c>
       <c r="E96" t="n">
-        <v>2283396767</v>
+        <v>2286621544</v>
       </c>
       <c r="F96" t="n">
-        <v>24927.52949430467</v>
+        <v>29710.10190791111</v>
       </c>
       <c r="G96" t="n">
-        <v>49361.27253765524</v>
+        <v>45802.10996068086</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36213466</v>
+        <v>36552313</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>612567732</v>
+        <v>614393150</v>
       </c>
       <c r="E2" t="n">
-        <v>1188582949</v>
+        <v>1192127293</v>
       </c>
       <c r="F2" t="n">
-        <v>12869.65955200178</v>
+        <v>18763.68057688738</v>
       </c>
       <c r="G2" t="n">
-        <v>37288.31036496597</v>
+        <v>38050.48219691178</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>23328224</v>
+        <v>23338585</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1348398</v>
+        <v>1343768</v>
       </c>
       <c r="E3" t="n">
-        <v>4358576</v>
+        <v>4343611</v>
       </c>
       <c r="F3" t="n">
-        <v>5139.629010921148</v>
+        <v>4967.720676093781</v>
       </c>
       <c r="G3" t="n">
-        <v>6774.847757463127</v>
+        <v>6750.917309180704</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I3" t="n">
-        <v>98057</v>
+        <v>96355</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245871609</v>
+        <v>246802276</v>
       </c>
       <c r="E4" t="n">
-        <v>1541826300</v>
+        <v>1547662380</v>
       </c>
       <c r="F4" t="n">
-        <v>146429.2425071408</v>
+        <v>145884.308608958</v>
       </c>
       <c r="G4" t="n">
-        <v>141441.4613621364</v>
+        <v>148318.7688205766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15666389</v>
+        <v>15545854</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139633397</v>
+        <v>140916345</v>
       </c>
       <c r="E5" t="n">
-        <v>154736106</v>
+        <v>156157818</v>
       </c>
       <c r="F5" t="n">
-        <v>8510.974505803879</v>
+        <v>9637.88322896625</v>
       </c>
       <c r="G5" t="n">
-        <v>21140.28146099857</v>
+        <v>21344.43299119771</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>33828132</v>
+        <v>33913020</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>678391</v>
+        <v>679445</v>
       </c>
       <c r="E6" t="n">
-        <v>13179475</v>
+        <v>13199933</v>
       </c>
       <c r="F6" t="n">
-        <v>479.5380141567487</v>
+        <v>573.8842970922287</v>
       </c>
       <c r="G6" t="n">
-        <v>336.3482962103366</v>
+        <v>335.9920178803202</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I6" t="n">
-        <v>24304</v>
+        <v>23979</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>480697739</v>
+        <v>475994967</v>
       </c>
       <c r="E7" t="n">
-        <v>480697739</v>
+        <v>475994972</v>
       </c>
       <c r="F7" t="n">
-        <v>36556.08003368584</v>
+        <v>43634.98550282791</v>
       </c>
       <c r="G7" t="n">
-        <v>38229.95482377429</v>
+        <v>56752.06247171984</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>62855915</v>
+        <v>63528181</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4664471</v>
+        <v>4665340</v>
       </c>
       <c r="E8" t="n">
-        <v>4664471</v>
+        <v>4665340</v>
       </c>
       <c r="F8" t="n">
-        <v>859.0134398756426</v>
+        <v>903.226508194371</v>
       </c>
       <c r="G8" t="n">
-        <v>1685.087938139123</v>
+        <v>1244.931573840653</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="I8" t="n">
-        <v>1967946</v>
+        <v>1966869</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1726592</v>
+        <v>1774201</v>
       </c>
       <c r="F9" t="n">
-        <v>4706.454337088197</v>
+        <v>607.3082900651558</v>
       </c>
       <c r="G9" t="n">
-        <v>2217.042338357617</v>
+        <v>978.8907024819571</v>
       </c>
       <c r="H9" t="n">
-        <v>0.73</v>
+        <v>1.57</v>
       </c>
       <c r="I9" t="n">
-        <v>115254</v>
+        <v>110035</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1601811</v>
+        <v>1610912</v>
       </c>
       <c r="F10" t="n">
-        <v>232.1746001435684</v>
+        <v>279.4599781149539</v>
       </c>
       <c r="G10" t="n">
-        <v>148.5221749735672</v>
+        <v>155.1705150685096</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
       <c r="I10" t="n">
-        <v>182818</v>
+        <v>220968</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>105536215</v>
+        <v>105655190</v>
       </c>
       <c r="E11" t="n">
-        <v>198817718</v>
+        <v>199041853</v>
       </c>
       <c r="F11" t="n">
-        <v>99.43552575625364</v>
+        <v>162.7389052320473</v>
       </c>
       <c r="G11" t="n">
-        <v>1458.826709801803</v>
+        <v>385.5393363997201</v>
       </c>
       <c r="H11" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="I11" t="n">
-        <v>4383465</v>
+        <v>4338067</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12847380</v>
+        <v>12916572</v>
       </c>
       <c r="E12" t="n">
-        <v>31974805</v>
+        <v>32147011</v>
       </c>
       <c r="F12" t="n">
-        <v>2848.39195126393</v>
+        <v>2509.695303015307</v>
       </c>
       <c r="G12" t="n">
-        <v>877.8188245652744</v>
+        <v>822.4179682381641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="I12" t="n">
-        <v>1590883</v>
+        <v>1598161</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109735401</v>
+        <v>112830114</v>
       </c>
       <c r="E13" t="n">
-        <v>427225596</v>
+        <v>439248718</v>
       </c>
       <c r="F13" t="n">
-        <v>14757.53653717844</v>
+        <v>24283.13869516298</v>
       </c>
       <c r="G13" t="n">
-        <v>28578.01766030566</v>
+        <v>27799.23459174431</v>
       </c>
       <c r="H13" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>6686610</v>
+        <v>9565922</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5501020</v>
+        <v>5506705</v>
       </c>
       <c r="E14" t="n">
-        <v>8097799</v>
+        <v>8106169</v>
       </c>
       <c r="F14" t="n">
-        <v>241.3037446840421</v>
+        <v>264.7038003306849</v>
       </c>
       <c r="G14" t="n">
-        <v>653.7408374385433</v>
+        <v>610.0315447562214</v>
       </c>
       <c r="H14" t="n">
         <v>1.27</v>
       </c>
       <c r="I14" t="n">
-        <v>585478</v>
+        <v>626080</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>135341363</v>
+        <v>137014516</v>
       </c>
       <c r="E15" t="n">
-        <v>135341363</v>
+        <v>137014516</v>
       </c>
       <c r="F15" t="n">
-        <v>54555.79564809381</v>
+        <v>50189.36890093998</v>
       </c>
       <c r="G15" t="n">
-        <v>79169.51740410706</v>
+        <v>79543.15386334737</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>65692431</v>
+        <v>65921095</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64703476</v>
+        <v>65138432</v>
       </c>
       <c r="E16" t="n">
-        <v>331812696</v>
+        <v>334043242</v>
       </c>
       <c r="F16" t="n">
-        <v>29788.58191183829</v>
+        <v>25457.13977358071</v>
       </c>
       <c r="G16" t="n">
-        <v>37306.55500149275</v>
+        <v>35923.93848724586</v>
       </c>
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>18645833</v>
+        <v>18363420</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>252772469</v>
+        <v>254285737</v>
       </c>
       <c r="E17" t="n">
-        <v>252772469</v>
+        <v>254285737</v>
       </c>
       <c r="F17" t="n">
-        <v>62316.9349841585</v>
+        <v>60402.41930673845</v>
       </c>
       <c r="G17" t="n">
-        <v>56952.75084563012</v>
+        <v>61006.6841065343</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14940496</v>
+        <v>14854957</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2536566</v>
+        <v>2539254</v>
       </c>
       <c r="E18" t="n">
-        <v>6484951</v>
+        <v>6491822</v>
       </c>
       <c r="F18" t="n">
-        <v>971.9645503406638</v>
+        <v>1042.341600454587</v>
       </c>
       <c r="G18" t="n">
-        <v>1303.962089864206</v>
+        <v>1252.958541682556</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>117920</v>
+        <v>118539</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72143698</v>
+        <v>73059741</v>
       </c>
       <c r="E19" t="n">
-        <v>201954772</v>
+        <v>204516079</v>
       </c>
       <c r="F19" t="n">
-        <v>20055.99281829549</v>
+        <v>16993.62283324457</v>
       </c>
       <c r="G19" t="n">
-        <v>18411.34443710858</v>
+        <v>23874.21598462921</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>32928109</v>
+        <v>32993021</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1583118</v>
+        <v>1577330</v>
       </c>
       <c r="E20" t="n">
-        <v>9089671</v>
+        <v>9056440</v>
       </c>
       <c r="F20" t="n">
-        <v>371.1000847577146</v>
+        <v>293.4329858691214</v>
       </c>
       <c r="G20" t="n">
-        <v>37.96675710937622</v>
+        <v>36.54045922564062</v>
       </c>
       <c r="H20" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="I20" t="n">
-        <v>194633</v>
+        <v>307640</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>153030</v>
+        <v>152572</v>
       </c>
       <c r="E21" t="n">
-        <v>1033426</v>
+        <v>1030336</v>
       </c>
       <c r="F21" t="n">
-        <v>3.874497870156485</v>
+        <v>5.174915484258909</v>
       </c>
       <c r="G21" t="n">
-        <v>19.22153982943545</v>
+        <v>7.248289575045134</v>
       </c>
       <c r="H21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="I21" t="n">
-        <v>2667621</v>
+        <v>2661489</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269993</v>
+        <v>269843</v>
       </c>
       <c r="F22" t="n">
-        <v>176.3998834991192</v>
+        <v>198.3370224405647</v>
       </c>
       <c r="G22" t="n">
-        <v>253.7945044698409</v>
+        <v>223.0928274902903</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2288.14</v>
+        <v>2348.86</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72471916</v>
+        <v>73311299</v>
       </c>
       <c r="E23" t="n">
-        <v>151140747</v>
+        <v>152891288</v>
       </c>
       <c r="F23" t="n">
-        <v>32033.886580612</v>
+        <v>30421.12494854804</v>
       </c>
       <c r="G23" t="n">
-        <v>49673.529779896</v>
+        <v>40297.38411432181</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>14015651</v>
+        <v>14343578</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197794024</v>
+        <v>199034836</v>
       </c>
       <c r="E24" t="n">
-        <v>687154314</v>
+        <v>691465007</v>
       </c>
       <c r="F24" t="n">
-        <v>62232.33677899441</v>
+        <v>59993.83432734205</v>
       </c>
       <c r="G24" t="n">
-        <v>59483.41196592799</v>
+        <v>59112.91462748408</v>
       </c>
       <c r="H24" t="n">
         <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>26097414</v>
+        <v>25981035</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>114343840</v>
+        <v>115068094</v>
       </c>
       <c r="E25" t="n">
-        <v>486424928</v>
+        <v>489476113</v>
       </c>
       <c r="F25" t="n">
-        <v>19051.52018509467</v>
+        <v>19055.49756347225</v>
       </c>
       <c r="G25" t="n">
-        <v>17775.23203450923</v>
+        <v>16307.32576831757</v>
       </c>
       <c r="H25" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>13255542</v>
+        <v>13798398</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5954028</v>
+        <v>5692012</v>
       </c>
       <c r="E26" t="n">
-        <v>8090290</v>
+        <v>7733925</v>
       </c>
       <c r="F26" t="n">
-        <v>1117.994026057055</v>
+        <v>268.7293623434607</v>
       </c>
       <c r="G26" t="n">
-        <v>494.7058310906071</v>
+        <v>2004.586170388982</v>
       </c>
       <c r="H26" t="n">
-        <v>0.67</v>
+        <v>1.62</v>
       </c>
       <c r="I26" t="n">
-        <v>6472754</v>
+        <v>6410291</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>537238</v>
+        <v>536682</v>
       </c>
       <c r="E27" t="n">
-        <v>6516169</v>
+        <v>6509436</v>
       </c>
       <c r="F27" t="n">
-        <v>666.5426469730262</v>
+        <v>632.1058584848016</v>
       </c>
       <c r="G27" t="n">
-        <v>846.0308454840712</v>
+        <v>715.7021889098062</v>
       </c>
       <c r="H27" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="I27" t="n">
-        <v>2776467</v>
+        <v>2757338</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24909223</v>
+        <v>25137737</v>
       </c>
       <c r="E28" t="n">
-        <v>35208214</v>
+        <v>35531210</v>
       </c>
       <c r="F28" t="n">
-        <v>1045.448130329314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.2104408069995</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.17</v>
+        <v>4.02</v>
       </c>
       <c r="I28" t="n">
-        <v>82945</v>
+        <v>64101</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1276397890</v>
+        <v>1298681631</v>
       </c>
       <c r="E29" t="n">
-        <v>6120589285</v>
+        <v>6227444385</v>
       </c>
       <c r="F29" t="n">
-        <v>189908.3454590004</v>
+        <v>159608.0480955384</v>
       </c>
       <c r="G29" t="n">
-        <v>223565.5964801477</v>
+        <v>259379.1415757938</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>178204850</v>
+        <v>177974672</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>264901472</v>
+        <v>267680819</v>
       </c>
       <c r="E30" t="n">
-        <v>1143461812</v>
+        <v>1155459014</v>
       </c>
       <c r="F30" t="n">
-        <v>196226.4874893504</v>
+        <v>298571.7675232038</v>
       </c>
       <c r="G30" t="n">
-        <v>221366.0408614208</v>
+        <v>198649.0171525646</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>110155621</v>
+        <v>111402228</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5316682</v>
+        <v>5355029</v>
       </c>
       <c r="E31" t="n">
-        <v>5322699</v>
+        <v>5361090</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6795004339921</v>
+        <v>128.6819024796814</v>
       </c>
       <c r="G31" t="n">
-        <v>130.1127640309063</v>
+        <v>129.883447525714</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>150685</v>
+        <v>150254</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21254485</v>
+        <v>21262528</v>
       </c>
       <c r="E32" t="n">
-        <v>53136214</v>
+        <v>53156321</v>
       </c>
       <c r="F32" t="n">
-        <v>2265.700789823748</v>
+        <v>2207.754703369154</v>
       </c>
       <c r="G32" t="n">
-        <v>4912.808630349936</v>
+        <v>8960.249971346711</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="I32" t="n">
-        <v>2059867</v>
+        <v>1953919</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20169242</v>
+        <v>20163861</v>
       </c>
       <c r="F33" t="n">
-        <v>740.7896749735617</v>
+        <v>751.6538835776714</v>
       </c>
       <c r="G33" t="n">
-        <v>2000.914768513367</v>
+        <v>1899.980631776349</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="I33" t="n">
-        <v>125753</v>
+        <v>121165</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4045623</v>
+        <v>4178640</v>
       </c>
       <c r="E34" t="n">
-        <v>11652699</v>
+        <v>12035831</v>
       </c>
       <c r="F34" t="n">
-        <v>995.4133937224473</v>
+        <v>795.1568404014229</v>
       </c>
       <c r="G34" t="n">
-        <v>1506.476143426758</v>
+        <v>547.9308770944434</v>
       </c>
       <c r="H34" t="n">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="I34" t="n">
-        <v>568315</v>
+        <v>574174</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1706699</v>
+        <v>1633897</v>
       </c>
       <c r="F35" t="n">
-        <v>76.24695745027857</v>
+        <v>4.501286577499606</v>
       </c>
       <c r="G35" t="n">
-        <v>18.33470069561426</v>
+        <v>43.5233926698811</v>
       </c>
       <c r="H35" t="n">
-        <v>0.58</v>
+        <v>1.79</v>
       </c>
       <c r="I35" t="n">
-        <v>12619.29</v>
+        <v>12461.17</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13932234</v>
+        <v>13977081</v>
       </c>
       <c r="E36" t="n">
-        <v>67476035</v>
+        <v>67693233</v>
       </c>
       <c r="F36" t="n">
-        <v>3793.870618810813</v>
+        <v>4894.575259892293</v>
       </c>
       <c r="G36" t="n">
-        <v>8774.658831186951</v>
+        <v>8305.703952193568</v>
       </c>
       <c r="H36" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>3611997</v>
+        <v>3633292</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1436794</v>
+        <v>1519002</v>
       </c>
       <c r="E37" t="n">
-        <v>9403779</v>
+        <v>9941831</v>
       </c>
       <c r="F37" t="n">
-        <v>555.397641470149</v>
+        <v>634.1035344036046</v>
       </c>
       <c r="G37" t="n">
-        <v>30.01358069929091</v>
+        <v>18.47633601646944</v>
       </c>
       <c r="H37" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="I37" t="n">
-        <v>374950</v>
+        <v>404813</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1884120105</v>
+        <v>1891563992</v>
       </c>
       <c r="F38" t="n">
-        <v>80541.29787768831</v>
+        <v>66799.77164508318</v>
       </c>
       <c r="G38" t="n">
-        <v>76721.1547050309</v>
+        <v>70774.72723089653</v>
       </c>
       <c r="H38" t="n">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
       <c r="I38" t="n">
-        <v>25845053</v>
+        <v>25918310</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32046874</v>
+        <v>32335926</v>
       </c>
       <c r="E39" t="n">
-        <v>99783683</v>
+        <v>100683698</v>
       </c>
       <c r="F39" t="n">
-        <v>6761.356354978188</v>
+        <v>5256.741816938306</v>
       </c>
       <c r="G39" t="n">
-        <v>10441.07180712072</v>
+        <v>9234.921880645084</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>12032213</v>
+        <v>12123467</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>201504515</v>
+        <v>203473180</v>
       </c>
       <c r="E40" t="n">
-        <v>1141042379</v>
+        <v>1152190166</v>
       </c>
       <c r="F40" t="n">
-        <v>38929.63828831034</v>
+        <v>43827.46122167534</v>
       </c>
       <c r="G40" t="n">
-        <v>78747.82320089728</v>
+        <v>84580.17474905058</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I40" t="n">
-        <v>63186335</v>
+        <v>63568325</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>138853557</v>
+        <v>139183305</v>
       </c>
       <c r="E41" t="n">
-        <v>1028544867</v>
+        <v>1030987443</v>
       </c>
       <c r="F41" t="n">
-        <v>152523.0151950174</v>
+        <v>150256.5378485799</v>
       </c>
       <c r="G41" t="n">
-        <v>200772.3118005242</v>
+        <v>219300.9567005566</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>11182159</v>
+        <v>11023434</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31483648</v>
+        <v>31702503</v>
       </c>
       <c r="E42" t="n">
-        <v>149657700</v>
+        <v>150698027</v>
       </c>
       <c r="F42" t="n">
-        <v>7826.341094344977</v>
+        <v>7893.744367899636</v>
       </c>
       <c r="G42" t="n">
-        <v>7385.601079985841</v>
+        <v>9413.857248814003</v>
       </c>
       <c r="H42" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I42" t="n">
-        <v>1148352</v>
+        <v>1253372</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3450900</v>
+        <v>3419051</v>
       </c>
       <c r="E43" t="n">
-        <v>8058426</v>
+        <v>7984053</v>
       </c>
       <c r="F43" t="n">
-        <v>1764.998240603273</v>
+        <v>495.447991289352</v>
       </c>
       <c r="G43" t="n">
-        <v>215.3650420179962</v>
+        <v>1361.615136484764</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9</v>
+        <v>1.78</v>
       </c>
       <c r="I43" t="n">
-        <v>777416</v>
+        <v>780675</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>337322988</v>
+        <v>339355266</v>
       </c>
       <c r="E44" t="n">
-        <v>3034766767</v>
+        <v>3053050399</v>
       </c>
       <c r="F44" t="n">
-        <v>50583.17649273543</v>
+        <v>44420.16965363586</v>
       </c>
       <c r="G44" t="n">
-        <v>50937.74026859069</v>
+        <v>58756.54672186235</v>
       </c>
       <c r="H44" t="n">
         <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37050151</v>
+        <v>37107661</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>644677</v>
+        <v>645357</v>
       </c>
       <c r="F45" t="n">
-        <v>513.7658177696044</v>
+        <v>468.7896935622509</v>
       </c>
       <c r="G45" t="n">
-        <v>342.0668793684836</v>
+        <v>403.704947992337</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5663.65</v>
+        <v>5682.06</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1590141</v>
+        <v>1589475</v>
       </c>
       <c r="E46" t="n">
-        <v>13251178</v>
+        <v>13245625</v>
       </c>
       <c r="F46" t="n">
-        <v>209.9522530853261</v>
+        <v>290.2988638430764</v>
       </c>
       <c r="G46" t="n">
-        <v>1280.115864317729</v>
+        <v>1501.724474385588</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="I46" t="n">
-        <v>44329</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4928095</v>
+        <v>4910383</v>
       </c>
       <c r="E47" t="n">
-        <v>17414248</v>
+        <v>17350668</v>
       </c>
       <c r="F47" t="n">
-        <v>1065.203079534483</v>
+        <v>1044.438206851801</v>
       </c>
       <c r="G47" t="n">
-        <v>1686.973150446749</v>
+        <v>1705.167798731096</v>
       </c>
       <c r="H47" t="n">
         <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>105372</v>
+        <v>101947</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42854552</v>
+        <v>43160561</v>
       </c>
       <c r="E48" t="n">
-        <v>248110148</v>
+        <v>249881815</v>
       </c>
       <c r="F48" t="n">
-        <v>20255.9184526911</v>
+        <v>23059.6437065502</v>
       </c>
       <c r="G48" t="n">
-        <v>15144.18692392948</v>
+        <v>15192.00023008481</v>
       </c>
       <c r="H48" t="n">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
       <c r="I48" t="n">
-        <v>11198460</v>
+        <v>10828142</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2238789</v>
+        <v>2287775</v>
       </c>
       <c r="E49" t="n">
-        <v>12300288</v>
+        <v>12569426</v>
       </c>
       <c r="F49" t="n">
-        <v>308.0831832329146</v>
+        <v>278.4343734770654</v>
       </c>
       <c r="G49" t="n">
-        <v>574.6410024716129</v>
+        <v>889.0153993360427</v>
       </c>
       <c r="H49" t="n">
         <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>108642</v>
+        <v>76076</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13651422</v>
+        <v>13627115</v>
       </c>
       <c r="E50" t="n">
-        <v>13697879</v>
+        <v>13673490</v>
       </c>
       <c r="F50" t="n">
-        <v>4691.828331855089</v>
+        <v>3990.172739126699</v>
       </c>
       <c r="G50" t="n">
-        <v>9784.868320935258</v>
+        <v>9813.639037111692</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5840105</v>
+        <v>5868477</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24419065</v>
+        <v>24689583</v>
       </c>
       <c r="E51" t="n">
-        <v>73195482</v>
+        <v>74006351</v>
       </c>
       <c r="F51" t="n">
-        <v>23185.08908010393</v>
+        <v>11851.61413565931</v>
       </c>
       <c r="G51" t="n">
-        <v>26156.02673426208</v>
+        <v>27066.61449001884</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I51" t="n">
-        <v>2685808</v>
+        <v>2725888</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15051193</v>
+        <v>15073026</v>
       </c>
       <c r="E52" t="n">
-        <v>92253714</v>
+        <v>92387531</v>
       </c>
       <c r="F52" t="n">
-        <v>7555.239616504995</v>
+        <v>3343.310476121909</v>
       </c>
       <c r="G52" t="n">
-        <v>10675.69321381154</v>
+        <v>9437.613057278866</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>11885358</v>
+        <v>11710852</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46831942</v>
+        <v>47183072</v>
       </c>
       <c r="E53" t="n">
-        <v>201746885</v>
+        <v>203259515</v>
       </c>
       <c r="F53" t="n">
-        <v>24255.63172880032</v>
+        <v>24016.62148354057</v>
       </c>
       <c r="G53" t="n">
-        <v>25812.6434458688</v>
+        <v>24911.59494400207</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="I53" t="n">
-        <v>8637490</v>
+        <v>8748160</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1037846</v>
+        <v>1039115</v>
       </c>
       <c r="E54" t="n">
-        <v>3033443</v>
+        <v>3037154</v>
       </c>
       <c r="F54" t="n">
-        <v>665.1100295292617</v>
+        <v>665.2774033009854</v>
       </c>
       <c r="G54" t="n">
-        <v>566.6857130982752</v>
+        <v>576.5993240919543</v>
       </c>
       <c r="H54" t="n">
         <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>20653</v>
+        <v>20663</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37118348</v>
+        <v>37228027</v>
       </c>
       <c r="E55" t="n">
-        <v>93594653</v>
+        <v>93871212</v>
       </c>
       <c r="F55" t="n">
-        <v>8054.205716212059</v>
+        <v>13588.18184223013</v>
       </c>
       <c r="G55" t="n">
-        <v>7117.13563376476</v>
+        <v>9804.768200714634</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3050691</v>
+        <v>3062282</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28908305</v>
+        <v>28679222</v>
       </c>
       <c r="E56" t="n">
-        <v>68678944</v>
+        <v>68134700</v>
       </c>
       <c r="F56" t="n">
-        <v>13755.3170394471</v>
+        <v>14630.28820363567</v>
       </c>
       <c r="G56" t="n">
-        <v>1589.43694427401</v>
+        <v>13268.36178540826</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>477581</v>
+        <v>487620</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12208763</v>
+        <v>12426447</v>
       </c>
       <c r="E57" t="n">
-        <v>18606960</v>
+        <v>18938725</v>
       </c>
       <c r="F57" t="n">
-        <v>6938.119945225091</v>
+        <v>3879.886246219113</v>
       </c>
       <c r="G57" t="n">
-        <v>7878.478262672571</v>
+        <v>2968.569881074052</v>
       </c>
       <c r="H57" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="I57" t="n">
-        <v>687562</v>
+        <v>699080</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>301863140</v>
+        <v>304073420</v>
       </c>
       <c r="E58" t="n">
-        <v>301863140</v>
+        <v>304073420</v>
       </c>
       <c r="F58" t="n">
-        <v>46116.96461263562</v>
+        <v>47493.44862095947</v>
       </c>
       <c r="G58" t="n">
-        <v>77288.36085415722</v>
+        <v>71705.41602924361</v>
       </c>
       <c r="H58" t="n">
         <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>49938421</v>
+        <v>50607119</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11913227</v>
+        <v>11902071</v>
       </c>
       <c r="F59" t="n">
-        <v>92.07450337257706</v>
+        <v>92.16502812530672</v>
       </c>
       <c r="G59" t="n">
-        <v>308.6134332012946</v>
+        <v>210.5315443395243</v>
       </c>
       <c r="H59" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="I59" t="n">
-        <v>109571</v>
+        <v>107260</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89156783</v>
+        <v>89809382</v>
       </c>
       <c r="E60" t="n">
-        <v>513759837</v>
+        <v>517520397</v>
       </c>
       <c r="F60" t="n">
-        <v>93887.3554428285</v>
+        <v>97328.85969072406</v>
       </c>
       <c r="G60" t="n">
-        <v>97824.08643739688</v>
+        <v>94927.00352420942</v>
       </c>
       <c r="H60" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="I60" t="n">
-        <v>16082829</v>
+        <v>16045002</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9316167</v>
+        <v>9238637</v>
       </c>
       <c r="E61" t="n">
-        <v>9316167</v>
+        <v>9238637</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6.13</v>
+        <v>4.76</v>
       </c>
       <c r="I61" t="n">
-        <v>2070649</v>
+        <v>2065591</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30588610</v>
+        <v>30550764</v>
       </c>
       <c r="E62" t="n">
-        <v>136957755</v>
+        <v>136788303</v>
       </c>
       <c r="F62" t="n">
-        <v>16924.55726457705</v>
+        <v>27639.34978787767</v>
       </c>
       <c r="G62" t="n">
-        <v>31155.99975175709</v>
+        <v>19180.53215879195</v>
       </c>
       <c r="H62" t="n">
         <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>8776040</v>
+        <v>8957818</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13099806</v>
+        <v>13133841</v>
       </c>
       <c r="E63" t="n">
-        <v>26188173</v>
+        <v>26256214</v>
       </c>
       <c r="F63" t="n">
-        <v>2076.883078751589</v>
+        <v>2130.879058579831</v>
       </c>
       <c r="G63" t="n">
-        <v>2170.901466267778</v>
+        <v>2107.334872564592</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>44666</v>
+        <v>38160</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1477318</v>
+        <v>1493647</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.26</v>
+        <v>4.74</v>
       </c>
       <c r="I64" t="n">
-        <v>47345</v>
+        <v>27019</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47612451</v>
+        <v>47816331</v>
       </c>
       <c r="E65" t="n">
-        <v>308754071</v>
+        <v>310076181</v>
       </c>
       <c r="F65" t="n">
-        <v>16092.18873994311</v>
+        <v>16905.92908260067</v>
       </c>
       <c r="G65" t="n">
-        <v>17168.98833176907</v>
+        <v>18238.72094869983</v>
       </c>
       <c r="H65" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="I65" t="n">
-        <v>16856855</v>
+        <v>17237390</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4862309</v>
+        <v>4806405</v>
       </c>
       <c r="F66" t="n">
-        <v>1083.285835404768</v>
+        <v>1158.478878675043</v>
       </c>
       <c r="G66" t="n">
-        <v>1169.630627911383</v>
+        <v>2467.461292540682</v>
       </c>
       <c r="H66" t="n">
-        <v>0.82</v>
+        <v>0.25</v>
       </c>
       <c r="I66" t="n">
-        <v>168808</v>
+        <v>170739</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125376563</v>
+        <v>125393914</v>
       </c>
       <c r="E67" t="n">
-        <v>2076338562</v>
+        <v>2076625919</v>
       </c>
       <c r="F67" t="n">
-        <v>21861.29615272545</v>
+        <v>21058.96415403357</v>
       </c>
       <c r="G67" t="n">
-        <v>25169.86475684624</v>
+        <v>25750.16413672293</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>5086114</v>
+        <v>5069587</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23418232</v>
+        <v>23597386</v>
       </c>
       <c r="E68" t="n">
-        <v>140115990</v>
+        <v>141187906</v>
       </c>
       <c r="F68" t="n">
-        <v>42199.95723325133</v>
+        <v>41150.44279798611</v>
       </c>
       <c r="G68" t="n">
-        <v>43517.89891924725</v>
+        <v>42075.49943362179</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>12797808</v>
+        <v>12878762</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>24133921</v>
+        <v>23896492</v>
       </c>
       <c r="E70" t="n">
-        <v>24134254</v>
+        <v>23896492</v>
       </c>
       <c r="F70" t="n">
-        <v>2409.61664675562</v>
+        <v>2894.484478068154</v>
       </c>
       <c r="G70" t="n">
-        <v>3546.349612156156</v>
+        <v>3478.308566364963</v>
       </c>
       <c r="H70" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1856975</v>
+        <v>1823196</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34078057</v>
+        <v>34066306</v>
       </c>
       <c r="E71" t="n">
-        <v>170065213</v>
+        <v>170006573</v>
       </c>
       <c r="F71" t="n">
-        <v>16135.18346063058</v>
+        <v>17663.2048166406</v>
       </c>
       <c r="G71" t="n">
-        <v>33856.32734120901</v>
+        <v>33067.66241593555</v>
       </c>
       <c r="H71" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>10096988</v>
+        <v>10099633</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>174413</v>
+        <v>175748</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>11185.37</v>
+        <v>10741.29</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>312656513</v>
+        <v>313623198</v>
       </c>
       <c r="E73" t="n">
-        <v>578485850</v>
+        <v>580274438</v>
       </c>
       <c r="F73" t="n">
-        <v>55782.94416620352</v>
+        <v>37638.50532236716</v>
       </c>
       <c r="G73" t="n">
-        <v>61590.19178480837</v>
+        <v>45731.94596427929</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>12813595</v>
+        <v>12898455</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9372626</v>
+        <v>9292905</v>
       </c>
       <c r="E74" t="n">
-        <v>27815071</v>
+        <v>27578485</v>
       </c>
       <c r="F74" t="n">
-        <v>742.7367874284274</v>
+        <v>1128.185517546971</v>
       </c>
       <c r="G74" t="n">
-        <v>934.3737792096864</v>
+        <v>1156.694157431832</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="I74" t="n">
-        <v>5795513</v>
+        <v>3116697</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8662523</v>
+        <v>8640395</v>
       </c>
       <c r="E75" t="n">
-        <v>12342111</v>
+        <v>12310584</v>
       </c>
       <c r="F75" t="n">
-        <v>98.60216197012066</v>
+        <v>1.798056582249862</v>
       </c>
       <c r="G75" t="n">
-        <v>31.13917095685085</v>
+        <v>244.4730002483454</v>
       </c>
       <c r="H75" t="n">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="I75" t="n">
-        <v>419630</v>
+        <v>417243</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16463708</v>
+        <v>16497791</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5462661993661831</v>
+        <v>0.5462763964555791</v>
       </c>
       <c r="G76" t="n">
-        <v>913.7649093113985</v>
+        <v>699.0773671889325</v>
       </c>
       <c r="H76" t="n">
         <v>1.55</v>
       </c>
       <c r="I76" t="n">
-        <v>968986</v>
+        <v>968155</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61416110</v>
+        <v>61638094</v>
       </c>
       <c r="E77" t="n">
-        <v>101606781</v>
+        <v>101974030</v>
       </c>
       <c r="F77" t="n">
-        <v>9965.47614421043</v>
+        <v>10531.92065052968</v>
       </c>
       <c r="G77" t="n">
-        <v>21300.85882989037</v>
+        <v>22364.44719358359</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="I77" t="n">
-        <v>6205533</v>
+        <v>6190533</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5726354</v>
+        <v>5770409</v>
       </c>
       <c r="E78" t="n">
-        <v>5726354</v>
+        <v>5770409</v>
       </c>
       <c r="F78" t="n">
-        <v>914.5051949506919</v>
+        <v>992.0457610358613</v>
       </c>
       <c r="G78" t="n">
-        <v>99.78368956203022</v>
+        <v>41.37173558435567</v>
       </c>
       <c r="H78" t="n">
         <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1113014</v>
+        <v>1091401</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>63252</v>
+        <v>63163</v>
       </c>
       <c r="E79" t="n">
-        <v>330023</v>
+        <v>329558</v>
       </c>
       <c r="F79" t="n">
-        <v>21.6580171148411</v>
+        <v>87.16012737354956</v>
       </c>
       <c r="G79" t="n">
-        <v>19.84468630801317</v>
+        <v>9.520891779888299</v>
       </c>
       <c r="H79" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="I79" t="n">
-        <v>322215</v>
+        <v>320403</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26941568</v>
+        <v>26707916</v>
       </c>
       <c r="F80" t="n">
-        <v>4091.536455173637</v>
+        <v>3738.639372709251</v>
       </c>
       <c r="G80" t="n">
-        <v>3525.00387479713</v>
+        <v>3203.918971386452</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="I80" t="n">
-        <v>47415</v>
+        <v>47400</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>600020280</v>
+        <v>603062715</v>
       </c>
       <c r="E81" t="n">
-        <v>2323790019</v>
+        <v>2335572919</v>
       </c>
       <c r="F81" t="n">
-        <v>149797.0850438099</v>
+        <v>156885.6259894704</v>
       </c>
       <c r="G81" t="n">
-        <v>187427.73632909</v>
+        <v>180690.3136476061</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>30974931</v>
+        <v>31532845</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7348649</v>
+        <v>7342961</v>
       </c>
       <c r="E82" t="n">
-        <v>10530058</v>
+        <v>10521896</v>
       </c>
       <c r="F82" t="n">
-        <v>755.9028469837911</v>
+        <v>1429.309608298842</v>
       </c>
       <c r="G82" t="n">
-        <v>1119.462760797834</v>
+        <v>438.1598390728056</v>
       </c>
       <c r="H82" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>170188</v>
+        <v>175481</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>118262597</v>
+        <v>118659390</v>
       </c>
       <c r="E83" t="n">
-        <v>1028220592</v>
+        <v>1031670465</v>
       </c>
       <c r="F83" t="n">
-        <v>42119.48443731426</v>
+        <v>48348.56938257134</v>
       </c>
       <c r="G83" t="n">
-        <v>41770.91193909135</v>
+        <v>47857.01202558063</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9069314</v>
+        <v>9108049</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1118583</v>
+        <v>1118271</v>
       </c>
       <c r="E84" t="n">
-        <v>4331397</v>
+        <v>4330191</v>
       </c>
       <c r="F84" t="n">
-        <v>1281.059756731021</v>
+        <v>1381.122514787641</v>
       </c>
       <c r="G84" t="n">
-        <v>3400.231359430602</v>
+        <v>3457.758721160672</v>
       </c>
       <c r="H84" t="n">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>436522</v>
+        <v>432504</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>111836884</v>
+        <v>113747301</v>
       </c>
       <c r="E85" t="n">
-        <v>429024287</v>
+        <v>436352956</v>
       </c>
       <c r="F85" t="n">
-        <v>85378.91616746171</v>
+        <v>82592.86993178996</v>
       </c>
       <c r="G85" t="n">
-        <v>89026.11606934726</v>
+        <v>85612.60655592011</v>
       </c>
       <c r="H85" t="n">
         <v>0.02</v>
       </c>
       <c r="I85" t="n">
-        <v>20584873</v>
+        <v>20640077</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5095018</v>
+        <v>5110371</v>
       </c>
       <c r="E86" t="n">
-        <v>18972803</v>
+        <v>19029976</v>
       </c>
       <c r="F86" t="n">
-        <v>5618.425229088917</v>
+        <v>5596.330214857542</v>
       </c>
       <c r="G86" t="n">
-        <v>6027.308169857273</v>
+        <v>6050.276318200281</v>
       </c>
       <c r="H86" t="n">
         <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>60601</v>
+        <v>62191</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31574765</v>
+        <v>31647242</v>
       </c>
       <c r="F87" t="n">
-        <v>5639.781862405006</v>
+        <v>5654.456420864462</v>
       </c>
       <c r="G87" t="n">
-        <v>2268.726850777038</v>
+        <v>2173.019669294725</v>
       </c>
       <c r="H87" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5610870</v>
+        <v>5608933</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24236196</v>
+        <v>24334618</v>
       </c>
       <c r="F88" t="n">
-        <v>1213.090206098473</v>
+        <v>1197.019965664672</v>
       </c>
       <c r="G88" t="n">
-        <v>850.2480212233155</v>
+        <v>831.0745212981942</v>
       </c>
       <c r="H88" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="I88" t="n">
-        <v>8484.549999999999</v>
+        <v>9017.42</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>86838047</v>
+        <v>86922234</v>
       </c>
       <c r="E89" t="n">
-        <v>321016418</v>
+        <v>321327141</v>
       </c>
       <c r="F89" t="n">
-        <v>1052.011289328425</v>
+        <v>1115.711755025068</v>
       </c>
       <c r="G89" t="n">
-        <v>2526.234878383283</v>
+        <v>2350.754104888008</v>
       </c>
       <c r="H89" t="n">
-        <v>0.68</v>
+        <v>0.23</v>
       </c>
       <c r="I89" t="n">
-        <v>347190</v>
+        <v>340979</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21082797</v>
+        <v>20671707</v>
       </c>
       <c r="E90" t="n">
-        <v>21082797</v>
+        <v>20671707</v>
       </c>
       <c r="F90" t="n">
-        <v>4412.085703038479</v>
+        <v>3541.044128882596</v>
       </c>
       <c r="G90" t="n">
-        <v>3808.619058404247</v>
+        <v>4456.877042895385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I90" t="n">
-        <v>7095949</v>
+        <v>7138290</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3831226</v>
+        <v>3816721</v>
       </c>
       <c r="E91" t="n">
-        <v>8359685</v>
+        <v>8328037</v>
       </c>
       <c r="F91" t="n">
-        <v>1556.29605869729</v>
+        <v>1548.800797079787</v>
       </c>
       <c r="G91" t="n">
-        <v>4129.580645511774</v>
+        <v>4477.206831638844</v>
       </c>
       <c r="H91" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I91" t="n">
-        <v>877503</v>
+        <v>853795</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>490872752</v>
+        <v>492572772</v>
       </c>
       <c r="E92" t="n">
-        <v>1709554081</v>
+        <v>1715474711</v>
       </c>
       <c r="F92" t="n">
-        <v>172805.1026785991</v>
+        <v>168310.858906523</v>
       </c>
       <c r="G92" t="n">
-        <v>176300.5146301798</v>
+        <v>177178.8369630632</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31229634</v>
+        <v>31372018</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2643615</v>
+        <v>2646031</v>
       </c>
       <c r="E93" t="n">
-        <v>10574461</v>
+        <v>10584123</v>
       </c>
       <c r="F93" t="n">
-        <v>3081.508858106901</v>
+        <v>2175.162207139369</v>
       </c>
       <c r="G93" t="n">
-        <v>2555.542469061803</v>
+        <v>3233.295848270361</v>
       </c>
       <c r="H93" t="n">
         <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>5150167</v>
+        <v>5313722</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>213930437</v>
+        <v>215537507</v>
       </c>
       <c r="E94" t="n">
-        <v>657755588</v>
+        <v>662696722</v>
       </c>
       <c r="F94" t="n">
-        <v>107583.5568375491</v>
+        <v>102897.0306153616</v>
       </c>
       <c r="G94" t="n">
-        <v>97168.05425367049</v>
+        <v>108985.1657613691</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11501284</v>
+        <v>11650863</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>150421392</v>
+        <v>151453617</v>
       </c>
       <c r="E95" t="n">
-        <v>392971714</v>
+        <v>395668374</v>
       </c>
       <c r="F95" t="n">
-        <v>27954.56777752161</v>
+        <v>33646.08910775163</v>
       </c>
       <c r="G95" t="n">
-        <v>29553.20838446878</v>
+        <v>29278.85576240431</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>6596303</v>
+        <v>6484086</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>400158770</v>
+        <v>399760239</v>
       </c>
       <c r="E96" t="n">
-        <v>2286621544</v>
+        <v>2284344225</v>
       </c>
       <c r="F96" t="n">
-        <v>29710.10190791111</v>
+        <v>23144.94939457927</v>
       </c>
       <c r="G96" t="n">
-        <v>45802.10996068086</v>
+        <v>46194.62290085193</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36552313</v>
+        <v>36598744</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>614393150</v>
+        <v>613967647</v>
       </c>
       <c r="E2" t="n">
-        <v>1192127293</v>
+        <v>1191301677</v>
       </c>
       <c r="F2" t="n">
-        <v>18763.68057688738</v>
+        <v>15751.91976693033</v>
       </c>
       <c r="G2" t="n">
-        <v>38050.48219691178</v>
+        <v>37170.67444766762</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>23338585</v>
+        <v>23487784</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1343768</v>
+        <v>1342644</v>
       </c>
       <c r="E3" t="n">
-        <v>4343611</v>
+        <v>4339976</v>
       </c>
       <c r="F3" t="n">
-        <v>4967.720676093781</v>
+        <v>5366.631057083275</v>
       </c>
       <c r="G3" t="n">
-        <v>6750.917309180704</v>
+        <v>7197.849704277663</v>
       </c>
       <c r="H3" t="n">
         <v>0.23</v>
       </c>
       <c r="I3" t="n">
-        <v>96355</v>
+        <v>98121</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246802276</v>
+        <v>246173502</v>
       </c>
       <c r="E4" t="n">
-        <v>1547662380</v>
+        <v>1543719427</v>
       </c>
       <c r="F4" t="n">
-        <v>145884.308608958</v>
+        <v>139662.2429133305</v>
       </c>
       <c r="G4" t="n">
-        <v>148318.7688205766</v>
+        <v>149590.1621620352</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15545854</v>
+        <v>15537471</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140916345</v>
+        <v>140252919</v>
       </c>
       <c r="E5" t="n">
-        <v>156157818</v>
+        <v>155422637</v>
       </c>
       <c r="F5" t="n">
-        <v>9637.88322896625</v>
+        <v>8445.06209595216</v>
       </c>
       <c r="G5" t="n">
-        <v>21344.43299119771</v>
+        <v>28455.17745932926</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>33913020</v>
+        <v>34120588</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>679445</v>
+        <v>678948</v>
       </c>
       <c r="E6" t="n">
-        <v>13199933</v>
+        <v>13190290</v>
       </c>
       <c r="F6" t="n">
-        <v>573.8842970922287</v>
+        <v>577.8955063218837</v>
       </c>
       <c r="G6" t="n">
-        <v>335.9920178803202</v>
+        <v>335.9932729408938</v>
       </c>
       <c r="H6" t="n">
         <v>1.2</v>
       </c>
       <c r="I6" t="n">
-        <v>23979</v>
+        <v>23974</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>475994967</v>
+        <v>471846840</v>
       </c>
       <c r="E7" t="n">
-        <v>475994972</v>
+        <v>471846839</v>
       </c>
       <c r="F7" t="n">
-        <v>43634.98550282791</v>
+        <v>40024.92775049491</v>
       </c>
       <c r="G7" t="n">
-        <v>56752.06247171984</v>
+        <v>48418.75060323077</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>63528181</v>
+        <v>63586562</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4665340</v>
+        <v>4659094</v>
       </c>
       <c r="E8" t="n">
-        <v>4665340</v>
+        <v>4659094</v>
       </c>
       <c r="F8" t="n">
-        <v>903.226508194371</v>
+        <v>849.4360860170234</v>
       </c>
       <c r="G8" t="n">
-        <v>1244.931573840653</v>
+        <v>1737.259050644716</v>
       </c>
       <c r="H8" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I8" t="n">
-        <v>1966869</v>
+        <v>1966475</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1774201</v>
+        <v>1729549</v>
       </c>
       <c r="F9" t="n">
-        <v>607.3082900651558</v>
+        <v>1263.440946649346</v>
       </c>
       <c r="G9" t="n">
-        <v>978.8907024819571</v>
+        <v>893.2071043932307</v>
       </c>
       <c r="H9" t="n">
         <v>1.57</v>
       </c>
       <c r="I9" t="n">
-        <v>110035</v>
+        <v>110448</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1610912</v>
+        <v>1581659</v>
       </c>
       <c r="F10" t="n">
-        <v>279.4599781149539</v>
+        <v>265.1902010971576</v>
       </c>
       <c r="G10" t="n">
-        <v>155.1705150685096</v>
+        <v>153.8891234632713</v>
       </c>
       <c r="H10" t="n">
-        <v>0.37</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>220968</v>
+        <v>186813</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>105655190</v>
+        <v>105767013</v>
       </c>
       <c r="E11" t="n">
-        <v>199041853</v>
+        <v>199252516</v>
       </c>
       <c r="F11" t="n">
-        <v>162.7389052320473</v>
+        <v>162.6496175767843</v>
       </c>
       <c r="G11" t="n">
-        <v>385.5393363997201</v>
+        <v>1395.755706135276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.67</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>4338067</v>
+        <v>4341667</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12916572</v>
+        <v>12906961</v>
       </c>
       <c r="E12" t="n">
-        <v>32147011</v>
+        <v>32123090</v>
       </c>
       <c r="F12" t="n">
-        <v>2509.695303015307</v>
+        <v>2583.668128487482</v>
       </c>
       <c r="G12" t="n">
-        <v>822.4179682381641</v>
+        <v>935.8499901358474</v>
       </c>
       <c r="H12" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1598161</v>
+        <v>1595352</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112830114</v>
+        <v>111658896</v>
       </c>
       <c r="E13" t="n">
-        <v>439248718</v>
+        <v>434689154</v>
       </c>
       <c r="F13" t="n">
-        <v>24283.13869516298</v>
+        <v>14358.6421705821</v>
       </c>
       <c r="G13" t="n">
-        <v>27799.23459174431</v>
+        <v>32423.37997982761</v>
       </c>
       <c r="H13" t="n">
         <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>9565922</v>
+        <v>7903873</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5506705</v>
+        <v>5443531</v>
       </c>
       <c r="E14" t="n">
-        <v>8106169</v>
+        <v>8013173</v>
       </c>
       <c r="F14" t="n">
-        <v>264.7038003306849</v>
+        <v>301.1818666843812</v>
       </c>
       <c r="G14" t="n">
-        <v>610.0315447562214</v>
+        <v>410.3101435299232</v>
       </c>
       <c r="H14" t="n">
         <v>1.27</v>
       </c>
       <c r="I14" t="n">
-        <v>626080</v>
+        <v>619816</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137014516</v>
+        <v>136481885</v>
       </c>
       <c r="E15" t="n">
-        <v>137014516</v>
+        <v>136481885</v>
       </c>
       <c r="F15" t="n">
-        <v>50189.36890093998</v>
+        <v>55240.79203767969</v>
       </c>
       <c r="G15" t="n">
-        <v>79543.15386334737</v>
+        <v>76335.45813666633</v>
       </c>
       <c r="H15" t="n">
         <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>65921095</v>
+        <v>65889225</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65138432</v>
+        <v>64878745</v>
       </c>
       <c r="E16" t="n">
-        <v>334043242</v>
+        <v>332711510</v>
       </c>
       <c r="F16" t="n">
-        <v>25457.13977358071</v>
+        <v>27847.82058985234</v>
       </c>
       <c r="G16" t="n">
-        <v>35923.93848724586</v>
+        <v>34861.03667514412</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>18363420</v>
+        <v>18907884</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>254285737</v>
+        <v>253197327</v>
       </c>
       <c r="E17" t="n">
-        <v>254285737</v>
+        <v>253197327</v>
       </c>
       <c r="F17" t="n">
-        <v>60402.41930673845</v>
+        <v>62935.10107886667</v>
       </c>
       <c r="G17" t="n">
-        <v>61006.6841065343</v>
+        <v>50701.53820384373</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14854957</v>
+        <v>14864431</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2539254</v>
+        <v>2532599</v>
       </c>
       <c r="E18" t="n">
-        <v>6491822</v>
+        <v>6474809</v>
       </c>
       <c r="F18" t="n">
-        <v>1042.341600454587</v>
+        <v>992.5898984904351</v>
       </c>
       <c r="G18" t="n">
-        <v>1252.958541682556</v>
+        <v>1739.087080389764</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>118539</v>
+        <v>117789</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73059741</v>
+        <v>73002084</v>
       </c>
       <c r="E19" t="n">
-        <v>204516079</v>
+        <v>204350841</v>
       </c>
       <c r="F19" t="n">
-        <v>16993.62283324457</v>
+        <v>17137.5224681096</v>
       </c>
       <c r="G19" t="n">
-        <v>23874.21598462921</v>
+        <v>23736.77200436381</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I19" t="n">
-        <v>32993021</v>
+        <v>32962726</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1577330</v>
+        <v>1584438</v>
       </c>
       <c r="E20" t="n">
-        <v>9056440</v>
+        <v>9097251</v>
       </c>
       <c r="F20" t="n">
-        <v>293.4329858691214</v>
+        <v>318.7167787721527</v>
       </c>
       <c r="G20" t="n">
-        <v>36.54045922564062</v>
+        <v>37.97331993404777</v>
       </c>
       <c r="H20" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="I20" t="n">
-        <v>307640</v>
+        <v>189019</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>152572</v>
+        <v>153660</v>
       </c>
       <c r="E21" t="n">
-        <v>1030336</v>
+        <v>1037683</v>
       </c>
       <c r="F21" t="n">
-        <v>5.174915484258909</v>
+        <v>5.174934814576447</v>
       </c>
       <c r="G21" t="n">
-        <v>7.248289575045134</v>
+        <v>2.669640714735036</v>
       </c>
       <c r="H21" t="n">
         <v>1.35</v>
       </c>
       <c r="I21" t="n">
-        <v>2661489</v>
+        <v>2665892</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269843</v>
+        <v>269663</v>
       </c>
       <c r="F22" t="n">
-        <v>198.3370224405647</v>
+        <v>177.6551037160596</v>
       </c>
       <c r="G22" t="n">
-        <v>223.0928274902903</v>
+        <v>223.0936608285756</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2348.86</v>
+        <v>2348.29</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73311299</v>
+        <v>73166044</v>
       </c>
       <c r="E23" t="n">
-        <v>152891288</v>
+        <v>152588357</v>
       </c>
       <c r="F23" t="n">
-        <v>30421.12494854804</v>
+        <v>39162.03078999335</v>
       </c>
       <c r="G23" t="n">
-        <v>40297.38411432181</v>
+        <v>43725.20266656377</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>14343578</v>
+        <v>14378479</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>199034836</v>
+        <v>198234800</v>
       </c>
       <c r="E24" t="n">
-        <v>691465007</v>
+        <v>688685611</v>
       </c>
       <c r="F24" t="n">
-        <v>59993.83432734205</v>
+        <v>63378.30908077094</v>
       </c>
       <c r="G24" t="n">
-        <v>59112.91462748408</v>
+        <v>58488.34097058571</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>25981035</v>
+        <v>25950610</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115068094</v>
+        <v>114896555</v>
       </c>
       <c r="E25" t="n">
-        <v>489476113</v>
+        <v>488725067</v>
       </c>
       <c r="F25" t="n">
-        <v>19055.49756347225</v>
+        <v>18857.46062736485</v>
       </c>
       <c r="G25" t="n">
-        <v>16307.32576831757</v>
+        <v>19023.09747541755</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I25" t="n">
-        <v>13798398</v>
+        <v>13848446</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5692012</v>
+        <v>5969303</v>
       </c>
       <c r="E26" t="n">
-        <v>7733925</v>
+        <v>8110993</v>
       </c>
       <c r="F26" t="n">
-        <v>268.7293623434607</v>
+        <v>494.9699125656589</v>
       </c>
       <c r="G26" t="n">
-        <v>2004.586170388982</v>
+        <v>816.123462989764</v>
       </c>
       <c r="H26" t="n">
-        <v>1.62</v>
+        <v>0.54</v>
       </c>
       <c r="I26" t="n">
-        <v>6410291</v>
+        <v>1377527</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>536682</v>
+        <v>537914</v>
       </c>
       <c r="E27" t="n">
-        <v>6509436</v>
+        <v>6524375</v>
       </c>
       <c r="F27" t="n">
-        <v>632.1058584848016</v>
+        <v>711.8239186047033</v>
       </c>
       <c r="G27" t="n">
-        <v>715.7021889098062</v>
+        <v>565.4419591169244</v>
       </c>
       <c r="H27" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="I27" t="n">
-        <v>2757338</v>
+        <v>2763703</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25137737</v>
+        <v>25103839</v>
       </c>
       <c r="E28" t="n">
-        <v>35531210</v>
+        <v>35483297</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>829.0467856851805</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>78.90534800131203</v>
       </c>
       <c r="H28" t="n">
-        <v>4.02</v>
+        <v>3.31</v>
       </c>
       <c r="I28" t="n">
-        <v>64101</v>
+        <v>74964</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1298681631</v>
+        <v>1301304652</v>
       </c>
       <c r="E29" t="n">
-        <v>6227444385</v>
+        <v>6240022309</v>
       </c>
       <c r="F29" t="n">
-        <v>159608.0480955384</v>
+        <v>188306.497090522</v>
       </c>
       <c r="G29" t="n">
-        <v>259379.1415757938</v>
+        <v>256196.0747978237</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>177974672</v>
+        <v>178752180</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>267680819</v>
+        <v>267040847</v>
       </c>
       <c r="E30" t="n">
-        <v>1155459014</v>
+        <v>1152696540</v>
       </c>
       <c r="F30" t="n">
-        <v>298571.7675232038</v>
+        <v>194429.3422946013</v>
       </c>
       <c r="G30" t="n">
-        <v>198649.0171525646</v>
+        <v>223244.2860481023</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>111402228</v>
+        <v>111155461</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5355029</v>
+        <v>5345199</v>
       </c>
       <c r="E31" t="n">
-        <v>5361090</v>
+        <v>5351248</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6819024796814</v>
+        <v>128.6823831565241</v>
       </c>
       <c r="G31" t="n">
-        <v>129.883447525714</v>
+        <v>129.8839326907938</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>150254</v>
+        <v>152501</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21262528</v>
+        <v>21188102</v>
       </c>
       <c r="E32" t="n">
-        <v>53156321</v>
+        <v>52970256</v>
       </c>
       <c r="F32" t="n">
-        <v>2207.754703369154</v>
+        <v>1327.455468279998</v>
       </c>
       <c r="G32" t="n">
-        <v>8960.249971346711</v>
+        <v>8173.883556192782</v>
       </c>
       <c r="H32" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I32" t="n">
-        <v>1953919</v>
+        <v>2072144</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20163861</v>
+        <v>20107947</v>
       </c>
       <c r="F33" t="n">
-        <v>751.6538835776714</v>
+        <v>701.4959818113419</v>
       </c>
       <c r="G33" t="n">
-        <v>1899.980631776349</v>
+        <v>1792.638854912111</v>
       </c>
       <c r="H33" t="n">
         <v>0.99</v>
       </c>
       <c r="I33" t="n">
-        <v>121165</v>
+        <v>123488</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4178640</v>
+        <v>4167912</v>
       </c>
       <c r="E34" t="n">
-        <v>12035831</v>
+        <v>12004930</v>
       </c>
       <c r="F34" t="n">
-        <v>795.1568404014229</v>
+        <v>1175.396532815502</v>
       </c>
       <c r="G34" t="n">
-        <v>547.9308770944434</v>
+        <v>1364.775914285862</v>
       </c>
       <c r="H34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I34" t="n">
-        <v>574174</v>
+        <v>576515</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1633897</v>
+        <v>1632741</v>
       </c>
       <c r="F35" t="n">
-        <v>4.501286577499606</v>
+        <v>31.54601038558463</v>
       </c>
       <c r="G35" t="n">
-        <v>43.5233926698811</v>
+        <v>25.74276570835132</v>
       </c>
       <c r="H35" t="n">
         <v>1.79</v>
       </c>
       <c r="I35" t="n">
-        <v>12461.17</v>
+        <v>12383.51</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13977081</v>
+        <v>13906184</v>
       </c>
       <c r="E36" t="n">
-        <v>67693233</v>
+        <v>67349867</v>
       </c>
       <c r="F36" t="n">
-        <v>4894.575259892293</v>
+        <v>4799.188690556413</v>
       </c>
       <c r="G36" t="n">
-        <v>8305.703952193568</v>
+        <v>9117.959566678903</v>
       </c>
       <c r="H36" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I36" t="n">
-        <v>3633292</v>
+        <v>3644482</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1519002</v>
+        <v>1467004</v>
       </c>
       <c r="E37" t="n">
-        <v>9941831</v>
+        <v>9601502</v>
       </c>
       <c r="F37" t="n">
-        <v>634.1035344036046</v>
+        <v>896.6561839330529</v>
       </c>
       <c r="G37" t="n">
-        <v>18.47633601646944</v>
+        <v>18.47636209431308</v>
       </c>
       <c r="H37" t="n">
         <v>1.02</v>
       </c>
       <c r="I37" t="n">
-        <v>404813</v>
+        <v>402914</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1891563992</v>
+        <v>1887314756</v>
       </c>
       <c r="F38" t="n">
-        <v>66799.77164508318</v>
+        <v>78714.7939802325</v>
       </c>
       <c r="G38" t="n">
-        <v>70774.72723089653</v>
+        <v>72338.25404045821</v>
       </c>
       <c r="H38" t="n">
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
       <c r="I38" t="n">
-        <v>25918310</v>
+        <v>25860426</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32335926</v>
+        <v>32298453</v>
       </c>
       <c r="E39" t="n">
-        <v>100683698</v>
+        <v>100567020</v>
       </c>
       <c r="F39" t="n">
-        <v>5256.741816938306</v>
+        <v>5731.824337894828</v>
       </c>
       <c r="G39" t="n">
-        <v>9234.921880645084</v>
+        <v>6937.401694882665</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>12123467</v>
+        <v>12149088</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>203473180</v>
+        <v>201990167</v>
       </c>
       <c r="E40" t="n">
-        <v>1152190166</v>
+        <v>1143792439</v>
       </c>
       <c r="F40" t="n">
-        <v>43827.46122167534</v>
+        <v>45516.43018815472</v>
       </c>
       <c r="G40" t="n">
-        <v>84580.17474905058</v>
+        <v>76432.03909929098</v>
       </c>
       <c r="H40" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>63568325</v>
+        <v>64003310</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>139183305</v>
+        <v>138633349</v>
       </c>
       <c r="E41" t="n">
-        <v>1030987443</v>
+        <v>1026913695</v>
       </c>
       <c r="F41" t="n">
-        <v>150256.5378485799</v>
+        <v>150952.3107674641</v>
       </c>
       <c r="G41" t="n">
-        <v>219300.9567005566</v>
+        <v>229805.49184764</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I41" t="n">
-        <v>11023434</v>
+        <v>10973212</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31702503</v>
+        <v>31777512</v>
       </c>
       <c r="E42" t="n">
-        <v>150698027</v>
+        <v>151054584</v>
       </c>
       <c r="F42" t="n">
-        <v>7893.744367899636</v>
+        <v>7883.618435971266</v>
       </c>
       <c r="G42" t="n">
-        <v>9413.857248814003</v>
+        <v>6012.98053418649</v>
       </c>
       <c r="H42" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="I42" t="n">
-        <v>1253372</v>
+        <v>1265172</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3419051</v>
+        <v>3449260</v>
       </c>
       <c r="E43" t="n">
-        <v>7984053</v>
+        <v>8054598</v>
       </c>
       <c r="F43" t="n">
-        <v>495.447991289352</v>
+        <v>974.8962808320933</v>
       </c>
       <c r="G43" t="n">
-        <v>1361.615136484764</v>
+        <v>822.6976356545563</v>
       </c>
       <c r="H43" t="n">
-        <v>1.78</v>
+        <v>0.09</v>
       </c>
       <c r="I43" t="n">
-        <v>780675</v>
+        <v>777677</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>339355266</v>
+        <v>338119075</v>
       </c>
       <c r="E44" t="n">
-        <v>3053050399</v>
+        <v>3041928862</v>
       </c>
       <c r="F44" t="n">
-        <v>44420.16965363586</v>
+        <v>47692.47133475845</v>
       </c>
       <c r="G44" t="n">
-        <v>58756.54672186235</v>
+        <v>50167.31969581738</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>37107661</v>
+        <v>37164039</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>645357</v>
+        <v>645269</v>
       </c>
       <c r="F45" t="n">
-        <v>468.7896935622509</v>
+        <v>476.6690102670291</v>
       </c>
       <c r="G45" t="n">
-        <v>403.704947992337</v>
+        <v>375.3441991738928</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5682.06</v>
+        <v>5683.5</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1589475</v>
+        <v>1596326</v>
       </c>
       <c r="E46" t="n">
-        <v>13245625</v>
+        <v>13302715</v>
       </c>
       <c r="F46" t="n">
-        <v>290.2988638430764</v>
+        <v>331.9554609488726</v>
       </c>
       <c r="G46" t="n">
-        <v>1501.724474385588</v>
+        <v>1020.166241157128</v>
       </c>
       <c r="H46" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I46" t="n">
-        <v>44229</v>
+        <v>44920</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4910383</v>
+        <v>4918148</v>
       </c>
       <c r="E47" t="n">
-        <v>17350668</v>
+        <v>17378104</v>
       </c>
       <c r="F47" t="n">
-        <v>1044.438206851801</v>
+        <v>1029.461274446538</v>
       </c>
       <c r="G47" t="n">
-        <v>1705.167798731096</v>
+        <v>1536.945797603251</v>
       </c>
       <c r="H47" t="n">
         <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>101947</v>
+        <v>98777</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43160561</v>
+        <v>43254042</v>
       </c>
       <c r="E48" t="n">
-        <v>249881815</v>
+        <v>250423029</v>
       </c>
       <c r="F48" t="n">
-        <v>23059.6437065502</v>
+        <v>22690.62590335858</v>
       </c>
       <c r="G48" t="n">
-        <v>15192.00023008481</v>
+        <v>13745.74025029676</v>
       </c>
       <c r="H48" t="n">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="I48" t="n">
-        <v>10828142</v>
+        <v>10869348</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2287775</v>
+        <v>2247253</v>
       </c>
       <c r="E49" t="n">
-        <v>12569426</v>
+        <v>12346794</v>
       </c>
       <c r="F49" t="n">
-        <v>278.4343734770654</v>
+        <v>292.0376161898148</v>
       </c>
       <c r="G49" t="n">
-        <v>889.0153993360427</v>
+        <v>979.4258500413213</v>
       </c>
       <c r="H49" t="n">
         <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>76076</v>
+        <v>76206</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13627115</v>
+        <v>13635211</v>
       </c>
       <c r="E50" t="n">
-        <v>13673490</v>
+        <v>13681613</v>
       </c>
       <c r="F50" t="n">
-        <v>3990.172739126699</v>
+        <v>5169.792018925199</v>
       </c>
       <c r="G50" t="n">
-        <v>9813.639037111692</v>
+        <v>4319.91840233675</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5868477</v>
+        <v>5734133</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24689583</v>
+        <v>24443206</v>
       </c>
       <c r="E51" t="n">
-        <v>74006351</v>
+        <v>73267844</v>
       </c>
       <c r="F51" t="n">
-        <v>11851.61413565931</v>
+        <v>11001.76161525483</v>
       </c>
       <c r="G51" t="n">
-        <v>27066.61449001884</v>
+        <v>27764.17132259968</v>
       </c>
       <c r="H51" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I51" t="n">
-        <v>2725888</v>
+        <v>2730066</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15073026</v>
+        <v>15119758</v>
       </c>
       <c r="E52" t="n">
-        <v>92387531</v>
+        <v>92673966</v>
       </c>
       <c r="F52" t="n">
-        <v>3343.310476121909</v>
+        <v>5181.170242118529</v>
       </c>
       <c r="G52" t="n">
-        <v>9437.613057278866</v>
+        <v>10198.33662616528</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>11710852</v>
+        <v>11186319</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47183072</v>
+        <v>47023130</v>
       </c>
       <c r="E53" t="n">
-        <v>203259515</v>
+        <v>202570500</v>
       </c>
       <c r="F53" t="n">
-        <v>24016.62148354057</v>
+        <v>24151.42080131313</v>
       </c>
       <c r="G53" t="n">
-        <v>24911.59494400207</v>
+        <v>25435.00837991323</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8748160</v>
+        <v>8752354</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1039115</v>
+        <v>1036568</v>
       </c>
       <c r="E54" t="n">
-        <v>3037154</v>
+        <v>3029710</v>
       </c>
       <c r="F54" t="n">
-        <v>665.2774033009854</v>
+        <v>665.2726292492761</v>
       </c>
       <c r="G54" t="n">
-        <v>576.5993240919543</v>
+        <v>576.3519556459337</v>
       </c>
       <c r="H54" t="n">
         <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>20663</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37228027</v>
+        <v>37302881</v>
       </c>
       <c r="E55" t="n">
-        <v>93871212</v>
+        <v>94059957</v>
       </c>
       <c r="F55" t="n">
-        <v>13588.18184223013</v>
+        <v>12037.68091366284</v>
       </c>
       <c r="G55" t="n">
-        <v>9804.768200714634</v>
+        <v>6105.706430714828</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3062282</v>
+        <v>3067308</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28679222</v>
+        <v>28638048</v>
       </c>
       <c r="E56" t="n">
-        <v>68134700</v>
+        <v>68036882</v>
       </c>
       <c r="F56" t="n">
-        <v>14630.28820363567</v>
+        <v>14412.53717103144</v>
       </c>
       <c r="G56" t="n">
-        <v>13268.36178540826</v>
+        <v>13212.89298660648</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>487620</v>
+        <v>479181</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12426447</v>
+        <v>12403441</v>
       </c>
       <c r="E57" t="n">
-        <v>18938725</v>
+        <v>18903662</v>
       </c>
       <c r="F57" t="n">
-        <v>3879.886246219113</v>
+        <v>4058.151497866707</v>
       </c>
       <c r="G57" t="n">
-        <v>2968.569881074052</v>
+        <v>2915.688838440569</v>
       </c>
       <c r="H57" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="I57" t="n">
-        <v>699080</v>
+        <v>697416</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>304073420</v>
+        <v>302562674</v>
       </c>
       <c r="E58" t="n">
-        <v>304073420</v>
+        <v>302562674</v>
       </c>
       <c r="F58" t="n">
-        <v>47493.44862095947</v>
+        <v>53619.36563929758</v>
       </c>
       <c r="G58" t="n">
-        <v>71705.41602924361</v>
+        <v>70674.82976012633</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>50607119</v>
+        <v>50326248</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11902071</v>
+        <v>11888465</v>
       </c>
       <c r="F59" t="n">
-        <v>92.16502812530672</v>
+        <v>115.4740151114896</v>
       </c>
       <c r="G59" t="n">
-        <v>210.5315443395243</v>
+        <v>184.5141440280416</v>
       </c>
       <c r="H59" t="n">
         <v>1.18</v>
       </c>
       <c r="I59" t="n">
-        <v>107260</v>
+        <v>106005</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89809382</v>
+        <v>89673383</v>
       </c>
       <c r="E60" t="n">
-        <v>517520397</v>
+        <v>516736708</v>
       </c>
       <c r="F60" t="n">
-        <v>97328.85969072406</v>
+        <v>95118.28783635276</v>
       </c>
       <c r="G60" t="n">
-        <v>94927.00352420942</v>
+        <v>91754.98625188465</v>
       </c>
       <c r="H60" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I60" t="n">
-        <v>16045002</v>
+        <v>16009262</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9238637</v>
+        <v>9271652</v>
       </c>
       <c r="E61" t="n">
-        <v>9238637</v>
+        <v>9271652</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.76</v>
+        <v>5.79</v>
       </c>
       <c r="I61" t="n">
-        <v>2065591</v>
+        <v>2063363</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30550764</v>
+        <v>30413545</v>
       </c>
       <c r="E62" t="n">
-        <v>136788303</v>
+        <v>136173918</v>
       </c>
       <c r="F62" t="n">
-        <v>27639.34978787767</v>
+        <v>27822.76224654312</v>
       </c>
       <c r="G62" t="n">
-        <v>19180.53215879195</v>
+        <v>18823.11610205005</v>
       </c>
       <c r="H62" t="n">
         <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>8957818</v>
+        <v>8902113</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13133841</v>
+        <v>13108633</v>
       </c>
       <c r="E63" t="n">
-        <v>26256214</v>
+        <v>26205821</v>
       </c>
       <c r="F63" t="n">
-        <v>2130.879058579831</v>
+        <v>2128.262654043094</v>
       </c>
       <c r="G63" t="n">
-        <v>2107.334872564592</v>
+        <v>2118.619403708037</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>38160</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="64">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1493647</v>
+        <v>1496054</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>4.74</v>
       </c>
       <c r="I64" t="n">
-        <v>27019</v>
+        <v>53331</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47816331</v>
+        <v>47657788</v>
       </c>
       <c r="E65" t="n">
-        <v>310076181</v>
+        <v>309048072</v>
       </c>
       <c r="F65" t="n">
-        <v>16905.92908260067</v>
+        <v>20479.55498557736</v>
       </c>
       <c r="G65" t="n">
-        <v>18238.72094869983</v>
+        <v>16974.8310433516</v>
       </c>
       <c r="H65" t="n">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="I65" t="n">
-        <v>17237390</v>
+        <v>17160296</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4806405</v>
+        <v>4809378</v>
       </c>
       <c r="F66" t="n">
-        <v>1158.478878675043</v>
+        <v>1171.651372415281</v>
       </c>
       <c r="G66" t="n">
-        <v>2467.461292540682</v>
+        <v>1189.328897466798</v>
       </c>
       <c r="H66" t="n">
-        <v>0.25</v>
+        <v>1.08</v>
       </c>
       <c r="I66" t="n">
-        <v>170739</v>
+        <v>172250</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125393914</v>
+        <v>125358106</v>
       </c>
       <c r="E67" t="n">
-        <v>2076625919</v>
+        <v>2076032903</v>
       </c>
       <c r="F67" t="n">
-        <v>21058.96415403357</v>
+        <v>22135.47253821714</v>
       </c>
       <c r="G67" t="n">
-        <v>25750.16413672293</v>
+        <v>25502.79036284239</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5069587</v>
+        <v>5056127</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23597386</v>
+        <v>23494180</v>
       </c>
       <c r="E68" t="n">
-        <v>141187906</v>
+        <v>140570403</v>
       </c>
       <c r="F68" t="n">
-        <v>41150.44279798611</v>
+        <v>42473.25083646221</v>
       </c>
       <c r="G68" t="n">
-        <v>42075.49943362179</v>
+        <v>42971.28217488313</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>12878762</v>
+        <v>13029326</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23896492</v>
+        <v>23931302</v>
       </c>
       <c r="E70" t="n">
-        <v>23896492</v>
+        <v>23931302</v>
       </c>
       <c r="F70" t="n">
-        <v>2894.484478068154</v>
+        <v>2068.482897647459</v>
       </c>
       <c r="G70" t="n">
-        <v>3478.308566364963</v>
+        <v>16054.07644909944</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="I70" t="n">
-        <v>1823196</v>
+        <v>1820105</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34066306</v>
+        <v>34046133</v>
       </c>
       <c r="E71" t="n">
-        <v>170006573</v>
+        <v>169905899</v>
       </c>
       <c r="F71" t="n">
-        <v>17663.2048166406</v>
+        <v>17660.81882116086</v>
       </c>
       <c r="G71" t="n">
-        <v>33067.66241593555</v>
+        <v>32783.16321479631</v>
       </c>
       <c r="H71" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>10099633</v>
+        <v>10022370</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>175748</v>
+        <v>175666</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>10741.29</v>
+        <v>10769.64</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>313623198</v>
+        <v>312636832</v>
       </c>
       <c r="E73" t="n">
-        <v>580274438</v>
+        <v>578449436</v>
       </c>
       <c r="F73" t="n">
-        <v>37638.50532236716</v>
+        <v>38151.13323221984</v>
       </c>
       <c r="G73" t="n">
-        <v>45731.94596427929</v>
+        <v>43904.64452474388</v>
       </c>
       <c r="H73" t="n">
         <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>12898455</v>
+        <v>12886963</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9292905</v>
+        <v>9249766</v>
       </c>
       <c r="E74" t="n">
-        <v>27578485</v>
+        <v>27450460</v>
       </c>
       <c r="F74" t="n">
-        <v>1128.185517546971</v>
+        <v>997.7207079252207</v>
       </c>
       <c r="G74" t="n">
-        <v>1156.694157431832</v>
+        <v>990.1957141435463</v>
       </c>
       <c r="H74" t="n">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
       <c r="I74" t="n">
-        <v>3116697</v>
+        <v>5794793</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8640395</v>
+        <v>8687873</v>
       </c>
       <c r="E75" t="n">
-        <v>12310584</v>
+        <v>12378228</v>
       </c>
       <c r="F75" t="n">
-        <v>1.798056582249862</v>
+        <v>1.911830717302151</v>
       </c>
       <c r="G75" t="n">
-        <v>244.4730002483454</v>
+        <v>37.42673001722611</v>
       </c>
       <c r="H75" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="I75" t="n">
-        <v>417243</v>
+        <v>417181</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16497791</v>
+        <v>16528231</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5462763964555791</v>
+        <v>0.5462784370099107</v>
       </c>
       <c r="G76" t="n">
-        <v>699.0773671889325</v>
+        <v>1086.344069748279</v>
       </c>
       <c r="H76" t="n">
         <v>1.55</v>
       </c>
       <c r="I76" t="n">
-        <v>968155</v>
+        <v>964824</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61638094</v>
+        <v>61683470</v>
       </c>
       <c r="E77" t="n">
-        <v>101974030</v>
+        <v>102049100</v>
       </c>
       <c r="F77" t="n">
-        <v>10531.92065052968</v>
+        <v>11358.06823351182</v>
       </c>
       <c r="G77" t="n">
-        <v>22364.44719358359</v>
+        <v>20432.22481687825</v>
       </c>
       <c r="H77" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I77" t="n">
-        <v>6190533</v>
+        <v>6033473</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5770409</v>
+        <v>5739931</v>
       </c>
       <c r="E78" t="n">
-        <v>5770409</v>
+        <v>5739931</v>
       </c>
       <c r="F78" t="n">
-        <v>992.0457610358613</v>
+        <v>287.6703653608938</v>
       </c>
       <c r="G78" t="n">
-        <v>41.37173558435567</v>
+        <v>205.8951671420288</v>
       </c>
       <c r="H78" t="n">
         <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1091401</v>
+        <v>1080753</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>63163</v>
+        <v>64193</v>
       </c>
       <c r="E79" t="n">
-        <v>329558</v>
+        <v>334933</v>
       </c>
       <c r="F79" t="n">
-        <v>87.16012737354956</v>
+        <v>355.2747934948179</v>
       </c>
       <c r="G79" t="n">
-        <v>9.520891779888299</v>
+        <v>9.60999388131102</v>
       </c>
       <c r="H79" t="n">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="I79" t="n">
-        <v>320403</v>
+        <v>319025</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26707916</v>
+        <v>26988825</v>
       </c>
       <c r="F80" t="n">
-        <v>3738.639372709251</v>
+        <v>11643.16234995883</v>
       </c>
       <c r="G80" t="n">
-        <v>3203.918971386452</v>
+        <v>3586.293090244737</v>
       </c>
       <c r="H80" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="I80" t="n">
-        <v>47400</v>
+        <v>48508</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>603062715</v>
+        <v>603932146</v>
       </c>
       <c r="E81" t="n">
-        <v>2335572919</v>
+        <v>2338940097</v>
       </c>
       <c r="F81" t="n">
-        <v>156885.6259894704</v>
+        <v>153815.1133733409</v>
       </c>
       <c r="G81" t="n">
-        <v>180690.3136476061</v>
+        <v>180686.7401937558</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I81" t="n">
-        <v>31532845</v>
+        <v>32112757</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7342961</v>
+        <v>7350043</v>
       </c>
       <c r="E82" t="n">
-        <v>10521896</v>
+        <v>10532044</v>
       </c>
       <c r="F82" t="n">
-        <v>1429.309608298842</v>
+        <v>1429.314947324895</v>
       </c>
       <c r="G82" t="n">
-        <v>438.1598390728056</v>
+        <v>323.2056107009618</v>
       </c>
       <c r="H82" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>175481</v>
+        <v>175477</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>118659390</v>
+        <v>117759007</v>
       </c>
       <c r="E83" t="n">
-        <v>1031670465</v>
+        <v>1023842192</v>
       </c>
       <c r="F83" t="n">
-        <v>48348.56938257134</v>
+        <v>41687.45369028896</v>
       </c>
       <c r="G83" t="n">
-        <v>47857.01202558063</v>
+        <v>45485.4791391174</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9108049</v>
+        <v>9087895</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1118271</v>
+        <v>1119056</v>
       </c>
       <c r="E84" t="n">
-        <v>4330191</v>
+        <v>4333229</v>
       </c>
       <c r="F84" t="n">
-        <v>1381.122514787641</v>
+        <v>1338.168332746934</v>
       </c>
       <c r="G84" t="n">
-        <v>3457.758721160672</v>
+        <v>3233.471277690848</v>
       </c>
       <c r="H84" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>432504</v>
+        <v>429776</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>113747301</v>
+        <v>113215005</v>
       </c>
       <c r="E85" t="n">
-        <v>436352956</v>
+        <v>434310981</v>
       </c>
       <c r="F85" t="n">
-        <v>82592.86993178996</v>
+        <v>69525.51081086164</v>
       </c>
       <c r="G85" t="n">
-        <v>85612.60655592011</v>
+        <v>90491.34553396072</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I85" t="n">
-        <v>20640077</v>
+        <v>21039313</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5110371</v>
+        <v>5097566</v>
       </c>
       <c r="E86" t="n">
-        <v>19029976</v>
+        <v>18982293</v>
       </c>
       <c r="F86" t="n">
-        <v>5596.330214857542</v>
+        <v>5618.551094987894</v>
       </c>
       <c r="G86" t="n">
-        <v>6050.276318200281</v>
+        <v>6027.443195692855</v>
       </c>
       <c r="H86" t="n">
         <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>62191</v>
+        <v>108246</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31647242</v>
+        <v>31413069</v>
       </c>
       <c r="F87" t="n">
-        <v>5654.456420864462</v>
+        <v>4468.565451497517</v>
       </c>
       <c r="G87" t="n">
-        <v>2173.019669294725</v>
+        <v>2405.283167460006</v>
       </c>
       <c r="H87" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5608933</v>
+        <v>5579861</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24334618</v>
+        <v>24326070</v>
       </c>
       <c r="F88" t="n">
-        <v>1197.019965664672</v>
+        <v>1252.074815666236</v>
       </c>
       <c r="G88" t="n">
-        <v>831.0745212981942</v>
+        <v>721.9174078514977</v>
       </c>
       <c r="H88" t="n">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="I88" t="n">
-        <v>9017.42</v>
+        <v>9079.379999999999</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>86922234</v>
+        <v>87240919</v>
       </c>
       <c r="E89" t="n">
-        <v>321327141</v>
+        <v>322504226</v>
       </c>
       <c r="F89" t="n">
-        <v>1115.711755025068</v>
+        <v>1361.211908487697</v>
       </c>
       <c r="G89" t="n">
-        <v>2350.754104888008</v>
+        <v>1864.360799902253</v>
       </c>
       <c r="H89" t="n">
         <v>0.23</v>
       </c>
       <c r="I89" t="n">
-        <v>340979</v>
+        <v>342440</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20671707</v>
+        <v>20655602</v>
       </c>
       <c r="E90" t="n">
-        <v>20671707</v>
+        <v>20655602</v>
       </c>
       <c r="F90" t="n">
-        <v>3541.044128882596</v>
+        <v>3310.888520911901</v>
       </c>
       <c r="G90" t="n">
-        <v>4456.877042895385</v>
+        <v>3042.27238784569</v>
       </c>
       <c r="H90" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="I90" t="n">
-        <v>7138290</v>
+        <v>7110718</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3816721</v>
+        <v>3810243</v>
       </c>
       <c r="E91" t="n">
-        <v>8328037</v>
+        <v>8313901</v>
       </c>
       <c r="F91" t="n">
-        <v>1548.800797079787</v>
+        <v>1547.932139964599</v>
       </c>
       <c r="G91" t="n">
-        <v>4477.206831638844</v>
+        <v>4111.627496239399</v>
       </c>
       <c r="H91" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>853795</v>
+        <v>858145</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>492572772</v>
+        <v>491310578</v>
       </c>
       <c r="E92" t="n">
-        <v>1715474711</v>
+        <v>1711078888</v>
       </c>
       <c r="F92" t="n">
-        <v>168310.858906523</v>
+        <v>172873.3866364434</v>
       </c>
       <c r="G92" t="n">
-        <v>177178.8369630632</v>
+        <v>171660.5816437755</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31372018</v>
+        <v>31106261</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2646031</v>
+        <v>2648123</v>
       </c>
       <c r="E93" t="n">
-        <v>10584123</v>
+        <v>10592491</v>
       </c>
       <c r="F93" t="n">
-        <v>2175.162207139369</v>
+        <v>2940.040412233034</v>
       </c>
       <c r="G93" t="n">
-        <v>3233.295848270361</v>
+        <v>2679.393706966468</v>
       </c>
       <c r="H93" t="n">
         <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>5313722</v>
+        <v>5343458</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>215537507</v>
+        <v>215760777</v>
       </c>
       <c r="E94" t="n">
-        <v>662696722</v>
+        <v>663383195</v>
       </c>
       <c r="F94" t="n">
-        <v>102897.0306153616</v>
+        <v>99176.30170664708</v>
       </c>
       <c r="G94" t="n">
-        <v>108985.1657613691</v>
+        <v>105685.127191761</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I94" t="n">
-        <v>11650863</v>
+        <v>11543510</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>151453617</v>
+        <v>149801927</v>
       </c>
       <c r="E95" t="n">
-        <v>395668374</v>
+        <v>391353380</v>
       </c>
       <c r="F95" t="n">
-        <v>33646.08910775163</v>
+        <v>35268.83516773945</v>
       </c>
       <c r="G95" t="n">
-        <v>29278.85576240431</v>
+        <v>30919.12227358377</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>6484086</v>
+        <v>6450148</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>399760239</v>
+        <v>401800644</v>
       </c>
       <c r="E96" t="n">
-        <v>2284344225</v>
+        <v>2296003682</v>
       </c>
       <c r="F96" t="n">
-        <v>23144.94939457927</v>
+        <v>25145.77337687117</v>
       </c>
       <c r="G96" t="n">
-        <v>46194.62290085193</v>
+        <v>42538.65391220853</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36598744</v>
+        <v>36778957</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>613967647</v>
+        <v>615410697</v>
       </c>
       <c r="E2" t="n">
-        <v>1191301677</v>
+        <v>1194148666</v>
       </c>
       <c r="F2" t="n">
-        <v>15751.91976693033</v>
+        <v>16384.42636846667</v>
       </c>
       <c r="G2" t="n">
-        <v>37170.67444766762</v>
+        <v>32795.93730951308</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>23487784</v>
+        <v>23321472</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1342644</v>
+        <v>1343398</v>
       </c>
       <c r="E3" t="n">
-        <v>4339976</v>
+        <v>4342414</v>
       </c>
       <c r="F3" t="n">
-        <v>5366.631057083275</v>
+        <v>4533.133154180749</v>
       </c>
       <c r="G3" t="n">
-        <v>7197.849704277663</v>
+        <v>5053.399387361254</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>98121</v>
+        <v>98963</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246173502</v>
+        <v>247286089</v>
       </c>
       <c r="E4" t="n">
-        <v>1543719427</v>
+        <v>1550696305</v>
       </c>
       <c r="F4" t="n">
-        <v>139662.2429133305</v>
+        <v>131844.5790584497</v>
       </c>
       <c r="G4" t="n">
-        <v>149590.1621620352</v>
+        <v>150589.9947056562</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>15537471</v>
+        <v>15424007</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140252919</v>
+        <v>140940761</v>
       </c>
       <c r="E5" t="n">
-        <v>155422637</v>
+        <v>156184808</v>
       </c>
       <c r="F5" t="n">
-        <v>8445.06209595216</v>
+        <v>8476.592738927977</v>
       </c>
       <c r="G5" t="n">
-        <v>28455.17745932926</v>
+        <v>27500.66498773089</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>34120588</v>
+        <v>33956745</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>678948</v>
+        <v>685294</v>
       </c>
       <c r="E6" t="n">
-        <v>13190290</v>
+        <v>13313318</v>
       </c>
       <c r="F6" t="n">
-        <v>577.8955063218837</v>
+        <v>544.1230575280696</v>
       </c>
       <c r="G6" t="n">
-        <v>335.9932729408938</v>
+        <v>240.7476636621292</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>23974</v>
+        <v>23633</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>471846840</v>
+        <v>480262984</v>
       </c>
       <c r="E7" t="n">
-        <v>471846839</v>
+        <v>480262988</v>
       </c>
       <c r="F7" t="n">
-        <v>40024.92775049491</v>
+        <v>35307.31709869489</v>
       </c>
       <c r="G7" t="n">
-        <v>48418.75060323077</v>
+        <v>48922.14448439331</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>63586562</v>
+        <v>77672378</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4659094</v>
+        <v>4674854</v>
       </c>
       <c r="E8" t="n">
-        <v>4659094</v>
+        <v>4674854</v>
       </c>
       <c r="F8" t="n">
-        <v>849.4360860170234</v>
+        <v>836.6886106026976</v>
       </c>
       <c r="G8" t="n">
-        <v>1737.259050644716</v>
+        <v>1609.225040366565</v>
       </c>
       <c r="H8" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1966475</v>
+        <v>1925765</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1729549</v>
+        <v>1770327</v>
       </c>
       <c r="F9" t="n">
-        <v>1263.440946649346</v>
+        <v>76.46301938803525</v>
       </c>
       <c r="G9" t="n">
-        <v>893.2071043932307</v>
+        <v>3602.714702199288</v>
       </c>
       <c r="H9" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="I9" t="n">
-        <v>110448</v>
+        <v>168010</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1581659</v>
+        <v>1581238</v>
       </c>
       <c r="F10" t="n">
-        <v>265.1902010971576</v>
+        <v>256.2441302151528</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8891234632713</v>
+        <v>180.3965660474474</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>186813</v>
+        <v>223554</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>105767013</v>
+        <v>105861972</v>
       </c>
       <c r="E11" t="n">
-        <v>199252516</v>
+        <v>199431405</v>
       </c>
       <c r="F11" t="n">
-        <v>162.6496175767843</v>
+        <v>1610.516194190866</v>
       </c>
       <c r="G11" t="n">
-        <v>1395.755706135276</v>
+        <v>2369.786523245372</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4341667</v>
+        <v>4337389</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12906961</v>
+        <v>12870014</v>
       </c>
       <c r="E12" t="n">
-        <v>32123090</v>
+        <v>32031138</v>
       </c>
       <c r="F12" t="n">
-        <v>2583.668128487482</v>
+        <v>2613.318459681678</v>
       </c>
       <c r="G12" t="n">
-        <v>935.8499901358474</v>
+        <v>931.1843825812416</v>
       </c>
       <c r="H12" t="n">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="I12" t="n">
-        <v>1595352</v>
+        <v>1598642</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>111658896</v>
+        <v>112423261</v>
       </c>
       <c r="E13" t="n">
-        <v>434689154</v>
+        <v>437639501</v>
       </c>
       <c r="F13" t="n">
-        <v>14358.6421705821</v>
+        <v>28315.41589141544</v>
       </c>
       <c r="G13" t="n">
-        <v>32423.37997982761</v>
+        <v>31785.56009458703</v>
       </c>
       <c r="H13" t="n">
         <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>7903873</v>
+        <v>7744056</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5443531</v>
+        <v>5383902</v>
       </c>
       <c r="E14" t="n">
-        <v>8013173</v>
+        <v>7925395</v>
       </c>
       <c r="F14" t="n">
-        <v>301.1818666843812</v>
+        <v>344.8901509335726</v>
       </c>
       <c r="G14" t="n">
-        <v>410.3101435299232</v>
+        <v>130.4179169340793</v>
       </c>
       <c r="H14" t="n">
-        <v>1.27</v>
+        <v>2.53</v>
       </c>
       <c r="I14" t="n">
-        <v>619816</v>
+        <v>631150</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>136481885</v>
+        <v>137031385</v>
       </c>
       <c r="E15" t="n">
-        <v>136481885</v>
+        <v>137031385</v>
       </c>
       <c r="F15" t="n">
-        <v>55240.79203767969</v>
+        <v>52521.92112527666</v>
       </c>
       <c r="G15" t="n">
-        <v>76335.45813666633</v>
+        <v>83000.03606653328</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>65889225</v>
+        <v>66013235</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64878745</v>
+        <v>65343514</v>
       </c>
       <c r="E16" t="n">
-        <v>332711510</v>
+        <v>335094945</v>
       </c>
       <c r="F16" t="n">
-        <v>27847.82058985234</v>
+        <v>13664.88007025741</v>
       </c>
       <c r="G16" t="n">
-        <v>34861.03667514412</v>
+        <v>33387.72314346385</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>18907884</v>
+        <v>19134285</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253197327</v>
+        <v>254904492</v>
       </c>
       <c r="E17" t="n">
-        <v>253197327</v>
+        <v>254904492</v>
       </c>
       <c r="F17" t="n">
-        <v>62935.10107886667</v>
+        <v>58913.31233042409</v>
       </c>
       <c r="G17" t="n">
-        <v>50701.53820384373</v>
+        <v>49181.08679555917</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14864431</v>
+        <v>14912450</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2532599</v>
+        <v>2542091</v>
       </c>
       <c r="E18" t="n">
-        <v>6474809</v>
+        <v>6499075</v>
       </c>
       <c r="F18" t="n">
-        <v>992.5898984904351</v>
+        <v>1157.944964772124</v>
       </c>
       <c r="G18" t="n">
-        <v>1739.087080389764</v>
+        <v>1246.638722395938</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>117789</v>
+        <v>119361</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73002084</v>
+        <v>72875878</v>
       </c>
       <c r="E19" t="n">
-        <v>204350841</v>
+        <v>204004393</v>
       </c>
       <c r="F19" t="n">
-        <v>17137.5224681096</v>
+        <v>14732.10595341507</v>
       </c>
       <c r="G19" t="n">
-        <v>23736.77200436381</v>
+        <v>25556.30420964179</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>32962726</v>
+        <v>33192516</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1584438</v>
+        <v>1573320</v>
       </c>
       <c r="E20" t="n">
-        <v>9097251</v>
+        <v>9033414</v>
       </c>
       <c r="F20" t="n">
-        <v>318.7167787721527</v>
+        <v>296.8304132053277</v>
       </c>
       <c r="G20" t="n">
-        <v>37.97331993404777</v>
+        <v>36.32660327108152</v>
       </c>
       <c r="H20" t="n">
         <v>1.21</v>
       </c>
       <c r="I20" t="n">
-        <v>189019</v>
+        <v>224550</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>153660</v>
+        <v>154597</v>
       </c>
       <c r="E21" t="n">
-        <v>1037683</v>
+        <v>1044010</v>
       </c>
       <c r="F21" t="n">
-        <v>5.174934814576447</v>
+        <v>11.24666598887259</v>
       </c>
       <c r="G21" t="n">
-        <v>2.669640714735036</v>
+        <v>2.913961317760513</v>
       </c>
       <c r="H21" t="n">
-        <v>1.35</v>
+        <v>0.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2665892</v>
+        <v>2674960</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269663</v>
+        <v>272201</v>
       </c>
       <c r="F22" t="n">
-        <v>177.6551037160596</v>
+        <v>188.0074877767269</v>
       </c>
       <c r="G22" t="n">
-        <v>223.0936608285756</v>
+        <v>203.0786956185004</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2348.29</v>
+        <v>1776.38</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73166044</v>
+        <v>73907796</v>
       </c>
       <c r="E23" t="n">
-        <v>152588357</v>
+        <v>154135286</v>
       </c>
       <c r="F23" t="n">
-        <v>39162.03078999335</v>
+        <v>37328.53374831504</v>
       </c>
       <c r="G23" t="n">
-        <v>43725.20266656377</v>
+        <v>42484.72129819656</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>14378479</v>
+        <v>14463951</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>198234800</v>
+        <v>198518192</v>
       </c>
       <c r="E24" t="n">
-        <v>688685611</v>
+        <v>689670141</v>
       </c>
       <c r="F24" t="n">
-        <v>63378.30908077094</v>
+        <v>62461.53912718245</v>
       </c>
       <c r="G24" t="n">
-        <v>58488.34097058571</v>
+        <v>61818.55701813599</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>25950610</v>
+        <v>25962182</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>114896555</v>
+        <v>115284004</v>
       </c>
       <c r="E25" t="n">
-        <v>488725067</v>
+        <v>490293060</v>
       </c>
       <c r="F25" t="n">
-        <v>18857.46062736485</v>
+        <v>17635.72168608429</v>
       </c>
       <c r="G25" t="n">
-        <v>19023.09747541755</v>
+        <v>19919.73241410556</v>
       </c>
       <c r="H25" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>13848446</v>
+        <v>14060140</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5969303</v>
+        <v>5948754</v>
       </c>
       <c r="E26" t="n">
-        <v>8110993</v>
+        <v>8082954</v>
       </c>
       <c r="F26" t="n">
-        <v>494.9699125656589</v>
+        <v>991.6425861546001</v>
       </c>
       <c r="G26" t="n">
-        <v>816.123462989764</v>
+        <v>1971.958481440243</v>
       </c>
       <c r="H26" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="I26" t="n">
-        <v>1377527</v>
+        <v>6102820</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>537914</v>
+        <v>535108</v>
       </c>
       <c r="E27" t="n">
-        <v>6524375</v>
+        <v>6490345</v>
       </c>
       <c r="F27" t="n">
-        <v>711.8239186047033</v>
+        <v>766.0880363230426</v>
       </c>
       <c r="G27" t="n">
-        <v>565.4419591169244</v>
+        <v>630.2865072947043</v>
       </c>
       <c r="H27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I27" t="n">
-        <v>2763703</v>
+        <v>2789582</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25103839</v>
+        <v>25200114</v>
       </c>
       <c r="E28" t="n">
-        <v>35483297</v>
+        <v>35619377</v>
       </c>
       <c r="F28" t="n">
-        <v>829.0467856851805</v>
+        <v>830.4897944225431</v>
       </c>
       <c r="G28" t="n">
-        <v>78.90534800131203</v>
+        <v>124.3193345653806</v>
       </c>
       <c r="H28" t="n">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="I28" t="n">
-        <v>74964</v>
+        <v>72335</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1301304652</v>
+        <v>1313298556</v>
       </c>
       <c r="E29" t="n">
-        <v>6240022309</v>
+        <v>6297535534</v>
       </c>
       <c r="F29" t="n">
-        <v>188306.497090522</v>
+        <v>175439.4207522223</v>
       </c>
       <c r="G29" t="n">
-        <v>256196.0747978237</v>
+        <v>247197.1464811539</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>178752180</v>
+        <v>179477225</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>267040847</v>
+        <v>268775505</v>
       </c>
       <c r="E30" t="n">
-        <v>1152696540</v>
+        <v>1160184289</v>
       </c>
       <c r="F30" t="n">
-        <v>194429.3422946013</v>
+        <v>187453.8829246752</v>
       </c>
       <c r="G30" t="n">
-        <v>223244.2860481023</v>
+        <v>190359.1698283306</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>111155461</v>
+        <v>110941137</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5345199</v>
+        <v>5354886</v>
       </c>
       <c r="E31" t="n">
-        <v>5351248</v>
+        <v>5360946</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6823831565241</v>
+        <v>121.9496579509799</v>
       </c>
       <c r="G31" t="n">
-        <v>129.8839326907938</v>
+        <v>148.2052887967716</v>
       </c>
       <c r="H31" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>152501</v>
+        <v>151954</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21188102</v>
+        <v>21123650</v>
       </c>
       <c r="E32" t="n">
-        <v>52970256</v>
+        <v>52809125</v>
       </c>
       <c r="F32" t="n">
-        <v>1327.455468279998</v>
+        <v>2142.342443891205</v>
       </c>
       <c r="G32" t="n">
-        <v>8173.883556192782</v>
+        <v>6160.850774645038</v>
       </c>
       <c r="H32" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="I32" t="n">
-        <v>2072144</v>
+        <v>1955523</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20107947</v>
+        <v>19911138</v>
       </c>
       <c r="F33" t="n">
-        <v>701.4959818113419</v>
+        <v>1179.248486817081</v>
       </c>
       <c r="G33" t="n">
-        <v>1792.638854912111</v>
+        <v>793.7555328195889</v>
       </c>
       <c r="H33" t="n">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>123488</v>
+        <v>117295</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4167912</v>
+        <v>4202860</v>
       </c>
       <c r="E34" t="n">
-        <v>12004930</v>
+        <v>12105592</v>
       </c>
       <c r="F34" t="n">
-        <v>1175.396532815502</v>
+        <v>1008.660726308983</v>
       </c>
       <c r="G34" t="n">
-        <v>1364.775914285862</v>
+        <v>939.618841456949</v>
       </c>
       <c r="H34" t="n">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="I34" t="n">
-        <v>576515</v>
+        <v>581265</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1632741</v>
+        <v>1676249</v>
       </c>
       <c r="F35" t="n">
-        <v>31.54601038558463</v>
+        <v>36.65248946854815</v>
       </c>
       <c r="G35" t="n">
-        <v>25.74276570835132</v>
+        <v>127.8656168550124</v>
       </c>
       <c r="H35" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>12383.51</v>
+        <v>13167.09</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13906184</v>
+        <v>13951005</v>
       </c>
       <c r="E36" t="n">
-        <v>67349867</v>
+        <v>67566944</v>
       </c>
       <c r="F36" t="n">
-        <v>4799.188690556413</v>
+        <v>4049.472855572804</v>
       </c>
       <c r="G36" t="n">
-        <v>9117.959566678903</v>
+        <v>8284.6239536884</v>
       </c>
       <c r="H36" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>3644482</v>
+        <v>3614058</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1467004</v>
+        <v>1494484</v>
       </c>
       <c r="E37" t="n">
-        <v>9601502</v>
+        <v>9781356</v>
       </c>
       <c r="F37" t="n">
-        <v>896.6561839330529</v>
+        <v>911.842273102548</v>
       </c>
       <c r="G37" t="n">
-        <v>18.47636209431308</v>
+        <v>76.69740970011948</v>
       </c>
       <c r="H37" t="n">
         <v>1.02</v>
       </c>
       <c r="I37" t="n">
-        <v>402914</v>
+        <v>489306</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1887314756</v>
+        <v>1900476956</v>
       </c>
       <c r="F38" t="n">
-        <v>78714.7939802325</v>
+        <v>64987.26829900444</v>
       </c>
       <c r="G38" t="n">
-        <v>72338.25404045821</v>
+        <v>74704.01582952114</v>
       </c>
       <c r="H38" t="n">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="I38" t="n">
-        <v>25860426</v>
+        <v>26312984</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32298453</v>
+        <v>32203226</v>
       </c>
       <c r="E39" t="n">
-        <v>100567020</v>
+        <v>100270513</v>
       </c>
       <c r="F39" t="n">
-        <v>5731.824337894828</v>
+        <v>5950.026780382475</v>
       </c>
       <c r="G39" t="n">
-        <v>6937.401694882665</v>
+        <v>6565.207313952179</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>12149088</v>
+        <v>12189410</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>201990167</v>
+        <v>202521829</v>
       </c>
       <c r="E40" t="n">
-        <v>1143792439</v>
+        <v>1146803034</v>
       </c>
       <c r="F40" t="n">
-        <v>45516.43018815472</v>
+        <v>43962.58057591109</v>
       </c>
       <c r="G40" t="n">
-        <v>76432.03909929098</v>
+        <v>78228.18443530887</v>
       </c>
       <c r="H40" t="n">
         <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>64003310</v>
+        <v>65570104</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>138633349</v>
+        <v>139169519</v>
       </c>
       <c r="E41" t="n">
-        <v>1026913695</v>
+        <v>1030885327</v>
       </c>
       <c r="F41" t="n">
-        <v>150952.3107674641</v>
+        <v>129248.143568898</v>
       </c>
       <c r="G41" t="n">
-        <v>229805.49184764</v>
+        <v>205005.3328043535</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>10973212</v>
+        <v>10886434</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31777512</v>
+        <v>31630463</v>
       </c>
       <c r="E42" t="n">
-        <v>151054584</v>
+        <v>150355586</v>
       </c>
       <c r="F42" t="n">
-        <v>7883.618435971266</v>
+        <v>7856.723320764006</v>
       </c>
       <c r="G42" t="n">
-        <v>6012.98053418649</v>
+        <v>7709.971071633756</v>
       </c>
       <c r="H42" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="I42" t="n">
-        <v>1265172</v>
+        <v>1132949</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3449260</v>
+        <v>3367684</v>
       </c>
       <c r="E43" t="n">
-        <v>8054598</v>
+        <v>7864103</v>
       </c>
       <c r="F43" t="n">
-        <v>974.8962808320933</v>
+        <v>760.1371587419598</v>
       </c>
       <c r="G43" t="n">
-        <v>822.6976356545563</v>
+        <v>1366.303228049352</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09</v>
+        <v>0.63</v>
       </c>
       <c r="I43" t="n">
-        <v>777677</v>
+        <v>722868</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>338119075</v>
+        <v>337999056</v>
       </c>
       <c r="E44" t="n">
-        <v>3041928862</v>
+        <v>3040849090</v>
       </c>
       <c r="F44" t="n">
-        <v>47692.47133475845</v>
+        <v>48582.46685114918</v>
       </c>
       <c r="G44" t="n">
-        <v>50167.31969581738</v>
+        <v>53595.52769161305</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>37164039</v>
+        <v>37746906</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>645269</v>
+        <v>645359</v>
       </c>
       <c r="F45" t="n">
-        <v>476.6690102670291</v>
+        <v>622.7923104634247</v>
       </c>
       <c r="G45" t="n">
-        <v>375.3441991738928</v>
+        <v>198.1039082751094</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5683.5</v>
+        <v>5421.43</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1596326</v>
+        <v>1586395</v>
       </c>
       <c r="E46" t="n">
-        <v>13302715</v>
+        <v>13219961</v>
       </c>
       <c r="F46" t="n">
-        <v>331.9554609488726</v>
+        <v>210.3310954172377</v>
       </c>
       <c r="G46" t="n">
-        <v>1020.166241157128</v>
+        <v>1103.574800741761</v>
       </c>
       <c r="H46" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="I46" t="n">
-        <v>44920</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4918148</v>
+        <v>4910443</v>
       </c>
       <c r="E47" t="n">
-        <v>17378104</v>
+        <v>17350881</v>
       </c>
       <c r="F47" t="n">
-        <v>1029.461274446538</v>
+        <v>970.9934947566304</v>
       </c>
       <c r="G47" t="n">
-        <v>1536.945797603251</v>
+        <v>1713.195069287287</v>
       </c>
       <c r="H47" t="n">
         <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>98777</v>
+        <v>104791</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43254042</v>
+        <v>43848414</v>
       </c>
       <c r="E48" t="n">
-        <v>250423029</v>
+        <v>253864196</v>
       </c>
       <c r="F48" t="n">
-        <v>22690.62590335858</v>
+        <v>17721.93110804706</v>
       </c>
       <c r="G48" t="n">
-        <v>13745.74025029676</v>
+        <v>6967.559180601811</v>
       </c>
       <c r="H48" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="I48" t="n">
-        <v>10869348</v>
+        <v>11606282</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2247253</v>
+        <v>2225032</v>
       </c>
       <c r="E49" t="n">
-        <v>12346794</v>
+        <v>12224706</v>
       </c>
       <c r="F49" t="n">
-        <v>292.0376161898148</v>
+        <v>304.1061235989371</v>
       </c>
       <c r="G49" t="n">
-        <v>979.4258500413213</v>
+        <v>245.8363163085034</v>
       </c>
       <c r="H49" t="n">
         <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>76206</v>
+        <v>77431</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13635211</v>
+        <v>13691190</v>
       </c>
       <c r="E50" t="n">
-        <v>13681613</v>
+        <v>13737782</v>
       </c>
       <c r="F50" t="n">
-        <v>5169.792018925199</v>
+        <v>4180.633967016328</v>
       </c>
       <c r="G50" t="n">
-        <v>4319.91840233675</v>
+        <v>9010.599360384</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5734133</v>
+        <v>5900336</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24443206</v>
+        <v>23565801</v>
       </c>
       <c r="E51" t="n">
-        <v>73267844</v>
+        <v>70637844</v>
       </c>
       <c r="F51" t="n">
-        <v>11001.76161525483</v>
+        <v>25175.32489061067</v>
       </c>
       <c r="G51" t="n">
-        <v>27764.17132259968</v>
+        <v>25237.01952282885</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>2730066</v>
+        <v>2859911</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15119758</v>
+        <v>15124571</v>
       </c>
       <c r="E52" t="n">
-        <v>92673966</v>
+        <v>92703469</v>
       </c>
       <c r="F52" t="n">
-        <v>5181.170242118529</v>
+        <v>5182.291649072519</v>
       </c>
       <c r="G52" t="n">
-        <v>10198.33662616528</v>
+        <v>12210.27683698194</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>11186319</v>
+        <v>11742736</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47023130</v>
+        <v>47344773</v>
       </c>
       <c r="E53" t="n">
-        <v>202570500</v>
+        <v>203956104</v>
       </c>
       <c r="F53" t="n">
-        <v>24151.42080131313</v>
+        <v>22353.66854313325</v>
       </c>
       <c r="G53" t="n">
-        <v>25435.00837991323</v>
+        <v>25637.34985051338</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8752354</v>
+        <v>8766563</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1036568</v>
+        <v>1038746</v>
       </c>
       <c r="E54" t="n">
-        <v>3029710</v>
+        <v>3036075</v>
       </c>
       <c r="F54" t="n">
-        <v>665.2726292492761</v>
+        <v>665.1238553130009</v>
       </c>
       <c r="G54" t="n">
-        <v>576.3519556459337</v>
+        <v>576.5305564092721</v>
       </c>
       <c r="H54" t="n">
         <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>20596</v>
+        <v>19478.06</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37302881</v>
+        <v>37664395</v>
       </c>
       <c r="E55" t="n">
-        <v>94059957</v>
+        <v>94971522</v>
       </c>
       <c r="F55" t="n">
-        <v>12037.68091366284</v>
+        <v>15267.85037971081</v>
       </c>
       <c r="G55" t="n">
-        <v>6105.706430714828</v>
+        <v>7496.931407236936</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>1.08</v>
       </c>
       <c r="I55" t="n">
-        <v>3067308</v>
+        <v>3087392</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28638048</v>
+        <v>28735421</v>
       </c>
       <c r="E56" t="n">
-        <v>68036882</v>
+        <v>68268216</v>
       </c>
       <c r="F56" t="n">
-        <v>14412.53717103144</v>
+        <v>11693.47340353276</v>
       </c>
       <c r="G56" t="n">
-        <v>13212.89298660648</v>
+        <v>9509.252773955219</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>479181</v>
+        <v>468034</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12403441</v>
+        <v>12488018</v>
       </c>
       <c r="E57" t="n">
-        <v>18903662</v>
+        <v>19032563</v>
       </c>
       <c r="F57" t="n">
-        <v>4058.151497866707</v>
+        <v>3560.099652537494</v>
       </c>
       <c r="G57" t="n">
-        <v>2915.688838440569</v>
+        <v>2037.512485054066</v>
       </c>
       <c r="H57" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="I57" t="n">
-        <v>697416</v>
+        <v>696404</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>302562674</v>
+        <v>304659719</v>
       </c>
       <c r="E58" t="n">
-        <v>302562674</v>
+        <v>304659719</v>
       </c>
       <c r="F58" t="n">
-        <v>53619.36563929758</v>
+        <v>58457.39478418857</v>
       </c>
       <c r="G58" t="n">
-        <v>70674.82976012633</v>
+        <v>67099.87261117714</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>50326248</v>
+        <v>50338297</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11888465</v>
+        <v>11908912</v>
       </c>
       <c r="F59" t="n">
-        <v>115.4740151114896</v>
+        <v>108.832494135713</v>
       </c>
       <c r="G59" t="n">
-        <v>184.5141440280416</v>
+        <v>133.8024494625887</v>
       </c>
       <c r="H59" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I59" t="n">
-        <v>106005</v>
+        <v>107621</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89673383</v>
+        <v>90760527</v>
       </c>
       <c r="E60" t="n">
-        <v>516736708</v>
+        <v>523001303</v>
       </c>
       <c r="F60" t="n">
-        <v>95118.28783635276</v>
+        <v>103823.9890841414</v>
       </c>
       <c r="G60" t="n">
-        <v>91754.98625188465</v>
+        <v>93442.42387359131</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I60" t="n">
-        <v>16009262</v>
+        <v>16183403</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9271652</v>
+        <v>9281108</v>
       </c>
       <c r="E61" t="n">
-        <v>9271652</v>
+        <v>9281108</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
       <c r="I61" t="n">
-        <v>2063363</v>
+        <v>2067704</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30413545</v>
+        <v>30601285</v>
       </c>
       <c r="E62" t="n">
-        <v>136173918</v>
+        <v>137014508</v>
       </c>
       <c r="F62" t="n">
-        <v>27822.76224654312</v>
+        <v>27432.83994914058</v>
       </c>
       <c r="G62" t="n">
-        <v>18823.11610205005</v>
+        <v>20309.69714889832</v>
       </c>
       <c r="H62" t="n">
         <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>8902113</v>
+        <v>8803880</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13108633</v>
+        <v>13071876</v>
       </c>
       <c r="E63" t="n">
-        <v>26205821</v>
+        <v>26132339</v>
       </c>
       <c r="F63" t="n">
-        <v>2128.262654043094</v>
+        <v>2117.917164460262</v>
       </c>
       <c r="G63" t="n">
-        <v>2118.619403708037</v>
+        <v>2168.332903732151</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>44671</v>
+        <v>42986</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1496054</v>
+        <v>1456007</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>63.73791228884006</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>132.1681921098136</v>
       </c>
       <c r="H64" t="n">
-        <v>4.74</v>
+        <v>3.23</v>
       </c>
       <c r="I64" t="n">
-        <v>53331</v>
+        <v>57802</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>47657788</v>
+        <v>48222510</v>
       </c>
       <c r="E65" t="n">
-        <v>309048072</v>
+        <v>312710143</v>
       </c>
       <c r="F65" t="n">
-        <v>20479.55498557736</v>
+        <v>18156.82660177303</v>
       </c>
       <c r="G65" t="n">
-        <v>16974.8310433516</v>
+        <v>17636.91432357902</v>
       </c>
       <c r="H65" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="I65" t="n">
-        <v>17160296</v>
+        <v>17223004</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4809378</v>
+        <v>4804153</v>
       </c>
       <c r="F66" t="n">
-        <v>1171.651372415281</v>
+        <v>1251.306130866827</v>
       </c>
       <c r="G66" t="n">
-        <v>1189.328897466798</v>
+        <v>1224.869955727194</v>
       </c>
       <c r="H66" t="n">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="I66" t="n">
-        <v>172250</v>
+        <v>173301</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125358106</v>
+        <v>125361448</v>
       </c>
       <c r="E67" t="n">
-        <v>2076032903</v>
+        <v>2076088251</v>
       </c>
       <c r="F67" t="n">
-        <v>22135.47253821714</v>
+        <v>21479.25176119154</v>
       </c>
       <c r="G67" t="n">
-        <v>25502.79036284239</v>
+        <v>24164.65949815541</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5056127</v>
+        <v>5045215</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23494180</v>
+        <v>23643048</v>
       </c>
       <c r="E68" t="n">
-        <v>140570403</v>
+        <v>141461107</v>
       </c>
       <c r="F68" t="n">
-        <v>42473.25083646221</v>
+        <v>43006.54157497631</v>
       </c>
       <c r="G68" t="n">
-        <v>42971.28217488313</v>
+        <v>43174.35358618863</v>
       </c>
       <c r="H68" t="n">
         <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>13029326</v>
+        <v>13119356</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23931302</v>
+        <v>24217124</v>
       </c>
       <c r="E70" t="n">
-        <v>23931302</v>
+        <v>24217124</v>
       </c>
       <c r="F70" t="n">
-        <v>2068.482897647459</v>
+        <v>2398.915824655644</v>
       </c>
       <c r="G70" t="n">
-        <v>16054.07644909944</v>
+        <v>4187.417755238723</v>
       </c>
       <c r="H70" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="I70" t="n">
-        <v>1820105</v>
+        <v>1850776</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34046133</v>
+        <v>34152094</v>
       </c>
       <c r="E71" t="n">
-        <v>169905899</v>
+        <v>170434694</v>
       </c>
       <c r="F71" t="n">
-        <v>17660.81882116086</v>
+        <v>17379.4647168268</v>
       </c>
       <c r="G71" t="n">
-        <v>32783.16321479631</v>
+        <v>31529.14103028073</v>
       </c>
       <c r="H71" t="n">
         <v>0.59</v>
       </c>
       <c r="I71" t="n">
-        <v>10022370</v>
+        <v>10080850</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>175666</v>
+        <v>168273</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>10769.64</v>
+        <v>10865.11</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>312636832</v>
+        <v>313058053</v>
       </c>
       <c r="E73" t="n">
-        <v>578449436</v>
+        <v>579228790</v>
       </c>
       <c r="F73" t="n">
-        <v>38151.13323221984</v>
+        <v>37153.24279721281</v>
       </c>
       <c r="G73" t="n">
-        <v>43904.64452474388</v>
+        <v>44402.79092817604</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>12886963</v>
+        <v>12947587</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9249766</v>
+        <v>9271345</v>
       </c>
       <c r="E74" t="n">
-        <v>27450460</v>
+        <v>27514501</v>
       </c>
       <c r="F74" t="n">
-        <v>997.7207079252207</v>
+        <v>1041.317614429663</v>
       </c>
       <c r="G74" t="n">
-        <v>990.1957141435463</v>
+        <v>1089.117664518879</v>
       </c>
       <c r="H74" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="I74" t="n">
-        <v>5794793</v>
+        <v>5876807</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8687873</v>
+        <v>8908933</v>
       </c>
       <c r="E75" t="n">
-        <v>12378228</v>
+        <v>12693188</v>
       </c>
       <c r="F75" t="n">
-        <v>1.911830717302151</v>
+        <v>18.5947267713531</v>
       </c>
       <c r="G75" t="n">
-        <v>37.42673001722611</v>
+        <v>0.9747723358401862</v>
       </c>
       <c r="H75" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="I75" t="n">
-        <v>417181</v>
+        <v>419087</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16528231</v>
+        <v>16100853</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5462784370099107</v>
+        <v>0.6124468692278194</v>
       </c>
       <c r="G76" t="n">
-        <v>1086.344069748279</v>
+        <v>917.4896639232577</v>
       </c>
       <c r="H76" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="I76" t="n">
-        <v>964824</v>
+        <v>955702</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61683470</v>
+        <v>61748684</v>
       </c>
       <c r="E77" t="n">
-        <v>102049100</v>
+        <v>102156991</v>
       </c>
       <c r="F77" t="n">
-        <v>11358.06823351182</v>
+        <v>10994.68182515766</v>
       </c>
       <c r="G77" t="n">
-        <v>20432.22481687825</v>
+        <v>20370.66437812468</v>
       </c>
       <c r="H77" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I77" t="n">
-        <v>6033473</v>
+        <v>6246852</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5739931</v>
+        <v>5461571</v>
       </c>
       <c r="E78" t="n">
-        <v>5739931</v>
+        <v>5461571</v>
       </c>
       <c r="F78" t="n">
-        <v>287.6703653608938</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>205.8951671420288</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3.7</v>
+        <v>5.06</v>
       </c>
       <c r="I78" t="n">
-        <v>1080753</v>
+        <v>1097918</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>64193</v>
+        <v>62339</v>
       </c>
       <c r="E79" t="n">
-        <v>334933</v>
+        <v>325259</v>
       </c>
       <c r="F79" t="n">
-        <v>355.2747934948179</v>
+        <v>282.3065712205126</v>
       </c>
       <c r="G79" t="n">
-        <v>9.60999388131102</v>
+        <v>33.9079480018789</v>
       </c>
       <c r="H79" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="I79" t="n">
-        <v>319025</v>
+        <v>295318</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26988825</v>
+        <v>26665802</v>
       </c>
       <c r="F80" t="n">
-        <v>11643.16234995883</v>
+        <v>9758.349974786595</v>
       </c>
       <c r="G80" t="n">
-        <v>3586.293090244737</v>
+        <v>3790.369590058888</v>
       </c>
       <c r="H80" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="I80" t="n">
-        <v>48508</v>
+        <v>49512</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>603932146</v>
+        <v>602267516</v>
       </c>
       <c r="E81" t="n">
-        <v>2338940097</v>
+        <v>2332493232</v>
       </c>
       <c r="F81" t="n">
-        <v>153815.1133733409</v>
+        <v>145718.1881346724</v>
       </c>
       <c r="G81" t="n">
-        <v>180686.7401937558</v>
+        <v>180060.7599676162</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I81" t="n">
-        <v>32112757</v>
+        <v>33134406</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7350043</v>
+        <v>7349054</v>
       </c>
       <c r="E82" t="n">
-        <v>10532044</v>
+        <v>10530093</v>
       </c>
       <c r="F82" t="n">
-        <v>1429.314947324895</v>
+        <v>1785.011293936328</v>
       </c>
       <c r="G82" t="n">
-        <v>323.2056107009618</v>
+        <v>1058.622942813351</v>
       </c>
       <c r="H82" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>175477</v>
+        <v>177330</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>117759007</v>
+        <v>118226249</v>
       </c>
       <c r="E83" t="n">
-        <v>1023842192</v>
+        <v>1027904570</v>
       </c>
       <c r="F83" t="n">
-        <v>41687.45369028896</v>
+        <v>41558.92865435169</v>
       </c>
       <c r="G83" t="n">
-        <v>45485.4791391174</v>
+        <v>40192.1436930137</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9087895</v>
+        <v>8847771</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1119056</v>
+        <v>1116432</v>
       </c>
       <c r="E84" t="n">
-        <v>4333229</v>
+        <v>4323068</v>
       </c>
       <c r="F84" t="n">
-        <v>1338.168332746934</v>
+        <v>1490.833203207711</v>
       </c>
       <c r="G84" t="n">
-        <v>3233.471277690848</v>
+        <v>2893.390288947469</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I84" t="n">
-        <v>429776</v>
+        <v>421517</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>113215005</v>
+        <v>115171797</v>
       </c>
       <c r="E85" t="n">
-        <v>434310981</v>
+        <v>441817551</v>
       </c>
       <c r="F85" t="n">
-        <v>69525.51081086164</v>
+        <v>80987.93564701389</v>
       </c>
       <c r="G85" t="n">
-        <v>90491.34553396072</v>
+        <v>86278.87171101205</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I85" t="n">
-        <v>21039313</v>
+        <v>22529709</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5097566</v>
+        <v>5091589</v>
       </c>
       <c r="E86" t="n">
-        <v>18982293</v>
+        <v>18960034</v>
       </c>
       <c r="F86" t="n">
-        <v>5618.551094987894</v>
+        <v>5594.77394770853</v>
       </c>
       <c r="G86" t="n">
-        <v>6027.443195692855</v>
+        <v>6005.050376275051</v>
       </c>
       <c r="H86" t="n">
         <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>108246</v>
+        <v>59883</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31413069</v>
+        <v>31433253</v>
       </c>
       <c r="F87" t="n">
-        <v>4468.565451497517</v>
+        <v>5896.160325855913</v>
       </c>
       <c r="G87" t="n">
-        <v>2405.283167460006</v>
+        <v>2499.311452891671</v>
       </c>
       <c r="H87" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="I87" t="n">
-        <v>5579861</v>
+        <v>5493852</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24326070</v>
+        <v>24124224</v>
       </c>
       <c r="F88" t="n">
-        <v>1252.074815666236</v>
+        <v>1066.59901280785</v>
       </c>
       <c r="G88" t="n">
-        <v>721.9174078514977</v>
+        <v>1162.17210768613</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="I88" t="n">
-        <v>9079.379999999999</v>
+        <v>16552.69</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87240919</v>
+        <v>86925447</v>
       </c>
       <c r="E89" t="n">
-        <v>322504226</v>
+        <v>321337927</v>
       </c>
       <c r="F89" t="n">
-        <v>1361.211908487697</v>
+        <v>1400.386567671814</v>
       </c>
       <c r="G89" t="n">
-        <v>1864.360799902253</v>
+        <v>1876.092698156586</v>
       </c>
       <c r="H89" t="n">
         <v>0.23</v>
       </c>
       <c r="I89" t="n">
-        <v>342440</v>
+        <v>351954</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20655602</v>
+        <v>20612835</v>
       </c>
       <c r="E90" t="n">
-        <v>20655602</v>
+        <v>20612835</v>
       </c>
       <c r="F90" t="n">
-        <v>3310.888520911901</v>
+        <v>3216.229421947984</v>
       </c>
       <c r="G90" t="n">
-        <v>3042.27238784569</v>
+        <v>3696.684984379667</v>
       </c>
       <c r="H90" t="n">
-        <v>0.39</v>
+        <v>0.65</v>
       </c>
       <c r="I90" t="n">
-        <v>7110718</v>
+        <v>7120719</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3810243</v>
+        <v>3813691</v>
       </c>
       <c r="E91" t="n">
-        <v>8313901</v>
+        <v>8321424</v>
       </c>
       <c r="F91" t="n">
-        <v>1547.932139964599</v>
+        <v>1546.487334489198</v>
       </c>
       <c r="G91" t="n">
-        <v>4111.627496239399</v>
+        <v>4077.047477043791</v>
       </c>
       <c r="H91" t="n">
         <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>858145</v>
+        <v>877499</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>491310578</v>
+        <v>493394219</v>
       </c>
       <c r="E92" t="n">
-        <v>1711078888</v>
+        <v>1718335549</v>
       </c>
       <c r="F92" t="n">
-        <v>172873.3866364434</v>
+        <v>164915.4835399513</v>
       </c>
       <c r="G92" t="n">
-        <v>171660.5816437755</v>
+        <v>175764.3577497579</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31106261</v>
+        <v>31016062</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2648123</v>
+        <v>2630907</v>
       </c>
       <c r="E93" t="n">
-        <v>10592491</v>
+        <v>10523628</v>
       </c>
       <c r="F93" t="n">
-        <v>2940.040412233034</v>
+        <v>2128.111699327483</v>
       </c>
       <c r="G93" t="n">
-        <v>2679.393706966468</v>
+        <v>3549.805637132929</v>
       </c>
       <c r="H93" t="n">
         <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>5343458</v>
+        <v>5613220</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>215760777</v>
+        <v>216885292</v>
       </c>
       <c r="E94" t="n">
-        <v>663383195</v>
+        <v>666840655</v>
       </c>
       <c r="F94" t="n">
-        <v>99176.30170664708</v>
+        <v>103676.4348513395</v>
       </c>
       <c r="G94" t="n">
-        <v>105685.127191761</v>
+        <v>102152.4571580822</v>
       </c>
       <c r="H94" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>11543510</v>
+        <v>11600741</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>149801927</v>
+        <v>148266118</v>
       </c>
       <c r="E95" t="n">
-        <v>391353380</v>
+        <v>387341121</v>
       </c>
       <c r="F95" t="n">
-        <v>35268.83516773945</v>
+        <v>29985.00386868618</v>
       </c>
       <c r="G95" t="n">
-        <v>30919.12227358377</v>
+        <v>30212.52286478527</v>
       </c>
       <c r="H95" t="n">
         <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>6450148</v>
+        <v>6518252</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>401800644</v>
+        <v>403966561</v>
       </c>
       <c r="E96" t="n">
-        <v>2296003682</v>
+        <v>2308380349</v>
       </c>
       <c r="F96" t="n">
-        <v>25145.77337687117</v>
+        <v>24580.22528214976</v>
       </c>
       <c r="G96" t="n">
-        <v>42538.65391220853</v>
+        <v>37805.37405567327</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36778957</v>
+        <v>36953454</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>615410697</v>
+        <v>607867355</v>
       </c>
       <c r="E2" t="n">
-        <v>1194148666</v>
+        <v>1179519794</v>
       </c>
       <c r="F2" t="n">
-        <v>16384.42636846667</v>
+        <v>20395.59030296215</v>
       </c>
       <c r="G2" t="n">
-        <v>32795.93730951308</v>
+        <v>32419.540475072</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>23321472</v>
+        <v>23216342</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1343398</v>
+        <v>1318773</v>
       </c>
       <c r="E3" t="n">
-        <v>4342414</v>
+        <v>4262816</v>
       </c>
       <c r="F3" t="n">
-        <v>4533.133154180749</v>
+        <v>5570.201623746371</v>
       </c>
       <c r="G3" t="n">
-        <v>5053.399387361254</v>
+        <v>5926.582709776232</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>98963</v>
+        <v>99370</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247286089</v>
+        <v>245858863</v>
       </c>
       <c r="E4" t="n">
-        <v>1550696305</v>
+        <v>1541746371</v>
       </c>
       <c r="F4" t="n">
-        <v>131844.5790584497</v>
+        <v>136312.7991251675</v>
       </c>
       <c r="G4" t="n">
-        <v>150589.9947056562</v>
+        <v>139761.9517961339</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>15424007</v>
+        <v>15534566</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140940761</v>
+        <v>139490303</v>
       </c>
       <c r="E5" t="n">
-        <v>156184808</v>
+        <v>154577055</v>
       </c>
       <c r="F5" t="n">
-        <v>8476.592738927977</v>
+        <v>8216.613080756766</v>
       </c>
       <c r="G5" t="n">
-        <v>27500.66498773089</v>
+        <v>31175.1634909922</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>33956745</v>
+        <v>23109398</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>685294</v>
+        <v>685226</v>
       </c>
       <c r="E6" t="n">
-        <v>13313318</v>
+        <v>13312004</v>
       </c>
       <c r="F6" t="n">
-        <v>544.1230575280696</v>
+        <v>249.6771634103482</v>
       </c>
       <c r="G6" t="n">
-        <v>240.7476636621292</v>
+        <v>181.3115509255158</v>
       </c>
       <c r="H6" t="n">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>23633</v>
+        <v>25807</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>480262984</v>
+        <v>468103128</v>
       </c>
       <c r="E7" t="n">
-        <v>480262988</v>
+        <v>468103132</v>
       </c>
       <c r="F7" t="n">
-        <v>35307.31709869489</v>
+        <v>30200.37461786999</v>
       </c>
       <c r="G7" t="n">
-        <v>48922.14448439331</v>
+        <v>40290.96449582413</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>77672378</v>
+        <v>65678825</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4674854</v>
+        <v>4681450</v>
       </c>
       <c r="E8" t="n">
-        <v>4674854</v>
+        <v>4681450</v>
       </c>
       <c r="F8" t="n">
-        <v>836.6886106026976</v>
+        <v>746.3841875700695</v>
       </c>
       <c r="G8" t="n">
-        <v>1609.225040366565</v>
+        <v>1869.766904279768</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I8" t="n">
-        <v>1925765</v>
+        <v>2011648</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1770327</v>
+        <v>1726867</v>
       </c>
       <c r="F9" t="n">
-        <v>76.46301938803525</v>
+        <v>2571.744804716912</v>
       </c>
       <c r="G9" t="n">
-        <v>3602.714702199288</v>
+        <v>235.1900926118524</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="I9" t="n">
-        <v>168010</v>
+        <v>169682</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1581238</v>
+        <v>1595868</v>
       </c>
       <c r="F10" t="n">
-        <v>256.2441302151528</v>
+        <v>285.3550210105768</v>
       </c>
       <c r="G10" t="n">
-        <v>180.3965660474474</v>
+        <v>198.9343510874586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I10" t="n">
-        <v>223554</v>
+        <v>241070</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>105861972</v>
+        <v>106023130</v>
       </c>
       <c r="E11" t="n">
-        <v>199431405</v>
+        <v>199735009</v>
       </c>
       <c r="F11" t="n">
-        <v>1610.516194190866</v>
+        <v>1638.457445345058</v>
       </c>
       <c r="G11" t="n">
-        <v>2369.786523245372</v>
+        <v>2377.365787445049</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4337389</v>
+        <v>4341572</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12870014</v>
+        <v>12874821</v>
       </c>
       <c r="E12" t="n">
-        <v>32031138</v>
+        <v>32043101</v>
       </c>
       <c r="F12" t="n">
-        <v>2613.318459681678</v>
+        <v>2675.245790945833</v>
       </c>
       <c r="G12" t="n">
-        <v>931.1843825812416</v>
+        <v>799.9377923210118</v>
       </c>
       <c r="H12" t="n">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1598642</v>
+        <v>1594756</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112423261</v>
+        <v>110247188</v>
       </c>
       <c r="E13" t="n">
-        <v>437639501</v>
+        <v>429143750</v>
       </c>
       <c r="F13" t="n">
-        <v>28315.41589141544</v>
+        <v>25192.37307951281</v>
       </c>
       <c r="G13" t="n">
-        <v>31785.56009458703</v>
+        <v>30932.15487843016</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>7744056</v>
+        <v>7949867</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5383902</v>
+        <v>5387506</v>
       </c>
       <c r="E14" t="n">
-        <v>7925395</v>
+        <v>7930700</v>
       </c>
       <c r="F14" t="n">
-        <v>344.8901509335726</v>
+        <v>319.9595300627585</v>
       </c>
       <c r="G14" t="n">
-        <v>130.4179169340793</v>
+        <v>343.5404604097699</v>
       </c>
       <c r="H14" t="n">
-        <v>2.53</v>
+        <v>1.27</v>
       </c>
       <c r="I14" t="n">
-        <v>631150</v>
+        <v>628235</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137031385</v>
+        <v>136175177</v>
       </c>
       <c r="E15" t="n">
-        <v>137031385</v>
+        <v>136175177</v>
       </c>
       <c r="F15" t="n">
-        <v>52521.92112527666</v>
+        <v>42031.26032064371</v>
       </c>
       <c r="G15" t="n">
-        <v>83000.03606653328</v>
+        <v>85450.46895517685</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>66013235</v>
+        <v>66525957</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65343514</v>
+        <v>65047615</v>
       </c>
       <c r="E16" t="n">
-        <v>335094945</v>
+        <v>333577512</v>
       </c>
       <c r="F16" t="n">
-        <v>13664.88007025741</v>
+        <v>25204.1048335867</v>
       </c>
       <c r="G16" t="n">
-        <v>33387.72314346385</v>
+        <v>37097.45116373285</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>19134285</v>
+        <v>19350485</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>254904492</v>
+        <v>253870462</v>
       </c>
       <c r="E17" t="n">
-        <v>254904492</v>
+        <v>253870462</v>
       </c>
       <c r="F17" t="n">
-        <v>58913.31233042409</v>
+        <v>55710.85935191559</v>
       </c>
       <c r="G17" t="n">
-        <v>49181.08679555917</v>
+        <v>55871.64783744704</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>14912450</v>
+        <v>15008058</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2542091</v>
+        <v>2542772</v>
       </c>
       <c r="E18" t="n">
-        <v>6499075</v>
+        <v>6500817</v>
       </c>
       <c r="F18" t="n">
-        <v>1157.944964772124</v>
+        <v>1090.024295366786</v>
       </c>
       <c r="G18" t="n">
-        <v>1246.638722395938</v>
+        <v>1738.128165657145</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>119361</v>
+        <v>118183</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72875878</v>
+        <v>72635250</v>
       </c>
       <c r="E19" t="n">
-        <v>204004393</v>
+        <v>203330793</v>
       </c>
       <c r="F19" t="n">
-        <v>14732.10595341507</v>
+        <v>12888.76333580104</v>
       </c>
       <c r="G19" t="n">
-        <v>25556.30420964179</v>
+        <v>24734.43476450716</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>33192516</v>
+        <v>33817253</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1573320</v>
+        <v>1571831</v>
       </c>
       <c r="E20" t="n">
-        <v>9033414</v>
+        <v>9024866</v>
       </c>
       <c r="F20" t="n">
-        <v>296.8304132053277</v>
+        <v>103.0458592339811</v>
       </c>
       <c r="G20" t="n">
-        <v>36.32660327108152</v>
+        <v>51.22486946163598</v>
       </c>
       <c r="H20" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="I20" t="n">
-        <v>224550</v>
+        <v>335818</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>154597</v>
+        <v>156998</v>
       </c>
       <c r="E21" t="n">
-        <v>1044010</v>
+        <v>1060228</v>
       </c>
       <c r="F21" t="n">
-        <v>11.24666598887259</v>
+        <v>13.14465302534686</v>
       </c>
       <c r="G21" t="n">
-        <v>2.913961317760513</v>
+        <v>5.229954744737065</v>
       </c>
       <c r="H21" t="n">
         <v>0.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2674960</v>
+        <v>2665794</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>272201</v>
+        <v>269561</v>
       </c>
       <c r="F22" t="n">
-        <v>188.0074877767269</v>
+        <v>177.6806541304816</v>
       </c>
       <c r="G22" t="n">
-        <v>203.0786956185004</v>
+        <v>192.6518319777584</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1776.38</v>
+        <v>1455.25</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73907796</v>
+        <v>73051907</v>
       </c>
       <c r="E23" t="n">
-        <v>154135286</v>
+        <v>152350324</v>
       </c>
       <c r="F23" t="n">
-        <v>37328.53374831504</v>
+        <v>40851.14274956826</v>
       </c>
       <c r="G23" t="n">
-        <v>42484.72129819656</v>
+        <v>54921.73013956658</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>14463951</v>
+        <v>14455882</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>198518192</v>
+        <v>197831519</v>
       </c>
       <c r="E24" t="n">
-        <v>689670141</v>
+        <v>687284577</v>
       </c>
       <c r="F24" t="n">
-        <v>62461.53912718245</v>
+        <v>63882.94085562749</v>
       </c>
       <c r="G24" t="n">
-        <v>61818.55701813599</v>
+        <v>62448.20519808</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>25962182</v>
+        <v>25871465</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115284004</v>
+        <v>115604708</v>
       </c>
       <c r="E25" t="n">
-        <v>490293060</v>
+        <v>491605592</v>
       </c>
       <c r="F25" t="n">
-        <v>17635.72168608429</v>
+        <v>16198.51595365201</v>
       </c>
       <c r="G25" t="n">
-        <v>19919.73241410556</v>
+        <v>17330.21803233841</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>14060140</v>
+        <v>14404287</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5948754</v>
+        <v>5781752</v>
       </c>
       <c r="E26" t="n">
-        <v>8082954</v>
+        <v>7855649</v>
       </c>
       <c r="F26" t="n">
-        <v>991.6425861546001</v>
+        <v>960.7234516356932</v>
       </c>
       <c r="G26" t="n">
-        <v>1971.958481440243</v>
+        <v>1754.593991469921</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I26" t="n">
-        <v>6102820</v>
+        <v>5979441</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>535108</v>
+        <v>534839</v>
       </c>
       <c r="E27" t="n">
-        <v>6490345</v>
+        <v>6487071</v>
       </c>
       <c r="F27" t="n">
-        <v>766.0880363230426</v>
+        <v>753.6135959727337</v>
       </c>
       <c r="G27" t="n">
-        <v>630.2865072947043</v>
+        <v>747.8135051383198</v>
       </c>
       <c r="H27" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="I27" t="n">
-        <v>2789582</v>
+        <v>2777797</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25200114</v>
+        <v>25118766</v>
       </c>
       <c r="E28" t="n">
-        <v>35619377</v>
+        <v>35504396</v>
       </c>
       <c r="F28" t="n">
-        <v>830.4897944225431</v>
+        <v>830.5589307646644</v>
       </c>
       <c r="G28" t="n">
-        <v>124.3193345653806</v>
+        <v>121.2351008400716</v>
       </c>
       <c r="H28" t="n">
         <v>2.84</v>
       </c>
       <c r="I28" t="n">
-        <v>72335</v>
+        <v>72036</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1313298556</v>
+        <v>1286617032</v>
       </c>
       <c r="E29" t="n">
-        <v>6297535534</v>
+        <v>6169592163</v>
       </c>
       <c r="F29" t="n">
-        <v>175439.4207522223</v>
+        <v>172981.8909272413</v>
       </c>
       <c r="G29" t="n">
-        <v>247197.1464811539</v>
+        <v>211922.668891749</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>179477225</v>
+        <v>181214454</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>268775505</v>
+        <v>266515875</v>
       </c>
       <c r="E30" t="n">
-        <v>1160184289</v>
+        <v>1150430471</v>
       </c>
       <c r="F30" t="n">
-        <v>187453.8829246752</v>
+        <v>192667.6750776859</v>
       </c>
       <c r="G30" t="n">
-        <v>190359.1698283306</v>
+        <v>196922.1913348673</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>110941137</v>
+        <v>110084330</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5354886</v>
+        <v>5354350</v>
       </c>
       <c r="E31" t="n">
-        <v>5360946</v>
+        <v>5360410</v>
       </c>
       <c r="F31" t="n">
-        <v>121.9496579509799</v>
+        <v>131.1231648619109</v>
       </c>
       <c r="G31" t="n">
-        <v>148.2052887967716</v>
+        <v>148.2176265420627</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>151954</v>
+        <v>151666</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21123650</v>
+        <v>21031918</v>
       </c>
       <c r="E32" t="n">
-        <v>52809125</v>
+        <v>52579794</v>
       </c>
       <c r="F32" t="n">
-        <v>2142.342443891205</v>
+        <v>1845.138564832381</v>
       </c>
       <c r="G32" t="n">
-        <v>6160.850774645038</v>
+        <v>9682.762385255839</v>
       </c>
       <c r="H32" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="I32" t="n">
-        <v>1955523</v>
+        <v>2077211</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19911138</v>
+        <v>19904324</v>
       </c>
       <c r="F33" t="n">
-        <v>1179.248486817081</v>
+        <v>975.8332360851368</v>
       </c>
       <c r="G33" t="n">
-        <v>793.7555328195889</v>
+        <v>907.9457104071048</v>
       </c>
       <c r="H33" t="n">
         <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>117295</v>
+        <v>87446</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4202860</v>
+        <v>4265086</v>
       </c>
       <c r="E34" t="n">
-        <v>12105592</v>
+        <v>12284812</v>
       </c>
       <c r="F34" t="n">
-        <v>1008.660726308983</v>
+        <v>3491.17073528011</v>
       </c>
       <c r="G34" t="n">
-        <v>939.618841456949</v>
+        <v>469.9020913790769</v>
       </c>
       <c r="H34" t="n">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="I34" t="n">
-        <v>581265</v>
+        <v>598906</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1676249</v>
+        <v>1667534</v>
       </c>
       <c r="F35" t="n">
-        <v>36.65248946854815</v>
+        <v>44.14238683948514</v>
       </c>
       <c r="G35" t="n">
-        <v>127.8656168550124</v>
+        <v>48.97461660098153</v>
       </c>
       <c r="H35" t="n">
-        <v>1.78</v>
+        <v>2.35</v>
       </c>
       <c r="I35" t="n">
-        <v>13167.09</v>
+        <v>13158.86</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13951005</v>
+        <v>13875245</v>
       </c>
       <c r="E36" t="n">
-        <v>67566944</v>
+        <v>67200028</v>
       </c>
       <c r="F36" t="n">
-        <v>4049.472855572804</v>
+        <v>3440.876298624492</v>
       </c>
       <c r="G36" t="n">
-        <v>8284.6239536884</v>
+        <v>6858.488418598998</v>
       </c>
       <c r="H36" t="n">
         <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>3614058</v>
+        <v>3604704</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1494484</v>
+        <v>1516694</v>
       </c>
       <c r="E37" t="n">
-        <v>9781356</v>
+        <v>9926724</v>
       </c>
       <c r="F37" t="n">
-        <v>911.842273102548</v>
+        <v>871.5171413007473</v>
       </c>
       <c r="G37" t="n">
-        <v>76.69740970011948</v>
+        <v>28.83658888656791</v>
       </c>
       <c r="H37" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>489306</v>
+        <v>533392</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1900476956</v>
+        <v>1903191267</v>
       </c>
       <c r="F38" t="n">
-        <v>64987.26829900444</v>
+        <v>73747.05384875619</v>
       </c>
       <c r="G38" t="n">
-        <v>74704.01582952114</v>
+        <v>73724.98126258918</v>
       </c>
       <c r="H38" t="n">
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
       <c r="I38" t="n">
-        <v>26312984</v>
+        <v>26388707</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32203226</v>
+        <v>32023035</v>
       </c>
       <c r="E39" t="n">
-        <v>100270513</v>
+        <v>99709457</v>
       </c>
       <c r="F39" t="n">
-        <v>5950.026780382475</v>
+        <v>5555.376917939448</v>
       </c>
       <c r="G39" t="n">
-        <v>6565.207313952179</v>
+        <v>5601.061346305892</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.51</v>
       </c>
       <c r="I39" t="n">
-        <v>12189410</v>
+        <v>12186300</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>202521829</v>
+        <v>200526505</v>
       </c>
       <c r="E40" t="n">
-        <v>1146803034</v>
+        <v>1135504281</v>
       </c>
       <c r="F40" t="n">
-        <v>43962.58057591109</v>
+        <v>43449.28178940818</v>
       </c>
       <c r="G40" t="n">
-        <v>78228.18443530887</v>
+        <v>80159.94299538289</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>65570104</v>
+        <v>64890621</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>139169519</v>
+        <v>138188716</v>
       </c>
       <c r="E41" t="n">
-        <v>1030885327</v>
+        <v>1023620119</v>
       </c>
       <c r="F41" t="n">
-        <v>129248.143568898</v>
+        <v>149494.3485550132</v>
       </c>
       <c r="G41" t="n">
-        <v>205005.3328043535</v>
+        <v>223919.2106139107</v>
       </c>
       <c r="H41" t="n">
         <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>10886434</v>
+        <v>10625024</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31630463</v>
+        <v>31470050</v>
       </c>
       <c r="E42" t="n">
-        <v>150355586</v>
+        <v>149593060</v>
       </c>
       <c r="F42" t="n">
-        <v>7856.723320764006</v>
+        <v>7480.75279544266</v>
       </c>
       <c r="G42" t="n">
-        <v>7709.971071633756</v>
+        <v>9758.656553771767</v>
       </c>
       <c r="H42" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I42" t="n">
-        <v>1132949</v>
+        <v>1243202</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3367684</v>
+        <v>3466343</v>
       </c>
       <c r="E43" t="n">
-        <v>7864103</v>
+        <v>8094490</v>
       </c>
       <c r="F43" t="n">
-        <v>760.1371587419598</v>
+        <v>1076.676571783014</v>
       </c>
       <c r="G43" t="n">
-        <v>1366.303228049352</v>
+        <v>558.9653565232077</v>
       </c>
       <c r="H43" t="n">
-        <v>0.63</v>
+        <v>0.2</v>
       </c>
       <c r="I43" t="n">
-        <v>722868</v>
+        <v>773415</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>337999056</v>
+        <v>336744954</v>
       </c>
       <c r="E44" t="n">
-        <v>3040849090</v>
+        <v>3029566413</v>
       </c>
       <c r="F44" t="n">
-        <v>48582.46685114918</v>
+        <v>37934.8819487748</v>
       </c>
       <c r="G44" t="n">
-        <v>53595.52769161305</v>
+        <v>37784.48717002848</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>37746906</v>
+        <v>37652343</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>645359</v>
+        <v>644218</v>
       </c>
       <c r="F45" t="n">
-        <v>622.7923104634247</v>
+        <v>640.4253934965361</v>
       </c>
       <c r="G45" t="n">
-        <v>198.1039082751094</v>
+        <v>162.4073243263282</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5421.43</v>
+        <v>5405.87</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1586395</v>
+        <v>1589677</v>
       </c>
       <c r="E46" t="n">
-        <v>13219961</v>
+        <v>13247307</v>
       </c>
       <c r="F46" t="n">
-        <v>210.3310954172377</v>
+        <v>257.5947502646097</v>
       </c>
       <c r="G46" t="n">
-        <v>1103.574800741761</v>
+        <v>1128.029644410175</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6</v>
+        <v>0.23</v>
       </c>
       <c r="I46" t="n">
-        <v>43866</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4910443</v>
+        <v>4912405</v>
       </c>
       <c r="E47" t="n">
-        <v>17350881</v>
+        <v>17357813</v>
       </c>
       <c r="F47" t="n">
-        <v>970.9934947566304</v>
+        <v>1044.383455251251</v>
       </c>
       <c r="G47" t="n">
-        <v>1713.195069287287</v>
+        <v>1677.292962585263</v>
       </c>
       <c r="H47" t="n">
         <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>104791</v>
+        <v>104677</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43848414</v>
+        <v>44290869</v>
       </c>
       <c r="E48" t="n">
-        <v>253864196</v>
+        <v>256425830</v>
       </c>
       <c r="F48" t="n">
-        <v>17721.93110804706</v>
+        <v>14794.26331900146</v>
       </c>
       <c r="G48" t="n">
-        <v>6967.559180601811</v>
+        <v>6842.249459157304</v>
       </c>
       <c r="H48" t="n">
         <v>0.47</v>
       </c>
       <c r="I48" t="n">
-        <v>11606282</v>
+        <v>12325896</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2225032</v>
+        <v>2235111</v>
       </c>
       <c r="E49" t="n">
-        <v>12224706</v>
+        <v>12280081</v>
       </c>
       <c r="F49" t="n">
-        <v>304.1061235989371</v>
+        <v>147.9600430150322</v>
       </c>
       <c r="G49" t="n">
-        <v>245.8363163085034</v>
+        <v>2496.602093730134</v>
       </c>
       <c r="H49" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="I49" t="n">
-        <v>77431</v>
+        <v>109419</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13691190</v>
+        <v>13609452</v>
       </c>
       <c r="E50" t="n">
-        <v>13737782</v>
+        <v>13655766</v>
       </c>
       <c r="F50" t="n">
-        <v>4180.633967016328</v>
+        <v>4564.820569530836</v>
       </c>
       <c r="G50" t="n">
-        <v>9010.599360384</v>
+        <v>11500.03460004934</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5900336</v>
+        <v>5917962</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23565801</v>
+        <v>23560251</v>
       </c>
       <c r="E51" t="n">
-        <v>70637844</v>
+        <v>70621210</v>
       </c>
       <c r="F51" t="n">
-        <v>25175.32489061067</v>
+        <v>13750.41167640234</v>
       </c>
       <c r="G51" t="n">
-        <v>25237.01952282885</v>
+        <v>26191.41264689629</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>2859911</v>
+        <v>2924553</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15124571</v>
+        <v>15421107</v>
       </c>
       <c r="E52" t="n">
-        <v>92703469</v>
+        <v>94521035</v>
       </c>
       <c r="F52" t="n">
-        <v>5182.291649072519</v>
+        <v>6826.02133288282</v>
       </c>
       <c r="G52" t="n">
-        <v>12210.27683698194</v>
+        <v>11049.45884270453</v>
       </c>
       <c r="H52" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>11742736</v>
+        <v>11621350</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47344773</v>
+        <v>47474121</v>
       </c>
       <c r="E53" t="n">
-        <v>203956104</v>
+        <v>204513321</v>
       </c>
       <c r="F53" t="n">
-        <v>22353.66854313325</v>
+        <v>24882.54960247075</v>
       </c>
       <c r="G53" t="n">
-        <v>25637.34985051338</v>
+        <v>26497.2794212804</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8766563</v>
+        <v>8520652</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1038746</v>
+        <v>1036565</v>
       </c>
       <c r="E54" t="n">
-        <v>3036075</v>
+        <v>3029700</v>
       </c>
       <c r="F54" t="n">
-        <v>665.1238553130009</v>
+        <v>665.4766291141692</v>
       </c>
       <c r="G54" t="n">
-        <v>576.5305564092721</v>
+        <v>900.166211106934</v>
       </c>
       <c r="H54" t="n">
         <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>19478.06</v>
+        <v>19166.56</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37664395</v>
+        <v>37427693</v>
       </c>
       <c r="E55" t="n">
-        <v>94971522</v>
+        <v>94374672</v>
       </c>
       <c r="F55" t="n">
-        <v>15267.85037971081</v>
+        <v>15698.59617065243</v>
       </c>
       <c r="G55" t="n">
-        <v>7496.931407236936</v>
+        <v>11106.55678307763</v>
       </c>
       <c r="H55" t="n">
-        <v>1.08</v>
+        <v>0.35</v>
       </c>
       <c r="I55" t="n">
-        <v>3087392</v>
+        <v>3128905</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28735421</v>
+        <v>28426396</v>
       </c>
       <c r="E56" t="n">
-        <v>68268216</v>
+        <v>67534049</v>
       </c>
       <c r="F56" t="n">
-        <v>11693.47340353276</v>
+        <v>13899.82946371673</v>
       </c>
       <c r="G56" t="n">
-        <v>9509.252773955219</v>
+        <v>9890.980567342798</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>468034</v>
+        <v>483279</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12488018</v>
+        <v>12553724</v>
       </c>
       <c r="E57" t="n">
-        <v>19032563</v>
+        <v>19132703</v>
       </c>
       <c r="F57" t="n">
-        <v>3560.099652537494</v>
+        <v>3787.298246693495</v>
       </c>
       <c r="G57" t="n">
-        <v>2037.512485054066</v>
+        <v>6893.020930254779</v>
       </c>
       <c r="H57" t="n">
-        <v>0.51</v>
+        <v>0.28</v>
       </c>
       <c r="I57" t="n">
-        <v>696404</v>
+        <v>697394</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>304659719</v>
+        <v>305870016</v>
       </c>
       <c r="E58" t="n">
-        <v>304659719</v>
+        <v>305870016</v>
       </c>
       <c r="F58" t="n">
-        <v>58457.39478418857</v>
+        <v>54004.13300578757</v>
       </c>
       <c r="G58" t="n">
-        <v>67099.87261117714</v>
+        <v>72304.22801418063</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>50338297</v>
+        <v>50245995</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11908912</v>
+        <v>11877773</v>
       </c>
       <c r="F59" t="n">
-        <v>108.832494135713</v>
+        <v>159.4281560962594</v>
       </c>
       <c r="G59" t="n">
-        <v>133.8024494625887</v>
+        <v>76.54578494347743</v>
       </c>
       <c r="H59" t="n">
         <v>1.17</v>
       </c>
       <c r="I59" t="n">
-        <v>107621</v>
+        <v>107899</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90760527</v>
+        <v>89712868</v>
       </c>
       <c r="E60" t="n">
-        <v>523001303</v>
+        <v>516964243</v>
       </c>
       <c r="F60" t="n">
-        <v>103823.9890841414</v>
+        <v>98504.72175438142</v>
       </c>
       <c r="G60" t="n">
-        <v>93442.42387359131</v>
+        <v>92625.84523497215</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>16183403</v>
+        <v>16201584</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9281108</v>
+        <v>9263567</v>
       </c>
       <c r="E61" t="n">
-        <v>9281108</v>
+        <v>9263567</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="I61" t="n">
-        <v>2067704</v>
+        <v>2054614</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30601285</v>
+        <v>30361862</v>
       </c>
       <c r="E62" t="n">
-        <v>137014508</v>
+        <v>135942510</v>
       </c>
       <c r="F62" t="n">
-        <v>27432.83994914058</v>
+        <v>26422.80593372835</v>
       </c>
       <c r="G62" t="n">
-        <v>20309.69714889832</v>
+        <v>12610.02060526378</v>
       </c>
       <c r="H62" t="n">
         <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>8803880</v>
+        <v>8680535</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13071876</v>
+        <v>13081592</v>
       </c>
       <c r="E63" t="n">
-        <v>26132339</v>
+        <v>26151761</v>
       </c>
       <c r="F63" t="n">
-        <v>2117.917164460262</v>
+        <v>2130.964442584396</v>
       </c>
       <c r="G63" t="n">
-        <v>2168.332903732151</v>
+        <v>2060.034835108137</v>
       </c>
       <c r="H63" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>42986</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1456007</v>
+        <v>1456469</v>
       </c>
       <c r="F64" t="n">
-        <v>63.73791228884006</v>
+        <v>91.16548844479939</v>
       </c>
       <c r="G64" t="n">
-        <v>132.1681921098136</v>
+        <v>190.4513600076534</v>
       </c>
       <c r="H64" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="I64" t="n">
-        <v>57802</v>
+        <v>26190</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48222510</v>
+        <v>48215854</v>
       </c>
       <c r="E65" t="n">
-        <v>312710143</v>
+        <v>312666979</v>
       </c>
       <c r="F65" t="n">
-        <v>18156.82660177303</v>
+        <v>18088.82668375394</v>
       </c>
       <c r="G65" t="n">
-        <v>17636.91432357902</v>
+        <v>17884.63863473465</v>
       </c>
       <c r="H65" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I65" t="n">
-        <v>17223004</v>
+        <v>17185544</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4804153</v>
+        <v>4811150</v>
       </c>
       <c r="F66" t="n">
-        <v>1251.306130866827</v>
+        <v>1307.156636643705</v>
       </c>
       <c r="G66" t="n">
-        <v>1224.869955727194</v>
+        <v>1227.981241275168</v>
       </c>
       <c r="H66" t="n">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="I66" t="n">
-        <v>173301</v>
+        <v>174529</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125361448</v>
+        <v>125400049</v>
       </c>
       <c r="E67" t="n">
-        <v>2076088251</v>
+        <v>2076727509</v>
       </c>
       <c r="F67" t="n">
-        <v>21479.25176119154</v>
+        <v>21427.15809125541</v>
       </c>
       <c r="G67" t="n">
-        <v>24164.65949815541</v>
+        <v>24767.77463313559</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5045215</v>
+        <v>5065354</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23643048</v>
+        <v>23627724</v>
       </c>
       <c r="E68" t="n">
-        <v>141461107</v>
+        <v>141369424</v>
       </c>
       <c r="F68" t="n">
-        <v>43006.54157497631</v>
+        <v>42809.62685319159</v>
       </c>
       <c r="G68" t="n">
-        <v>43174.35358618863</v>
+        <v>44857.60628245074</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>13119356</v>
+        <v>13341705</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>24217124</v>
+        <v>23891997</v>
       </c>
       <c r="E70" t="n">
-        <v>24217124</v>
+        <v>23891997</v>
       </c>
       <c r="F70" t="n">
-        <v>2398.915824655644</v>
+        <v>2250.265985483033</v>
       </c>
       <c r="G70" t="n">
-        <v>4187.417755238723</v>
+        <v>16735.37673026538</v>
       </c>
       <c r="H70" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1850776</v>
+        <v>1960217</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34152094</v>
+        <v>34266548</v>
       </c>
       <c r="E71" t="n">
-        <v>170434694</v>
+        <v>171005868</v>
       </c>
       <c r="F71" t="n">
-        <v>17379.4647168268</v>
+        <v>18610.43995488205</v>
       </c>
       <c r="G71" t="n">
-        <v>31529.14103028073</v>
+        <v>28254.49080158969</v>
       </c>
       <c r="H71" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>10080850</v>
+        <v>10106049</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>168273</v>
+        <v>175957</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>10865.11</v>
+        <v>12543.47</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>313058053</v>
+        <v>312115609</v>
       </c>
       <c r="E73" t="n">
-        <v>579228790</v>
+        <v>577485053</v>
       </c>
       <c r="F73" t="n">
-        <v>37153.24279721281</v>
+        <v>36934.6588220247</v>
       </c>
       <c r="G73" t="n">
-        <v>44402.79092817604</v>
+        <v>40342.77402743504</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>12947587</v>
+        <v>12989491</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9271345</v>
+        <v>9427967</v>
       </c>
       <c r="E74" t="n">
-        <v>27514501</v>
+        <v>27979306</v>
       </c>
       <c r="F74" t="n">
-        <v>1041.317614429663</v>
+        <v>1159.556162899736</v>
       </c>
       <c r="G74" t="n">
-        <v>1089.117664518879</v>
+        <v>2166.385053142064</v>
       </c>
       <c r="H74" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="I74" t="n">
-        <v>5876807</v>
+        <v>6036611</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8908933</v>
+        <v>9498036</v>
       </c>
       <c r="E75" t="n">
-        <v>12693188</v>
+        <v>13532525</v>
       </c>
       <c r="F75" t="n">
-        <v>18.5947267713531</v>
+        <v>440.3677138294826</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9747723358401862</v>
+        <v>24.84138188182843</v>
       </c>
       <c r="H75" t="n">
-        <v>1.64</v>
+        <v>0.65</v>
       </c>
       <c r="I75" t="n">
-        <v>419087</v>
+        <v>466887</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16100853</v>
+        <v>16106221</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6124468692278194</v>
+        <v>0.6124978540039917</v>
       </c>
       <c r="G76" t="n">
-        <v>917.4896639232577</v>
+        <v>969.7645723636565</v>
       </c>
       <c r="H76" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="I76" t="n">
-        <v>955702</v>
+        <v>957502</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61748684</v>
+        <v>61854238</v>
       </c>
       <c r="E77" t="n">
-        <v>102156991</v>
+        <v>102331619</v>
       </c>
       <c r="F77" t="n">
-        <v>10994.68182515766</v>
+        <v>11865.05388647006</v>
       </c>
       <c r="G77" t="n">
-        <v>20370.66437812468</v>
+        <v>19344.50339973163</v>
       </c>
       <c r="H77" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I77" t="n">
-        <v>6246852</v>
+        <v>6155513</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5461571</v>
+        <v>5498405</v>
       </c>
       <c r="E78" t="n">
-        <v>5461571</v>
+        <v>5498405</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1038.660899941902</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>677.8362937515317</v>
       </c>
       <c r="H78" t="n">
-        <v>5.06</v>
+        <v>3.9</v>
       </c>
       <c r="I78" t="n">
-        <v>1097918</v>
+        <v>1076723</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>62339</v>
+        <v>60056</v>
       </c>
       <c r="E79" t="n">
-        <v>325259</v>
+        <v>313348</v>
       </c>
       <c r="F79" t="n">
-        <v>282.3065712205126</v>
+        <v>951.2520495122257</v>
       </c>
       <c r="G79" t="n">
-        <v>33.9079480018789</v>
+        <v>69.93700659557699</v>
       </c>
       <c r="H79" t="n">
-        <v>0.76</v>
+        <v>1.52</v>
       </c>
       <c r="I79" t="n">
-        <v>295318</v>
+        <v>286688</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26665802</v>
+        <v>26744584</v>
       </c>
       <c r="F80" t="n">
-        <v>9758.349974786595</v>
+        <v>9867.177956119434</v>
       </c>
       <c r="G80" t="n">
-        <v>3790.369590058888</v>
+        <v>1605.276049532686</v>
       </c>
       <c r="H80" t="n">
-        <v>1.37</v>
+        <v>0.89</v>
       </c>
       <c r="I80" t="n">
-        <v>49512</v>
+        <v>49257</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>602267516</v>
+        <v>600738082</v>
       </c>
       <c r="E81" t="n">
-        <v>2332493232</v>
+        <v>2326569960</v>
       </c>
       <c r="F81" t="n">
-        <v>145718.1881346724</v>
+        <v>144593.133705826</v>
       </c>
       <c r="G81" t="n">
-        <v>180060.7599676162</v>
+        <v>184379.2116423396</v>
       </c>
       <c r="H81" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I81" t="n">
-        <v>33134406</v>
+        <v>33228288</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7349054</v>
+        <v>7347722</v>
       </c>
       <c r="E82" t="n">
-        <v>10530093</v>
+        <v>10528186</v>
       </c>
       <c r="F82" t="n">
-        <v>1785.011293936328</v>
+        <v>1628.432472669116</v>
       </c>
       <c r="G82" t="n">
-        <v>1058.622942813351</v>
+        <v>1088.199578244208</v>
       </c>
       <c r="H82" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>177330</v>
+        <v>177757</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>118226249</v>
+        <v>118942116</v>
       </c>
       <c r="E83" t="n">
-        <v>1027904570</v>
+        <v>1034128597</v>
       </c>
       <c r="F83" t="n">
-        <v>41558.92865435169</v>
+        <v>41957.08969926925</v>
       </c>
       <c r="G83" t="n">
-        <v>40192.1436930137</v>
+        <v>46444.5965888301</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>8847771</v>
+        <v>8881254</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1116432</v>
+        <v>1120072</v>
       </c>
       <c r="E84" t="n">
-        <v>4323068</v>
+        <v>4337164</v>
       </c>
       <c r="F84" t="n">
-        <v>1490.833203207711</v>
+        <v>1427.375544376614</v>
       </c>
       <c r="G84" t="n">
-        <v>2893.390288947469</v>
+        <v>2930.888960683529</v>
       </c>
       <c r="H84" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>421517</v>
+        <v>429645</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>115171797</v>
+        <v>114838005</v>
       </c>
       <c r="E85" t="n">
-        <v>441817551</v>
+        <v>440537069</v>
       </c>
       <c r="F85" t="n">
-        <v>80987.93564701389</v>
+        <v>84925.40049672093</v>
       </c>
       <c r="G85" t="n">
-        <v>86278.87171101205</v>
+        <v>85118.48576108069</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>22529709</v>
+        <v>23118176</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5091589</v>
+        <v>5106494</v>
       </c>
       <c r="E86" t="n">
-        <v>18960034</v>
+        <v>19015537</v>
       </c>
       <c r="F86" t="n">
-        <v>5594.77394770853</v>
+        <v>5623.567635330543</v>
       </c>
       <c r="G86" t="n">
-        <v>6005.050376275051</v>
+        <v>5936.094832997466</v>
       </c>
       <c r="H86" t="n">
         <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>59883</v>
+        <v>108823</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31433253</v>
+        <v>32107590</v>
       </c>
       <c r="F87" t="n">
-        <v>5896.160325855913</v>
+        <v>5495.003393488339</v>
       </c>
       <c r="G87" t="n">
-        <v>2499.311452891671</v>
+        <v>1070.412171982257</v>
       </c>
       <c r="H87" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5493852</v>
+        <v>5393383</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24124224</v>
+        <v>24670384</v>
       </c>
       <c r="F88" t="n">
-        <v>1066.59901280785</v>
+        <v>951.5779698185993</v>
       </c>
       <c r="G88" t="n">
-        <v>1162.17210768613</v>
+        <v>1155.700190090125</v>
       </c>
       <c r="H88" t="n">
-        <v>0.63</v>
+        <v>0.24</v>
       </c>
       <c r="I88" t="n">
-        <v>16552.69</v>
+        <v>19307.1</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>86925447</v>
+        <v>87018234</v>
       </c>
       <c r="E89" t="n">
-        <v>321337927</v>
+        <v>321679837</v>
       </c>
       <c r="F89" t="n">
-        <v>1400.386567671814</v>
+        <v>1806.662332765721</v>
       </c>
       <c r="G89" t="n">
-        <v>1876.092698156586</v>
+        <v>1811.857888015762</v>
       </c>
       <c r="H89" t="n">
         <v>0.23</v>
       </c>
       <c r="I89" t="n">
-        <v>351954</v>
+        <v>348852</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20612835</v>
+        <v>21004242</v>
       </c>
       <c r="E90" t="n">
-        <v>20612835</v>
+        <v>21004242</v>
       </c>
       <c r="F90" t="n">
-        <v>3216.229421947984</v>
+        <v>4685.026736993952</v>
       </c>
       <c r="G90" t="n">
-        <v>3696.684984379667</v>
+        <v>3415.257563941781</v>
       </c>
       <c r="H90" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="I90" t="n">
-        <v>7120719</v>
+        <v>7174233</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3813691</v>
+        <v>3788981</v>
       </c>
       <c r="E91" t="n">
-        <v>8321424</v>
+        <v>8267507</v>
       </c>
       <c r="F91" t="n">
-        <v>1546.487334489198</v>
+        <v>1572.430025132104</v>
       </c>
       <c r="G91" t="n">
-        <v>4077.047477043791</v>
+        <v>4067.194933417416</v>
       </c>
       <c r="H91" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I91" t="n">
-        <v>877499</v>
+        <v>961962</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>493394219</v>
+        <v>491708959</v>
       </c>
       <c r="E92" t="n">
-        <v>1718335549</v>
+        <v>1712466322</v>
       </c>
       <c r="F92" t="n">
-        <v>164915.4835399513</v>
+        <v>169313.2773456642</v>
       </c>
       <c r="G92" t="n">
-        <v>175764.3577497579</v>
+        <v>173340.7659399963</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31016062</v>
+        <v>31138903</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2630907</v>
+        <v>2640308</v>
       </c>
       <c r="E93" t="n">
-        <v>10523628</v>
+        <v>10561232</v>
       </c>
       <c r="F93" t="n">
-        <v>2128.111699327483</v>
+        <v>2919.557858130761</v>
       </c>
       <c r="G93" t="n">
-        <v>3549.805637132929</v>
+        <v>2502.587655877151</v>
       </c>
       <c r="H93" t="n">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
       <c r="I93" t="n">
-        <v>5613220</v>
+        <v>5829476</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216885292</v>
+        <v>216346590</v>
       </c>
       <c r="E94" t="n">
-        <v>666840655</v>
+        <v>665184348</v>
       </c>
       <c r="F94" t="n">
-        <v>103676.4348513395</v>
+        <v>104777.7459647156</v>
       </c>
       <c r="G94" t="n">
-        <v>102152.4571580822</v>
+        <v>95425.9367725613</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11600741</v>
+        <v>11719434</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148266118</v>
+        <v>154483301</v>
       </c>
       <c r="E95" t="n">
-        <v>387341121</v>
+        <v>403583339</v>
       </c>
       <c r="F95" t="n">
-        <v>29985.00386868618</v>
+        <v>30859.93104785302</v>
       </c>
       <c r="G95" t="n">
-        <v>30212.52286478527</v>
+        <v>11306.49799615174</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>6518252</v>
+        <v>7221240</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>403966561</v>
+        <v>400261598</v>
       </c>
       <c r="E96" t="n">
-        <v>2308380349</v>
+        <v>2287209129</v>
       </c>
       <c r="F96" t="n">
-        <v>24580.22528214976</v>
+        <v>22166.86758118833</v>
       </c>
       <c r="G96" t="n">
-        <v>37805.37405567327</v>
+        <v>44995.87608521082</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>36953454</v>
+        <v>37061044</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>607867355</v>
+        <v>605492778</v>
       </c>
       <c r="E2" t="n">
-        <v>1179519794</v>
+        <v>1174912109</v>
       </c>
       <c r="F2" t="n">
-        <v>20395.59030296215</v>
+        <v>21991.94316606893</v>
       </c>
       <c r="G2" t="n">
-        <v>32419.540475072</v>
+        <v>31707.57030374906</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>23216342</v>
+        <v>21087885</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1318773</v>
+        <v>1319784</v>
       </c>
       <c r="E3" t="n">
-        <v>4262816</v>
+        <v>4266082</v>
       </c>
       <c r="F3" t="n">
-        <v>5570.201623746371</v>
+        <v>5604.41946707368</v>
       </c>
       <c r="G3" t="n">
-        <v>5926.582709776232</v>
+        <v>5917.978934651191</v>
       </c>
       <c r="H3" t="n">
         <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>99370</v>
+        <v>99678</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245858863</v>
+        <v>245644132</v>
       </c>
       <c r="E4" t="n">
-        <v>1541746371</v>
+        <v>1540399826</v>
       </c>
       <c r="F4" t="n">
-        <v>136312.7991251675</v>
+        <v>138776.76602688</v>
       </c>
       <c r="G4" t="n">
-        <v>139761.9517961339</v>
+        <v>140033.035448468</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>15534566</v>
+        <v>15592279</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139490303</v>
+        <v>139954361</v>
       </c>
       <c r="E5" t="n">
-        <v>154577055</v>
+        <v>155091304</v>
       </c>
       <c r="F5" t="n">
-        <v>8216.613080756766</v>
+        <v>7787.702019479495</v>
       </c>
       <c r="G5" t="n">
-        <v>31175.1634909922</v>
+        <v>24417.51673006923</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>23109398</v>
+        <v>34400941</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>685226</v>
+        <v>693629</v>
       </c>
       <c r="E6" t="n">
-        <v>13312004</v>
+        <v>13475257</v>
       </c>
       <c r="F6" t="n">
-        <v>249.6771634103482</v>
+        <v>194.2763514313462</v>
       </c>
       <c r="G6" t="n">
-        <v>181.3115509255158</v>
+        <v>144.0322381030106</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>25807</v>
+        <v>27362</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>468103128</v>
+        <v>471974051</v>
       </c>
       <c r="E7" t="n">
-        <v>468103132</v>
+        <v>471974051</v>
       </c>
       <c r="F7" t="n">
-        <v>30200.37461786999</v>
+        <v>42958.82125725845</v>
       </c>
       <c r="G7" t="n">
-        <v>40290.96449582413</v>
+        <v>46102.57412059242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>65678825</v>
+        <v>65801577</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4681450</v>
+        <v>4700034</v>
       </c>
       <c r="E8" t="n">
-        <v>4681450</v>
+        <v>4700034</v>
       </c>
       <c r="F8" t="n">
-        <v>746.3841875700695</v>
+        <v>835.7132735262161</v>
       </c>
       <c r="G8" t="n">
-        <v>1869.766904279768</v>
+        <v>1707.272057391563</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="I8" t="n">
-        <v>2011648</v>
+        <v>2023089</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1726867</v>
+        <v>1715357</v>
       </c>
       <c r="F9" t="n">
-        <v>2571.744804716912</v>
+        <v>851.6333443395858</v>
       </c>
       <c r="G9" t="n">
-        <v>235.1900926118524</v>
+        <v>1797.971492605968</v>
       </c>
       <c r="H9" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="I9" t="n">
-        <v>169682</v>
+        <v>116547</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1595868</v>
+        <v>1595852</v>
       </c>
       <c r="F10" t="n">
-        <v>285.3550210105768</v>
+        <v>194.0420036773329</v>
       </c>
       <c r="G10" t="n">
-        <v>198.9343510874586</v>
+        <v>121.5190260658687</v>
       </c>
       <c r="H10" t="n">
         <v>0.12</v>
       </c>
       <c r="I10" t="n">
-        <v>241070</v>
+        <v>240618</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>106023130</v>
+        <v>105996481</v>
       </c>
       <c r="E11" t="n">
-        <v>199735009</v>
+        <v>199684805</v>
       </c>
       <c r="F11" t="n">
-        <v>1638.457445345058</v>
+        <v>1638.297660603084</v>
       </c>
       <c r="G11" t="n">
-        <v>2377.365787445049</v>
+        <v>2377.096186529088</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4341572</v>
+        <v>4349278</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12874821</v>
+        <v>12860611</v>
       </c>
       <c r="E12" t="n">
-        <v>32043101</v>
+        <v>32007735</v>
       </c>
       <c r="F12" t="n">
-        <v>2675.245790945833</v>
+        <v>2640.498403779708</v>
       </c>
       <c r="G12" t="n">
-        <v>799.9377923210118</v>
+        <v>753.3911848632142</v>
       </c>
       <c r="H12" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1594756</v>
+        <v>1595911</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>110247188</v>
+        <v>109578770</v>
       </c>
       <c r="E13" t="n">
-        <v>429143750</v>
+        <v>426541894</v>
       </c>
       <c r="F13" t="n">
-        <v>25192.37307951281</v>
+        <v>25772.2235206</v>
       </c>
       <c r="G13" t="n">
-        <v>30932.15487843016</v>
+        <v>31738.86707435285</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>7949867</v>
+        <v>8008034</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5387506</v>
+        <v>5383604</v>
       </c>
       <c r="E14" t="n">
-        <v>7930700</v>
+        <v>7924956</v>
       </c>
       <c r="F14" t="n">
-        <v>319.9595300627585</v>
+        <v>313.842915197468</v>
       </c>
       <c r="G14" t="n">
-        <v>343.5404604097699</v>
+        <v>387.0259897340821</v>
       </c>
       <c r="H14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I14" t="n">
-        <v>628235</v>
+        <v>629640</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>136175177</v>
+        <v>136864091</v>
       </c>
       <c r="E15" t="n">
-        <v>136175177</v>
+        <v>136864091</v>
       </c>
       <c r="F15" t="n">
-        <v>42031.26032064371</v>
+        <v>55491.55997726546</v>
       </c>
       <c r="G15" t="n">
-        <v>85450.46895517685</v>
+        <v>66419.35675315931</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>66525957</v>
+        <v>66751261</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65047615</v>
+        <v>65248334</v>
       </c>
       <c r="E16" t="n">
-        <v>333577512</v>
+        <v>334606842</v>
       </c>
       <c r="F16" t="n">
-        <v>25204.1048335867</v>
+        <v>13436.5291522633</v>
       </c>
       <c r="G16" t="n">
-        <v>37097.45116373285</v>
+        <v>36207.97292049124</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>19350485</v>
+        <v>19429272</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253870462</v>
+        <v>253917060</v>
       </c>
       <c r="E17" t="n">
-        <v>253870462</v>
+        <v>253917060</v>
       </c>
       <c r="F17" t="n">
-        <v>55710.85935191559</v>
+        <v>60030.313120302</v>
       </c>
       <c r="G17" t="n">
-        <v>55871.64783744704</v>
+        <v>53361.91848398259</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>15008058</v>
+        <v>15083085</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2542772</v>
+        <v>2540708</v>
       </c>
       <c r="E18" t="n">
-        <v>6500817</v>
+        <v>6495539</v>
       </c>
       <c r="F18" t="n">
-        <v>1090.024295366786</v>
+        <v>1078.715481698325</v>
       </c>
       <c r="G18" t="n">
-        <v>1738.128165657145</v>
+        <v>1737.955958692261</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>118183</v>
+        <v>118620</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72635250</v>
+        <v>73718111</v>
       </c>
       <c r="E19" t="n">
-        <v>203330793</v>
+        <v>206362089</v>
       </c>
       <c r="F19" t="n">
-        <v>12888.76333580104</v>
+        <v>18623.80914800411</v>
       </c>
       <c r="G19" t="n">
-        <v>24734.43476450716</v>
+        <v>20761.60577376294</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I19" t="n">
-        <v>33817253</v>
+        <v>32945829</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1571831</v>
+        <v>1569662</v>
       </c>
       <c r="E20" t="n">
-        <v>9024866</v>
+        <v>9012416</v>
       </c>
       <c r="F20" t="n">
-        <v>103.0458592339811</v>
+        <v>183.3038268269913</v>
       </c>
       <c r="G20" t="n">
-        <v>51.22486946163598</v>
+        <v>51.17805621810142</v>
       </c>
       <c r="H20" t="n">
         <v>1.11</v>
       </c>
       <c r="I20" t="n">
-        <v>335818</v>
+        <v>309447</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>156998</v>
+        <v>158798</v>
       </c>
       <c r="E21" t="n">
-        <v>1060228</v>
+        <v>1072381</v>
       </c>
       <c r="F21" t="n">
-        <v>13.14465302534686</v>
+        <v>13.14337113975505</v>
       </c>
       <c r="G21" t="n">
-        <v>5.229954744737065</v>
+        <v>5.229444711979244</v>
       </c>
       <c r="H21" t="n">
         <v>0.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2665794</v>
+        <v>2681228</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269561</v>
+        <v>269805</v>
       </c>
       <c r="F22" t="n">
-        <v>177.6806541304816</v>
+        <v>188.0048026737269</v>
       </c>
       <c r="G22" t="n">
-        <v>192.6518319777584</v>
+        <v>192.6327038900578</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1455.25</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73051907</v>
+        <v>73307726</v>
       </c>
       <c r="E23" t="n">
-        <v>152350324</v>
+        <v>152883835</v>
       </c>
       <c r="F23" t="n">
-        <v>40851.14274956826</v>
+        <v>36685.30897167039</v>
       </c>
       <c r="G23" t="n">
-        <v>54921.73013956658</v>
+        <v>48507.35969248969</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>14455882</v>
+        <v>14576937</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197831519</v>
+        <v>197738432</v>
       </c>
       <c r="E24" t="n">
-        <v>687284577</v>
+        <v>686961183</v>
       </c>
       <c r="F24" t="n">
-        <v>63882.94085562749</v>
+        <v>64185.14906996209</v>
       </c>
       <c r="G24" t="n">
-        <v>62448.20519808</v>
+        <v>58730.75992809953</v>
       </c>
       <c r="H24" t="n">
         <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>25871465</v>
+        <v>25922322</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115604708</v>
+        <v>116102736</v>
       </c>
       <c r="E25" t="n">
-        <v>491605592</v>
+        <v>493723442</v>
       </c>
       <c r="F25" t="n">
-        <v>16198.51595365201</v>
+        <v>16228.30485475201</v>
       </c>
       <c r="G25" t="n">
-        <v>17330.21803233841</v>
+        <v>20005.22906435859</v>
       </c>
       <c r="H25" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>14404287</v>
+        <v>14497388</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5781752</v>
+        <v>5798425</v>
       </c>
       <c r="E26" t="n">
-        <v>7855649</v>
+        <v>7878648</v>
       </c>
       <c r="F26" t="n">
-        <v>960.7234516356932</v>
+        <v>1033.457181589549</v>
       </c>
       <c r="G26" t="n">
-        <v>1754.593991469921</v>
+        <v>747.1210941892873</v>
       </c>
       <c r="H26" t="n">
         <v>0.68</v>
       </c>
       <c r="I26" t="n">
-        <v>5979441</v>
+        <v>5973944</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>534839</v>
+        <v>535166</v>
       </c>
       <c r="E27" t="n">
-        <v>6487071</v>
+        <v>6491041</v>
       </c>
       <c r="F27" t="n">
-        <v>753.6135959727337</v>
+        <v>756.0458293856959</v>
       </c>
       <c r="G27" t="n">
-        <v>747.8135051383198</v>
+        <v>728.3075119022536</v>
       </c>
       <c r="H27" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="I27" t="n">
-        <v>2777797</v>
+        <v>2719442</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25118766</v>
+        <v>25035680</v>
       </c>
       <c r="E28" t="n">
-        <v>35504396</v>
+        <v>35386955</v>
       </c>
       <c r="F28" t="n">
-        <v>830.5589307646644</v>
+        <v>585.5597780579569</v>
       </c>
       <c r="G28" t="n">
-        <v>121.2351008400716</v>
+        <v>120.6543689002968</v>
       </c>
       <c r="H28" t="n">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="I28" t="n">
-        <v>72036</v>
+        <v>68312</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1286617032</v>
+        <v>1288184466</v>
       </c>
       <c r="E29" t="n">
-        <v>6169592163</v>
+        <v>6177108326</v>
       </c>
       <c r="F29" t="n">
-        <v>172981.8909272413</v>
+        <v>161601.6524872077</v>
       </c>
       <c r="G29" t="n">
-        <v>211922.668891749</v>
+        <v>223994.5270711689</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>181214454</v>
+        <v>181692684</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>266515875</v>
+        <v>266806946</v>
       </c>
       <c r="E30" t="n">
-        <v>1150430471</v>
+        <v>1151686895</v>
       </c>
       <c r="F30" t="n">
-        <v>192667.6750776859</v>
+        <v>149775.8142818185</v>
       </c>
       <c r="G30" t="n">
-        <v>196922.1913348673</v>
+        <v>225761.2262478741</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>110084330</v>
+        <v>109555473</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5354350</v>
+        <v>5354185</v>
       </c>
       <c r="E31" t="n">
-        <v>5360410</v>
+        <v>5360245</v>
       </c>
       <c r="F31" t="n">
-        <v>131.1231648619109</v>
+        <v>131.1102839671146</v>
       </c>
       <c r="G31" t="n">
-        <v>148.2176265420627</v>
+        <v>148.2030663714289</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>151666</v>
+        <v>151709</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21031918</v>
+        <v>21014317</v>
       </c>
       <c r="E32" t="n">
-        <v>52579794</v>
+        <v>52535793</v>
       </c>
       <c r="F32" t="n">
-        <v>1845.138564832381</v>
+        <v>2984.676567642795</v>
       </c>
       <c r="G32" t="n">
-        <v>9682.762385255839</v>
+        <v>7212.437671867491</v>
       </c>
       <c r="H32" t="n">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c r="I32" t="n">
-        <v>2077211</v>
+        <v>2101892</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19904324</v>
+        <v>19921025</v>
       </c>
       <c r="F33" t="n">
-        <v>975.8332360851368</v>
+        <v>1031.651209546374</v>
       </c>
       <c r="G33" t="n">
-        <v>907.9457104071048</v>
+        <v>645.6649345220328</v>
       </c>
       <c r="H33" t="n">
         <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>87446</v>
+        <v>75310</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4265086</v>
+        <v>4228064</v>
       </c>
       <c r="E34" t="n">
-        <v>12284812</v>
+        <v>12178176</v>
       </c>
       <c r="F34" t="n">
-        <v>3491.17073528011</v>
+        <v>593.4229917820248</v>
       </c>
       <c r="G34" t="n">
-        <v>469.9020913790769</v>
+        <v>423.0976399571472</v>
       </c>
       <c r="H34" t="n">
-        <v>0.89</v>
+        <v>1.06</v>
       </c>
       <c r="I34" t="n">
-        <v>598906</v>
+        <v>598909</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1667534</v>
+        <v>1667412</v>
       </c>
       <c r="F35" t="n">
-        <v>44.14238683948514</v>
+        <v>45.38739025797975</v>
       </c>
       <c r="G35" t="n">
-        <v>48.97461660098153</v>
+        <v>48.96971904090449</v>
       </c>
       <c r="H35" t="n">
-        <v>2.35</v>
+        <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>13158.86</v>
+        <v>13161.06</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13875245</v>
+        <v>13865399</v>
       </c>
       <c r="E36" t="n">
-        <v>67200028</v>
+        <v>67152341</v>
       </c>
       <c r="F36" t="n">
-        <v>3440.876298624492</v>
+        <v>3017.282637510159</v>
       </c>
       <c r="G36" t="n">
-        <v>6858.488418598998</v>
+        <v>6846.777539393887</v>
       </c>
       <c r="H36" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I36" t="n">
-        <v>3604704</v>
+        <v>3608918</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1516694</v>
+        <v>1510530</v>
       </c>
       <c r="E37" t="n">
-        <v>9926724</v>
+        <v>9886379</v>
       </c>
       <c r="F37" t="n">
-        <v>871.5171413007473</v>
+        <v>841.6499072689137</v>
       </c>
       <c r="G37" t="n">
-        <v>28.83658888656791</v>
+        <v>28.83373186972191</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>533392</v>
+        <v>533417</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1903191267</v>
+        <v>1904305983</v>
       </c>
       <c r="F38" t="n">
-        <v>73747.05384875619</v>
+        <v>64695.73150543612</v>
       </c>
       <c r="G38" t="n">
-        <v>73724.98126258918</v>
+        <v>69727.27192912088</v>
       </c>
       <c r="H38" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="I38" t="n">
-        <v>26388707</v>
+        <v>26595102</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32023035</v>
+        <v>31842402</v>
       </c>
       <c r="E39" t="n">
-        <v>99709457</v>
+        <v>99147023</v>
       </c>
       <c r="F39" t="n">
-        <v>5555.376917939448</v>
+        <v>4012.04851900797</v>
       </c>
       <c r="G39" t="n">
-        <v>5601.061346305892</v>
+        <v>7773.603323401019</v>
       </c>
       <c r="H39" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>12186300</v>
+        <v>12172604</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>200526505</v>
+        <v>200756382</v>
       </c>
       <c r="E40" t="n">
-        <v>1135504281</v>
+        <v>1136805990</v>
       </c>
       <c r="F40" t="n">
-        <v>43449.28178940818</v>
+        <v>43949.95336740759</v>
       </c>
       <c r="G40" t="n">
-        <v>80159.94299538289</v>
+        <v>76409.10279269474</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>64890621</v>
+        <v>64917500</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>138188716</v>
+        <v>138098484</v>
       </c>
       <c r="E41" t="n">
-        <v>1023620119</v>
+        <v>1022951730</v>
       </c>
       <c r="F41" t="n">
-        <v>149494.3485550132</v>
+        <v>115517.7824303108</v>
       </c>
       <c r="G41" t="n">
-        <v>223919.2106139107</v>
+        <v>212337.3274426814</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>10625024</v>
+        <v>10648918</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31470050</v>
+        <v>31317917</v>
       </c>
       <c r="E42" t="n">
-        <v>149593060</v>
+        <v>148869122</v>
       </c>
       <c r="F42" t="n">
-        <v>7480.75279544266</v>
+        <v>7204.384486545949</v>
       </c>
       <c r="G42" t="n">
-        <v>9758.656553771767</v>
+        <v>5675.02114121429</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I42" t="n">
-        <v>1243202</v>
+        <v>1239959</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3466343</v>
+        <v>3482969</v>
       </c>
       <c r="E43" t="n">
-        <v>8094490</v>
+        <v>8133313</v>
       </c>
       <c r="F43" t="n">
-        <v>1076.676571783014</v>
+        <v>886.0113067094694</v>
       </c>
       <c r="G43" t="n">
-        <v>558.9653565232077</v>
+        <v>580.9256252608656</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="I43" t="n">
-        <v>773415</v>
+        <v>771261</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>336744954</v>
+        <v>337382433</v>
       </c>
       <c r="E44" t="n">
-        <v>3029566413</v>
+        <v>3035301567</v>
       </c>
       <c r="F44" t="n">
-        <v>37934.8819487748</v>
+        <v>47800.50458654074</v>
       </c>
       <c r="G44" t="n">
-        <v>37784.48717002848</v>
+        <v>54810.65339281841</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37652343</v>
+        <v>37694430</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>644218</v>
+        <v>643898</v>
       </c>
       <c r="F45" t="n">
-        <v>640.4253934965361</v>
+        <v>640.3624812557649</v>
       </c>
       <c r="G45" t="n">
-        <v>162.4073243263282</v>
+        <v>162.391370229575</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5405.87</v>
+        <v>5269.25</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1589677</v>
+        <v>1591342</v>
       </c>
       <c r="E46" t="n">
-        <v>13247307</v>
+        <v>13261184</v>
       </c>
       <c r="F46" t="n">
-        <v>257.5947502646097</v>
+        <v>230.061105469425</v>
       </c>
       <c r="G46" t="n">
-        <v>1128.029644410175</v>
+        <v>1354.785222753973</v>
       </c>
       <c r="H46" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I46" t="n">
-        <v>42437</v>
+        <v>42457</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4912405</v>
+        <v>4913666</v>
       </c>
       <c r="E47" t="n">
-        <v>17357813</v>
+        <v>17362269</v>
       </c>
       <c r="F47" t="n">
-        <v>1044.383455251251</v>
+        <v>1047.264813766741</v>
       </c>
       <c r="G47" t="n">
-        <v>1677.292962585263</v>
+        <v>1653.930957674036</v>
       </c>
       <c r="H47" t="n">
         <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>104677</v>
+        <v>104409</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>44290869</v>
+        <v>44808290</v>
       </c>
       <c r="E48" t="n">
-        <v>256425830</v>
+        <v>259421483</v>
       </c>
       <c r="F48" t="n">
-        <v>14794.26331900146</v>
+        <v>14131.02869530315</v>
       </c>
       <c r="G48" t="n">
-        <v>6842.249459157304</v>
+        <v>7951.852508734947</v>
       </c>
       <c r="H48" t="n">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="I48" t="n">
-        <v>12325896</v>
+        <v>12622688</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2235111</v>
+        <v>2281906</v>
       </c>
       <c r="E49" t="n">
-        <v>12280081</v>
+        <v>12537180</v>
       </c>
       <c r="F49" t="n">
-        <v>147.9600430150322</v>
+        <v>423.2551901682372</v>
       </c>
       <c r="G49" t="n">
-        <v>2496.602093730134</v>
+        <v>893.5295477826568</v>
       </c>
       <c r="H49" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="I49" t="n">
-        <v>109419</v>
+        <v>112038</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13609452</v>
+        <v>13581452</v>
       </c>
       <c r="E50" t="n">
-        <v>13655766</v>
+        <v>13627671</v>
       </c>
       <c r="F50" t="n">
-        <v>4564.820569530836</v>
+        <v>4087.548425132469</v>
       </c>
       <c r="G50" t="n">
-        <v>11500.03460004934</v>
+        <v>9656.292198354206</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5917962</v>
+        <v>5921248</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23560251</v>
+        <v>23605537</v>
       </c>
       <c r="E51" t="n">
-        <v>70621210</v>
+        <v>70758546</v>
       </c>
       <c r="F51" t="n">
-        <v>13750.41167640234</v>
+        <v>12749.34285914731</v>
       </c>
       <c r="G51" t="n">
-        <v>26191.41264689629</v>
+        <v>24773.83390690525</v>
       </c>
       <c r="H51" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="I51" t="n">
-        <v>2924553</v>
+        <v>2927384</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15421107</v>
+        <v>15471959</v>
       </c>
       <c r="E52" t="n">
-        <v>94521035</v>
+        <v>94832725</v>
       </c>
       <c r="F52" t="n">
-        <v>6826.02133288282</v>
+        <v>6122.419726749667</v>
       </c>
       <c r="G52" t="n">
-        <v>11049.45884270453</v>
+        <v>10934.78715053117</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>11621350</v>
+        <v>11607928</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47474121</v>
+        <v>47335486</v>
       </c>
       <c r="E53" t="n">
-        <v>204513321</v>
+        <v>203916100</v>
       </c>
       <c r="F53" t="n">
-        <v>24882.54960247075</v>
+        <v>24925.4570840153</v>
       </c>
       <c r="G53" t="n">
-        <v>26497.2794212804</v>
+        <v>25091.13100062064</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>8520652</v>
+        <v>8703421</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1036565</v>
+        <v>1035669</v>
       </c>
       <c r="E54" t="n">
-        <v>3029700</v>
+        <v>3027081</v>
       </c>
       <c r="F54" t="n">
-        <v>665.4766291141692</v>
+        <v>665.2986995559414</v>
       </c>
       <c r="G54" t="n">
-        <v>900.166211106934</v>
+        <v>884.2631186480022</v>
       </c>
       <c r="H54" t="n">
         <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>19166.56</v>
+        <v>19146.73</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37427693</v>
+        <v>37378835</v>
       </c>
       <c r="E55" t="n">
-        <v>94374672</v>
+        <v>94251477</v>
       </c>
       <c r="F55" t="n">
-        <v>15698.59617065243</v>
+        <v>13642.9746302768</v>
       </c>
       <c r="G55" t="n">
-        <v>11106.55678307763</v>
+        <v>6909.250330632241</v>
       </c>
       <c r="H55" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3128905</v>
+        <v>3134621</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28426396</v>
+        <v>28847337</v>
       </c>
       <c r="E56" t="n">
-        <v>67534049</v>
+        <v>68534101</v>
       </c>
       <c r="F56" t="n">
-        <v>13899.82946371673</v>
+        <v>10265.51867853829</v>
       </c>
       <c r="G56" t="n">
-        <v>9890.980567342798</v>
+        <v>13606.55665543387</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>483279</v>
+        <v>370866</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12553724</v>
+        <v>12556073</v>
       </c>
       <c r="E57" t="n">
-        <v>19132703</v>
+        <v>19136284</v>
       </c>
       <c r="F57" t="n">
-        <v>3787.298246693495</v>
+        <v>3863.253225516659</v>
       </c>
       <c r="G57" t="n">
-        <v>6893.020930254779</v>
+        <v>6898.457148633657</v>
       </c>
       <c r="H57" t="n">
         <v>0.28</v>
       </c>
       <c r="I57" t="n">
-        <v>697394</v>
+        <v>699875</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>305870016</v>
+        <v>306776411</v>
       </c>
       <c r="E58" t="n">
-        <v>305870016</v>
+        <v>306776411</v>
       </c>
       <c r="F58" t="n">
-        <v>54004.13300578757</v>
+        <v>55187.75682484172</v>
       </c>
       <c r="G58" t="n">
-        <v>72304.22801418063</v>
+        <v>67822.56596122053</v>
       </c>
       <c r="H58" t="n">
         <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>50245995</v>
+        <v>50927405</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11877773</v>
+        <v>11884152</v>
       </c>
       <c r="F59" t="n">
-        <v>159.4281560962594</v>
+        <v>132.0910833254246</v>
       </c>
       <c r="G59" t="n">
-        <v>76.54578494347743</v>
+        <v>94.06014381165566</v>
       </c>
       <c r="H59" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="I59" t="n">
-        <v>107899</v>
+        <v>107298</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89712868</v>
+        <v>89963515</v>
       </c>
       <c r="E60" t="n">
-        <v>516964243</v>
+        <v>518408576</v>
       </c>
       <c r="F60" t="n">
-        <v>98504.72175438142</v>
+        <v>91856.5966577701</v>
       </c>
       <c r="G60" t="n">
-        <v>92625.84523497215</v>
+        <v>67230.7214561841</v>
       </c>
       <c r="H60" t="n">
         <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>16201584</v>
+        <v>16366631</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9263567</v>
+        <v>9254200</v>
       </c>
       <c r="E61" t="n">
-        <v>9263567</v>
+        <v>9254200</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="I61" t="n">
-        <v>2054614</v>
+        <v>2069986</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30361862</v>
+        <v>30343122</v>
       </c>
       <c r="E62" t="n">
-        <v>135942510</v>
+        <v>135858603</v>
       </c>
       <c r="F62" t="n">
-        <v>26422.80593372835</v>
+        <v>17971.10563569766</v>
       </c>
       <c r="G62" t="n">
-        <v>12610.02060526378</v>
+        <v>30660.8714568752</v>
       </c>
       <c r="H62" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>8680535</v>
+        <v>8705172</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13081592</v>
+        <v>13099501</v>
       </c>
       <c r="E63" t="n">
-        <v>26151761</v>
+        <v>26187563</v>
       </c>
       <c r="F63" t="n">
-        <v>2130.964442584396</v>
+        <v>2232.399632873031</v>
       </c>
       <c r="G63" t="n">
-        <v>2060.034835108137</v>
+        <v>2112.068495573431</v>
       </c>
       <c r="H63" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>42489</v>
+        <v>42737</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1456469</v>
+        <v>1456387</v>
       </c>
       <c r="F64" t="n">
-        <v>91.16548844479939</v>
+        <v>55.08393817170587</v>
       </c>
       <c r="G64" t="n">
-        <v>190.4513600076534</v>
+        <v>117.4202194020906</v>
       </c>
       <c r="H64" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="I64" t="n">
-        <v>26190</v>
+        <v>58393</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48215854</v>
+        <v>48381886</v>
       </c>
       <c r="E65" t="n">
-        <v>312666979</v>
+        <v>313743655</v>
       </c>
       <c r="F65" t="n">
-        <v>18088.82668375394</v>
+        <v>19967.06001445897</v>
       </c>
       <c r="G65" t="n">
-        <v>17884.63863473465</v>
+        <v>17869.05655665664</v>
       </c>
       <c r="H65" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I65" t="n">
-        <v>17185544</v>
+        <v>16588147</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4811150</v>
+        <v>4800175</v>
       </c>
       <c r="F66" t="n">
-        <v>1307.156636643705</v>
+        <v>1445.483412093571</v>
       </c>
       <c r="G66" t="n">
-        <v>1227.981241275168</v>
+        <v>1089.995680284878</v>
       </c>
       <c r="H66" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="I66" t="n">
-        <v>174529</v>
+        <v>174480</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125400049</v>
+        <v>125413803</v>
       </c>
       <c r="E67" t="n">
-        <v>2076727509</v>
+        <v>2076955301</v>
       </c>
       <c r="F67" t="n">
-        <v>21427.15809125541</v>
+        <v>21089.17353645743</v>
       </c>
       <c r="G67" t="n">
-        <v>24767.77463313559</v>
+        <v>25630.69703259191</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5065354</v>
+        <v>5063570</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23627724</v>
+        <v>23676416</v>
       </c>
       <c r="E68" t="n">
-        <v>141369424</v>
+        <v>141660759</v>
       </c>
       <c r="F68" t="n">
-        <v>42809.62685319159</v>
+        <v>42801.90605915784</v>
       </c>
       <c r="G68" t="n">
-        <v>44857.60628245074</v>
+        <v>44598.15894393701</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>13341705</v>
+        <v>13342754</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23891997</v>
+        <v>23910583</v>
       </c>
       <c r="E70" t="n">
-        <v>23891997</v>
+        <v>23910910</v>
       </c>
       <c r="F70" t="n">
-        <v>2250.265985483033</v>
+        <v>1878.696663240509</v>
       </c>
       <c r="G70" t="n">
-        <v>16735.37673026538</v>
+        <v>17055.64112306617</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="I70" t="n">
-        <v>1960217</v>
+        <v>1721315</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34266548</v>
+        <v>34417877</v>
       </c>
       <c r="E71" t="n">
-        <v>171005868</v>
+        <v>171761072</v>
       </c>
       <c r="F71" t="n">
-        <v>18610.43995488205</v>
+        <v>17714.112848803</v>
       </c>
       <c r="G71" t="n">
-        <v>28254.49080158969</v>
+        <v>34523.44433021887</v>
       </c>
       <c r="H71" t="n">
         <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>10106049</v>
+        <v>10203742</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>175957</v>
+        <v>176203</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>12543.47</v>
+        <v>12445.26</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>312115609</v>
+        <v>311750435</v>
       </c>
       <c r="E73" t="n">
-        <v>577485053</v>
+        <v>576809398</v>
       </c>
       <c r="F73" t="n">
-        <v>36934.6588220247</v>
+        <v>37420.19479096663</v>
       </c>
       <c r="G73" t="n">
-        <v>40342.77402743504</v>
+        <v>40668.47927824042</v>
       </c>
       <c r="H73" t="n">
         <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>12989491</v>
+        <v>13056497</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9427967</v>
+        <v>9412665</v>
       </c>
       <c r="E74" t="n">
-        <v>27979306</v>
+        <v>27929551</v>
       </c>
       <c r="F74" t="n">
-        <v>1159.556162899736</v>
+        <v>1002.814320043492</v>
       </c>
       <c r="G74" t="n">
-        <v>2166.385053142064</v>
+        <v>1107.86833206267</v>
       </c>
       <c r="H74" t="n">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="I74" t="n">
-        <v>6036611</v>
+        <v>6042763</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9498036</v>
+        <v>9648445</v>
       </c>
       <c r="E75" t="n">
-        <v>13532525</v>
+        <v>13746824</v>
       </c>
       <c r="F75" t="n">
-        <v>440.3677138294826</v>
+        <v>2196.275289304476</v>
       </c>
       <c r="G75" t="n">
-        <v>24.84138188182843</v>
+        <v>42.2770968834928</v>
       </c>
       <c r="H75" t="n">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="I75" t="n">
-        <v>466887</v>
+        <v>477388</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16106221</v>
+        <v>16133909</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6124978540039917</v>
+        <v>0.4041854899854334</v>
       </c>
       <c r="G76" t="n">
-        <v>969.7645723636565</v>
+        <v>18.94880699291831</v>
       </c>
       <c r="H76" t="n">
-        <v>1.56</v>
+        <v>0.51</v>
       </c>
       <c r="I76" t="n">
-        <v>957502</v>
+        <v>959683</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61854238</v>
+        <v>61969138</v>
       </c>
       <c r="E77" t="n">
-        <v>102331619</v>
+        <v>102521709</v>
       </c>
       <c r="F77" t="n">
-        <v>11865.05388647006</v>
+        <v>12124.38640507256</v>
       </c>
       <c r="G77" t="n">
-        <v>19344.50339973163</v>
+        <v>19928.49196969331</v>
       </c>
       <c r="H77" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I77" t="n">
-        <v>6155513</v>
+        <v>6169376</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5498405</v>
+        <v>5461031</v>
       </c>
       <c r="E78" t="n">
-        <v>5498405</v>
+        <v>5461031</v>
       </c>
       <c r="F78" t="n">
-        <v>1038.660899941902</v>
+        <v>1140.036625719691</v>
       </c>
       <c r="G78" t="n">
-        <v>677.8362937515317</v>
+        <v>271.2481443195635</v>
       </c>
       <c r="H78" t="n">
         <v>3.9</v>
       </c>
       <c r="I78" t="n">
-        <v>1076723</v>
+        <v>1077444</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>60056</v>
+        <v>60165</v>
       </c>
       <c r="E79" t="n">
-        <v>313348</v>
+        <v>313917</v>
       </c>
       <c r="F79" t="n">
-        <v>951.2520495122257</v>
+        <v>973.2438999528828</v>
       </c>
       <c r="G79" t="n">
-        <v>69.93700659557699</v>
+        <v>49.64002658498419</v>
       </c>
       <c r="H79" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="I79" t="n">
-        <v>286688</v>
+        <v>285117</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26744584</v>
+        <v>26755802</v>
       </c>
       <c r="F80" t="n">
-        <v>9867.177956119434</v>
+        <v>9841.325666422747</v>
       </c>
       <c r="G80" t="n">
-        <v>1605.276049532686</v>
+        <v>1601.755855485048</v>
       </c>
       <c r="H80" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="I80" t="n">
-        <v>49257</v>
+        <v>49265</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>600738082</v>
+        <v>602375619</v>
       </c>
       <c r="E81" t="n">
-        <v>2326569960</v>
+        <v>2332911897</v>
       </c>
       <c r="F81" t="n">
-        <v>144593.133705826</v>
+        <v>142061.0266392902</v>
       </c>
       <c r="G81" t="n">
-        <v>184379.2116423396</v>
+        <v>176206.4253166481</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>33228288</v>
+        <v>33410757</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7347722</v>
+        <v>7350555</v>
       </c>
       <c r="E82" t="n">
-        <v>10528186</v>
+        <v>10532244</v>
       </c>
       <c r="F82" t="n">
-        <v>1628.432472669116</v>
+        <v>1628.272503472328</v>
       </c>
       <c r="G82" t="n">
-        <v>1088.199578244208</v>
+        <v>1088.092678869872</v>
       </c>
       <c r="H82" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>177757</v>
+        <v>177649</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>118942116</v>
+        <v>118969492</v>
       </c>
       <c r="E83" t="n">
-        <v>1034128597</v>
+        <v>1034366612</v>
       </c>
       <c r="F83" t="n">
-        <v>41957.08969926925</v>
+        <v>42848.53662153666</v>
       </c>
       <c r="G83" t="n">
-        <v>46444.5965888301</v>
+        <v>46540.13093654216</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>8881254</v>
+        <v>8881502</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1120072</v>
+        <v>1117571</v>
       </c>
       <c r="E84" t="n">
-        <v>4337164</v>
+        <v>4327480</v>
       </c>
       <c r="F84" t="n">
-        <v>1427.375544376614</v>
+        <v>1411.950298964881</v>
       </c>
       <c r="G84" t="n">
-        <v>2930.888960683529</v>
+        <v>2994.642210343912</v>
       </c>
       <c r="H84" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>429645</v>
+        <v>429279</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114838005</v>
+        <v>116231337</v>
       </c>
       <c r="E85" t="n">
-        <v>440537069</v>
+        <v>445882118</v>
       </c>
       <c r="F85" t="n">
-        <v>84925.40049672093</v>
+        <v>84498.26660889715</v>
       </c>
       <c r="G85" t="n">
-        <v>85118.48576108069</v>
+        <v>84134.58544389148</v>
       </c>
       <c r="H85" t="n">
         <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>23118176</v>
+        <v>23389733</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5106494</v>
+        <v>5005204</v>
       </c>
       <c r="E86" t="n">
-        <v>19015537</v>
+        <v>18638354</v>
       </c>
       <c r="F86" t="n">
-        <v>5623.567635330543</v>
+        <v>5616.524764776983</v>
       </c>
       <c r="G86" t="n">
-        <v>5936.094832997466</v>
+        <v>5953.864925461077</v>
       </c>
       <c r="H86" t="n">
         <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>108823</v>
+        <v>108352</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>32107590</v>
+        <v>31822910</v>
       </c>
       <c r="F87" t="n">
-        <v>5495.003393488339</v>
+        <v>2634.193652737914</v>
       </c>
       <c r="G87" t="n">
-        <v>1070.412171982257</v>
+        <v>2382.559508588495</v>
       </c>
       <c r="H87" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5393383</v>
+        <v>5502738</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24670384</v>
+        <v>24614508</v>
       </c>
       <c r="F88" t="n">
-        <v>951.5779698185993</v>
+        <v>1019.508780139016</v>
       </c>
       <c r="G88" t="n">
-        <v>1155.700190090125</v>
+        <v>1046.746749992497</v>
       </c>
       <c r="H88" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I88" t="n">
-        <v>19307.1</v>
+        <v>19232.37</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87018234</v>
+        <v>87040092</v>
       </c>
       <c r="E89" t="n">
-        <v>321679837</v>
+        <v>321760304</v>
       </c>
       <c r="F89" t="n">
-        <v>1806.662332765721</v>
+        <v>1807.277941629014</v>
       </c>
       <c r="G89" t="n">
-        <v>1811.857888015762</v>
+        <v>2047.865200129786</v>
       </c>
       <c r="H89" t="n">
         <v>0.23</v>
       </c>
       <c r="I89" t="n">
-        <v>348852</v>
+        <v>347023</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21004242</v>
+        <v>20776538</v>
       </c>
       <c r="E90" t="n">
-        <v>21004242</v>
+        <v>20776538</v>
       </c>
       <c r="F90" t="n">
-        <v>4685.026736993952</v>
+        <v>2432.905233606136</v>
       </c>
       <c r="G90" t="n">
-        <v>3415.257563941781</v>
+        <v>4668.953885216215</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I90" t="n">
-        <v>7174233</v>
+        <v>7154257</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3788981</v>
+        <v>3783457</v>
       </c>
       <c r="E91" t="n">
-        <v>8267507</v>
+        <v>8255454</v>
       </c>
       <c r="F91" t="n">
-        <v>1572.430025132104</v>
+        <v>1572.27486425046</v>
       </c>
       <c r="G91" t="n">
-        <v>4067.194933417416</v>
+        <v>4067.143254148315</v>
       </c>
       <c r="H91" t="n">
         <v>0.12</v>
       </c>
       <c r="I91" t="n">
-        <v>961962</v>
+        <v>975749</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>491708959</v>
+        <v>492897607</v>
       </c>
       <c r="E92" t="n">
-        <v>1712466322</v>
+        <v>1716606007</v>
       </c>
       <c r="F92" t="n">
-        <v>169313.2773456642</v>
+        <v>166964.1351103613</v>
       </c>
       <c r="G92" t="n">
-        <v>173340.7659399963</v>
+        <v>176332.2646105812</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31138903</v>
+        <v>31162391</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2640308</v>
+        <v>2640200</v>
       </c>
       <c r="E93" t="n">
-        <v>10561232</v>
+        <v>10560798</v>
       </c>
       <c r="F93" t="n">
-        <v>2919.557858130761</v>
+        <v>2223.111144987362</v>
       </c>
       <c r="G93" t="n">
-        <v>2502.587655877151</v>
+        <v>3250.697111367663</v>
       </c>
       <c r="H93" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="I93" t="n">
-        <v>5829476</v>
+        <v>5849786</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216346590</v>
+        <v>216224828</v>
       </c>
       <c r="E94" t="n">
-        <v>665184348</v>
+        <v>664809976</v>
       </c>
       <c r="F94" t="n">
-        <v>104777.7459647156</v>
+        <v>111710.453885651</v>
       </c>
       <c r="G94" t="n">
-        <v>95425.9367725613</v>
+        <v>112910.6356547387</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11719434</v>
+        <v>11760538</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>154483301</v>
+        <v>155300521</v>
       </c>
       <c r="E95" t="n">
-        <v>403583339</v>
+        <v>405718303</v>
       </c>
       <c r="F95" t="n">
-        <v>30859.93104785302</v>
+        <v>12192.99246991282</v>
       </c>
       <c r="G95" t="n">
-        <v>11306.49799615174</v>
+        <v>31587.41202101909</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I95" t="n">
-        <v>7221240</v>
+        <v>7317944</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>400261598</v>
+        <v>401055590</v>
       </c>
       <c r="E96" t="n">
-        <v>2287209129</v>
+        <v>2291746226</v>
       </c>
       <c r="F96" t="n">
-        <v>22166.86758118833</v>
+        <v>21820.01692580937</v>
       </c>
       <c r="G96" t="n">
-        <v>44995.87608521082</v>
+        <v>44261.81396288294</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>37061044</v>
+        <v>37063984</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>605492778</v>
+        <v>606628925</v>
       </c>
       <c r="E2" t="n">
-        <v>1174912109</v>
+        <v>1177119613</v>
       </c>
       <c r="F2" t="n">
-        <v>21991.94316606893</v>
+        <v>18624.84019191246</v>
       </c>
       <c r="G2" t="n">
-        <v>31707.57030374906</v>
+        <v>34262.49320770882</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>21087885</v>
+        <v>23100619</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1319784</v>
+        <v>1320073</v>
       </c>
       <c r="E3" t="n">
-        <v>4266082</v>
+        <v>4267017</v>
       </c>
       <c r="F3" t="n">
-        <v>5604.41946707368</v>
+        <v>5582.700084134094</v>
       </c>
       <c r="G3" t="n">
-        <v>5917.978934651191</v>
+        <v>7326.609128042443</v>
       </c>
       <c r="H3" t="n">
         <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>99678</v>
+        <v>100632</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245644132</v>
+        <v>246124682</v>
       </c>
       <c r="E4" t="n">
-        <v>1540399826</v>
+        <v>1543413284</v>
       </c>
       <c r="F4" t="n">
-        <v>138776.76602688</v>
+        <v>141296.9385145983</v>
       </c>
       <c r="G4" t="n">
-        <v>140033.035448468</v>
+        <v>135765.6832501551</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I4" t="n">
-        <v>15592279</v>
+        <v>15645079</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139954361</v>
+        <v>140291662</v>
       </c>
       <c r="E5" t="n">
-        <v>155091304</v>
+        <v>155465086</v>
       </c>
       <c r="F5" t="n">
-        <v>7787.702019479495</v>
+        <v>7630.665315212435</v>
       </c>
       <c r="G5" t="n">
-        <v>24417.51673006923</v>
+        <v>29538.71945607454</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>34400941</v>
+        <v>34714421</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>693629</v>
+        <v>693721</v>
       </c>
       <c r="E6" t="n">
-        <v>13475257</v>
+        <v>13477046</v>
       </c>
       <c r="F6" t="n">
-        <v>194.2763514313462</v>
+        <v>225.4700608015405</v>
       </c>
       <c r="G6" t="n">
-        <v>144.0322381030106</v>
+        <v>97.09486126809868</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>27362</v>
+        <v>26263</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>471974051</v>
+        <v>475713830</v>
       </c>
       <c r="E7" t="n">
-        <v>471974051</v>
+        <v>475713828</v>
       </c>
       <c r="F7" t="n">
-        <v>42958.82125725845</v>
+        <v>31884.90543190418</v>
       </c>
       <c r="G7" t="n">
-        <v>46102.57412059242</v>
+        <v>37625.65273681452</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>65801577</v>
+        <v>66850565</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4700034</v>
+        <v>4616511</v>
       </c>
       <c r="E8" t="n">
-        <v>4700034</v>
+        <v>4616511</v>
       </c>
       <c r="F8" t="n">
-        <v>835.7132735262161</v>
+        <v>787.7023598920514</v>
       </c>
       <c r="G8" t="n">
-        <v>1707.272057391563</v>
+        <v>1832.801178388838</v>
       </c>
       <c r="H8" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="I8" t="n">
-        <v>2023089</v>
+        <v>2010160</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1715357</v>
+        <v>1705189</v>
       </c>
       <c r="F9" t="n">
-        <v>851.6333443395858</v>
+        <v>4002.907559630798</v>
       </c>
       <c r="G9" t="n">
-        <v>1797.971492605968</v>
+        <v>2522.709879402766</v>
       </c>
       <c r="H9" t="n">
-        <v>1.34</v>
+        <v>0.98</v>
       </c>
       <c r="I9" t="n">
-        <v>116547</v>
+        <v>118462</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1595852</v>
+        <v>1599449</v>
       </c>
       <c r="F10" t="n">
-        <v>194.0420036773329</v>
+        <v>280.0724304806079</v>
       </c>
       <c r="G10" t="n">
-        <v>121.5190260658687</v>
+        <v>139.5834348342633</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12</v>
+        <v>0.62</v>
       </c>
       <c r="I10" t="n">
-        <v>240618</v>
+        <v>155429</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>105996481</v>
+        <v>106070405</v>
       </c>
       <c r="E11" t="n">
-        <v>199684805</v>
+        <v>199824068</v>
       </c>
       <c r="F11" t="n">
-        <v>1638.297660603084</v>
+        <v>1581.60633306493</v>
       </c>
       <c r="G11" t="n">
-        <v>2377.096186529088</v>
+        <v>2377.914577851883</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4349278</v>
+        <v>4334339</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12860611</v>
+        <v>12847148</v>
       </c>
       <c r="E12" t="n">
-        <v>32007735</v>
+        <v>31974229</v>
       </c>
       <c r="F12" t="n">
-        <v>2640.498403779708</v>
+        <v>2499.415385177094</v>
       </c>
       <c r="G12" t="n">
-        <v>753.3911848632142</v>
+        <v>695.8541004087543</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I12" t="n">
-        <v>1595911</v>
+        <v>1595519</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109578770</v>
+        <v>109256360</v>
       </c>
       <c r="E13" t="n">
-        <v>426541894</v>
+        <v>425262315</v>
       </c>
       <c r="F13" t="n">
-        <v>25772.2235206</v>
+        <v>26112.90399857105</v>
       </c>
       <c r="G13" t="n">
-        <v>31738.86707435285</v>
+        <v>29930.67315226609</v>
       </c>
       <c r="H13" t="n">
         <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>8008034</v>
+        <v>7756039</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5383604</v>
+        <v>5360433</v>
       </c>
       <c r="E14" t="n">
-        <v>7924956</v>
+        <v>7890847</v>
       </c>
       <c r="F14" t="n">
-        <v>313.842915197468</v>
+        <v>146.3919771202494</v>
       </c>
       <c r="G14" t="n">
-        <v>387.0259897340821</v>
+        <v>494.7692969561868</v>
       </c>
       <c r="H14" t="n">
         <v>1.28</v>
       </c>
       <c r="I14" t="n">
-        <v>629640</v>
+        <v>677318</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>136864091</v>
+        <v>136483410</v>
       </c>
       <c r="E15" t="n">
-        <v>136864091</v>
+        <v>136483410</v>
       </c>
       <c r="F15" t="n">
-        <v>55491.55997726546</v>
+        <v>41214.38362316687</v>
       </c>
       <c r="G15" t="n">
-        <v>66419.35675315931</v>
+        <v>82035.62269825002</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>66751261</v>
+        <v>67220290</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65248334</v>
+        <v>65448572</v>
       </c>
       <c r="E16" t="n">
-        <v>334606842</v>
+        <v>335633703</v>
       </c>
       <c r="F16" t="n">
-        <v>13436.5291522633</v>
+        <v>13332.5445419486</v>
       </c>
       <c r="G16" t="n">
-        <v>36207.97292049124</v>
+        <v>29258.34481149579</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>19429272</v>
+        <v>19654305</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253917060</v>
+        <v>254215129</v>
       </c>
       <c r="E17" t="n">
-        <v>253917060</v>
+        <v>254215129</v>
       </c>
       <c r="F17" t="n">
-        <v>60030.313120302</v>
+        <v>52270.46317913832</v>
       </c>
       <c r="G17" t="n">
-        <v>53361.91848398259</v>
+        <v>44945.24356973239</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>15083085</v>
+        <v>14975391</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2540708</v>
+        <v>2542348</v>
       </c>
       <c r="E18" t="n">
-        <v>6495539</v>
+        <v>6499733</v>
       </c>
       <c r="F18" t="n">
-        <v>1078.715481698325</v>
+        <v>1242.86283652273</v>
       </c>
       <c r="G18" t="n">
-        <v>1737.955958692261</v>
+        <v>1798.501928576191</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>118620</v>
+        <v>118151</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73718111</v>
+        <v>74307136</v>
       </c>
       <c r="E19" t="n">
-        <v>206362089</v>
+        <v>208004002</v>
       </c>
       <c r="F19" t="n">
-        <v>18623.80914800411</v>
+        <v>15316.23321668058</v>
       </c>
       <c r="G19" t="n">
-        <v>20761.60577376294</v>
+        <v>24464.64312798326</v>
       </c>
       <c r="H19" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>32945829</v>
+        <v>34741712</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1569662</v>
+        <v>1570846</v>
       </c>
       <c r="E20" t="n">
-        <v>9012416</v>
+        <v>9019210</v>
       </c>
       <c r="F20" t="n">
-        <v>183.3038268269913</v>
+        <v>289.1755602077469</v>
       </c>
       <c r="G20" t="n">
-        <v>51.17805621810142</v>
+        <v>160.52630112639</v>
       </c>
       <c r="H20" t="n">
-        <v>1.11</v>
+        <v>0.66</v>
       </c>
       <c r="I20" t="n">
-        <v>309447</v>
+        <v>312670</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>158798</v>
+        <v>156659</v>
       </c>
       <c r="E21" t="n">
-        <v>1072381</v>
+        <v>1057932</v>
       </c>
       <c r="F21" t="n">
-        <v>13.14337113975505</v>
+        <v>13.14327164503351</v>
       </c>
       <c r="G21" t="n">
-        <v>5.229444711979244</v>
+        <v>5.229405125320702</v>
       </c>
       <c r="H21" t="n">
         <v>0.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2681228</v>
+        <v>2683191</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269805</v>
+        <v>269867</v>
       </c>
       <c r="F22" t="n">
-        <v>188.0048026737269</v>
+        <v>188.0033794859245</v>
       </c>
       <c r="G22" t="n">
-        <v>192.6327038900578</v>
+        <v>192.3858005916336</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1418</v>
+        <v>1427.54</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73307726</v>
+        <v>73852666</v>
       </c>
       <c r="E23" t="n">
-        <v>152883835</v>
+        <v>154020313</v>
       </c>
       <c r="F23" t="n">
-        <v>36685.30897167039</v>
+        <v>29148.89079766031</v>
       </c>
       <c r="G23" t="n">
-        <v>48507.35969248969</v>
+        <v>39044.55542153944</v>
       </c>
       <c r="H23" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I23" t="n">
-        <v>14576937</v>
+        <v>14585304</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197738432</v>
+        <v>199117385</v>
       </c>
       <c r="E24" t="n">
-        <v>686961183</v>
+        <v>691751792</v>
       </c>
       <c r="F24" t="n">
-        <v>64185.14906996209</v>
+        <v>62928.18182420563</v>
       </c>
       <c r="G24" t="n">
-        <v>58730.75992809953</v>
+        <v>62742.28439851482</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>25922322</v>
+        <v>25926557</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>116102736</v>
+        <v>115513491</v>
       </c>
       <c r="E25" t="n">
-        <v>493723442</v>
+        <v>491166279</v>
       </c>
       <c r="F25" t="n">
-        <v>16228.30485475201</v>
+        <v>15222.95325629737</v>
       </c>
       <c r="G25" t="n">
-        <v>20005.22906435859</v>
+        <v>18120.92563119933</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I25" t="n">
-        <v>14497388</v>
+        <v>14483316</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5798425</v>
+        <v>5795732</v>
       </c>
       <c r="E26" t="n">
-        <v>7878648</v>
+        <v>7874769</v>
       </c>
       <c r="F26" t="n">
-        <v>1033.457181589549</v>
+        <v>939.1519415181419</v>
       </c>
       <c r="G26" t="n">
-        <v>747.1210941892873</v>
+        <v>964.2774657644032</v>
       </c>
       <c r="H26" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="I26" t="n">
-        <v>5973944</v>
+        <v>1321784</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>535166</v>
+        <v>528533</v>
       </c>
       <c r="E27" t="n">
-        <v>6491041</v>
+        <v>6410590</v>
       </c>
       <c r="F27" t="n">
-        <v>756.0458293856959</v>
+        <v>155.0266643524925</v>
       </c>
       <c r="G27" t="n">
-        <v>728.3075119022536</v>
+        <v>506.9816261928407</v>
       </c>
       <c r="H27" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="I27" t="n">
-        <v>2719442</v>
+        <v>2759690</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25035680</v>
+        <v>25132851</v>
       </c>
       <c r="E28" t="n">
-        <v>35386955</v>
+        <v>35524303</v>
       </c>
       <c r="F28" t="n">
-        <v>585.5597780579569</v>
+        <v>596.1085182868065</v>
       </c>
       <c r="G28" t="n">
-        <v>120.6543689002968</v>
+        <v>120.1953420422532</v>
       </c>
       <c r="H28" t="n">
         <v>3.08</v>
       </c>
       <c r="I28" t="n">
-        <v>68312</v>
+        <v>66837</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1288184466</v>
+        <v>1293184352</v>
       </c>
       <c r="E29" t="n">
-        <v>6177108326</v>
+        <v>6201083805</v>
       </c>
       <c r="F29" t="n">
-        <v>161601.6524872077</v>
+        <v>160109.8228446374</v>
       </c>
       <c r="G29" t="n">
-        <v>223994.5270711689</v>
+        <v>199703.3353577802</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>181692684</v>
+        <v>169982955</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>266806946</v>
+        <v>266597628</v>
       </c>
       <c r="E30" t="n">
-        <v>1151686895</v>
+        <v>1150783360</v>
       </c>
       <c r="F30" t="n">
-        <v>149775.8142818185</v>
+        <v>170531.203246579</v>
       </c>
       <c r="G30" t="n">
-        <v>225761.2262478741</v>
+        <v>208307.7140284569</v>
       </c>
       <c r="H30" t="n">
         <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>109555473</v>
+        <v>108571209</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5354185</v>
+        <v>5323635</v>
       </c>
       <c r="E31" t="n">
-        <v>5360245</v>
+        <v>5329660</v>
       </c>
       <c r="F31" t="n">
-        <v>131.1102839671146</v>
+        <v>131.1093850414611</v>
       </c>
       <c r="G31" t="n">
-        <v>148.2030663714289</v>
+        <v>179.3801898105145</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>151709</v>
+        <v>150861</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21014317</v>
+        <v>20823726</v>
       </c>
       <c r="E32" t="n">
-        <v>52535793</v>
+        <v>52059315</v>
       </c>
       <c r="F32" t="n">
-        <v>2984.676567642795</v>
+        <v>2396.584088415757</v>
       </c>
       <c r="G32" t="n">
-        <v>7212.437671867491</v>
+        <v>5973.649561713273</v>
       </c>
       <c r="H32" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="I32" t="n">
-        <v>2101892</v>
+        <v>2126822</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19921025</v>
+        <v>19872104</v>
       </c>
       <c r="F33" t="n">
-        <v>1031.651209546374</v>
+        <v>963.4954899162827</v>
       </c>
       <c r="G33" t="n">
-        <v>645.6649345220328</v>
+        <v>978.0297863420391</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>75310</v>
+        <v>89557</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4228064</v>
+        <v>4207944</v>
       </c>
       <c r="E34" t="n">
-        <v>12178176</v>
+        <v>12120916</v>
       </c>
       <c r="F34" t="n">
-        <v>593.4229917820248</v>
+        <v>1935.920522041725</v>
       </c>
       <c r="G34" t="n">
-        <v>423.0976399571472</v>
+        <v>1025.855219986471</v>
       </c>
       <c r="H34" t="n">
-        <v>1.06</v>
+        <v>0.66</v>
       </c>
       <c r="I34" t="n">
-        <v>598909</v>
+        <v>598210</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1667412</v>
+        <v>1651630</v>
       </c>
       <c r="F35" t="n">
-        <v>45.38739025797975</v>
+        <v>19.36022731725304</v>
       </c>
       <c r="G35" t="n">
-        <v>48.96971904090449</v>
+        <v>48.87091958635281</v>
       </c>
       <c r="H35" t="n">
         <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>13161.06</v>
+        <v>13125.21</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13865399</v>
+        <v>13926555</v>
       </c>
       <c r="E36" t="n">
-        <v>67152341</v>
+        <v>67448529</v>
       </c>
       <c r="F36" t="n">
-        <v>3017.282637510159</v>
+        <v>3770.168741046174</v>
       </c>
       <c r="G36" t="n">
-        <v>6846.777539393887</v>
+        <v>6634.917622739074</v>
       </c>
       <c r="H36" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="I36" t="n">
-        <v>3608918</v>
+        <v>3593360</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1510530</v>
+        <v>1516045</v>
       </c>
       <c r="E37" t="n">
-        <v>9886379</v>
+        <v>9922475</v>
       </c>
       <c r="F37" t="n">
-        <v>841.6499072689137</v>
+        <v>711.6823828136012</v>
       </c>
       <c r="G37" t="n">
-        <v>28.83373186972191</v>
+        <v>39.49177099978701</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I37" t="n">
-        <v>533417</v>
+        <v>533628</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1904305983</v>
+        <v>1921186747</v>
       </c>
       <c r="F38" t="n">
-        <v>64695.73150543612</v>
+        <v>54135.3104757613</v>
       </c>
       <c r="G38" t="n">
-        <v>69727.27192912088</v>
+        <v>75161.00887231041</v>
       </c>
       <c r="H38" t="n">
-        <v>0.73</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>26595102</v>
+        <v>26591501</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31842402</v>
+        <v>31792407</v>
       </c>
       <c r="E39" t="n">
-        <v>99147023</v>
+        <v>98991354</v>
       </c>
       <c r="F39" t="n">
-        <v>4012.04851900797</v>
+        <v>3957.038350358273</v>
       </c>
       <c r="G39" t="n">
-        <v>7773.603323401019</v>
+        <v>7815.160109556016</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.53</v>
       </c>
       <c r="I39" t="n">
-        <v>12172604</v>
+        <v>12232471</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>200756382</v>
+        <v>202320200</v>
       </c>
       <c r="E40" t="n">
-        <v>1136805990</v>
+        <v>1145661286</v>
       </c>
       <c r="F40" t="n">
-        <v>43949.95336740759</v>
+        <v>41932.2148772481</v>
       </c>
       <c r="G40" t="n">
-        <v>76409.10279269474</v>
+        <v>84458.34725878145</v>
       </c>
       <c r="H40" t="n">
         <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>64917500</v>
+        <v>64990520</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>138098484</v>
+        <v>138337279</v>
       </c>
       <c r="E41" t="n">
-        <v>1022951730</v>
+        <v>1024720586</v>
       </c>
       <c r="F41" t="n">
-        <v>115517.7824303108</v>
+        <v>147531.8647203319</v>
       </c>
       <c r="G41" t="n">
-        <v>212337.3274426814</v>
+        <v>126228.3190947189</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>10648918</v>
+        <v>10483281</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31317917</v>
+        <v>31070754</v>
       </c>
       <c r="E42" t="n">
-        <v>148869122</v>
+        <v>147694215</v>
       </c>
       <c r="F42" t="n">
-        <v>7204.384486545949</v>
+        <v>6075.436364192575</v>
       </c>
       <c r="G42" t="n">
-        <v>5675.02114121429</v>
+        <v>8892.232493822401</v>
       </c>
       <c r="H42" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="I42" t="n">
-        <v>1239959</v>
+        <v>1201902</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3482969</v>
+        <v>3461749</v>
       </c>
       <c r="E43" t="n">
-        <v>8133313</v>
+        <v>8083761</v>
       </c>
       <c r="F43" t="n">
-        <v>886.0113067094694</v>
+        <v>568.9286625222954</v>
       </c>
       <c r="G43" t="n">
-        <v>580.9256252608656</v>
+        <v>964.2970101668026</v>
       </c>
       <c r="H43" t="n">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>771261</v>
+        <v>753413</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>337382433</v>
+        <v>338335931</v>
       </c>
       <c r="E44" t="n">
-        <v>3035301567</v>
+        <v>3043879834</v>
       </c>
       <c r="F44" t="n">
-        <v>47800.50458654074</v>
+        <v>43968.08945299883</v>
       </c>
       <c r="G44" t="n">
-        <v>54810.65339281841</v>
+        <v>53944.95222103718</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>37694430</v>
+        <v>37757435</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>643898</v>
+        <v>643665</v>
       </c>
       <c r="F45" t="n">
-        <v>640.3624812557649</v>
+        <v>622.7787013675786</v>
       </c>
       <c r="G45" t="n">
-        <v>162.391370229575</v>
+        <v>218.5708237271344</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5269.25</v>
+        <v>5269.43</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1591342</v>
+        <v>1588458</v>
       </c>
       <c r="E46" t="n">
-        <v>13261184</v>
+        <v>13237147</v>
       </c>
       <c r="F46" t="n">
-        <v>230.061105469425</v>
+        <v>227.2319327682409</v>
       </c>
       <c r="G46" t="n">
-        <v>1354.785222753973</v>
+        <v>1303.718544942437</v>
       </c>
       <c r="H46" t="n">
         <v>0.15</v>
       </c>
       <c r="I46" t="n">
-        <v>42457</v>
+        <v>42370</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4913666</v>
+        <v>4915159</v>
       </c>
       <c r="E47" t="n">
-        <v>17362269</v>
+        <v>17367543</v>
       </c>
       <c r="F47" t="n">
-        <v>1047.264813766741</v>
+        <v>1056.733954406287</v>
       </c>
       <c r="G47" t="n">
-        <v>1653.930957674036</v>
+        <v>1809.483364467161</v>
       </c>
       <c r="H47" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I47" t="n">
-        <v>104409</v>
+        <v>105159</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>44808290</v>
+        <v>45096606</v>
       </c>
       <c r="E48" t="n">
-        <v>259421483</v>
+        <v>261090712</v>
       </c>
       <c r="F48" t="n">
-        <v>14131.02869530315</v>
+        <v>12061.07327670804</v>
       </c>
       <c r="G48" t="n">
-        <v>7951.852508734947</v>
+        <v>10354.7714645434</v>
       </c>
       <c r="H48" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="I48" t="n">
-        <v>12622688</v>
+        <v>13625959</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2281906</v>
+        <v>2271000</v>
       </c>
       <c r="E49" t="n">
-        <v>12537180</v>
+        <v>12477261</v>
       </c>
       <c r="F49" t="n">
-        <v>423.2551901682372</v>
+        <v>505.9212643673168</v>
       </c>
       <c r="G49" t="n">
-        <v>893.5295477826568</v>
+        <v>1997.593975947826</v>
       </c>
       <c r="H49" t="n">
-        <v>1.57</v>
+        <v>0.79</v>
       </c>
       <c r="I49" t="n">
-        <v>112038</v>
+        <v>113648</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13581452</v>
+        <v>13549577</v>
       </c>
       <c r="E50" t="n">
-        <v>13627671</v>
+        <v>13595687</v>
       </c>
       <c r="F50" t="n">
-        <v>4087.548425132469</v>
+        <v>4233.344891823181</v>
       </c>
       <c r="G50" t="n">
-        <v>9656.292198354206</v>
+        <v>9450.393165177107</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5921248</v>
+        <v>5856008</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23605537</v>
+        <v>23605928</v>
       </c>
       <c r="E51" t="n">
-        <v>70758546</v>
+        <v>70759717</v>
       </c>
       <c r="F51" t="n">
-        <v>12749.34285914731</v>
+        <v>9315.632486605547</v>
       </c>
       <c r="G51" t="n">
-        <v>24773.83390690525</v>
+        <v>26838.51200390571</v>
       </c>
       <c r="H51" t="n">
         <v>0.11</v>
       </c>
       <c r="I51" t="n">
-        <v>2927384</v>
+        <v>2955002</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15471959</v>
+        <v>15638084</v>
       </c>
       <c r="E52" t="n">
-        <v>94832725</v>
+        <v>95850956</v>
       </c>
       <c r="F52" t="n">
-        <v>6122.419726749667</v>
+        <v>6567.046973519532</v>
       </c>
       <c r="G52" t="n">
-        <v>10934.78715053117</v>
+        <v>9127.485088521118</v>
       </c>
       <c r="H52" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>11607928</v>
+        <v>11658041</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47335486</v>
+        <v>47235914</v>
       </c>
       <c r="E53" t="n">
-        <v>203916100</v>
+        <v>203487154</v>
       </c>
       <c r="F53" t="n">
-        <v>24925.4570840153</v>
+        <v>24629.24368376326</v>
       </c>
       <c r="G53" t="n">
-        <v>25091.13100062064</v>
+        <v>26129.07043309427</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8703421</v>
+        <v>8749056</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1035669</v>
+        <v>1037932</v>
       </c>
       <c r="E54" t="n">
-        <v>3027081</v>
+        <v>3033695</v>
       </c>
       <c r="F54" t="n">
-        <v>665.2986995559414</v>
+        <v>0.8880578906454832</v>
       </c>
       <c r="G54" t="n">
-        <v>884.2631186480022</v>
+        <v>50.28255084874905</v>
       </c>
       <c r="H54" t="n">
-        <v>0.33</v>
+        <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>19146.73</v>
+        <v>20922</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37378835</v>
+        <v>36830084</v>
       </c>
       <c r="E55" t="n">
-        <v>94251477</v>
+        <v>92867790</v>
       </c>
       <c r="F55" t="n">
-        <v>13642.9746302768</v>
+        <v>16175.05416373973</v>
       </c>
       <c r="G55" t="n">
-        <v>6909.250330632241</v>
+        <v>11366.1567106016</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I55" t="n">
-        <v>3134621</v>
+        <v>3143096</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28847337</v>
+        <v>28779921</v>
       </c>
       <c r="E56" t="n">
-        <v>68534101</v>
+        <v>68373937</v>
       </c>
       <c r="F56" t="n">
-        <v>10265.51867853829</v>
+        <v>14484.25491756811</v>
       </c>
       <c r="G56" t="n">
-        <v>13606.55665543387</v>
+        <v>13249.76940208779</v>
       </c>
       <c r="H56" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>370866</v>
+        <v>539823</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12556073</v>
+        <v>12607514</v>
       </c>
       <c r="E57" t="n">
-        <v>19136284</v>
+        <v>19214683</v>
       </c>
       <c r="F57" t="n">
-        <v>3863.253225516659</v>
+        <v>3798.635249003165</v>
       </c>
       <c r="G57" t="n">
-        <v>6898.457148633657</v>
+        <v>8013.490331314494</v>
       </c>
       <c r="H57" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="I57" t="n">
-        <v>699875</v>
+        <v>695676</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>306776411</v>
+        <v>308900366</v>
       </c>
       <c r="E58" t="n">
-        <v>306776411</v>
+        <v>308900366</v>
       </c>
       <c r="F58" t="n">
-        <v>55187.75682484172</v>
+        <v>43553.68658856935</v>
       </c>
       <c r="G58" t="n">
-        <v>67822.56596122053</v>
+        <v>70863.56564797736</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>50927405</v>
+        <v>51096468</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11884152</v>
+        <v>11557497</v>
       </c>
       <c r="F59" t="n">
-        <v>132.0910833254246</v>
+        <v>465.5333734201471</v>
       </c>
       <c r="G59" t="n">
-        <v>94.06014381165566</v>
+        <v>75.71436252456294</v>
       </c>
       <c r="H59" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="I59" t="n">
-        <v>107298</v>
+        <v>113133</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89963515</v>
+        <v>90621064</v>
       </c>
       <c r="E60" t="n">
-        <v>518408576</v>
+        <v>522197659</v>
       </c>
       <c r="F60" t="n">
-        <v>91856.5966577701</v>
+        <v>92055.36863266969</v>
       </c>
       <c r="G60" t="n">
-        <v>67230.7214561841</v>
+        <v>97634.43656342426</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I60" t="n">
-        <v>16366631</v>
+        <v>16426346</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9254200</v>
+        <v>9252817</v>
       </c>
       <c r="E61" t="n">
-        <v>9254200</v>
+        <v>9252817</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.85</v>
+        <v>5.56</v>
       </c>
       <c r="I61" t="n">
-        <v>2069986</v>
+        <v>2081008</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30343122</v>
+        <v>30345618</v>
       </c>
       <c r="E62" t="n">
-        <v>135858603</v>
+        <v>135869782</v>
       </c>
       <c r="F62" t="n">
-        <v>17971.10563569766</v>
+        <v>26221.25027421261</v>
       </c>
       <c r="G62" t="n">
-        <v>30660.8714568752</v>
+        <v>19242.41222961676</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I62" t="n">
-        <v>8705172</v>
+        <v>8648544</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13099501</v>
+        <v>13113787</v>
       </c>
       <c r="E63" t="n">
-        <v>26187563</v>
+        <v>26216124</v>
       </c>
       <c r="F63" t="n">
-        <v>2232.399632873031</v>
+        <v>2253.003650995857</v>
       </c>
       <c r="G63" t="n">
-        <v>2112.068495573431</v>
+        <v>2134.964537873907</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>42737</v>
+        <v>42732</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1456387</v>
+        <v>1491028</v>
       </c>
       <c r="F64" t="n">
-        <v>55.08393817170587</v>
+        <v>1.31134234826621</v>
       </c>
       <c r="G64" t="n">
-        <v>117.4202194020906</v>
+        <v>117.4613052753653</v>
       </c>
       <c r="H64" t="n">
-        <v>2.63</v>
+        <v>3.16</v>
       </c>
       <c r="I64" t="n">
-        <v>58393</v>
+        <v>58350</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48381886</v>
+        <v>48719052</v>
       </c>
       <c r="E65" t="n">
-        <v>313743655</v>
+        <v>315930086</v>
       </c>
       <c r="F65" t="n">
-        <v>19967.06001445897</v>
+        <v>14514.91994948825</v>
       </c>
       <c r="G65" t="n">
-        <v>17869.05655665664</v>
+        <v>17093.23468831311</v>
       </c>
       <c r="H65" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I65" t="n">
-        <v>16588147</v>
+        <v>17426105</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4800175</v>
+        <v>4805334</v>
       </c>
       <c r="F66" t="n">
-        <v>1445.483412093571</v>
+        <v>1247.614434008224</v>
       </c>
       <c r="G66" t="n">
-        <v>1089.995680284878</v>
+        <v>2157.425917799895</v>
       </c>
       <c r="H66" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="I66" t="n">
-        <v>174480</v>
+        <v>177259</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125413803</v>
+        <v>125727868</v>
       </c>
       <c r="E67" t="n">
-        <v>2076955301</v>
+        <v>2082156463</v>
       </c>
       <c r="F67" t="n">
-        <v>21089.17353645743</v>
+        <v>21101.18671437083</v>
       </c>
       <c r="G67" t="n">
-        <v>25630.69703259191</v>
+        <v>24699.38430516772</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5063570</v>
+        <v>4955551</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23676416</v>
+        <v>23668485</v>
       </c>
       <c r="E68" t="n">
-        <v>141660759</v>
+        <v>141613302</v>
       </c>
       <c r="F68" t="n">
-        <v>42801.90605915784</v>
+        <v>42997.50050321397</v>
       </c>
       <c r="G68" t="n">
-        <v>44598.15894393701</v>
+        <v>43418.29582000207</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>13342754</v>
+        <v>13379673</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23910583</v>
+        <v>23780898</v>
       </c>
       <c r="E70" t="n">
-        <v>23910910</v>
+        <v>23781218</v>
       </c>
       <c r="F70" t="n">
-        <v>1878.696663240509</v>
+        <v>930.9344963140405</v>
       </c>
       <c r="G70" t="n">
-        <v>17055.64112306617</v>
+        <v>14101.2764985256</v>
       </c>
       <c r="H70" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="I70" t="n">
-        <v>1721315</v>
+        <v>1966944</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34417877</v>
+        <v>34352634</v>
       </c>
       <c r="E71" t="n">
-        <v>171761072</v>
+        <v>171435479</v>
       </c>
       <c r="F71" t="n">
-        <v>17714.112848803</v>
+        <v>17510.96867077071</v>
       </c>
       <c r="G71" t="n">
-        <v>34523.44433021887</v>
+        <v>33727.5768216709</v>
       </c>
       <c r="H71" t="n">
         <v>0.58</v>
       </c>
       <c r="I71" t="n">
-        <v>10203742</v>
+        <v>10196935</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>176203</v>
+        <v>176674</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>12445.26</v>
+        <v>12670.65</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>311750435</v>
+        <v>313229277</v>
       </c>
       <c r="E73" t="n">
-        <v>576809398</v>
+        <v>579545593</v>
       </c>
       <c r="F73" t="n">
-        <v>37420.19479096663</v>
+        <v>47953.94004021632</v>
       </c>
       <c r="G73" t="n">
-        <v>40668.47927824042</v>
+        <v>55750.29261191049</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I73" t="n">
-        <v>13056497</v>
+        <v>13110633</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9412665</v>
+        <v>9511381</v>
       </c>
       <c r="E74" t="n">
-        <v>27929551</v>
+        <v>28222462</v>
       </c>
       <c r="F74" t="n">
-        <v>1002.814320043492</v>
+        <v>1016.289342751209</v>
       </c>
       <c r="G74" t="n">
-        <v>1107.86833206267</v>
+        <v>1282.266957369951</v>
       </c>
       <c r="H74" t="n">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="I74" t="n">
-        <v>6042763</v>
+        <v>3099582</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9648445</v>
+        <v>9431782</v>
       </c>
       <c r="E75" t="n">
-        <v>13746824</v>
+        <v>13438129</v>
       </c>
       <c r="F75" t="n">
-        <v>2196.275289304476</v>
+        <v>2645.462456754874</v>
       </c>
       <c r="G75" t="n">
-        <v>42.2770968834928</v>
+        <v>2.345418041347264</v>
       </c>
       <c r="H75" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>477388</v>
+        <v>469187</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16133909</v>
+        <v>16210072</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4041854899854334</v>
+        <v>0.5481762107411216</v>
       </c>
       <c r="G76" t="n">
-        <v>18.94880699291831</v>
+        <v>18.94867707504921</v>
       </c>
       <c r="H76" t="n">
         <v>0.51</v>
       </c>
       <c r="I76" t="n">
-        <v>959683</v>
+        <v>962937</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>61969138</v>
+        <v>62157220</v>
       </c>
       <c r="E77" t="n">
-        <v>102521709</v>
+        <v>102832872</v>
       </c>
       <c r="F77" t="n">
-        <v>12124.38640507256</v>
+        <v>9111.393211162313</v>
       </c>
       <c r="G77" t="n">
-        <v>19928.49196969331</v>
+        <v>20693.48663031639</v>
       </c>
       <c r="H77" t="n">
         <v>0.33</v>
       </c>
       <c r="I77" t="n">
-        <v>6169376</v>
+        <v>6301015</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5461031</v>
+        <v>5595891</v>
       </c>
       <c r="E78" t="n">
-        <v>5461031</v>
+        <v>5595891</v>
       </c>
       <c r="F78" t="n">
-        <v>1140.036625719691</v>
+        <v>238.6814718655304</v>
       </c>
       <c r="G78" t="n">
-        <v>271.2481443195635</v>
+        <v>326.4991581690151</v>
       </c>
       <c r="H78" t="n">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="I78" t="n">
-        <v>1077444</v>
+        <v>1124932</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>60165</v>
+        <v>59061</v>
       </c>
       <c r="E79" t="n">
-        <v>313917</v>
+        <v>308154</v>
       </c>
       <c r="F79" t="n">
-        <v>973.2438999528828</v>
+        <v>8.644802873103536</v>
       </c>
       <c r="G79" t="n">
-        <v>49.64002658498419</v>
+        <v>31.97591185668218</v>
       </c>
       <c r="H79" t="n">
-        <v>1.49</v>
+        <v>1.08</v>
       </c>
       <c r="I79" t="n">
-        <v>285117</v>
+        <v>273387</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26755802</v>
+        <v>26737420</v>
       </c>
       <c r="F80" t="n">
-        <v>9841.325666422747</v>
+        <v>9510.472037674557</v>
       </c>
       <c r="G80" t="n">
-        <v>1601.755855485048</v>
+        <v>1745.348429825569</v>
       </c>
       <c r="H80" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="I80" t="n">
-        <v>49265</v>
+        <v>49513</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>602375619</v>
+        <v>604035103</v>
       </c>
       <c r="E81" t="n">
-        <v>2332911897</v>
+        <v>2339338836</v>
       </c>
       <c r="F81" t="n">
-        <v>142061.0266392902</v>
+        <v>146882.6236489867</v>
       </c>
       <c r="G81" t="n">
-        <v>176206.4253166481</v>
+        <v>176540.2646864665</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I81" t="n">
-        <v>33410757</v>
+        <v>33475672</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7350555</v>
+        <v>7304238</v>
       </c>
       <c r="E82" t="n">
-        <v>10532244</v>
+        <v>10465836</v>
       </c>
       <c r="F82" t="n">
-        <v>1628.272503472328</v>
+        <v>1568.762827338898</v>
       </c>
       <c r="G82" t="n">
-        <v>1088.092678869872</v>
+        <v>1321.9753767895</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>177649</v>
+        <v>181749</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>118969492</v>
+        <v>119317067</v>
       </c>
       <c r="E83" t="n">
-        <v>1034366612</v>
+        <v>1037388563</v>
       </c>
       <c r="F83" t="n">
-        <v>42848.53662153666</v>
+        <v>41338.04710162524</v>
       </c>
       <c r="G83" t="n">
-        <v>46540.13093654216</v>
+        <v>41846.0342803347</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>8881502</v>
+        <v>8942356</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1117571</v>
+        <v>1113851</v>
       </c>
       <c r="E84" t="n">
-        <v>4327480</v>
+        <v>4313073</v>
       </c>
       <c r="F84" t="n">
-        <v>1411.950298964881</v>
+        <v>1271.413343118998</v>
       </c>
       <c r="G84" t="n">
-        <v>2994.642210343912</v>
+        <v>2658.018923134393</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I84" t="n">
-        <v>429279</v>
+        <v>205316</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>116231337</v>
+        <v>122107195</v>
       </c>
       <c r="E85" t="n">
-        <v>445882118</v>
+        <v>468422854</v>
       </c>
       <c r="F85" t="n">
-        <v>84498.26660889715</v>
+        <v>64082.38211986119</v>
       </c>
       <c r="G85" t="n">
-        <v>84134.58544389148</v>
+        <v>73251.97521939615</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I85" t="n">
-        <v>23389733</v>
+        <v>26739608</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5005204</v>
+        <v>5110840</v>
       </c>
       <c r="E86" t="n">
-        <v>18638354</v>
+        <v>19031724</v>
       </c>
       <c r="F86" t="n">
-        <v>5616.524764776983</v>
+        <v>5571.95813162034</v>
       </c>
       <c r="G86" t="n">
-        <v>5953.864925461077</v>
+        <v>5953.824104239756</v>
       </c>
       <c r="H86" t="n">
         <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>108352</v>
+        <v>60375</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31822910</v>
+        <v>32716765</v>
       </c>
       <c r="F87" t="n">
-        <v>2634.193652737914</v>
+        <v>3349.411305897726</v>
       </c>
       <c r="G87" t="n">
-        <v>2382.559508588495</v>
+        <v>2895.12561687726</v>
       </c>
       <c r="H87" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I87" t="n">
-        <v>5502738</v>
+        <v>5525248</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24614508</v>
+        <v>24589582</v>
       </c>
       <c r="F88" t="n">
-        <v>1019.508780139016</v>
+        <v>1235.141936850301</v>
       </c>
       <c r="G88" t="n">
-        <v>1046.746749992497</v>
+        <v>933.9735407083672</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I88" t="n">
-        <v>19232.37</v>
+        <v>19194.74</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87040092</v>
+        <v>87131848</v>
       </c>
       <c r="E89" t="n">
-        <v>321760304</v>
+        <v>322098021</v>
       </c>
       <c r="F89" t="n">
-        <v>1807.277941629014</v>
+        <v>1798.952522211338</v>
       </c>
       <c r="G89" t="n">
-        <v>2047.865200129786</v>
+        <v>2230.652612876479</v>
       </c>
       <c r="H89" t="n">
         <v>0.23</v>
       </c>
       <c r="I89" t="n">
-        <v>347023</v>
+        <v>338897</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20776538</v>
+        <v>20495847</v>
       </c>
       <c r="E90" t="n">
-        <v>20776538</v>
+        <v>20495847</v>
       </c>
       <c r="F90" t="n">
-        <v>2432.905233606136</v>
+        <v>2563.198087341716</v>
       </c>
       <c r="G90" t="n">
-        <v>4668.953885216215</v>
+        <v>4767.624713901218</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="I90" t="n">
-        <v>7154257</v>
+        <v>7076814</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3783457</v>
+        <v>3792777</v>
       </c>
       <c r="E91" t="n">
-        <v>8255454</v>
+        <v>8275790</v>
       </c>
       <c r="F91" t="n">
-        <v>1572.27486425046</v>
+        <v>1572.872683216809</v>
       </c>
       <c r="G91" t="n">
-        <v>4067.143254148315</v>
+        <v>3411.577631476377</v>
       </c>
       <c r="H91" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>975749</v>
+        <v>1056505</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>492897607</v>
+        <v>493890418</v>
       </c>
       <c r="E92" t="n">
-        <v>1716606007</v>
+        <v>1720063653</v>
       </c>
       <c r="F92" t="n">
-        <v>166964.1351103613</v>
+        <v>161451.5684727179</v>
       </c>
       <c r="G92" t="n">
-        <v>176332.2646105812</v>
+        <v>173037.4067932924</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I92" t="n">
-        <v>31162391</v>
+        <v>31445076</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2640200</v>
+        <v>2618979</v>
       </c>
       <c r="E93" t="n">
-        <v>10560798</v>
+        <v>10475916</v>
       </c>
       <c r="F93" t="n">
-        <v>2223.111144987362</v>
+        <v>1630.282274068801</v>
       </c>
       <c r="G93" t="n">
-        <v>3250.697111367663</v>
+        <v>3451.179456507642</v>
       </c>
       <c r="H93" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
       <c r="I93" t="n">
-        <v>5849786</v>
+        <v>1183433</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216224828</v>
+        <v>216810667</v>
       </c>
       <c r="E94" t="n">
-        <v>664809976</v>
+        <v>666611211</v>
       </c>
       <c r="F94" t="n">
-        <v>111710.453885651</v>
+        <v>101891.2296571302</v>
       </c>
       <c r="G94" t="n">
-        <v>112910.6356547387</v>
+        <v>105891.4935121268</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11760538</v>
+        <v>11788300</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>155300521</v>
+        <v>152544680</v>
       </c>
       <c r="E95" t="n">
-        <v>405718303</v>
+        <v>398518746</v>
       </c>
       <c r="F95" t="n">
-        <v>12192.99246991282</v>
+        <v>30948.09229387055</v>
       </c>
       <c r="G95" t="n">
-        <v>31587.41202101909</v>
+        <v>33453.90386368163</v>
       </c>
       <c r="H95" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>7317944</v>
+        <v>7632012</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>401055590</v>
+        <v>402965093</v>
       </c>
       <c r="E96" t="n">
-        <v>2291746226</v>
+        <v>2302657672</v>
       </c>
       <c r="F96" t="n">
-        <v>21820.01692580937</v>
+        <v>19925.36312158508</v>
       </c>
       <c r="G96" t="n">
-        <v>44261.81396288294</v>
+        <v>43157.38515582708</v>
       </c>
       <c r="H96" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I96" t="n">
-        <v>37063984</v>
+        <v>37234658</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>606628925</v>
+        <v>608685977</v>
       </c>
       <c r="E2" t="n">
-        <v>1177119613</v>
+        <v>1181051433</v>
       </c>
       <c r="F2" t="n">
-        <v>18624.84019191246</v>
+        <v>18523.33504924829</v>
       </c>
       <c r="G2" t="n">
-        <v>34262.49320770882</v>
+        <v>33202.35040030246</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>23100619</v>
+        <v>22773420</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1320073</v>
+        <v>1318868</v>
       </c>
       <c r="E3" t="n">
-        <v>4267017</v>
+        <v>4263123</v>
       </c>
       <c r="F3" t="n">
-        <v>5582.700084134094</v>
+        <v>6129.29224031265</v>
       </c>
       <c r="G3" t="n">
-        <v>7326.609128042443</v>
+        <v>6371.094930785356</v>
       </c>
       <c r="H3" t="n">
         <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>100632</v>
+        <v>100914</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246124682</v>
+        <v>247370611</v>
       </c>
       <c r="E4" t="n">
-        <v>1543413284</v>
+        <v>1551226331</v>
       </c>
       <c r="F4" t="n">
-        <v>141296.9385145983</v>
+        <v>138048.8406831647</v>
       </c>
       <c r="G4" t="n">
-        <v>135765.6832501551</v>
+        <v>148652.1646252443</v>
       </c>
       <c r="H4" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15645079</v>
+        <v>16002500</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140291662</v>
+        <v>141557471</v>
       </c>
       <c r="E5" t="n">
-        <v>155465086</v>
+        <v>156867800</v>
       </c>
       <c r="F5" t="n">
-        <v>7630.665315212435</v>
+        <v>13316.66034566145</v>
       </c>
       <c r="G5" t="n">
-        <v>29538.71945607454</v>
+        <v>24663.9363996516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>34714421</v>
+        <v>34496210</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>693721</v>
+        <v>696914</v>
       </c>
       <c r="E6" t="n">
-        <v>13477046</v>
+        <v>13539077</v>
       </c>
       <c r="F6" t="n">
-        <v>225.4700608015405</v>
+        <v>186.2990502623155</v>
       </c>
       <c r="G6" t="n">
-        <v>97.09486126809868</v>
+        <v>194.8125611044973</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>26263</v>
+        <v>25532</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>475713830</v>
+        <v>478894716</v>
       </c>
       <c r="E7" t="n">
-        <v>475713828</v>
+        <v>478894716</v>
       </c>
       <c r="F7" t="n">
-        <v>31884.90543190418</v>
+        <v>43480.02899489638</v>
       </c>
       <c r="G7" t="n">
-        <v>37625.65273681452</v>
+        <v>51426.34208337044</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>66850565</v>
+        <v>67372544</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4616511</v>
+        <v>4666198</v>
       </c>
       <c r="E8" t="n">
-        <v>4616511</v>
+        <v>4666198</v>
       </c>
       <c r="F8" t="n">
-        <v>787.7023598920514</v>
+        <v>863.3697831124284</v>
       </c>
       <c r="G8" t="n">
-        <v>1832.801178388838</v>
+        <v>2000.393346411724</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I8" t="n">
-        <v>2010160</v>
+        <v>1989404</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1705189</v>
+        <v>1694931</v>
       </c>
       <c r="F9" t="n">
-        <v>4002.907559630798</v>
+        <v>5245.134313071022</v>
       </c>
       <c r="G9" t="n">
-        <v>2522.709879402766</v>
+        <v>905.9308154950952</v>
       </c>
       <c r="H9" t="n">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="I9" t="n">
-        <v>118462</v>
+        <v>87632</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1599449</v>
+        <v>1596502</v>
       </c>
       <c r="F10" t="n">
-        <v>280.0724304806079</v>
+        <v>337.6050316706513</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5834348342633</v>
+        <v>212.9971755285944</v>
       </c>
       <c r="H10" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>155429</v>
+        <v>247345</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>106070405</v>
+        <v>105981404</v>
       </c>
       <c r="E11" t="n">
-        <v>199824068</v>
+        <v>199656403</v>
       </c>
       <c r="F11" t="n">
-        <v>1581.60633306493</v>
+        <v>1595.529700536395</v>
       </c>
       <c r="G11" t="n">
-        <v>2377.914577851883</v>
+        <v>1375.473000419415</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="I11" t="n">
-        <v>4334339</v>
+        <v>4291193</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12847148</v>
+        <v>12786895</v>
       </c>
       <c r="E12" t="n">
-        <v>31974229</v>
+        <v>31824269</v>
       </c>
       <c r="F12" t="n">
-        <v>2499.415385177094</v>
+        <v>3056.353045368929</v>
       </c>
       <c r="G12" t="n">
-        <v>695.8541004087543</v>
+        <v>1034.496444042607</v>
       </c>
       <c r="H12" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1595519</v>
+        <v>1565544</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109256360</v>
+        <v>109907983</v>
       </c>
       <c r="E13" t="n">
-        <v>425262315</v>
+        <v>427773944</v>
       </c>
       <c r="F13" t="n">
-        <v>26112.90399857105</v>
+        <v>19912.60854255195</v>
       </c>
       <c r="G13" t="n">
-        <v>29930.67315226609</v>
+        <v>20368.28905698971</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I13" t="n">
-        <v>7756039</v>
+        <v>7814609</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5360433</v>
+        <v>5287041</v>
       </c>
       <c r="E14" t="n">
-        <v>7890847</v>
+        <v>7782810</v>
       </c>
       <c r="F14" t="n">
-        <v>146.3919771202494</v>
+        <v>374.9532069336784</v>
       </c>
       <c r="G14" t="n">
-        <v>494.7692969561868</v>
+        <v>413.6803502361437</v>
       </c>
       <c r="H14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="I14" t="n">
-        <v>677318</v>
+        <v>683349</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>136483410</v>
+        <v>138121000</v>
       </c>
       <c r="E15" t="n">
-        <v>136483410</v>
+        <v>138121000</v>
       </c>
       <c r="F15" t="n">
-        <v>41214.38362316687</v>
+        <v>54296.5437426939</v>
       </c>
       <c r="G15" t="n">
-        <v>82035.62269825002</v>
+        <v>82746.07600970352</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>67220290</v>
+        <v>66489212</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65448572</v>
+        <v>65570494</v>
       </c>
       <c r="E16" t="n">
-        <v>335633703</v>
+        <v>336258944</v>
       </c>
       <c r="F16" t="n">
-        <v>13332.5445419486</v>
+        <v>15919.38636885246</v>
       </c>
       <c r="G16" t="n">
-        <v>29258.34481149579</v>
+        <v>37891.31001265344</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>19654305</v>
+        <v>19861477</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>254215129</v>
+        <v>256252616</v>
       </c>
       <c r="E17" t="n">
-        <v>254215129</v>
+        <v>256252616</v>
       </c>
       <c r="F17" t="n">
-        <v>52270.46317913832</v>
+        <v>60043.19164261905</v>
       </c>
       <c r="G17" t="n">
-        <v>44945.24356973239</v>
+        <v>57685.91308617127</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14975391</v>
+        <v>14902390</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2542348</v>
+        <v>2541196</v>
       </c>
       <c r="E18" t="n">
-        <v>6499733</v>
+        <v>6496788</v>
       </c>
       <c r="F18" t="n">
-        <v>1242.86283652273</v>
+        <v>1026.398991470727</v>
       </c>
       <c r="G18" t="n">
-        <v>1798.501928576191</v>
+        <v>1824.446595181372</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>118151</v>
+        <v>118759</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74307136</v>
+        <v>76010968</v>
       </c>
       <c r="E19" t="n">
-        <v>208004002</v>
+        <v>212732583</v>
       </c>
       <c r="F19" t="n">
-        <v>15316.23321668058</v>
+        <v>14537.90711739959</v>
       </c>
       <c r="G19" t="n">
-        <v>24464.64312798326</v>
+        <v>25131.24098952523</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>34741712</v>
+        <v>38106405</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1570846</v>
+        <v>1582576</v>
       </c>
       <c r="E20" t="n">
-        <v>9019210</v>
+        <v>9086558</v>
       </c>
       <c r="F20" t="n">
-        <v>289.1755602077469</v>
+        <v>196.0172350884826</v>
       </c>
       <c r="G20" t="n">
-        <v>160.52630112639</v>
+        <v>795.5300155399019</v>
       </c>
       <c r="H20" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="I20" t="n">
-        <v>312670</v>
+        <v>310221</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>156659</v>
+        <v>157768</v>
       </c>
       <c r="E21" t="n">
-        <v>1057932</v>
+        <v>1065425</v>
       </c>
       <c r="F21" t="n">
-        <v>13.14327164503351</v>
+        <v>9.094104216968917</v>
       </c>
       <c r="G21" t="n">
-        <v>5.229405125320702</v>
+        <v>7.712540045906482</v>
       </c>
       <c r="H21" t="n">
-        <v>0.68</v>
+        <v>1.11</v>
       </c>
       <c r="I21" t="n">
-        <v>2683191</v>
+        <v>2716605</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269867</v>
+        <v>269549</v>
       </c>
       <c r="F22" t="n">
-        <v>188.0033794859245</v>
+        <v>187.9841034324513</v>
       </c>
       <c r="G22" t="n">
-        <v>192.3858005916336</v>
+        <v>125.5146117108191</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1427.54</v>
+        <v>1388.43</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73852666</v>
+        <v>74709797</v>
       </c>
       <c r="E23" t="n">
-        <v>154020313</v>
+        <v>155807867</v>
       </c>
       <c r="F23" t="n">
-        <v>29148.89079766031</v>
+        <v>30727.48354088344</v>
       </c>
       <c r="G23" t="n">
-        <v>39044.55542153944</v>
+        <v>53292.69260014296</v>
       </c>
       <c r="H23" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>14585304</v>
+        <v>15338294</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>199117385</v>
+        <v>200664036</v>
       </c>
       <c r="E24" t="n">
-        <v>691751792</v>
+        <v>697124996</v>
       </c>
       <c r="F24" t="n">
-        <v>62928.18182420563</v>
+        <v>61927.98547170991</v>
       </c>
       <c r="G24" t="n">
-        <v>62742.28439851482</v>
+        <v>64617.4288665868</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>25926557</v>
+        <v>26026329</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115513491</v>
+        <v>116113837</v>
       </c>
       <c r="E25" t="n">
-        <v>491166279</v>
+        <v>493667392</v>
       </c>
       <c r="F25" t="n">
-        <v>15222.95325629737</v>
+        <v>17259.82062718073</v>
       </c>
       <c r="G25" t="n">
-        <v>18120.92563119933</v>
+        <v>18168.54866918432</v>
       </c>
       <c r="H25" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I25" t="n">
-        <v>14483316</v>
+        <v>14421202</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5795732</v>
+        <v>5869619</v>
       </c>
       <c r="E26" t="n">
-        <v>7874769</v>
+        <v>7975120</v>
       </c>
       <c r="F26" t="n">
-        <v>939.1519415181419</v>
+        <v>300.3617238346631</v>
       </c>
       <c r="G26" t="n">
-        <v>964.2774657644032</v>
+        <v>3262.171374065245</v>
       </c>
       <c r="H26" t="n">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="I26" t="n">
-        <v>1321784</v>
+        <v>6161851</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>528533</v>
+        <v>528161</v>
       </c>
       <c r="E27" t="n">
-        <v>6410590</v>
+        <v>6406075</v>
       </c>
       <c r="F27" t="n">
-        <v>155.0266643524925</v>
+        <v>186.4633812978715</v>
       </c>
       <c r="G27" t="n">
-        <v>506.9816261928407</v>
+        <v>564.3411678925097</v>
       </c>
       <c r="H27" t="n">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="I27" t="n">
-        <v>2759690</v>
+        <v>2777094</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25132851</v>
+        <v>25078930</v>
       </c>
       <c r="E28" t="n">
-        <v>35524303</v>
+        <v>35448088</v>
       </c>
       <c r="F28" t="n">
-        <v>596.1085182868065</v>
+        <v>892.4890187586908</v>
       </c>
       <c r="G28" t="n">
-        <v>120.1953420422532</v>
+        <v>144.6280081960434</v>
       </c>
       <c r="H28" t="n">
-        <v>3.08</v>
+        <v>2.14</v>
       </c>
       <c r="I28" t="n">
-        <v>66837</v>
+        <v>67005</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1293184352</v>
+        <v>1312519856</v>
       </c>
       <c r="E29" t="n">
-        <v>6201083805</v>
+        <v>6293801508</v>
       </c>
       <c r="F29" t="n">
-        <v>160109.8228446374</v>
+        <v>196342.1761804661</v>
       </c>
       <c r="G29" t="n">
-        <v>199703.3353577802</v>
+        <v>254305.2560122401</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>169982955</v>
+        <v>166760288</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>266597628</v>
+        <v>268172986</v>
       </c>
       <c r="E30" t="n">
-        <v>1150783360</v>
+        <v>1157583483</v>
       </c>
       <c r="F30" t="n">
-        <v>170531.203246579</v>
+        <v>291356.7502196133</v>
       </c>
       <c r="G30" t="n">
-        <v>208307.7140284569</v>
+        <v>224949.3611627774</v>
       </c>
       <c r="H30" t="n">
         <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>108571209</v>
+        <v>107902245</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5323635</v>
+        <v>5345578</v>
       </c>
       <c r="E31" t="n">
-        <v>5329660</v>
+        <v>5351628</v>
       </c>
       <c r="F31" t="n">
-        <v>131.1093850414611</v>
+        <v>131.0959423495063</v>
       </c>
       <c r="G31" t="n">
-        <v>179.3801898105145</v>
+        <v>179.30178840847</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>150861</v>
+        <v>148763</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20823726</v>
+        <v>20815989</v>
       </c>
       <c r="E32" t="n">
-        <v>52059315</v>
+        <v>52039973</v>
       </c>
       <c r="F32" t="n">
-        <v>2396.584088415757</v>
+        <v>1727.706508948094</v>
       </c>
       <c r="G32" t="n">
-        <v>5973.649561713273</v>
+        <v>5813.141198533192</v>
       </c>
       <c r="H32" t="n">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="I32" t="n">
-        <v>2126822</v>
+        <v>2094629</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19872104</v>
+        <v>19807856</v>
       </c>
       <c r="F33" t="n">
-        <v>963.4954899162827</v>
+        <v>1097.639212925312</v>
       </c>
       <c r="G33" t="n">
-        <v>978.0297863420391</v>
+        <v>908.8310668384751</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>89557</v>
+        <v>89755</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4207944</v>
+        <v>4158879</v>
       </c>
       <c r="E34" t="n">
-        <v>12120916</v>
+        <v>11979549</v>
       </c>
       <c r="F34" t="n">
-        <v>1935.920522041725</v>
+        <v>210.66876615244</v>
       </c>
       <c r="G34" t="n">
-        <v>1025.855219986471</v>
+        <v>226.7977844557267</v>
       </c>
       <c r="H34" t="n">
-        <v>0.66</v>
+        <v>1.24</v>
       </c>
       <c r="I34" t="n">
-        <v>598210</v>
+        <v>597261</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1651630</v>
+        <v>1674740</v>
       </c>
       <c r="F35" t="n">
-        <v>19.36022731725304</v>
+        <v>17.89735267601952</v>
       </c>
       <c r="G35" t="n">
-        <v>48.87091958635281</v>
+        <v>13.83779802211718</v>
       </c>
       <c r="H35" t="n">
         <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>13125.21</v>
+        <v>13418.54</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13926555</v>
+        <v>14199760</v>
       </c>
       <c r="E36" t="n">
-        <v>67448529</v>
+        <v>68771702</v>
       </c>
       <c r="F36" t="n">
-        <v>3770.168741046174</v>
+        <v>2888.688806315734</v>
       </c>
       <c r="G36" t="n">
-        <v>6634.917622739074</v>
+        <v>7725.883756331012</v>
       </c>
       <c r="H36" t="n">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
       <c r="I36" t="n">
-        <v>3593360</v>
+        <v>3545004</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1516045</v>
+        <v>1507677</v>
       </c>
       <c r="E37" t="n">
-        <v>9922475</v>
+        <v>9867704</v>
       </c>
       <c r="F37" t="n">
-        <v>711.6823828136012</v>
+        <v>572.4996264392478</v>
       </c>
       <c r="G37" t="n">
-        <v>39.49177099978701</v>
+        <v>28.98997344249813</v>
       </c>
       <c r="H37" t="n">
         <v>1.01</v>
       </c>
       <c r="I37" t="n">
-        <v>533628</v>
+        <v>547764</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1921186747</v>
+        <v>1919088193</v>
       </c>
       <c r="F38" t="n">
-        <v>54135.3104757613</v>
+        <v>73571.01006536301</v>
       </c>
       <c r="G38" t="n">
-        <v>75161.00887231041</v>
+        <v>72338.62285374924</v>
       </c>
       <c r="H38" t="n">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
       <c r="I38" t="n">
-        <v>26591501</v>
+        <v>26443977</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31792407</v>
+        <v>31903781</v>
       </c>
       <c r="E39" t="n">
-        <v>98991354</v>
+        <v>99338137</v>
       </c>
       <c r="F39" t="n">
-        <v>3957.038350358273</v>
+        <v>1830.888935715313</v>
       </c>
       <c r="G39" t="n">
-        <v>7815.160109556016</v>
+        <v>11946.79151134806</v>
       </c>
       <c r="H39" t="n">
-        <v>0.53</v>
+        <v>0.23</v>
       </c>
       <c r="I39" t="n">
-        <v>12232471</v>
+        <v>12153883</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>202320200</v>
+        <v>204023533</v>
       </c>
       <c r="E40" t="n">
-        <v>1145661286</v>
+        <v>1155306608</v>
       </c>
       <c r="F40" t="n">
-        <v>41932.2148772481</v>
+        <v>44606.87132794376</v>
       </c>
       <c r="G40" t="n">
-        <v>84458.34725878145</v>
+        <v>80743.4781494303</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I40" t="n">
-        <v>64990520</v>
+        <v>64124149</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>138337279</v>
+        <v>140489048</v>
       </c>
       <c r="E41" t="n">
-        <v>1024720586</v>
+        <v>1040659615</v>
       </c>
       <c r="F41" t="n">
-        <v>147531.8647203319</v>
+        <v>134029.1345903648</v>
       </c>
       <c r="G41" t="n">
-        <v>126228.3190947189</v>
+        <v>210988.6205280994</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="I41" t="n">
-        <v>10483281</v>
+        <v>10313057</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31070754</v>
+        <v>31123291</v>
       </c>
       <c r="E42" t="n">
-        <v>147694215</v>
+        <v>147943950</v>
       </c>
       <c r="F42" t="n">
-        <v>6075.436364192575</v>
+        <v>6523.418651212205</v>
       </c>
       <c r="G42" t="n">
-        <v>8892.232493822401</v>
+        <v>8234.679794699241</v>
       </c>
       <c r="H42" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I42" t="n">
-        <v>1201902</v>
+        <v>1156819</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3461749</v>
+        <v>3352247</v>
       </c>
       <c r="E43" t="n">
-        <v>8083761</v>
+        <v>7828055</v>
       </c>
       <c r="F43" t="n">
-        <v>568.9286625222954</v>
+        <v>1567.476058774116</v>
       </c>
       <c r="G43" t="n">
-        <v>964.2970101668026</v>
+        <v>1386.594457483294</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>753413</v>
+        <v>745978</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>338335931</v>
+        <v>340813386</v>
       </c>
       <c r="E44" t="n">
-        <v>3043879834</v>
+        <v>3066168556</v>
       </c>
       <c r="F44" t="n">
-        <v>43968.08945299883</v>
+        <v>45692.07037332978</v>
       </c>
       <c r="G44" t="n">
-        <v>53944.95222103718</v>
+        <v>55773.42896032214</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37757435</v>
+        <v>37040666</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>643665</v>
+        <v>644190</v>
       </c>
       <c r="F45" t="n">
-        <v>622.7787013675786</v>
+        <v>622.7148476454682</v>
       </c>
       <c r="G45" t="n">
-        <v>218.5708237271344</v>
+        <v>218.5484135827138</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5269.43</v>
+        <v>5270.69</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1588458</v>
+        <v>1586748</v>
       </c>
       <c r="E46" t="n">
-        <v>13237147</v>
+        <v>13222902</v>
       </c>
       <c r="F46" t="n">
-        <v>227.2319327682409</v>
+        <v>221.2020312093258</v>
       </c>
       <c r="G46" t="n">
-        <v>1303.718544942437</v>
+        <v>1311.038136814391</v>
       </c>
       <c r="H46" t="n">
         <v>0.15</v>
       </c>
       <c r="I46" t="n">
-        <v>42370</v>
+        <v>41441</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4915159</v>
+        <v>4897246</v>
       </c>
       <c r="E47" t="n">
-        <v>17367543</v>
+        <v>17304250</v>
       </c>
       <c r="F47" t="n">
-        <v>1056.733954406287</v>
+        <v>882.7549823057323</v>
       </c>
       <c r="G47" t="n">
-        <v>1809.483364467161</v>
+        <v>1573.819706577465</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>105159</v>
+        <v>102304</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>45096606</v>
+        <v>45614461</v>
       </c>
       <c r="E48" t="n">
-        <v>261090712</v>
+        <v>264088881</v>
       </c>
       <c r="F48" t="n">
-        <v>12061.07327670804</v>
+        <v>18566.56260115086</v>
       </c>
       <c r="G48" t="n">
-        <v>10354.7714645434</v>
+        <v>38218.24093647853</v>
       </c>
       <c r="H48" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I48" t="n">
-        <v>13625959</v>
+        <v>14403486</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2271000</v>
+        <v>2260321</v>
       </c>
       <c r="E49" t="n">
-        <v>12477261</v>
+        <v>12418590</v>
       </c>
       <c r="F49" t="n">
-        <v>505.9212643673168</v>
+        <v>460.9250750262036</v>
       </c>
       <c r="G49" t="n">
-        <v>1997.593975947826</v>
+        <v>1261.193071870653</v>
       </c>
       <c r="H49" t="n">
-        <v>0.79</v>
+        <v>1.57</v>
       </c>
       <c r="I49" t="n">
-        <v>113648</v>
+        <v>117703</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13549577</v>
+        <v>13545947</v>
       </c>
       <c r="E50" t="n">
-        <v>13595687</v>
+        <v>13592045</v>
       </c>
       <c r="F50" t="n">
-        <v>4233.344891823181</v>
+        <v>3624.387326888597</v>
       </c>
       <c r="G50" t="n">
-        <v>9450.393165177107</v>
+        <v>10556.59080540823</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5856008</v>
+        <v>5854754</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23605928</v>
+        <v>23747821</v>
       </c>
       <c r="E51" t="n">
-        <v>70759717</v>
+        <v>71185047</v>
       </c>
       <c r="F51" t="n">
-        <v>9315.632486605547</v>
+        <v>12614.02088110792</v>
       </c>
       <c r="G51" t="n">
-        <v>26838.51200390571</v>
+        <v>26460.13224978616</v>
       </c>
       <c r="H51" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="I51" t="n">
-        <v>2955002</v>
+        <v>3020861</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15638084</v>
+        <v>15686788</v>
       </c>
       <c r="E52" t="n">
-        <v>95850956</v>
+        <v>96149483</v>
       </c>
       <c r="F52" t="n">
-        <v>6567.046973519532</v>
+        <v>7301.46889259819</v>
       </c>
       <c r="G52" t="n">
-        <v>9127.485088521118</v>
+        <v>8893.77347000434</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I52" t="n">
-        <v>11658041</v>
+        <v>11504736</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47235914</v>
+        <v>47403179</v>
       </c>
       <c r="E53" t="n">
-        <v>203487154</v>
+        <v>204207710</v>
       </c>
       <c r="F53" t="n">
-        <v>24629.24368376326</v>
+        <v>24649.7910108586</v>
       </c>
       <c r="G53" t="n">
-        <v>26129.07043309427</v>
+        <v>25818.15693371178</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8749056</v>
+        <v>8873882</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1037932</v>
+        <v>1042095</v>
       </c>
       <c r="E54" t="n">
-        <v>3033695</v>
+        <v>3045864</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8880578906454832</v>
+        <v>0.887966837753593</v>
       </c>
       <c r="G54" t="n">
-        <v>50.28255084874905</v>
+        <v>137.6652795839449</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>20922</v>
+        <v>21455</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>36830084</v>
+        <v>37372169</v>
       </c>
       <c r="E55" t="n">
-        <v>92867790</v>
+        <v>94234668</v>
       </c>
       <c r="F55" t="n">
-        <v>16175.05416373973</v>
+        <v>7130.825853595499</v>
       </c>
       <c r="G55" t="n">
-        <v>11366.1567106016</v>
+        <v>6483.900344209409</v>
       </c>
       <c r="H55" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3143096</v>
+        <v>3179158</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28779921</v>
+        <v>28335947</v>
       </c>
       <c r="E56" t="n">
-        <v>68373937</v>
+        <v>67319166</v>
       </c>
       <c r="F56" t="n">
-        <v>14484.25491756811</v>
+        <v>13192.327477932</v>
       </c>
       <c r="G56" t="n">
-        <v>13249.76940208779</v>
+        <v>13217.28871660717</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>539823</v>
+        <v>518001</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12607514</v>
+        <v>12605566</v>
       </c>
       <c r="E57" t="n">
-        <v>19214683</v>
+        <v>19211713</v>
       </c>
       <c r="F57" t="n">
-        <v>3798.635249003165</v>
+        <v>2594.977047527586</v>
       </c>
       <c r="G57" t="n">
-        <v>8013.490331314494</v>
+        <v>2477.051254993366</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
       <c r="I57" t="n">
-        <v>695676</v>
+        <v>691566</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>308900366</v>
+        <v>310843514</v>
       </c>
       <c r="E58" t="n">
-        <v>308900366</v>
+        <v>310843514</v>
       </c>
       <c r="F58" t="n">
-        <v>43553.68658856935</v>
+        <v>57439.5438978702</v>
       </c>
       <c r="G58" t="n">
-        <v>70863.56564797736</v>
+        <v>77084.15204119889</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>51096468</v>
+        <v>51327849</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11557497</v>
+        <v>11676927</v>
       </c>
       <c r="F59" t="n">
-        <v>465.5333734201471</v>
+        <v>96.62312086981461</v>
       </c>
       <c r="G59" t="n">
-        <v>75.71436252456294</v>
+        <v>304.3981461892806</v>
       </c>
       <c r="H59" t="n">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="I59" t="n">
-        <v>113133</v>
+        <v>111221</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90621064</v>
+        <v>90489868</v>
       </c>
       <c r="E60" t="n">
-        <v>522197659</v>
+        <v>521441647</v>
       </c>
       <c r="F60" t="n">
-        <v>92055.36863266969</v>
+        <v>96266.00057750518</v>
       </c>
       <c r="G60" t="n">
-        <v>97634.43656342426</v>
+        <v>96655.8797739984</v>
       </c>
       <c r="H60" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>16426346</v>
+        <v>11071996</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9252817</v>
+        <v>9237079</v>
       </c>
       <c r="E61" t="n">
-        <v>9252817</v>
+        <v>9237079</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.56</v>
+        <v>5.77</v>
       </c>
       <c r="I61" t="n">
-        <v>2081008</v>
+        <v>2078716</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30345618</v>
+        <v>30458934</v>
       </c>
       <c r="E62" t="n">
-        <v>135869782</v>
+        <v>136377145</v>
       </c>
       <c r="F62" t="n">
-        <v>26221.25027421261</v>
+        <v>26341.90304173955</v>
       </c>
       <c r="G62" t="n">
-        <v>19242.41222961676</v>
+        <v>11579.9665892764</v>
       </c>
       <c r="H62" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>8648544</v>
+        <v>8694249</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13113787</v>
+        <v>13088962</v>
       </c>
       <c r="E63" t="n">
-        <v>26216124</v>
+        <v>26166495</v>
       </c>
       <c r="F63" t="n">
-        <v>2253.003650995857</v>
+        <v>2820.340126478592</v>
       </c>
       <c r="G63" t="n">
-        <v>2134.964537873907</v>
+        <v>2190.663061259113</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>42732</v>
+        <v>42626</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1491028</v>
+        <v>1490433</v>
       </c>
       <c r="F64" t="n">
-        <v>1.31134234826621</v>
+        <v>55.3667126623814</v>
       </c>
       <c r="G64" t="n">
-        <v>117.4613052753653</v>
+        <v>117.4340221700619</v>
       </c>
       <c r="H64" t="n">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="I64" t="n">
-        <v>58350</v>
+        <v>58470</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48719052</v>
+        <v>48986575</v>
       </c>
       <c r="E65" t="n">
-        <v>315930086</v>
+        <v>317664904</v>
       </c>
       <c r="F65" t="n">
-        <v>14514.91994948825</v>
+        <v>23673.6560527772</v>
       </c>
       <c r="G65" t="n">
-        <v>17093.23468831311</v>
+        <v>16067.70768907826</v>
       </c>
       <c r="H65" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>17426105</v>
+        <v>16970388</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4805334</v>
+        <v>4827871</v>
       </c>
       <c r="F66" t="n">
-        <v>1247.614434008224</v>
+        <v>1197.310782710626</v>
       </c>
       <c r="G66" t="n">
-        <v>2157.425917799895</v>
+        <v>2240.260029894077</v>
       </c>
       <c r="H66" t="n">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="I66" t="n">
-        <v>177259</v>
+        <v>196902</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125727868</v>
+        <v>125761693</v>
       </c>
       <c r="E67" t="n">
-        <v>2082156463</v>
+        <v>2082716629</v>
       </c>
       <c r="F67" t="n">
-        <v>21101.18671437083</v>
+        <v>21630.0781736193</v>
       </c>
       <c r="G67" t="n">
-        <v>24699.38430516772</v>
+        <v>25241.05568163101</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4955551</v>
+        <v>4902171</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23668485</v>
+        <v>23950419</v>
       </c>
       <c r="E68" t="n">
-        <v>141613302</v>
+        <v>143300171</v>
       </c>
       <c r="F68" t="n">
-        <v>42997.50050321397</v>
+        <v>43936.41384931342</v>
       </c>
       <c r="G68" t="n">
-        <v>43418.29582000207</v>
+        <v>45862.1010185006</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>13379673</v>
+        <v>13416740</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23780898</v>
+        <v>23599359</v>
       </c>
       <c r="E70" t="n">
-        <v>23781218</v>
+        <v>23599359</v>
       </c>
       <c r="F70" t="n">
-        <v>930.9344963140405</v>
+        <v>1758.408143261057</v>
       </c>
       <c r="G70" t="n">
-        <v>14101.2764985256</v>
+        <v>16344.91250586377</v>
       </c>
       <c r="H70" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1966944</v>
+        <v>1984344</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34352634</v>
+        <v>34426127</v>
       </c>
       <c r="E71" t="n">
-        <v>171435479</v>
+        <v>171802242</v>
       </c>
       <c r="F71" t="n">
-        <v>17510.96867077071</v>
+        <v>18470.05203948647</v>
       </c>
       <c r="G71" t="n">
-        <v>33727.5768216709</v>
+        <v>35526.94000800661</v>
       </c>
       <c r="H71" t="n">
-        <v>0.58</v>
+        <v>1.16</v>
       </c>
       <c r="I71" t="n">
-        <v>10196935</v>
+        <v>9943549</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>176674</v>
+        <v>177812</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>12670.65</v>
+        <v>13696.66</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>313229277</v>
+        <v>316635749</v>
       </c>
       <c r="E73" t="n">
-        <v>579545593</v>
+        <v>585848344</v>
       </c>
       <c r="F73" t="n">
-        <v>47953.94004021632</v>
+        <v>52416.39304000977</v>
       </c>
       <c r="G73" t="n">
-        <v>55750.29261191049</v>
+        <v>52484.20431847951</v>
       </c>
       <c r="H73" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>13110633</v>
+        <v>12932276</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9511381</v>
+        <v>9566161</v>
       </c>
       <c r="E74" t="n">
-        <v>28222462</v>
+        <v>28385007</v>
       </c>
       <c r="F74" t="n">
-        <v>1016.289342751209</v>
+        <v>1157.050775319043</v>
       </c>
       <c r="G74" t="n">
-        <v>1282.266957369951</v>
+        <v>2020.309649818437</v>
       </c>
       <c r="H74" t="n">
         <v>0.44</v>
       </c>
       <c r="I74" t="n">
-        <v>3099582</v>
+        <v>6071486</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9431782</v>
+        <v>8776703</v>
       </c>
       <c r="E75" t="n">
-        <v>13438129</v>
+        <v>12504791</v>
       </c>
       <c r="F75" t="n">
-        <v>2645.462456754874</v>
+        <v>2249.139082804298</v>
       </c>
       <c r="G75" t="n">
-        <v>2.345418041347264</v>
+        <v>446.7602411064227</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I75" t="n">
-        <v>469187</v>
+        <v>443039</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16210072</v>
+        <v>16099050</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5481762107411216</v>
+        <v>0.7213680770975933</v>
       </c>
       <c r="G76" t="n">
-        <v>18.94867707504921</v>
+        <v>1.783260563085465</v>
       </c>
       <c r="H76" t="n">
         <v>0.51</v>
       </c>
       <c r="I76" t="n">
-        <v>962937</v>
+        <v>966564</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62157220</v>
+        <v>62200062</v>
       </c>
       <c r="E77" t="n">
-        <v>102832872</v>
+        <v>102903751</v>
       </c>
       <c r="F77" t="n">
-        <v>9111.393211162313</v>
+        <v>8935.429063896772</v>
       </c>
       <c r="G77" t="n">
-        <v>20693.48663031639</v>
+        <v>20029.75249966618</v>
       </c>
       <c r="H77" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>6301015</v>
+        <v>6586985</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5595891</v>
+        <v>5457751</v>
       </c>
       <c r="E78" t="n">
-        <v>5595891</v>
+        <v>5457751</v>
       </c>
       <c r="F78" t="n">
-        <v>238.6814718655304</v>
+        <v>280.0568216972869</v>
       </c>
       <c r="G78" t="n">
-        <v>326.4991581690151</v>
+        <v>2323.418669011768</v>
       </c>
       <c r="H78" t="n">
-        <v>2.56</v>
+        <v>1.27</v>
       </c>
       <c r="I78" t="n">
-        <v>1124932</v>
+        <v>1143706</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59061</v>
+        <v>58507</v>
       </c>
       <c r="E79" t="n">
-        <v>308154</v>
+        <v>305264</v>
       </c>
       <c r="F79" t="n">
-        <v>8.644802873103536</v>
+        <v>336.2227884212591</v>
       </c>
       <c r="G79" t="n">
-        <v>31.97591185668218</v>
+        <v>10.92611531120207</v>
       </c>
       <c r="H79" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="I79" t="n">
-        <v>273387</v>
+        <v>267256</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26737420</v>
+        <v>26329504</v>
       </c>
       <c r="F80" t="n">
-        <v>9510.472037674557</v>
+        <v>9979.747283268069</v>
       </c>
       <c r="G80" t="n">
-        <v>1745.348429825569</v>
+        <v>13726.5728700795</v>
       </c>
       <c r="H80" t="n">
-        <v>0.89</v>
+        <v>1.46</v>
       </c>
       <c r="I80" t="n">
-        <v>49513</v>
+        <v>51325</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>604035103</v>
+        <v>607365186</v>
       </c>
       <c r="E81" t="n">
-        <v>2339338836</v>
+        <v>2352235757</v>
       </c>
       <c r="F81" t="n">
-        <v>146882.6236489867</v>
+        <v>175525.2778362114</v>
       </c>
       <c r="G81" t="n">
-        <v>176540.2646864665</v>
+        <v>174073.2286158217</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>33475672</v>
+        <v>33442131</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7304238</v>
+        <v>7410957</v>
       </c>
       <c r="E82" t="n">
-        <v>10465836</v>
+        <v>10618706</v>
       </c>
       <c r="F82" t="n">
-        <v>1568.762827338898</v>
+        <v>1571.35828702942</v>
       </c>
       <c r="G82" t="n">
-        <v>1321.9753767895</v>
+        <v>4141.549075940369</v>
       </c>
       <c r="H82" t="n">
         <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>181749</v>
+        <v>182870</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>119317067</v>
+        <v>119756577</v>
       </c>
       <c r="E83" t="n">
-        <v>1037388563</v>
+        <v>1041209832</v>
       </c>
       <c r="F83" t="n">
-        <v>41338.04710162524</v>
+        <v>34692.28388765955</v>
       </c>
       <c r="G83" t="n">
-        <v>41846.0342803347</v>
+        <v>38648.12503896318</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>8942356</v>
+        <v>8832594</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1113851</v>
+        <v>1105841</v>
       </c>
       <c r="E84" t="n">
-        <v>4313073</v>
+        <v>4282059</v>
       </c>
       <c r="F84" t="n">
-        <v>1271.413343118998</v>
+        <v>1529.051926268688</v>
       </c>
       <c r="G84" t="n">
-        <v>2658.018923134393</v>
+        <v>2477.164757468136</v>
       </c>
       <c r="H84" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>205316</v>
+        <v>404014</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>122107195</v>
+        <v>120117599</v>
       </c>
       <c r="E85" t="n">
-        <v>468422854</v>
+        <v>460790444</v>
       </c>
       <c r="F85" t="n">
-        <v>64082.38211986119</v>
+        <v>88868.72898321491</v>
       </c>
       <c r="G85" t="n">
-        <v>73251.97521939615</v>
+        <v>80901.76079969438</v>
       </c>
       <c r="H85" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>26739608</v>
+        <v>30785477</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5110840</v>
+        <v>5108585</v>
       </c>
       <c r="E86" t="n">
-        <v>19031724</v>
+        <v>19023324</v>
       </c>
       <c r="F86" t="n">
-        <v>5571.95813162034</v>
+        <v>5571.382217990171</v>
       </c>
       <c r="G86" t="n">
-        <v>5953.824104239756</v>
+        <v>5917.413220402703</v>
       </c>
       <c r="H86" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="I86" t="n">
-        <v>60375</v>
+        <v>60451</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>32716765</v>
+        <v>32184461</v>
       </c>
       <c r="F87" t="n">
-        <v>3349.411305897726</v>
+        <v>2914.634262932068</v>
       </c>
       <c r="G87" t="n">
-        <v>2895.12561687726</v>
+        <v>3030.738800410415</v>
       </c>
       <c r="H87" t="n">
         <v>0.43</v>
       </c>
       <c r="I87" t="n">
-        <v>5525248</v>
+        <v>5625510</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24589582</v>
+        <v>24644256</v>
       </c>
       <c r="F88" t="n">
-        <v>1235.141936850301</v>
+        <v>1451.099106233886</v>
       </c>
       <c r="G88" t="n">
-        <v>933.9735407083672</v>
+        <v>1114.967037121244</v>
       </c>
       <c r="H88" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="I88" t="n">
-        <v>19194.74</v>
+        <v>19104.91</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87131848</v>
+        <v>87128593</v>
       </c>
       <c r="E89" t="n">
-        <v>322098021</v>
+        <v>322085345</v>
       </c>
       <c r="F89" t="n">
-        <v>1798.952522211338</v>
+        <v>1855.11893187871</v>
       </c>
       <c r="G89" t="n">
-        <v>2230.652612876479</v>
+        <v>2364.415877257658</v>
       </c>
       <c r="H89" t="n">
-        <v>0.23</v>
+        <v>0.67</v>
       </c>
       <c r="I89" t="n">
-        <v>338897</v>
+        <v>331668</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20495847</v>
+        <v>20732447</v>
       </c>
       <c r="E90" t="n">
-        <v>20495847</v>
+        <v>20732447</v>
       </c>
       <c r="F90" t="n">
-        <v>2563.198087341716</v>
+        <v>4744.560972404379</v>
       </c>
       <c r="G90" t="n">
-        <v>4767.624713901218</v>
+        <v>3376.614521974773</v>
       </c>
       <c r="H90" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="I90" t="n">
-        <v>7076814</v>
+        <v>7096613</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3792777</v>
+        <v>3790474</v>
       </c>
       <c r="E91" t="n">
-        <v>8275790</v>
+        <v>8270766</v>
       </c>
       <c r="F91" t="n">
-        <v>1572.872683216809</v>
+        <v>1572.803560953883</v>
       </c>
       <c r="G91" t="n">
-        <v>3411.577631476377</v>
+        <v>3416.452792785002</v>
       </c>
       <c r="H91" t="n">
         <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>1056505</v>
+        <v>1074242</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>493890418</v>
+        <v>494462104</v>
       </c>
       <c r="E92" t="n">
-        <v>1720063653</v>
+        <v>1722054655</v>
       </c>
       <c r="F92" t="n">
-        <v>161451.5684727179</v>
+        <v>164295.461161709</v>
       </c>
       <c r="G92" t="n">
-        <v>173037.4067932924</v>
+        <v>169951.8914892718</v>
       </c>
       <c r="H92" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31445076</v>
+        <v>31021777</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2618979</v>
+        <v>2631048</v>
       </c>
       <c r="E93" t="n">
-        <v>10475916</v>
+        <v>10524192</v>
       </c>
       <c r="F93" t="n">
-        <v>1630.282274068801</v>
+        <v>2682.392048348459</v>
       </c>
       <c r="G93" t="n">
-        <v>3451.179456507642</v>
+        <v>3012.514191251174</v>
       </c>
       <c r="H93" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I93" t="n">
-        <v>1183433</v>
+        <v>6249867</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216810667</v>
+        <v>216736153</v>
       </c>
       <c r="E94" t="n">
-        <v>666611211</v>
+        <v>666382108</v>
       </c>
       <c r="F94" t="n">
-        <v>101891.2296571302</v>
+        <v>108994.2601266371</v>
       </c>
       <c r="G94" t="n">
-        <v>105891.4935121268</v>
+        <v>107202.1536046911</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11788300</v>
+        <v>11697854</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>152544680</v>
+        <v>150520872</v>
       </c>
       <c r="E95" t="n">
-        <v>398518746</v>
+        <v>393231604</v>
       </c>
       <c r="F95" t="n">
-        <v>30948.09229387055</v>
+        <v>30089.04706848662</v>
       </c>
       <c r="G95" t="n">
-        <v>33453.90386368163</v>
+        <v>32785.89218683186</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>7632012</v>
+        <v>7811230</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>402965093</v>
+        <v>405189069</v>
       </c>
       <c r="E96" t="n">
-        <v>2302657672</v>
+        <v>2315366109</v>
       </c>
       <c r="F96" t="n">
-        <v>19925.36312158508</v>
+        <v>18406.64173915684</v>
       </c>
       <c r="G96" t="n">
-        <v>43157.38515582708</v>
+        <v>42407.68434789889</v>
       </c>
       <c r="H96" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>37234658</v>
+        <v>37112019</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250220.xlsx
+++ b/KuCoinData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>608685977</v>
+        <v>608404013</v>
       </c>
       <c r="E2" t="n">
-        <v>1181051433</v>
+        <v>1180504329</v>
       </c>
       <c r="F2" t="n">
-        <v>18523.33504924829</v>
+        <v>23094.42105174832</v>
       </c>
       <c r="G2" t="n">
-        <v>33202.35040030246</v>
+        <v>33538.61689000608</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>22773420</v>
+        <v>23023083</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1318868</v>
+        <v>1318613</v>
       </c>
       <c r="E3" t="n">
-        <v>4263123</v>
+        <v>4262299</v>
       </c>
       <c r="F3" t="n">
-        <v>6129.29224031265</v>
+        <v>6097.320614077892</v>
       </c>
       <c r="G3" t="n">
-        <v>6371.094930785356</v>
+        <v>6699.412292935443</v>
       </c>
       <c r="H3" t="n">
         <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>100914</v>
+        <v>100900</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247370611</v>
+        <v>247525003</v>
       </c>
       <c r="E4" t="n">
-        <v>1551226331</v>
+        <v>1552194500</v>
       </c>
       <c r="F4" t="n">
-        <v>138048.8406831647</v>
+        <v>147425.2747711751</v>
       </c>
       <c r="G4" t="n">
-        <v>148652.1646252443</v>
+        <v>141028.6342780245</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>16002500</v>
+        <v>16021228</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141557471</v>
+        <v>142322179</v>
       </c>
       <c r="E5" t="n">
-        <v>156867800</v>
+        <v>157715216</v>
       </c>
       <c r="F5" t="n">
-        <v>13316.66034566145</v>
+        <v>13716.47094508702</v>
       </c>
       <c r="G5" t="n">
-        <v>24663.9363996516</v>
+        <v>29255.39403652173</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>1.26</v>
       </c>
       <c r="I5" t="n">
-        <v>34496210</v>
+        <v>34957171</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>696914</v>
+        <v>693395</v>
       </c>
       <c r="E6" t="n">
-        <v>13539077</v>
+        <v>13470712</v>
       </c>
       <c r="F6" t="n">
-        <v>186.2990502623155</v>
+        <v>174.2575733544439</v>
       </c>
       <c r="G6" t="n">
-        <v>194.8125611044973</v>
+        <v>194.6570323562863</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>25532</v>
+        <v>25556</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>478894716</v>
+        <v>482998929</v>
       </c>
       <c r="E7" t="n">
-        <v>478894716</v>
+        <v>482998927</v>
       </c>
       <c r="F7" t="n">
-        <v>43480.02899489638</v>
+        <v>43868.4360857616</v>
       </c>
       <c r="G7" t="n">
-        <v>51426.34208337044</v>
+        <v>51246.95530854833</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>67372544</v>
+        <v>82164345</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4666198</v>
+        <v>4696291</v>
       </c>
       <c r="E8" t="n">
-        <v>4666198</v>
+        <v>4696291</v>
       </c>
       <c r="F8" t="n">
-        <v>863.3697831124284</v>
+        <v>938.2685594788585</v>
       </c>
       <c r="G8" t="n">
-        <v>2000.393346411724</v>
+        <v>1198.226671820411</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I8" t="n">
-        <v>1989404</v>
+        <v>2032784</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1694931</v>
+        <v>1693948</v>
       </c>
       <c r="F9" t="n">
-        <v>5245.134313071022</v>
+        <v>4069.013609919477</v>
       </c>
       <c r="G9" t="n">
-        <v>905.9308154950952</v>
+        <v>891.6409479072046</v>
       </c>
       <c r="H9" t="n">
         <v>0.87</v>
       </c>
       <c r="I9" t="n">
-        <v>87632</v>
+        <v>126068</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1596502</v>
+        <v>1595206</v>
       </c>
       <c r="F10" t="n">
-        <v>337.6050316706513</v>
+        <v>343.054096295932</v>
       </c>
       <c r="G10" t="n">
-        <v>212.9971755285944</v>
+        <v>128.0082867575644</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>247345</v>
+        <v>247369</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>105981404</v>
+        <v>105908812</v>
       </c>
       <c r="E11" t="n">
-        <v>199656403</v>
+        <v>199519648</v>
       </c>
       <c r="F11" t="n">
-        <v>1595.529700536395</v>
+        <v>2599.522330632403</v>
       </c>
       <c r="G11" t="n">
-        <v>1375.473000419415</v>
+        <v>1374.183454588338</v>
       </c>
       <c r="H11" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4291193</v>
+        <v>4279475</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12786895</v>
+        <v>12804021</v>
       </c>
       <c r="E12" t="n">
-        <v>31824269</v>
+        <v>31866893</v>
       </c>
       <c r="F12" t="n">
-        <v>3056.353045368929</v>
+        <v>2988.991058940712</v>
       </c>
       <c r="G12" t="n">
-        <v>1034.496444042607</v>
+        <v>979.2023582796038</v>
       </c>
       <c r="H12" t="n">
         <v>0.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1565544</v>
+        <v>1577419</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109907983</v>
+        <v>110243930</v>
       </c>
       <c r="E13" t="n">
-        <v>427773944</v>
+        <v>429081489</v>
       </c>
       <c r="F13" t="n">
-        <v>19912.60854255195</v>
+        <v>24255.40207990322</v>
       </c>
       <c r="G13" t="n">
-        <v>20368.28905698971</v>
+        <v>28612.12979020266</v>
       </c>
       <c r="H13" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>7814609</v>
+        <v>7896117</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5287041</v>
+        <v>5306499</v>
       </c>
       <c r="E14" t="n">
-        <v>7782810</v>
+        <v>7811455</v>
       </c>
       <c r="F14" t="n">
-        <v>374.9532069336784</v>
+        <v>353.0488137824005</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6803502361437</v>
+        <v>595.6822979677216</v>
       </c>
       <c r="H14" t="n">
         <v>1.3</v>
       </c>
       <c r="I14" t="n">
-        <v>683349</v>
+        <v>639396</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138121000</v>
+        <v>138780232</v>
       </c>
       <c r="E15" t="n">
-        <v>138121000</v>
+        <v>138780232</v>
       </c>
       <c r="F15" t="n">
-        <v>54296.5437426939</v>
+        <v>43741.81155093506</v>
       </c>
       <c r="G15" t="n">
-        <v>82746.07600970352</v>
+        <v>85889.35692617329</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>66489212</v>
+        <v>66508873</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65570494</v>
+        <v>65776219</v>
       </c>
       <c r="E16" t="n">
-        <v>336258944</v>
+        <v>337313945</v>
       </c>
       <c r="F16" t="n">
-        <v>15919.38636885246</v>
+        <v>19017.53208493746</v>
       </c>
       <c r="G16" t="n">
-        <v>37891.31001265344</v>
+        <v>33661.22745644815</v>
       </c>
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>19861477</v>
+        <v>19618718</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>256252616</v>
+        <v>256857661</v>
       </c>
       <c r="E17" t="n">
-        <v>256252616</v>
+        <v>256857661</v>
       </c>
       <c r="F17" t="n">
-        <v>60043.19164261905</v>
+        <v>57650.85218822233</v>
       </c>
       <c r="G17" t="n">
-        <v>57685.91308617127</v>
+        <v>54872.98927147702</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14902390</v>
+        <v>14889412</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2541196</v>
+        <v>2545269</v>
       </c>
       <c r="E18" t="n">
-        <v>6496788</v>
+        <v>6507200</v>
       </c>
       <c r="F18" t="n">
-        <v>1026.398991470727</v>
+        <v>1226.646512515575</v>
       </c>
       <c r="G18" t="n">
-        <v>1824.446595181372</v>
+        <v>1824.481359116324</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>118759</v>
+        <v>112726</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76010968</v>
+        <v>77297108</v>
       </c>
       <c r="E19" t="n">
-        <v>212732583</v>
+        <v>216332115</v>
       </c>
       <c r="F19" t="n">
-        <v>14537.90711739959</v>
+        <v>16072.19561929477</v>
       </c>
       <c r="G19" t="n">
-        <v>25131.24098952523</v>
+        <v>24427.39936027416</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>38106405</v>
+        <v>35289048</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1582576</v>
+        <v>1579661</v>
       </c>
       <c r="E20" t="n">
-        <v>9086558</v>
+        <v>9069824</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0172350884826</v>
+        <v>212.4464700565519</v>
       </c>
       <c r="G20" t="n">
-        <v>795.5300155399019</v>
+        <v>778.2181484043547</v>
       </c>
       <c r="H20" t="n">
-        <v>0.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>310221</v>
+        <v>335565</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>157768</v>
+        <v>158051</v>
       </c>
       <c r="E21" t="n">
-        <v>1065425</v>
+        <v>1067335</v>
       </c>
       <c r="F21" t="n">
-        <v>9.094104216968917</v>
+        <v>9.094126781560032</v>
       </c>
       <c r="G21" t="n">
-        <v>7.712540045906482</v>
+        <v>7.71255918251504</v>
       </c>
       <c r="H21" t="n">
         <v>1.11</v>
       </c>
       <c r="I21" t="n">
-        <v>2716605</v>
+        <v>2708956</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269549</v>
+        <v>271956</v>
       </c>
       <c r="F22" t="n">
-        <v>187.9841034324513</v>
+        <v>198.325247063083</v>
       </c>
       <c r="G22" t="n">
-        <v>125.5146117108191</v>
+        <v>120.5393599080835</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1388.43</v>
+        <v>1409.09</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74709797</v>
+        <v>74953951</v>
       </c>
       <c r="E23" t="n">
-        <v>155807867</v>
+        <v>156317051</v>
       </c>
       <c r="F23" t="n">
-        <v>30727.48354088344</v>
+        <v>30720.82357517138</v>
       </c>
       <c r="G23" t="n">
-        <v>53292.69260014296</v>
+        <v>52577.17420080609</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>15338294</v>
+        <v>15380165</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>200664036</v>
+        <v>201472285</v>
       </c>
       <c r="E24" t="n">
-        <v>697124996</v>
+        <v>699932928</v>
       </c>
       <c r="F24" t="n">
-        <v>61927.98547170991</v>
+        <v>63496.11954567683</v>
       </c>
       <c r="G24" t="n">
-        <v>64617.4288665868</v>
+        <v>61455.17192418164</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>26026329</v>
+        <v>26083670</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>116113837</v>
+        <v>116280916</v>
       </c>
       <c r="E25" t="n">
-        <v>493667392</v>
+        <v>494377742</v>
       </c>
       <c r="F25" t="n">
-        <v>17259.82062718073</v>
+        <v>16714.78668826783</v>
       </c>
       <c r="G25" t="n">
-        <v>18168.54866918432</v>
+        <v>14744.47326519066</v>
       </c>
       <c r="H25" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>14421202</v>
+        <v>14442582</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5869619</v>
+        <v>5855913</v>
       </c>
       <c r="E26" t="n">
-        <v>7975120</v>
+        <v>7956498</v>
       </c>
       <c r="F26" t="n">
-        <v>300.3617238346631</v>
+        <v>266.6513503729233</v>
       </c>
       <c r="G26" t="n">
-        <v>3262.171374065245</v>
+        <v>1880.107350579585</v>
       </c>
       <c r="H26" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="I26" t="n">
-        <v>6161851</v>
+        <v>6147235</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>528161</v>
+        <v>528045</v>
       </c>
       <c r="E27" t="n">
-        <v>6406075</v>
+        <v>6404666</v>
       </c>
       <c r="F27" t="n">
-        <v>186.4633812978715</v>
+        <v>321.2028525071138</v>
       </c>
       <c r="G27" t="n">
-        <v>564.3411678925097</v>
+        <v>690.6593404791889</v>
       </c>
       <c r="H27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="I27" t="n">
-        <v>2777094</v>
+        <v>2755145</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25078930</v>
+        <v>24970474</v>
       </c>
       <c r="E28" t="n">
-        <v>35448088</v>
+        <v>35294791</v>
       </c>
       <c r="F28" t="n">
-        <v>892.4890187586908</v>
+        <v>920.6328789856963</v>
       </c>
       <c r="G28" t="n">
-        <v>144.6280081960434</v>
+        <v>227.1287644018009</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>67005</v>
+        <v>66920</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1312519856</v>
+        <v>1320552028</v>
       </c>
       <c r="E29" t="n">
-        <v>6293801508</v>
+        <v>6332317416</v>
       </c>
       <c r="F29" t="n">
-        <v>196342.1761804661</v>
+        <v>221724.686729786</v>
       </c>
       <c r="G29" t="n">
-        <v>254305.2560122401</v>
+        <v>255648.2879642733</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>166760288</v>
+        <v>167285450</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>268172986</v>
+        <v>270403307</v>
       </c>
       <c r="E30" t="n">
-        <v>1157583483</v>
+        <v>1167210785</v>
       </c>
       <c r="F30" t="n">
-        <v>291356.7502196133</v>
+        <v>292195.5210596167</v>
       </c>
       <c r="G30" t="n">
-        <v>224949.3611627774</v>
+        <v>221222.5883011814</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>107902245</v>
+        <v>107829259</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5345578</v>
+        <v>5317665</v>
       </c>
       <c r="E31" t="n">
-        <v>5351628</v>
+        <v>5323684</v>
       </c>
       <c r="F31" t="n">
-        <v>131.0959423495063</v>
+        <v>131.0962675536981</v>
       </c>
       <c r="G31" t="n">
-        <v>179.30178840847</v>
+        <v>179.3322380266512</v>
       </c>
       <c r="H31" t="n">
         <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>148763</v>
+        <v>149112</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20815989</v>
+        <v>20795448</v>
       </c>
       <c r="E32" t="n">
-        <v>52039973</v>
+        <v>51988620</v>
       </c>
       <c r="F32" t="n">
-        <v>1727.706508948094</v>
+        <v>2482.914318536635</v>
       </c>
       <c r="G32" t="n">
-        <v>5813.141198533192</v>
+        <v>9573.715426125544</v>
       </c>
       <c r="H32" t="n">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2094629</v>
+        <v>1956519</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19807856</v>
+        <v>19794388</v>
       </c>
       <c r="F33" t="n">
-        <v>1097.639212925312</v>
+        <v>1123.667247732002</v>
       </c>
       <c r="G33" t="n">
-        <v>908.8310668384751</v>
+        <v>884.1557594307396</v>
       </c>
       <c r="H33" t="n">
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>89755</v>
+        <v>85058</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4158879</v>
+        <v>4164348</v>
       </c>
       <c r="E34" t="n">
-        <v>11979549</v>
+        <v>11995304</v>
       </c>
       <c r="F34" t="n">
-        <v>210.66876615244</v>
+        <v>247.2534760183145</v>
       </c>
       <c r="G34" t="n">
-        <v>226.7977844557267</v>
+        <v>460.2822767276644</v>
       </c>
       <c r="H34" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I34" t="n">
-        <v>597261</v>
+        <v>597613</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1674740</v>
+        <v>1675645</v>
       </c>
       <c r="F35" t="n">
-        <v>17.89735267601952</v>
+        <v>79.10725389419305</v>
       </c>
       <c r="G35" t="n">
-        <v>13.83779802211718</v>
+        <v>13.83783235041662</v>
       </c>
       <c r="H35" t="n">
         <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>13418.54</v>
+        <v>13418.51</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14199760</v>
+        <v>14215799</v>
       </c>
       <c r="E36" t="n">
-        <v>68771702</v>
+        <v>68849383</v>
       </c>
       <c r="F36" t="n">
-        <v>2888.688806315734</v>
+        <v>2627.716849781529</v>
       </c>
       <c r="G36" t="n">
-        <v>7725.883756331012</v>
+        <v>7156.282770510593</v>
       </c>
       <c r="H36" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>3545004</v>
+        <v>3632835</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1507677</v>
+        <v>1488706</v>
       </c>
       <c r="E37" t="n">
-        <v>9867704</v>
+        <v>9743544</v>
       </c>
       <c r="F37" t="n">
-        <v>572.4996264392478</v>
+        <v>820.8139787716166</v>
       </c>
       <c r="G37" t="n">
-        <v>28.98997344249813</v>
+        <v>28.99004537637523</v>
       </c>
       <c r="H37" t="n">
         <v>1.01</v>
       </c>
       <c r="I37" t="n">
-        <v>547764</v>
+        <v>547456</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1919088193</v>
+        <v>1919313785</v>
       </c>
       <c r="F38" t="n">
-        <v>73571.01006536301</v>
+        <v>57538.9376764706</v>
       </c>
       <c r="G38" t="n">
-        <v>72338.62285374924</v>
+        <v>76240.28323124601</v>
       </c>
       <c r="H38" t="n">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>26443977</v>
+        <v>26353208</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31903781</v>
+        <v>31941465</v>
       </c>
       <c r="E39" t="n">
-        <v>99338137</v>
+        <v>99455472</v>
       </c>
       <c r="F39" t="n">
-        <v>1830.888935715313</v>
+        <v>4012.692434635296</v>
       </c>
       <c r="G39" t="n">
-        <v>11946.79151134806</v>
+        <v>10384.57780092486</v>
       </c>
       <c r="H39" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="I39" t="n">
-        <v>12153883</v>
+        <v>12041890</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>204023533</v>
+        <v>205162939</v>
       </c>
       <c r="E40" t="n">
-        <v>1155306608</v>
+        <v>1161758621</v>
       </c>
       <c r="F40" t="n">
-        <v>44606.87132794376</v>
+        <v>47990.52575041135</v>
       </c>
       <c r="G40" t="n">
-        <v>80743.4781494303</v>
+        <v>79395.78577791351</v>
       </c>
       <c r="H40" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>64124149</v>
+        <v>65005706</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>140489048</v>
+        <v>140529350</v>
       </c>
       <c r="E41" t="n">
-        <v>1040659615</v>
+        <v>1040958145</v>
       </c>
       <c r="F41" t="n">
-        <v>134029.1345903648</v>
+        <v>155850.1964007589</v>
       </c>
       <c r="G41" t="n">
-        <v>210988.6205280994</v>
+        <v>224478.314124127</v>
       </c>
       <c r="H41" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>10313057</v>
+        <v>9972640</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31123291</v>
+        <v>31069541</v>
       </c>
       <c r="E42" t="n">
-        <v>147943950</v>
+        <v>147688447</v>
       </c>
       <c r="F42" t="n">
-        <v>6523.418651212205</v>
+        <v>7086.849914115582</v>
       </c>
       <c r="G42" t="n">
-        <v>8234.679794699241</v>
+        <v>6011.529758870566</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I42" t="n">
-        <v>1156819</v>
+        <v>1048929</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3352247</v>
+        <v>3355210</v>
       </c>
       <c r="E43" t="n">
-        <v>7828055</v>
+        <v>7834974</v>
       </c>
       <c r="F43" t="n">
-        <v>1567.476058774116</v>
+        <v>1338.992199965462</v>
       </c>
       <c r="G43" t="n">
-        <v>1386.594457483294</v>
+        <v>1494.027552893233</v>
       </c>
       <c r="H43" t="n">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
       <c r="I43" t="n">
-        <v>745978</v>
+        <v>748076</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>340813386</v>
+        <v>340882886</v>
       </c>
       <c r="E44" t="n">
-        <v>3066168556</v>
+        <v>3066793819</v>
       </c>
       <c r="F44" t="n">
-        <v>45692.07037332978</v>
+        <v>50474.55960275391</v>
       </c>
       <c r="G44" t="n">
-        <v>55773.42896032214</v>
+        <v>50150.21404816562</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>37040666</v>
+        <v>37440665</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>644190</v>
+        <v>644353</v>
       </c>
       <c r="F45" t="n">
-        <v>622.7148476454682</v>
+        <v>622.7163923880065</v>
       </c>
       <c r="G45" t="n">
-        <v>218.5484135827138</v>
+        <v>218.5489557265738</v>
       </c>
       <c r="H45" t="n">
         <v>1.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5270.69</v>
+        <v>5254.06</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1586748</v>
+        <v>1586111</v>
       </c>
       <c r="E46" t="n">
-        <v>13222902</v>
+        <v>13217591</v>
       </c>
       <c r="F46" t="n">
-        <v>221.2020312093258</v>
+        <v>219.6234887989561</v>
       </c>
       <c r="G46" t="n">
-        <v>1311.038136814391</v>
+        <v>1596.739979062713</v>
       </c>
       <c r="H46" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I46" t="n">
-        <v>41441</v>
+        <v>41418</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4897246</v>
+        <v>4887239</v>
       </c>
       <c r="E47" t="n">
-        <v>17304250</v>
+        <v>17268889</v>
       </c>
       <c r="F47" t="n">
-        <v>882.7549823057323</v>
+        <v>883.0327605906432</v>
       </c>
       <c r="G47" t="n">
-        <v>1573.819706577465</v>
+        <v>1658.8256840072</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>102304</v>
+        <v>102068</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>45614461</v>
+        <v>45805195</v>
       </c>
       <c r="E48" t="n">
-        <v>264088881</v>
+        <v>265193155</v>
       </c>
       <c r="F48" t="n">
-        <v>18566.56260115086</v>
+        <v>14227.72245384711</v>
       </c>
       <c r="G48" t="n">
-        <v>38218.24093647853</v>
+        <v>20627.36103080162</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I48" t="n">
-        <v>14403486</v>
+        <v>14571430</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2260321</v>
+        <v>2253532</v>
       </c>
       <c r="E49" t="n">
-        <v>12418590</v>
+        <v>12381291</v>
       </c>
       <c r="F49" t="n">
-        <v>460.9250750262036</v>
+        <v>476.7299423478825</v>
       </c>
       <c r="G49" t="n">
-        <v>1261.193071870653</v>
+        <v>2752.753169650162</v>
       </c>
       <c r="H49" t="n">
-        <v>1.57</v>
+        <v>0.79</v>
       </c>
       <c r="I49" t="n">
-        <v>117703</v>
+        <v>117739</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13545947</v>
+        <v>13580549</v>
       </c>
       <c r="E50" t="n">
-        <v>13592045</v>
+        <v>13626765</v>
       </c>
       <c r="F50" t="n">
-        <v>3624.387326888597</v>
+        <v>3799.239511871664</v>
       </c>
       <c r="G50" t="n">
-        <v>10556.59080540823</v>
+        <v>9461.633259498874</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5854754</v>
+        <v>5879042</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23747821</v>
+        <v>23720735</v>
       </c>
       <c r="E51" t="n">
-        <v>71185047</v>
+        <v>71103855</v>
       </c>
       <c r="F51" t="n">
-        <v>12614.02088110792</v>
+        <v>12814.09921139388</v>
       </c>
       <c r="G51" t="n">
-        <v>26460.13224978616</v>
+        <v>26502.59561576532</v>
       </c>
       <c r="H51" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="I51" t="n">
-        <v>3020861</v>
+        <v>3024896</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15686788</v>
+        <v>15674853</v>
       </c>
       <c r="E52" t="n">
-        <v>96149483</v>
+        <v>96076326</v>
       </c>
       <c r="F52" t="n">
-        <v>7301.46889259819</v>
+        <v>5365.25982303966</v>
       </c>
       <c r="G52" t="n">
-        <v>8893.77347000434</v>
+        <v>6978.041714394826</v>
       </c>
       <c r="H52" t="n">
         <v>0.15</v>
       </c>
       <c r="I52" t="n">
-        <v>11504736</v>
+        <v>11488806</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47403179</v>
+        <v>47400968</v>
       </c>
       <c r="E53" t="n">
-        <v>204207710</v>
+        <v>204198188</v>
       </c>
       <c r="F53" t="n">
-        <v>24649.7910108586</v>
+        <v>24109.28794177335</v>
       </c>
       <c r="G53" t="n">
-        <v>25818.15693371178</v>
+        <v>25350.20499661692</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>8873882</v>
+        <v>8912652</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1042095</v>
+        <v>1045443</v>
       </c>
       <c r="E54" t="n">
-        <v>3045864</v>
+        <v>3055647</v>
       </c>
       <c r="F54" t="n">
-        <v>0.887966837753593</v>
+        <v>0.8879690404955897</v>
       </c>
       <c r="G54" t="n">
-        <v>137.6652795839449</v>
+        <v>137.6656210844154</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>21455</v>
+        <v>21510</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37372169</v>
+        <v>37397190</v>
       </c>
       <c r="E55" t="n">
-        <v>94234668</v>
+        <v>94297759</v>
       </c>
       <c r="F55" t="n">
-        <v>7130.825853595499</v>
+        <v>15171.24202050496</v>
       </c>
       <c r="G55" t="n">
-        <v>6483.900344209409</v>
+        <v>10984.93609973772</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3179158</v>
+        <v>3180652</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28335947</v>
+        <v>28371303</v>
       </c>
       <c r="E56" t="n">
-        <v>67319166</v>
+        <v>67403162</v>
       </c>
       <c r="F56" t="n">
-        <v>13192.327477932</v>
+        <v>12670.33635306323</v>
       </c>
       <c r="G56" t="n">
-        <v>13217.28871660717</v>
+        <v>12994.8133458175</v>
       </c>
       <c r="H56" t="n">
         <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>518001</v>
+        <v>542965</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12605566</v>
+        <v>12616772</v>
       </c>
       <c r="E57" t="n">
-        <v>19211713</v>
+        <v>19228793</v>
       </c>
       <c r="F57" t="n">
-        <v>2594.977047527586</v>
+        <v>3784.430295232478</v>
       </c>
       <c r="G57" t="n">
-        <v>2477.051254993366</v>
+        <v>2910.3699811296</v>
       </c>
       <c r="H57" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="I57" t="n">
-        <v>691566</v>
+        <v>693841</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>310843514</v>
+        <v>310633317</v>
       </c>
       <c r="E58" t="n">
-        <v>310843514</v>
+        <v>310633317</v>
       </c>
       <c r="F58" t="n">
-        <v>57439.5438978702</v>
+        <v>59458.84370641733</v>
       </c>
       <c r="G58" t="n">
-        <v>77084.15204119889</v>
+        <v>77255.30537697941</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>51327849</v>
+        <v>51217043</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11676927</v>
+        <v>11724525</v>
       </c>
       <c r="F59" t="n">
-        <v>96.62312086981461</v>
+        <v>96.62336062428405</v>
       </c>
       <c r="G59" t="n">
-        <v>304.3981461892806</v>
+        <v>269.9253500974506</v>
       </c>
       <c r="H59" t="n">
         <v>1.2</v>
       </c>
       <c r="I59" t="n">
-        <v>111221</v>
+        <v>110822</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90489868</v>
+        <v>90795896</v>
       </c>
       <c r="E60" t="n">
-        <v>521441647</v>
+        <v>523205116</v>
       </c>
       <c r="F60" t="n">
-        <v>96266.00057750518</v>
+        <v>95775.6027917453</v>
       </c>
       <c r="G60" t="n">
-        <v>96655.8797739984</v>
+        <v>107504.5024439822</v>
       </c>
       <c r="H60" t="n">
         <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>11071996</v>
+        <v>16412089</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9237079</v>
+        <v>9227756</v>
       </c>
       <c r="E61" t="n">
-        <v>9237079</v>
+        <v>9227756</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.77</v>
+        <v>5.7</v>
       </c>
       <c r="I61" t="n">
-        <v>2078716</v>
+        <v>2082816</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30458934</v>
+        <v>30544348</v>
       </c>
       <c r="E62" t="n">
-        <v>136377145</v>
+        <v>136759577</v>
       </c>
       <c r="F62" t="n">
-        <v>26341.90304173955</v>
+        <v>26272.88554187628</v>
       </c>
       <c r="G62" t="n">
-        <v>11579.9665892764</v>
+        <v>18254.95517430063</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>8694249</v>
+        <v>8572899</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13088962</v>
+        <v>13082720</v>
       </c>
       <c r="E63" t="n">
-        <v>26166495</v>
+        <v>26154017</v>
       </c>
       <c r="F63" t="n">
-        <v>2820.340126478592</v>
+        <v>2817.177506107183</v>
       </c>
       <c r="G63" t="n">
-        <v>2190.663061259113</v>
+        <v>2183.463721148866</v>
       </c>
       <c r="H63" t="n">
         <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>42626</v>
+        <v>42605</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1490433</v>
+        <v>1489725</v>
       </c>
       <c r="F64" t="n">
-        <v>55.3667126623814</v>
+        <v>12.02513644619557</v>
       </c>
       <c r="G64" t="n">
-        <v>117.4340221700619</v>
+        <v>62.09343910516299</v>
       </c>
       <c r="H64" t="n">
-        <v>2.63</v>
+        <v>3.16</v>
       </c>
       <c r="I64" t="n">
-        <v>58470</v>
+        <v>58461</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48986575</v>
+        <v>48967670</v>
       </c>
       <c r="E65" t="n">
-        <v>317664904</v>
+        <v>317542310</v>
       </c>
       <c r="F65" t="n">
-        <v>23673.6560527772</v>
+        <v>18670.46909074562</v>
       </c>
       <c r="G65" t="n">
-        <v>16067.70768907826</v>
+        <v>17671.51906731227</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>16970388</v>
+        <v>16911287</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4827871</v>
+        <v>4841207</v>
       </c>
       <c r="F66" t="n">
-        <v>1197.310782710626</v>
+        <v>1270.417514396961</v>
       </c>
       <c r="G66" t="n">
-        <v>2240.260029894077</v>
+        <v>1298.723737638653</v>
       </c>
       <c r="H66" t="n">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="I66" t="n">
-        <v>196902</v>
+        <v>196949</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125761693</v>
+        <v>125753151</v>
       </c>
       <c r="E67" t="n">
-        <v>2082716629</v>
+        <v>2082575171</v>
       </c>
       <c r="F67" t="n">
-        <v>21630.0781736193</v>
+        <v>20665.27342694206</v>
       </c>
       <c r="G67" t="n">
-        <v>25241.05568163101</v>
+        <v>23801.35995278656</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4902171</v>
+        <v>4868314</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23950419</v>
+        <v>23998679</v>
       </c>
       <c r="E68" t="n">
-        <v>143300171</v>
+        <v>143588922</v>
       </c>
       <c r="F68" t="n">
-        <v>43936.41384931342</v>
+        <v>43932.92275511176</v>
       </c>
       <c r="G68" t="n">
-        <v>45862.1010185006</v>
+        <v>46306.59987493279</v>
       </c>
       <c r="H68" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>13416740</v>
+        <v>13407365</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23599359</v>
+        <v>23773716</v>
       </c>
       <c r="E70" t="n">
-        <v>23599359</v>
+        <v>23774088</v>
       </c>
       <c r="F70" t="n">
-        <v>1758.408143261057</v>
+        <v>1761.341774501245</v>
       </c>
       <c r="G70" t="n">
-        <v>16344.91250586377</v>
+        <v>15856.94588472908</v>
       </c>
       <c r="H70" t="n">
         <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1984344</v>
+        <v>1986759</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34426127</v>
+        <v>34507359</v>
       </c>
       <c r="E71" t="n">
-        <v>171802242</v>
+        <v>172207628</v>
       </c>
       <c r="F71" t="n">
-        <v>18470.05203948647</v>
+        <v>18178.15675474203</v>
       </c>
       <c r="G71" t="n">
-        <v>35526.94000800661</v>
+        <v>35553.01969851161</v>
       </c>
       <c r="H71" t="n">
         <v>1.16</v>
       </c>
       <c r="I71" t="n">
-        <v>9943549</v>
+        <v>9982036</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>177812</v>
+        <v>177862</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>13696.66</v>
+        <v>13696.35</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>316635749</v>
+        <v>316777372</v>
       </c>
       <c r="E73" t="n">
-        <v>585848344</v>
+        <v>586110378</v>
       </c>
       <c r="F73" t="n">
-        <v>52416.39304000977</v>
+        <v>53894.52915446176</v>
       </c>
       <c r="G73" t="n">
-        <v>52484.20431847951</v>
+        <v>63260.35299804063</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>12932276</v>
+        <v>13073889</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9566161</v>
+        <v>9582754</v>
       </c>
       <c r="E74" t="n">
-        <v>28385007</v>
+        <v>28434242</v>
       </c>
       <c r="F74" t="n">
-        <v>1157.050775319043</v>
+        <v>1113.348981518581</v>
       </c>
       <c r="G74" t="n">
-        <v>2020.309649818437</v>
+        <v>1065.255663847765</v>
       </c>
       <c r="H74" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="I74" t="n">
-        <v>6071486</v>
+        <v>6059506</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8776703</v>
+        <v>8772038</v>
       </c>
       <c r="E75" t="n">
-        <v>12504791</v>
+        <v>12498143</v>
       </c>
       <c r="F75" t="n">
-        <v>2249.139082804298</v>
+        <v>3011.071555836362</v>
       </c>
       <c r="G75" t="n">
-        <v>446.7602411064227</v>
+        <v>120.4380941916415</v>
       </c>
       <c r="H75" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="I75" t="n">
-        <v>443039</v>
+        <v>451748</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16099050</v>
+        <v>16291522</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7213680770975933</v>
+        <v>0.7213704650074328</v>
       </c>
       <c r="G76" t="n">
-        <v>1.783260563085465</v>
+        <v>1.783266466126618</v>
       </c>
       <c r="H76" t="n">
         <v>0.51</v>
       </c>
       <c r="I76" t="n">
-        <v>966564</v>
+        <v>967728</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62200062</v>
+        <v>62231390</v>
       </c>
       <c r="E77" t="n">
-        <v>102903751</v>
+        <v>102955579</v>
       </c>
       <c r="F77" t="n">
-        <v>8935.429063896772</v>
+        <v>9185.779752102781</v>
       </c>
       <c r="G77" t="n">
-        <v>20029.75249966618</v>
+        <v>20611.19564877949</v>
       </c>
       <c r="H77" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I77" t="n">
-        <v>6586985</v>
+        <v>6456228</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5457751</v>
+        <v>5687949</v>
       </c>
       <c r="E78" t="n">
-        <v>5457751</v>
+        <v>5687949</v>
       </c>
       <c r="F78" t="n">
-        <v>280.0568216972869</v>
+        <v>299.7037120717038</v>
       </c>
       <c r="G78" t="n">
-        <v>2323.418669011768</v>
+        <v>364.8358904765443</v>
       </c>
       <c r="H78" t="n">
-        <v>1.27</v>
+        <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1143706</v>
+        <v>1140858</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58507</v>
+        <v>58740</v>
       </c>
       <c r="E79" t="n">
-        <v>305264</v>
+        <v>306481</v>
       </c>
       <c r="F79" t="n">
-        <v>336.2227884212591</v>
+        <v>67.4401340609691</v>
       </c>
       <c r="G79" t="n">
-        <v>10.92611531120207</v>
+        <v>176.6725500422744</v>
       </c>
       <c r="H79" t="n">
-        <v>1.02</v>
+        <v>0.33</v>
       </c>
       <c r="I79" t="n">
-        <v>267256</v>
+        <v>266449</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26329504</v>
+        <v>27149451</v>
       </c>
       <c r="F80" t="n">
-        <v>9979.747283268069</v>
+        <v>132.8113018468574</v>
       </c>
       <c r="G80" t="n">
-        <v>13726.5728700795</v>
+        <v>445.7438072744135</v>
       </c>
       <c r="H80" t="n">
-        <v>1.46</v>
+        <v>0.85</v>
       </c>
       <c r="I80" t="n">
-        <v>51325</v>
+        <v>63118</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>607365186</v>
+        <v>608522928</v>
       </c>
       <c r="E81" t="n">
-        <v>2352235757</v>
+        <v>2356719519</v>
       </c>
       <c r="F81" t="n">
-        <v>175525.2778362114</v>
+        <v>178038.6151600222</v>
       </c>
       <c r="G81" t="n">
-        <v>174073.2286158217</v>
+        <v>291006.4114570927</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>33442131</v>
+        <v>33598607</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7410957</v>
+        <v>7407752</v>
       </c>
       <c r="E82" t="n">
-        <v>10618706</v>
+        <v>10614114</v>
       </c>
       <c r="F82" t="n">
-        <v>1571.35828702942</v>
+        <v>1564.807187417888</v>
       </c>
       <c r="G82" t="n">
-        <v>4141.549075940369</v>
+        <v>4141.317236994547</v>
       </c>
       <c r="H82" t="n">
         <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>182870</v>
+        <v>182755</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>119756577</v>
+        <v>119672668</v>
       </c>
       <c r="E83" t="n">
-        <v>1041209832</v>
+        <v>1040480299</v>
       </c>
       <c r="F83" t="n">
-        <v>34692.28388765955</v>
+        <v>41199.21683531576</v>
       </c>
       <c r="G83" t="n">
-        <v>38648.12503896318</v>
+        <v>42886.32322642273</v>
       </c>
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>8832594</v>
+        <v>8912083</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1105841</v>
+        <v>1110800</v>
       </c>
       <c r="E84" t="n">
-        <v>4282059</v>
+        <v>4301259</v>
       </c>
       <c r="F84" t="n">
-        <v>1529.051926268688</v>
+        <v>2274.543062250289</v>
       </c>
       <c r="G84" t="n">
-        <v>2477.164757468136</v>
+        <v>1259.816594018938</v>
       </c>
       <c r="H84" t="n">
         <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>404014</v>
+        <v>404803</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120117599</v>
+        <v>120596848</v>
       </c>
       <c r="E85" t="n">
-        <v>460790444</v>
+        <v>462628920</v>
       </c>
       <c r="F85" t="n">
-        <v>88868.72898321491</v>
+        <v>87905.98523505183</v>
       </c>
       <c r="G85" t="n">
-        <v>80901.76079969438</v>
+        <v>90408.07632078468</v>
       </c>
       <c r="H85" t="n">
         <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>30785477</v>
+        <v>31202635</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5108585</v>
+        <v>5107675</v>
       </c>
       <c r="E86" t="n">
-        <v>19023324</v>
+        <v>19019936</v>
       </c>
       <c r="F86" t="n">
-        <v>5571.382217990171</v>
+        <v>5580.523416738963</v>
       </c>
       <c r="G86" t="n">
-        <v>5917.413220402703</v>
+        <v>5412.287302042721</v>
       </c>
       <c r="H86" t="n">
-        <v>0.58</v>
+        <v>0.79</v>
       </c>
       <c r="I86" t="n">
-        <v>60451</v>
+        <v>60635</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>32184461</v>
+        <v>32176800</v>
       </c>
       <c r="F87" t="n">
-        <v>2914.634262932068</v>
+        <v>4658.366171304072</v>
       </c>
       <c r="G87" t="n">
-        <v>3030.738800410415</v>
+        <v>1430.759464452068</v>
       </c>
       <c r="H87" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5625510</v>
+        <v>5614983</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24644256</v>
+        <v>24659182</v>
       </c>
       <c r="F88" t="n">
-        <v>1451.099106233886</v>
+        <v>1192.0796220788</v>
       </c>
       <c r="G88" t="n">
-        <v>1114.967037121244</v>
+        <v>1251.54570912714</v>
       </c>
       <c r="H88" t="n">
         <v>0.55</v>
       </c>
       <c r="I88" t="n">
-        <v>19104.91</v>
+        <v>19112.24</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87128593</v>
+        <v>87078761</v>
       </c>
       <c r="E89" t="n">
-        <v>322085345</v>
+        <v>321901036</v>
       </c>
       <c r="F89" t="n">
-        <v>1855.11893187871</v>
+        <v>1855.681143271631</v>
       </c>
       <c r="G89" t="n">
-        <v>2364.415877257658</v>
+        <v>2295.720366195575</v>
       </c>
       <c r="H89" t="n">
         <v>0.67</v>
       </c>
       <c r="I89" t="n">
-        <v>331668</v>
+        <v>328669</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20732447</v>
+        <v>21007840</v>
       </c>
       <c r="E90" t="n">
-        <v>20732447</v>
+        <v>21007840</v>
       </c>
       <c r="F90" t="n">
-        <v>4744.560972404379</v>
+        <v>5033.041433457316</v>
       </c>
       <c r="G90" t="n">
-        <v>3376.614521974773</v>
+        <v>4122.973674122079</v>
       </c>
       <c r="H90" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="I90" t="n">
-        <v>7096613</v>
+        <v>7139986</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3790474</v>
+        <v>3791865</v>
       </c>
       <c r="E91" t="n">
-        <v>8270766</v>
+        <v>8273801</v>
       </c>
       <c r="F91" t="n">
-        <v>1572.803560953883</v>
+        <v>1571.724798950364</v>
       </c>
       <c r="G91" t="n">
-        <v>3416.452792785002</v>
+        <v>3426.941271305494</v>
       </c>
       <c r="H91" t="n">
         <v>0.24</v>
       </c>
       <c r="I91" t="n">
-        <v>1074242</v>
+        <v>1081366</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>494462104</v>
+        <v>496096643</v>
       </c>
       <c r="E92" t="n">
-        <v>1722054655</v>
+        <v>1727747236</v>
       </c>
       <c r="F92" t="n">
-        <v>164295.461161709</v>
+        <v>168461.3269803046</v>
       </c>
       <c r="G92" t="n">
-        <v>169951.8914892718</v>
+        <v>180733.7788438031</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>31021777</v>
+        <v>31173330</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2631048</v>
+        <v>2654310</v>
       </c>
       <c r="E93" t="n">
-        <v>10524192</v>
+        <v>10617241</v>
       </c>
       <c r="F93" t="n">
-        <v>2682.392048348459</v>
+        <v>1772.58173886812</v>
       </c>
       <c r="G93" t="n">
-        <v>3012.514191251174</v>
+        <v>3791.397986422438</v>
       </c>
       <c r="H93" t="n">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="I93" t="n">
-        <v>6249867</v>
+        <v>6317778</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216736153</v>
+        <v>217113165</v>
       </c>
       <c r="E94" t="n">
-        <v>666382108</v>
+        <v>667541277</v>
       </c>
       <c r="F94" t="n">
-        <v>108994.2601266371</v>
+        <v>107348.6166798188</v>
       </c>
       <c r="G94" t="n">
-        <v>107202.1536046911</v>
+        <v>105426.3750739829</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>11697854</v>
+        <v>11677245</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>150520872</v>
+        <v>152022713</v>
       </c>
       <c r="E95" t="n">
-        <v>393231604</v>
+        <v>397155120</v>
       </c>
       <c r="F95" t="n">
-        <v>30089.04706848662</v>
+        <v>25410.29147609964</v>
       </c>
       <c r="G95" t="n">
-        <v>32785.89218683186</v>
+        <v>31910.52509124156</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I95" t="n">
-        <v>7811230</v>
+        <v>7806297</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>405189069</v>
+        <v>406141411</v>
       </c>
       <c r="E96" t="n">
-        <v>2315366109</v>
+        <v>2320808064</v>
       </c>
       <c r="F96" t="n">
-        <v>18406.64173915684</v>
+        <v>23502.92621440438</v>
       </c>
       <c r="G96" t="n">
-        <v>42407.68434789889</v>
+        <v>42054.94168281121</v>
       </c>
       <c r="H96" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I96" t="n">
-        <v>37112019</v>
+        <v>37146817</v>
       </c>
     </row>
   </sheetData>
